--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A18A48-BDA9-48A8-8E1A-669D49C838AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C7DA33-D57C-44C7-9A70-CB8C1C6BF772}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,20 +76,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>Exp, Gold, Heart, Gacha</t>
+  </si>
+  <si>
     <t>,,,11001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15,16,1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15,20,1,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -453,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,22 +509,39 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>5001</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D4" t="s">
         <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C7DA33-D57C-44C7-9A70-CB8C1C6BF772}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27040E4-A68B-4E46-8812-B1C622096423}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -30,68 +30,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>,,,11001</t>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+  </si>
+  <si>
+    <t>15,16,1,2</t>
+  </si>
+  <si>
+    <t>15,20,1,4</t>
+  </si>
   <si>
     <t>dropId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dropEnum|String!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>subValue|String!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>probability|float!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>minValue|float!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>maxValue|float!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nExp, nGold, nHeart, nEquip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2, 4, 5</t>
   </si>
   <si>
     <t>,,,10001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,1,0.1,0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10,12,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10,14,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heart</t>
-  </si>
-  <si>
-    <t>Exp, Gold, Heart, Gacha</t>
-  </si>
-  <si>
-    <t>,,,11001</t>
-  </si>
-  <si>
-    <t>1,1,1,1</t>
-  </si>
-  <si>
-    <t>15,16,1,2</t>
-  </si>
-  <si>
-    <t>15,20,1,4</t>
   </si>
 </sst>
 </file>
@@ -462,29 +445,29 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="6" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -492,27 +475,27 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
+      <c r="B3">
+        <v>4</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -529,19 +512,19 @@
         <v>5001</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27040E4-A68B-4E46-8812-B1C622096423}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA241EF-0C17-4E2C-85BB-7F8B4CDE6FD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="29040" windowHeight="13485" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>dropId|String</t>
   </si>
   <si>
-    <t>dropEnum|String!</t>
-  </si>
-  <si>
     <t>subValue|String!</t>
   </si>
   <si>
@@ -75,6 +72,10 @@
   </si>
   <si>
     <t>10,14,1,1</t>
+  </si>
+  <si>
+    <t>dropEnum|Int!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -455,19 +456,19 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -475,19 +476,19 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -512,7 +513,7 @@
         <v>5001</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA241EF-0C17-4E2C-85BB-7F8B4CDE6FD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE23EA17-A7A1-4CA3-B827-6939AB3D2217}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="29040" windowHeight="13485" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -32,18 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
-    <t>,,,11001</t>
-  </si>
-  <si>
-    <t>1,1,1,1</t>
-  </si>
-  <si>
-    <t>15,16,1,2</t>
-  </si>
-  <si>
-    <t>15,20,1,4</t>
-  </si>
-  <si>
     <t>dropId|String</t>
   </si>
   <si>
@@ -62,20 +50,31 @@
     <t>1, 2, 4, 5</t>
   </si>
   <si>
-    <t>,,,10001</t>
-  </si>
-  <si>
-    <t>1,1,0.1,0.05</t>
-  </si>
-  <si>
-    <t>10,12,1,1</t>
-  </si>
-  <si>
-    <t>10,14,1,1</t>
-  </si>
-  <si>
     <t>dropEnum|Int!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, , , 10001</t>
+  </si>
+  <si>
+    <t>1, 1, 0.1, 0.05</t>
+  </si>
+  <si>
+    <t>10, 12, 1, 1</t>
+  </si>
+  <si>
+    <t>10, 14, 1, 1</t>
+  </si>
+  <si>
+    <t>, , , 50001</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>15, 16, 1, 2</t>
+  </si>
+  <si>
+    <t>15, 20, 1, 4</t>
   </si>
 </sst>
 </file>
@@ -453,22 +452,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -476,19 +475,19 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -513,19 +512,19 @@
         <v>5001</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE23EA17-A7A1-4CA3-B827-6939AB3D2217}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3688778-3CEF-429A-B542-9F0DCADAA0ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -438,9 +439,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -509,21 +512,41 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>10001</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>5001</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3688778-3CEF-429A-B542-9F0DCADAA0ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F2B75C-A4E9-4C1A-AC54-A0E7048C2116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
+    <sheet name="DropAdjustTable" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>dropId|String</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>15, 20, 1, 4</t>
+  </si>
+  <si>
+    <t>adjust|Float</t>
+  </si>
+  <si>
+    <t>remainCount|Int</t>
   </si>
 </sst>
 </file>
@@ -441,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -554,4 +560,93 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95496432-33DA-42B2-89B9-85A406D14402}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F2B75C-A4E9-4C1A-AC54-A0E7048C2116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA78BA5-F79B-432A-942B-744340AFD055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>dropId|String</t>
   </si>
@@ -66,22 +67,25 @@
     <t>10, 14, 1, 1</t>
   </si>
   <si>
-    <t>, , , 50001</t>
-  </si>
-  <si>
-    <t>1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>15, 16, 1, 2</t>
-  </si>
-  <si>
-    <t>15, 20, 1, 4</t>
-  </si>
-  <si>
     <t>adjust|Float</t>
   </si>
   <si>
     <t>remainCount|Int</t>
+  </si>
+  <si>
+    <t>1, 2, 4, 5, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, , , 50001, </t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>15, 16, 1, 2, 1</t>
+  </si>
+  <si>
+    <t>15, 20, 1, 4, 1</t>
   </si>
 </sst>
 </file>
@@ -447,9 +451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -541,19 +543,19 @@
         <v>5001</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -566,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95496432-33DA-42B2-89B9-85A406D14402}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -575,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA78BA5-F79B-432A-942B-744340AFD055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EEBE69-B34A-47F2-BDE0-7F56905AA813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>maxValue|float!</t>
   </si>
   <si>
-    <t>1, 2, 4, 5</t>
-  </si>
-  <si>
     <t>dropEnum|Int!</t>
   </si>
   <si>
@@ -61,31 +58,34 @@
     <t>1, 1, 0.1, 0.05</t>
   </si>
   <si>
-    <t>10, 12, 1, 1</t>
-  </si>
-  <si>
-    <t>10, 14, 1, 1</t>
-  </si>
-  <si>
     <t>adjust|Float</t>
   </si>
   <si>
     <t>remainCount|Int</t>
   </si>
   <si>
-    <t>1, 2, 4, 5, 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">, , , 50001, </t>
   </si>
   <si>
     <t>1, 1, 1, 1, 1</t>
   </si>
   <si>
-    <t>15, 16, 1, 2, 1</t>
-  </si>
-  <si>
-    <t>15, 20, 1, 4, 1</t>
+    <t>2, 1, 4, 5</t>
+  </si>
+  <si>
+    <t>12, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>14, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>2, 1, 4, 5, 3</t>
+  </si>
+  <si>
+    <t>16, 96, 1, 2, 1</t>
+  </si>
+  <si>
+    <t>20, 96, 1, 4, 1</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -486,19 +486,19 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -543,13 +543,13 @@
         <v>5001</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -577,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EEBE69-B34A-47F2-BDE0-7F56905AA813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF56F0CF-031D-4673-BE93-D046144CA4E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>dropId|String</t>
   </si>
@@ -55,21 +55,12 @@
     <t>, , , 10001</t>
   </si>
   <si>
-    <t>1, 1, 0.1, 0.05</t>
-  </si>
-  <si>
     <t>adjust|Float</t>
   </si>
   <si>
     <t>remainCount|Int</t>
   </si>
   <si>
-    <t xml:space="preserve">, , , 50001, </t>
-  </si>
-  <si>
-    <t>1, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>2, 1, 4, 5</t>
   </si>
   <si>
@@ -79,13 +70,37 @@
     <t>14, 5, 1, 1</t>
   </si>
   <si>
-    <t>2, 1, 4, 5, 3</t>
-  </si>
-  <si>
-    <t>16, 96, 1, 2, 1</t>
-  </si>
-  <si>
-    <t>20, 96, 1, 4, 1</t>
+    <t>1, 1, 0.1, 0.001</t>
+  </si>
+  <si>
+    <t>2, 1, 4, 3, 5, 5</t>
+  </si>
+  <si>
+    <t>, , , 50001, 50001, 50001</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 0.25, 0.025</t>
+  </si>
+  <si>
+    <t>16, 75, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>20, 75, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>2, 5, 5, 5</t>
+  </si>
+  <si>
+    <t>, 50001, 50001, 50001</t>
+  </si>
+  <si>
+    <t>1, 0.5, 0.1, 0.05</t>
+  </si>
+  <si>
+    <t>16, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>20, 1, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,19 +501,19 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -543,19 +558,39 @@
         <v>5001</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -577,10 +612,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF56F0CF-031D-4673-BE93-D046144CA4E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FDDC22-5919-48DD-95CF-532554599DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>14, 5, 1, 1</t>
   </si>
   <si>
-    <t>1, 1, 0.1, 0.001</t>
-  </si>
-  <si>
     <t>2, 1, 4, 3, 5, 5</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t>20, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1, 1, 0.075, 0.001</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -558,19 +558,19 @@
         <v>5001</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -578,19 +578,19 @@
         <v>5002</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FDDC22-5919-48DD-95CF-532554599DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB1408B-3451-4B09-805A-708AA7B81CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>dropId|String</t>
   </si>
@@ -79,12 +79,6 @@
     <t>1, 1, 1, 1, 0.25, 0.025</t>
   </si>
   <si>
-    <t>16, 75, 2, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>20, 75, 2, 1, 1, 1</t>
-  </si>
-  <si>
     <t>2, 5, 5, 5</t>
   </si>
   <si>
@@ -101,6 +95,30 @@
   </si>
   <si>
     <t>1, 1, 0.075, 0.001</t>
+  </si>
+  <si>
+    <t>16, 100, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>20, 100, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>16, 200, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>20, 200, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>16, 300, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>20, 300, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>16, 400, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>20, 400, 2, 1, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -464,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,7 +525,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -567,10 +585,10 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -578,19 +596,79 @@
         <v>5002</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F9" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB1408B-3451-4B09-805A-708AA7B81CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F413CA54-FFCF-4F1F-866E-C821F6608456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="1425" yWindow="1965" windowWidth="15585" windowHeight="12855" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>dropId|String</t>
   </si>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>20, 400, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1, 1, 0.05625, 0.001</t>
+  </si>
+  <si>
+    <t>1, 1, 0.05, 0.001</t>
+  </si>
+  <si>
+    <t>1, 1, 0.046875, 0.001</t>
+  </si>
+  <si>
+    <t>1, 1, 0.045, 0.001</t>
   </si>
 </sst>
 </file>
@@ -482,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,136 +550,216 @@
       <c r="A3">
         <v>1002</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>10001</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5001</v>
+        <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5002</v>
+        <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5003</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
+        <v>2001</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5004</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
+        <v>3001</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>10001</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>5001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>6001</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F13" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F413CA54-FFCF-4F1F-866E-C821F6608456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7AB7CD-EDE1-40F6-A7B4-58C751A63E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1965" windowWidth="15585" windowHeight="12855" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -121,16 +121,16 @@
     <t>20, 400, 2, 1, 1, 1</t>
   </si>
   <si>
-    <t>1, 1, 0.05625, 0.001</t>
-  </si>
-  <si>
-    <t>1, 1, 0.05, 0.001</t>
-  </si>
-  <si>
-    <t>1, 1, 0.046875, 0.001</t>
-  </si>
-  <si>
-    <t>1, 1, 0.045, 0.001</t>
+    <t>1, 1, 0.0375, 0.001</t>
+  </si>
+  <si>
+    <t>1, 1, 0.025, 0.001</t>
+  </si>
+  <si>
+    <t>1, 1, 0.01875, 0.001</t>
+  </si>
+  <si>
+    <t>1, 1, 0.015, 0.001</t>
   </si>
 </sst>
 </file>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7AB7CD-EDE1-40F6-A7B4-58C751A63E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F44B33-797F-419A-B38A-4CB3555DB52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -94,9 +94,6 @@
     <t>20, 1, 1, 1</t>
   </si>
   <si>
-    <t>1, 1, 0.075, 0.001</t>
-  </si>
-  <si>
     <t>16, 100, 2, 1, 1, 1</t>
   </si>
   <si>
@@ -121,16 +118,19 @@
     <t>20, 400, 2, 1, 1, 1</t>
   </si>
   <si>
-    <t>1, 1, 0.0375, 0.001</t>
-  </si>
-  <si>
-    <t>1, 1, 0.025, 0.001</t>
-  </si>
-  <si>
-    <t>1, 1, 0.01875, 0.001</t>
-  </si>
-  <si>
-    <t>1, 1, 0.015, 0.001</t>
+    <t>1, 1, 0.09, 0.001</t>
+  </si>
+  <si>
+    <t>1, 1, 0.045, 0.001</t>
+  </si>
+  <si>
+    <t>1, 1, 0.03, 0.001</t>
+  </si>
+  <si>
+    <t>1, 1, 0.0225, 0.001</t>
+  </si>
+  <si>
+    <t>1, 1, 0.018, 0.001</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -677,10 +677,10 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
         <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -697,10 +697,10 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
         <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -717,10 +717,10 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
         <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -737,10 +737,10 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
         <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F44B33-797F-419A-B38A-4CB3555DB52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8431963A-6172-4C17-875E-A73AFFB7A0FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -118,19 +118,19 @@
     <t>20, 400, 2, 1, 1, 1</t>
   </si>
   <si>
-    <t>1, 1, 0.09, 0.001</t>
-  </si>
-  <si>
-    <t>1, 1, 0.045, 0.001</t>
-  </si>
-  <si>
-    <t>1, 1, 0.03, 0.001</t>
-  </si>
-  <si>
-    <t>1, 1, 0.0225, 0.001</t>
-  </si>
-  <si>
-    <t>1, 1, 0.018, 0.001</t>
+    <t>1, 1, 0.075, 0.001</t>
+  </si>
+  <si>
+    <t>1, 1, 0.041, 0.001</t>
+  </si>
+  <si>
+    <t>1, 1, 0.0296666666666667, 0.001</t>
+  </si>
+  <si>
+    <t>1, 1, 0.024, 0.001</t>
+  </si>
+  <si>
+    <t>1, 1, 0.0206, 0.001</t>
   </si>
 </sst>
 </file>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8431963A-6172-4C17-875E-A73AFFB7A0FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88666F9C-71D0-41F1-A88A-456A99A86A5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>dropId|String</t>
   </si>
@@ -64,12 +64,6 @@
     <t>2, 1, 4, 5</t>
   </si>
   <si>
-    <t>12, 5, 1, 1</t>
-  </si>
-  <si>
-    <t>14, 5, 1, 1</t>
-  </si>
-  <si>
     <t>2, 1, 4, 3, 5, 5</t>
   </si>
   <si>
@@ -88,49 +82,97 @@
     <t>1, 0.5, 0.1, 0.05</t>
   </si>
   <si>
-    <t>16, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>20, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>16, 100, 2, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>20, 100, 2, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>16, 200, 2, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>20, 200, 2, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>16, 300, 2, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>20, 300, 2, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>16, 400, 2, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>20, 400, 2, 1, 1, 1</t>
-  </si>
-  <si>
     <t>1, 1, 0.075, 0.001</t>
   </si>
   <si>
-    <t>1, 1, 0.041, 0.001</t>
-  </si>
-  <si>
-    <t>1, 1, 0.0296666666666667, 0.001</t>
-  </si>
-  <si>
-    <t>1, 1, 0.024, 0.001</t>
-  </si>
-  <si>
-    <t>1, 1, 0.0206, 0.001</t>
+    <t>0.015, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.145, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.05, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.65, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.085, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.685, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.12, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.72, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.155, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.755, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.015, 100, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.145, 100, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.05, 100, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.65, 100, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.085, 100, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.685, 100, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.12, 100, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.72, 100, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.155, 100, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.755, 100, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.015, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.145, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.05, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.65, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.085, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.685, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.12, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.72, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.155, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.755, 1, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -494,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +570,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -537,18 +579,18 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -557,18 +599,18 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -577,18 +619,18 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -597,18 +639,18 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -617,130 +659,133 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2001</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
+        <v>5000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3001</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>10001</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
+        <v>5001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5001</v>
+        <v>5002</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5002</v>
+        <v>5003</v>
       </c>
       <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>5003</v>
+        <v>5004</v>
       </c>
       <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5004</v>
+        <v>6000</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -748,19 +793,79 @@
         <v>6001</v>
       </c>
       <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>6003</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6004</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88666F9C-71D0-41F1-A88A-456A99A86A5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257159FA-1CEC-48D3-8598-E4E7C7C39DFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -64,24 +64,9 @@
     <t>2, 1, 4, 5</t>
   </si>
   <si>
-    <t>2, 1, 4, 3, 5, 5</t>
-  </si>
-  <si>
     <t>, , , 50001, 50001, 50001</t>
   </si>
   <si>
-    <t>1, 1, 1, 1, 0.25, 0.025</t>
-  </si>
-  <si>
-    <t>2, 5, 5, 5</t>
-  </si>
-  <si>
-    <t>, 50001, 50001, 50001</t>
-  </si>
-  <si>
-    <t>1, 0.5, 0.1, 0.05</t>
-  </si>
-  <si>
     <t>1, 1, 0.075, 0.001</t>
   </si>
   <si>
@@ -115,64 +100,79 @@
     <t>0.755, 5, 1, 1</t>
   </si>
   <si>
-    <t>0.015, 100, 2, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.145, 100, 2, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.05, 100, 2, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.65, 100, 2, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.085, 100, 2, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.685, 100, 2, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.12, 100, 2, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.72, 100, 2, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.155, 100, 2, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.755, 100, 2, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.015, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.145, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.05, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.65, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.085, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.685, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.12, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.72, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.155, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.755, 1, 1, 1</t>
+    <t>2, 1, 4, 3, 7, 7, 5, 5</t>
+  </si>
+  <si>
+    <t>, , , 50001, , , 50001, 50001</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</t>
+  </si>
+  <si>
+    <t>0.015, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.145, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.05, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.65, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.085, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.685, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.12, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.72, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.155, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.755, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>2, 7, 7, 5, 5, 5</t>
+  </si>
+  <si>
+    <t>1, 0.7, 0.1, 0.5, 0.1, 0.05</t>
+  </si>
+  <si>
+    <t>0.015, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.145, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.05, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.65, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.085, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.685, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.12, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.72, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.155, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.755, 1, 1, 1, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -579,13 +579,13 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -599,13 +599,13 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -619,13 +619,13 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -639,13 +639,13 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -659,13 +659,13 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -673,19 +673,19 @@
         <v>5000</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -693,19 +693,19 @@
         <v>5001</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -713,19 +713,19 @@
         <v>5002</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -733,19 +733,19 @@
         <v>5003</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -753,19 +753,19 @@
         <v>5004</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -773,13 +773,13 @@
         <v>6000</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
         <v>37</v>
@@ -793,13 +793,13 @@
         <v>6001</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
@@ -813,13 +813,13 @@
         <v>6002</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
@@ -833,13 +833,13 @@
         <v>6003</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
@@ -853,13 +853,13 @@
         <v>6004</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257159FA-1CEC-48D3-8598-E4E7C7C39DFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB2B113-A029-486C-85F6-BB668FA21F75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>dropId|String</t>
   </si>
@@ -70,18 +70,6 @@
     <t>1, 1, 0.075, 0.001</t>
   </si>
   <si>
-    <t>0.015, 5, 1, 1</t>
-  </si>
-  <si>
-    <t>0.145, 5, 1, 1</t>
-  </si>
-  <si>
-    <t>0.05, 5, 1, 1</t>
-  </si>
-  <si>
-    <t>0.65, 5, 1, 1</t>
-  </si>
-  <si>
     <t>0.085, 5, 1, 1</t>
   </si>
   <si>
@@ -109,18 +97,6 @@
     <t>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</t>
   </si>
   <si>
-    <t>0.015, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.145, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.05, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.65, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>0.085, 100, 2, 1, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -145,18 +121,6 @@
     <t>1, 0.7, 0.1, 0.5, 0.1, 0.05</t>
   </si>
   <si>
-    <t>0.015, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.145, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.05, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.65, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>0.085, 1, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -173,6 +137,69 @@
   </si>
   <si>
     <t>0.755, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>2, 1, 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, , </t>
+  </si>
+  <si>
+    <t>1, 1, 0.075</t>
+  </si>
+  <si>
+    <t>0.015, 5, 1</t>
+  </si>
+  <si>
+    <t>0.145, 5, 1</t>
+  </si>
+  <si>
+    <t>0.05, 5, 1</t>
+  </si>
+  <si>
+    <t>0.65, 5, 1</t>
+  </si>
+  <si>
+    <t>2, 1, 4, 3</t>
+  </si>
+  <si>
+    <t>, , , 50001</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.015, 100, 2, 1</t>
+  </si>
+  <si>
+    <t>0.145, 100, 2, 1</t>
+  </si>
+  <si>
+    <t>2, 1, 4, 3, 7, 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, , , 50001, , </t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 0.7, 0.1</t>
+  </si>
+  <si>
+    <t>0.05, 100, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.65, 100, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>2, 7, 7</t>
+  </si>
+  <si>
+    <t>1, 0.7, 0.1</t>
+  </si>
+  <si>
+    <t>0.05, 1, 1</t>
+  </si>
+  <si>
+    <t>0.65, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -538,7 +565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -573,19 +602,19 @@
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -593,19 +622,19 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -622,10 +651,10 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -642,10 +671,10 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -662,10 +691,10 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -673,19 +702,19 @@
         <v>5000</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -693,19 +722,19 @@
         <v>5001</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -713,19 +742,19 @@
         <v>5002</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -733,19 +762,19 @@
         <v>5003</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -753,39 +782,36 @@
         <v>5004</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6000</v>
       </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -793,19 +819,19 @@
         <v>6001</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -813,19 +839,19 @@
         <v>6002</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -833,19 +859,19 @@
         <v>6003</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -853,19 +879,19 @@
         <v>6004</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB2B113-A029-486C-85F6-BB668FA21F75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFB70B9-1491-4D3C-BA3A-5CEA389D06B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -563,11 +563,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -599,27 +597,24 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1000</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
+        <v>9752476</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>42</v>
+      </c>
+      <c r="F2">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
@@ -631,35 +626,35 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -671,15 +666,15 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -691,75 +686,75 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5000</v>
+        <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -771,15 +766,15 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -791,72 +786,72 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>6000</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F12">
-        <v>0.14499999999999999</v>
+        <v>5004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>6001</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
+        <v>6000</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
@@ -868,15 +863,15 @@
         <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -888,9 +883,29 @@
         <v>28</v>
       </c>
       <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6004</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
         <v>33</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFB70B9-1491-4D3C-BA3A-5CEA389D06B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F2C241-BB13-42CE-A57B-5CE5CD37816E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
-    <sheet name="DropAdjustTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>dropId|String</t>
   </si>
@@ -52,154 +51,148 @@
     <t>dropEnum|Int!</t>
   </si>
   <si>
-    <t>, , , 10001</t>
-  </si>
-  <si>
-    <t>adjust|Float</t>
-  </si>
-  <si>
-    <t>remainCount|Int</t>
-  </si>
-  <si>
     <t>2, 1, 4, 5</t>
   </si>
   <si>
-    <t>, , , 50001, 50001, 50001</t>
-  </si>
-  <si>
     <t>1, 1, 0.075, 0.001</t>
   </si>
   <si>
+    <t>0.12, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.72, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.155, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.755, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>2, 1, 4, 3, 7, 7, 5, 5</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</t>
+  </si>
+  <si>
+    <t>0.085, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.685, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.12, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.72, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.155, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.755, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>2, 7, 7, 5, 5, 5</t>
+  </si>
+  <si>
+    <t>1, 0.7, 0.1, 0.5, 0.1, 0.05</t>
+  </si>
+  <si>
+    <t>0.085, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.685, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.12, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.72, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.155, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.755, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>2, 1, 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, , </t>
+  </si>
+  <si>
+    <t>1, 1, 0.075</t>
+  </si>
+  <si>
+    <t>0.015, 5, 1</t>
+  </si>
+  <si>
+    <t>0.145, 5, 1</t>
+  </si>
+  <si>
+    <t>0.05, 5, 1</t>
+  </si>
+  <si>
+    <t>0.65, 5, 1</t>
+  </si>
+  <si>
+    <t>2, 1, 4, 3</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.015, 100, 2, 1</t>
+  </si>
+  <si>
+    <t>0.145, 100, 2, 1</t>
+  </si>
+  <si>
+    <t>2, 1, 4, 3, 7, 7</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 0.7, 0.1</t>
+  </si>
+  <si>
+    <t>0.05, 100, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.65, 100, 2, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>2, 7, 7</t>
+  </si>
+  <si>
+    <t>1, 0.7, 0.1</t>
+  </si>
+  <si>
+    <t>0.05, 1, 1</t>
+  </si>
+  <si>
+    <t>0.65, 1, 1</t>
+  </si>
+  <si>
+    <t>, , , e</t>
+  </si>
+  <si>
     <t>0.085, 5, 1, 1</t>
   </si>
   <si>
     <t>0.685, 5, 1, 1</t>
   </si>
   <si>
-    <t>0.12, 5, 1, 1</t>
-  </si>
-  <si>
-    <t>0.72, 5, 1, 1</t>
-  </si>
-  <si>
-    <t>0.155, 5, 1, 1</t>
-  </si>
-  <si>
-    <t>0.755, 5, 1, 1</t>
-  </si>
-  <si>
-    <t>2, 1, 4, 3, 7, 7, 5, 5</t>
-  </si>
-  <si>
-    <t>, , , 50001, , , 50001, 50001</t>
-  </si>
-  <si>
-    <t>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</t>
-  </si>
-  <si>
-    <t>0.085, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.685, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.12, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.72, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.155, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.755, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>2, 7, 7, 5, 5, 5</t>
-  </si>
-  <si>
-    <t>1, 0.7, 0.1, 0.5, 0.1, 0.05</t>
-  </si>
-  <si>
-    <t>0.085, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.685, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.12, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.72, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.155, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.755, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>2, 1, 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, , </t>
-  </si>
-  <si>
-    <t>1, 1, 0.075</t>
-  </si>
-  <si>
-    <t>0.015, 5, 1</t>
-  </si>
-  <si>
-    <t>0.145, 5, 1</t>
-  </si>
-  <si>
-    <t>0.05, 5, 1</t>
-  </si>
-  <si>
-    <t>0.65, 5, 1</t>
-  </si>
-  <si>
-    <t>2, 1, 4, 3</t>
-  </si>
-  <si>
-    <t>, , , 50001</t>
-  </si>
-  <si>
-    <t>1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.015, 100, 2, 1</t>
-  </si>
-  <si>
-    <t>0.145, 100, 2, 1</t>
-  </si>
-  <si>
-    <t>2, 1, 4, 3, 7, 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, , , 50001, , </t>
-  </si>
-  <si>
-    <t>1, 1, 1, 1, 0.7, 0.1</t>
-  </si>
-  <si>
-    <t>0.05, 100, 2, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.65, 100, 2, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>2, 7, 7</t>
-  </si>
-  <si>
-    <t>1, 0.7, 0.1</t>
-  </si>
-  <si>
-    <t>0.05, 1, 1</t>
-  </si>
-  <si>
-    <t>0.65, 1, 1</t>
+    <t xml:space="preserve">, , , </t>
+  </si>
+  <si>
+    <t xml:space="preserve">, , , , , </t>
+  </si>
+  <si>
+    <t>, , , , , , e, e</t>
+  </si>
+  <si>
+    <t>, , , e, e, e</t>
   </si>
 </sst>
 </file>
@@ -617,19 +610,19 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -637,19 +630,19 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -657,19 +650,19 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -677,19 +670,19 @@
         <v>1003</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -697,19 +690,19 @@
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -717,19 +710,19 @@
         <v>5000</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -737,19 +730,19 @@
         <v>5001</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -757,19 +750,19 @@
         <v>5002</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -777,19 +770,19 @@
         <v>5003</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -797,19 +790,19 @@
         <v>5004</v>
       </c>
       <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -834,19 +827,19 @@
         <v>6001</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -854,19 +847,19 @@
         <v>6002</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -874,19 +867,19 @@
         <v>6003</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -894,112 +887,24 @@
         <v>6004</v>
       </c>
       <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95496432-33DA-42B2-89B9-85A406D14402}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F2C241-BB13-42CE-A57B-5CE5CD37816E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5354B553-BB4C-49D8-9357-2574C1524DCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
+    <sheet name="NotCharTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
   <si>
     <t>dropId|String</t>
   </si>
@@ -193,6 +194,87 @@
   </si>
   <si>
     <t>, , , e, e, e</t>
+  </si>
+  <si>
+    <t>Wkdql</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Wkdwkdql</t>
+  </si>
+  <si>
+    <t>5, 5, 5, 5, 5, 5, 5, 5</t>
+  </si>
+  <si>
+    <t>g, g, g, g, g, g, g, g</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>Zoflr</t>
+  </si>
+  <si>
+    <t>2, 10, 8, 9</t>
+  </si>
+  <si>
+    <t>, 2, , s</t>
+  </si>
+  <si>
+    <t>1, 1, 0.66, 0.05</t>
+  </si>
+  <si>
+    <t>2800, 15, 1, 1</t>
+  </si>
+  <si>
+    <t>3200, 25, 3, 1</t>
+  </si>
+  <si>
+    <t>Zoflrflr</t>
+  </si>
+  <si>
+    <t>2, 10, 8, 9, 9, 9</t>
+  </si>
+  <si>
+    <t>, 3, , s, s, s</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 0.05, 0.05, 0.05</t>
+  </si>
+  <si>
+    <t>8400, 35, 6, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>9600, 45, 12, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>Zozoflr</t>
+  </si>
+  <si>
+    <t>2, 10, 8, 9, 9, 9, 9, 9, 9</t>
+  </si>
+  <si>
+    <t>, 5, , s, s, s, s, s, s</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 0.05, 0.05, 0.05, 0.05, 0.05, 0.05</t>
+  </si>
+  <si>
+    <t>1, 45, 10, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1, 55, 20, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>accumulateMin|Int</t>
+  </si>
+  <si>
+    <t>accumulateMax|Int</t>
+  </si>
+  <si>
+    <t>adjustProb|Float</t>
   </si>
 </sst>
 </file>
@@ -556,9 +638,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -902,9 +984,227 @@
         <v>27</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC24F54A-7C76-46A6-B550-1FB1A4C7C121}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>999999999</v>
+      </c>
+      <c r="C9">
+        <v>1.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5354B553-BB4C-49D8-9357-2574C1524DCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91801122-D1B5-4503-8CDE-9FBFD55BAD5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
   <si>
     <t>dropId|String</t>
   </si>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t>accumulateMin|Int</t>
-  </si>
-  <si>
-    <t>accumulateMax|Int</t>
   </si>
   <si>
     <t>adjustProb|Float</t>
@@ -1093,7 +1090,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC24F54A-7C76-46A6-B550-1FB1A4C7C121}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1101,105 +1098,78 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>78</v>
       </c>
       <c r="B1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
       <c r="B3">
-        <v>19</v>
-      </c>
-      <c r="C3">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20</v>
       </c>
       <c r="B4">
-        <v>29</v>
-      </c>
-      <c r="C4">
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>30</v>
       </c>
       <c r="B5">
-        <v>39</v>
-      </c>
-      <c r="C5">
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>40</v>
       </c>
       <c r="B6">
-        <v>49</v>
-      </c>
-      <c r="C6">
         <v>1.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50</v>
       </c>
       <c r="B7">
-        <v>59</v>
-      </c>
-      <c r="C7">
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>60</v>
       </c>
       <c r="B8">
-        <v>69</v>
-      </c>
-      <c r="C8">
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>70</v>
       </c>
       <c r="B9">
-        <v>999999999</v>
-      </c>
-      <c r="C9">
         <v>1.7</v>
       </c>
     </row>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91801122-D1B5-4503-8CDE-9FBFD55BAD5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB36FF5-AA14-4D8F-BADE-7B46CFFBDB11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -217,30 +217,12 @@
     <t>Zoflr</t>
   </si>
   <si>
-    <t>2, 10, 8, 9</t>
-  </si>
-  <si>
-    <t>, 2, , s</t>
-  </si>
-  <si>
-    <t>1, 1, 0.66, 0.05</t>
-  </si>
-  <si>
-    <t>2800, 15, 1, 1</t>
-  </si>
-  <si>
-    <t>3200, 25, 3, 1</t>
-  </si>
-  <si>
     <t>Zoflrflr</t>
   </si>
   <si>
     <t>2, 10, 8, 9, 9, 9</t>
   </si>
   <si>
-    <t>, 3, , s, s, s</t>
-  </si>
-  <si>
     <t>1, 1, 1, 0.05, 0.05, 0.05</t>
   </si>
   <si>
@@ -256,9 +238,6 @@
     <t>2, 10, 8, 9, 9, 9, 9, 9, 9</t>
   </si>
   <si>
-    <t>, 5, , s, s, s, s, s, s</t>
-  </si>
-  <si>
     <t>1, 1, 1, 0.05, 0.05, 0.05, 0.05, 0.05, 0.05</t>
   </si>
   <si>
@@ -272,6 +251,27 @@
   </si>
   <si>
     <t>adjustProb|Float</t>
+  </si>
+  <si>
+    <t>2, 2, 10, 10, 8, 9</t>
+  </si>
+  <si>
+    <t>, , , , , s</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 0.66, 0.5</t>
+  </si>
+  <si>
+    <t>1400, 1400, 15, 15, 1, 1</t>
+  </si>
+  <si>
+    <t>1600, 1600, 25, 25, 3, 1</t>
+  </si>
+  <si>
+    <t>, , , s, s, s</t>
+  </si>
+  <si>
+    <t>, , , s, s, s, s, s, s</t>
   </si>
 </sst>
 </file>
@@ -637,7 +637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1026,59 +1028,59 @@
         <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1092,7 +1094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC24F54A-7C76-46A6-B550-1FB1A4C7C121}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1103,10 +1105,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB36FF5-AA14-4D8F-BADE-7B46CFFBDB11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9C75A6-C98E-43AE-8746-DE9AA0C6D212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>dropId|String</t>
   </si>
@@ -220,58 +220,40 @@
     <t>Zoflrflr</t>
   </si>
   <si>
-    <t>2, 10, 8, 9, 9, 9</t>
-  </si>
-  <si>
-    <t>1, 1, 1, 0.05, 0.05, 0.05</t>
-  </si>
-  <si>
-    <t>8400, 35, 6, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>9600, 45, 12, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>Zozoflr</t>
-  </si>
-  <si>
-    <t>2, 10, 8, 9, 9, 9, 9, 9, 9</t>
-  </si>
-  <si>
-    <t>1, 1, 1, 0.05, 0.05, 0.05, 0.05, 0.05, 0.05</t>
-  </si>
-  <si>
-    <t>1, 45, 10, 1, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1, 55, 20, 1, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>accumulateMin|Int</t>
   </si>
   <si>
     <t>adjustProb|Float</t>
   </si>
   <si>
-    <t>2, 2, 10, 10, 8, 9</t>
-  </si>
-  <si>
-    <t>, , , , , s</t>
-  </si>
-  <si>
-    <t>1, 1, 1, 1, 0.66, 0.5</t>
-  </si>
-  <si>
-    <t>1400, 1400, 15, 15, 1, 1</t>
-  </si>
-  <si>
-    <t>1600, 1600, 25, 25, 3, 1</t>
-  </si>
-  <si>
-    <t>, , , s, s, s</t>
-  </si>
-  <si>
-    <t>, , , s, s, s, s, s, s</t>
+    <t>2, 2, 8, 10, 10, 10, 10, 10, 9</t>
+  </si>
+  <si>
+    <t>, , , , , , , , s</t>
+  </si>
+  <si>
+    <t>1, 1, 0.66, 1, 1, 1, 1, 1, 0.05</t>
+  </si>
+  <si>
+    <t>1400, 1400, 1, 15, 15, 15, 15, 15, 1</t>
+  </si>
+  <si>
+    <t>1600, 1600, 3, 25, 25, 25, 25, 25, 1</t>
+  </si>
+  <si>
+    <t>10, 10, 10, 10, 10, 10, 9, 9</t>
+  </si>
+  <si>
+    <t>, , , , , , s, s</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 1, 0.05, 0.05</t>
+  </si>
+  <si>
+    <t>35, 35, 35, 35, 35, 35, 1, 1</t>
+  </si>
+  <si>
+    <t>45, 45, 45, 45, 45, 45, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -635,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1028,19 +1010,19 @@
         <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1048,39 +1030,19 @@
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1105,10 +1067,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9C75A6-C98E-43AE-8746-DE9AA0C6D212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ADD49B-5EF6-4921-8C17-3C8F7EB6FC81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t>dropId|String</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>45, 45, 45, 45, 45, 45, 1, 1</t>
+  </si>
+  <si>
+    <t>ShopGold</t>
+  </si>
+  <si>
+    <t>ShopDiamond</t>
   </si>
 </sst>
 </file>
@@ -617,11 +623,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1043,6 +1047,46 @@
       </c>
       <c r="F21" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>9999</v>
+      </c>
+      <c r="F22">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>9999</v>
+      </c>
+      <c r="F23">
+        <v>9999</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ADD49B-5EF6-4921-8C17-3C8F7EB6FC81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EEA475-A298-490D-A7AA-90DB9FDACD96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
   <si>
     <t>dropId|String</t>
   </si>
@@ -260,6 +260,84 @@
   </si>
   <si>
     <t>ShopDiamond</t>
+  </si>
+  <si>
+    <t>ShopGoldDia</t>
+  </si>
+  <si>
+    <t>8, 2</t>
+  </si>
+  <si>
+    <t>1, 1</t>
+  </si>
+  <si>
+    <t>9999, 9999</t>
+  </si>
+  <si>
+    <t>Wjstjfwkdqll</t>
+  </si>
+  <si>
+    <t>5, 5</t>
+  </si>
+  <si>
+    <t>o, o</t>
+  </si>
+  <si>
+    <t>Wjstjfwkdqlm</t>
+  </si>
+  <si>
+    <t>5, 5, 5</t>
+  </si>
+  <si>
+    <t>o, o, o</t>
+  </si>
+  <si>
+    <t>1, 1, 1</t>
+  </si>
+  <si>
+    <t>Wjstjfwkdqln</t>
+  </si>
+  <si>
+    <t>5, 5, 5, 5</t>
+  </si>
+  <si>
+    <t>o, o, o, o</t>
+  </si>
+  <si>
+    <t>Wjstjfwkdqlo</t>
+  </si>
+  <si>
+    <t>5, 5, 5, 5, 5</t>
+  </si>
+  <si>
+    <t>o, o, o, o, o</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>Wjstjfwkdqlp</t>
+  </si>
+  <si>
+    <t>5, 5, 5, 5, 5, 5</t>
+  </si>
+  <si>
+    <t>o, o, o, o, o, o</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>Wjstjfwkdqlq</t>
+  </si>
+  <si>
+    <t>5, 5, 5, 5, 5, 5, 5</t>
+  </si>
+  <si>
+    <t>o, o, o, o, o, o, o</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -623,9 +701,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1087,6 +1167,146 @@
       </c>
       <c r="F23">
         <v>9999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EEA475-A298-490D-A7AA-90DB9FDACD96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F187C76-ED84-4AE6-9C9F-66317961D7A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="103">
   <si>
     <t>dropId|String</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>1, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>DailyDiamond</t>
   </si>
 </sst>
 </file>
@@ -701,11 +704,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1191,121 +1192,141 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" t="s">
-        <v>78</v>
+        <v>102</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>9999</v>
+      </c>
+      <c r="F25">
+        <v>9999</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>98</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>99</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>100</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>101</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>101</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>101</v>
       </c>
     </row>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F187C76-ED84-4AE6-9C9F-66317961D7A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A48CE23-C43A-471F-A4F7-AFB97A84EB90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="107">
   <si>
     <t>dropId|String</t>
   </si>
@@ -341,6 +341,18 @@
   </si>
   <si>
     <t>DailyDiamond</t>
+  </si>
+  <si>
+    <t>Zoflredlfqks</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>Zoflrduddnd</t>
+  </si>
+  <si>
+    <t>u</t>
   </si>
 </sst>
 </file>
@@ -704,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1328,6 +1340,46 @@
       </c>
       <c r="F31" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A48CE23-C43A-471F-A4F7-AFB97A84EB90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3894E52-97E9-44AE-A03A-30F3E0859503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
   <si>
     <t>dropId|String</t>
   </si>
@@ -353,6 +353,24 @@
   </si>
   <si>
     <t>u</t>
+  </si>
+  <si>
+    <t>Dnvuswkdqlu</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Dnvuswkdqlv</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>Dnvuswkdqlw</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -716,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1379,6 +1397,66 @@
         <v>1</v>
       </c>
       <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
         <v>1</v>
       </c>
     </row>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3894E52-97E9-44AE-A03A-30F3E0859503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE04AE5B-D309-4AD3-BD49-3F2D4F0B4B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
   <si>
     <t>dropId|String</t>
   </si>
@@ -232,9 +232,6 @@
     <t>, , , , , , , , s</t>
   </si>
   <si>
-    <t>1, 1, 0.66, 1, 1, 1, 1, 1, 0.05</t>
-  </si>
-  <si>
     <t>1400, 1400, 1, 15, 15, 15, 15, 15, 1</t>
   </si>
   <si>
@@ -371,6 +368,21 @@
   </si>
   <si>
     <t>q</t>
+  </si>
+  <si>
+    <t>1, 1, 0.05, 1, 1, 1, 1, 1, 0.05</t>
+  </si>
+  <si>
+    <t>Zozoflr</t>
+  </si>
+  <si>
+    <t>1, 1, 0.3, 1, 1, 1, 1, 1, 0.05</t>
+  </si>
+  <si>
+    <t>2800, 2800, 1, 30, 30, 30, 30, 30, 1</t>
+  </si>
+  <si>
+    <t>3200, 3200, 3, 50, 50, 50, 50, 50, 1</t>
   </si>
 </sst>
 </file>
@@ -734,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1131,61 +1143,61 @@
         <v>65</v>
       </c>
       <c r="D20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" t="s">
         <v>66</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>67</v>
-      </c>
-      <c r="F20" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>9999</v>
-      </c>
-      <c r="F22">
-        <v>9999</v>
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1202,193 +1214,193 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>9999</v>
+      </c>
+      <c r="F24">
+        <v>9999</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>9999</v>
-      </c>
-      <c r="F25">
-        <v>9999</v>
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" t="s">
-        <v>78</v>
+        <v>101</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>9999</v>
+      </c>
+      <c r="F26">
+        <v>9999</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32">
-        <v>9</v>
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B33">
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1402,13 +1414,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1422,13 +1434,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B35">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1442,13 +1454,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1457,6 +1469,26 @@
         <v>1</v>
       </c>
       <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
         <v>1</v>
       </c>
     </row>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE04AE5B-D309-4AD3-BD49-3F2D4F0B4B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F0F247-57EC-439D-96C3-F733910491D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="116">
   <si>
     <t>dropId|String</t>
   </si>
@@ -232,9 +232,6 @@
     <t>, , , , , , , , s</t>
   </si>
   <si>
-    <t>1400, 1400, 1, 15, 15, 15, 15, 15, 1</t>
-  </si>
-  <si>
     <t>1600, 1600, 3, 25, 25, 25, 25, 25, 1</t>
   </si>
   <si>
@@ -370,19 +367,19 @@
     <t>q</t>
   </si>
   <si>
-    <t>1, 1, 0.05, 1, 1, 1, 1, 1, 0.05</t>
-  </si>
-  <si>
     <t>Zozoflr</t>
   </si>
   <si>
-    <t>1, 1, 0.3, 1, 1, 1, 1, 1, 0.05</t>
-  </si>
-  <si>
-    <t>2800, 2800, 1, 30, 30, 30, 30, 30, 1</t>
-  </si>
-  <si>
     <t>3200, 3200, 3, 50, 50, 50, 50, 50, 1</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 1, 1, 1, 0.05</t>
+  </si>
+  <si>
+    <t>1400, 1400, 3, 15, 15, 15, 15, 15, 1</t>
+  </si>
+  <si>
+    <t>2800, 2800, 3, 30, 30, 30, 30, 30, 1</t>
   </si>
 </sst>
 </file>
@@ -748,7 +745,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1143,18 +1142,18 @@
         <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" t="s">
         <v>66</v>
-      </c>
-      <c r="F20" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -1163,13 +1162,13 @@
         <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
         <v>115</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1177,24 +1176,24 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
         <v>68</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>69</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>70</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>71</v>
-      </c>
-      <c r="F22" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1214,7 +1213,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -1234,27 +1233,27 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
         <v>75</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
         <v>77</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>77</v>
-      </c>
-      <c r="E25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -1274,53 +1273,53 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
         <v>79</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>80</v>
       </c>
-      <c r="C27" t="s">
-        <v>81</v>
-      </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
         <v>82</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>83</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>84</v>
       </c>
-      <c r="D28" t="s">
-        <v>85</v>
-      </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
         <v>86</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>87</v>
-      </c>
-      <c r="C29" t="s">
-        <v>88</v>
       </c>
       <c r="D29" t="s">
         <v>36</v>
@@ -1334,73 +1333,73 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
         <v>89</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>90</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>91</v>
       </c>
-      <c r="D30" t="s">
-        <v>92</v>
-      </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
         <v>93</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>94</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>95</v>
       </c>
-      <c r="D31" t="s">
-        <v>96</v>
-      </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
         <v>97</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>98</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>99</v>
       </c>
-      <c r="D32" t="s">
-        <v>100</v>
-      </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33">
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1414,13 +1413,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34">
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1434,13 +1433,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1454,13 +1453,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1474,13 +1473,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37">
         <v>1</v>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F0F247-57EC-439D-96C3-F733910491D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E067558E-8BEE-450C-9795-9A4CB993C7D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
   <si>
     <t>dropId|String</t>
   </si>
@@ -380,6 +380,27 @@
   </si>
   <si>
     <t>2800, 2800, 3, 30, 30, 30, 30, 30, 1</t>
+  </si>
+  <si>
+    <t>Shemwkdt</t>
+  </si>
+  <si>
+    <t>Shemwkdu</t>
+  </si>
+  <si>
+    <t>g, g</t>
+  </si>
+  <si>
+    <t>Shemwkdv</t>
+  </si>
+  <si>
+    <t>g, g, g</t>
+  </si>
+  <si>
+    <t>Shemwkdw</t>
+  </si>
+  <si>
+    <t>g, g, g, g</t>
   </si>
 </sst>
 </file>
@@ -743,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1489,6 +1510,86 @@
       </c>
       <c r="F37">
         <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E067558E-8BEE-450C-9795-9A4CB993C7D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7973949-FF1C-4C65-B190-022F99511475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="123">
   <si>
     <t>dropId|String</t>
   </si>
@@ -764,11 +764,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -917,67 +915,67 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5000</v>
+        <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -989,15 +987,15 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1009,92 +1007,92 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>6000</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F13">
-        <v>0.14499999999999999</v>
+        <v>5004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>6001</v>
+        <v>5005</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>6002</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>23</v>
+        <v>6000</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>6003</v>
+        <v>6001</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>6004</v>
+        <v>6002</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -1106,178 +1104,178 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>6003</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>6004</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>60</v>
+      <c r="A20">
+        <v>6005</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" t="s">
-        <v>112</v>
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>9999</v>
-      </c>
-      <c r="F23">
-        <v>9999</v>
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24">
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>9999</v>
-      </c>
-      <c r="F24">
-        <v>9999</v>
+        <v>111</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1294,193 +1292,193 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>9999</v>
+      </c>
+      <c r="F27">
+        <v>9999</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" t="s">
-        <v>36</v>
+        <v>100</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>9999</v>
+      </c>
+      <c r="F29">
+        <v>9999</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33">
-        <v>9</v>
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34">
-        <v>9</v>
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="D35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1494,13 +1492,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1514,13 +1512,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1534,61 +1532,121 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" t="s">
-        <v>79</v>
+        <v>107</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
+        <v>108</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>119</v>
-      </c>
-      <c r="B40" t="s">
-        <v>82</v>
+        <v>109</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" t="s">
-        <v>84</v>
+        <v>110</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>121</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B44" t="s">
         <v>86</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C44" t="s">
         <v>122</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D44" t="s">
         <v>36</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E44" t="s">
         <v>36</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F44" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7973949-FF1C-4C65-B190-022F99511475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6702B1-3FE0-4867-A0E9-C93486556845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="123">
   <si>
     <t>dropId|String</t>
   </si>
@@ -764,9 +764,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -935,67 +937,67 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5000</v>
+        <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1007,15 +1009,15 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1027,15 +1029,15 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1055,84 +1057,84 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>6000</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F15">
-        <v>0.14499999999999999</v>
+        <v>5005</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>6001</v>
+        <v>5006</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>6002</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
+        <v>6000</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>6003</v>
+        <v>6001</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>6004</v>
+        <v>6002</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1144,15 +1146,15 @@
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>6005</v>
+        <v>6003</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1164,178 +1166,178 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>6004</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
         <v>26</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>56</v>
+      <c r="A22">
+        <v>6005</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>60</v>
+      <c r="A23">
+        <v>6006</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" t="s">
-        <v>112</v>
+        <v>55</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>9999</v>
-      </c>
-      <c r="F26">
-        <v>9999</v>
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27">
-        <v>8</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>9999</v>
-      </c>
-      <c r="F27">
-        <v>9999</v>
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1352,193 +1354,193 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>9999</v>
+      </c>
+      <c r="F30">
+        <v>9999</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" t="s">
-        <v>36</v>
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>9999</v>
+      </c>
+      <c r="F32">
+        <v>9999</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E34" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36">
-        <v>9</v>
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37">
-        <v>9</v>
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38">
-        <v>5</v>
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1552,13 +1554,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1572,13 +1574,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1592,61 +1594,121 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" t="s">
-        <v>79</v>
+        <v>107</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" t="s">
-        <v>76</v>
+        <v>108</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" t="s">
-        <v>82</v>
+        <v>109</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
+        <v>110</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>121</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B47" t="s">
         <v>86</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C47" t="s">
         <v>122</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D47" t="s">
         <v>36</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E47" t="s">
         <v>36</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F47" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6702B1-3FE0-4867-A0E9-C93486556845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB7311F-FF36-433F-AEE2-4AB6260804A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="147">
   <si>
     <t>dropId|String</t>
   </si>
@@ -401,6 +401,78 @@
   </si>
   <si>
     <t>g, g, g, g</t>
+  </si>
+  <si>
+    <t>c1000</t>
+  </si>
+  <si>
+    <t>c1001</t>
+  </si>
+  <si>
+    <t>c1002</t>
+  </si>
+  <si>
+    <t>c1003</t>
+  </si>
+  <si>
+    <t>c1004</t>
+  </si>
+  <si>
+    <t>c1005</t>
+  </si>
+  <si>
+    <t>c1006</t>
+  </si>
+  <si>
+    <t>c1007</t>
+  </si>
+  <si>
+    <t>c5000</t>
+  </si>
+  <si>
+    <t>c5001</t>
+  </si>
+  <si>
+    <t>c5002</t>
+  </si>
+  <si>
+    <t>c5003</t>
+  </si>
+  <si>
+    <t>c5004</t>
+  </si>
+  <si>
+    <t>c5005</t>
+  </si>
+  <si>
+    <t>c5006</t>
+  </si>
+  <si>
+    <t>c5007</t>
+  </si>
+  <si>
+    <t>c6000</t>
+  </si>
+  <si>
+    <t>c6001</t>
+  </si>
+  <si>
+    <t>c6002</t>
+  </si>
+  <si>
+    <t>c6003</t>
+  </si>
+  <si>
+    <t>c6004</t>
+  </si>
+  <si>
+    <t>c6005</t>
+  </si>
+  <si>
+    <t>c6006</t>
+  </si>
+  <si>
+    <t>c6007</t>
   </si>
 </sst>
 </file>
@@ -764,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -957,67 +1029,67 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5000</v>
+        <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1029,15 +1101,15 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1049,15 +1121,15 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1077,7 +1149,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1097,84 +1169,84 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>6000</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F17">
-        <v>0.14499999999999999</v>
+        <v>5006</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>6001</v>
+        <v>5007</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>6002</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>23</v>
+        <v>6000</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>6003</v>
+        <v>6001</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>6004</v>
+        <v>6002</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1186,15 +1258,15 @@
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>6005</v>
+        <v>6003</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1206,15 +1278,15 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>6006</v>
+        <v>6004</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1233,482 +1305,1019 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
+      <c r="A24">
+        <v>6005</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>56</v>
+      <c r="A25">
+        <v>6006</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>60</v>
+      <c r="A26">
+        <v>6007</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>9999</v>
-      </c>
-      <c r="F29">
-        <v>9999</v>
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30">
+        <v>126</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
         <v>8</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>9999</v>
-      </c>
-      <c r="F30">
-        <v>9999</v>
+      <c r="F30" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32">
-        <v>8</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>9999</v>
-      </c>
-      <c r="F32">
-        <v>9999</v>
+        <v>128</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39">
-        <v>9</v>
+        <v>135</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40">
-        <v>9</v>
+        <v>136</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41">
-        <v>5</v>
+        <v>137</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42">
-        <v>5</v>
+        <v>138</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B43">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44">
-        <v>5</v>
+        <v>140</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>9999</v>
+      </c>
+      <c r="F56">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>9999</v>
+      </c>
+      <c r="F57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>9999</v>
+      </c>
+      <c r="F59">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" t="s">
+        <v>84</v>
+      </c>
+      <c r="F61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" t="s">
+        <v>95</v>
+      </c>
+      <c r="F64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72" t="s">
+        <v>76</v>
+      </c>
+      <c r="F72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" t="s">
+        <v>84</v>
+      </c>
+      <c r="F73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>121</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B74" t="s">
         <v>86</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C74" t="s">
         <v>122</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D74" t="s">
         <v>36</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E74" t="s">
         <v>36</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F74" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB7311F-FF36-433F-AEE2-4AB6260804A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A44B6B-0157-4933-A72A-B0FEEE6D54B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="165">
   <si>
     <t>dropId|String</t>
   </si>
@@ -473,6 +473,60 @@
   </si>
   <si>
     <t>c6007</t>
+  </si>
+  <si>
+    <t>0.19, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.79, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.225, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.825, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.26, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.86, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.19, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.79, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.225, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.825, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.26, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.86, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.19, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.79, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.225, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.825, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.26, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.86, 1, 1, 1, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -838,9 +892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1001,10 +1053,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1021,10 +1073,10 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1041,10 +1093,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1161,10 +1213,10 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1181,10 +1233,10 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1201,10 +1253,10 @@
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1318,10 +1370,10 @@
         <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1338,10 +1390,10 @@
         <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1358,10 +1410,10 @@
         <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1478,10 +1530,10 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1498,10 +1550,10 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1518,10 +1570,10 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1638,10 +1690,10 @@
         <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1658,10 +1710,10 @@
         <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1678,10 +1730,10 @@
         <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1795,10 +1847,10 @@
         <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1815,10 +1867,10 @@
         <v>21</v>
       </c>
       <c r="E49" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="F49" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1835,10 +1887,10 @@
         <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="F50" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A44B6B-0157-4933-A72A-B0FEEE6D54B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6516815D-94AA-4C99-BC65-696625A7AAB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="379">
   <si>
     <t>dropId|String</t>
   </si>
@@ -505,12 +505,6 @@
     <t>0.825, 100, 2, 1, 1, 1, 1, 1</t>
   </si>
   <si>
-    <t>0.26, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.86, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>0.19, 1, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -523,10 +517,658 @@
     <t>0.825, 1, 1, 1, 1, 1</t>
   </si>
   <si>
-    <t>0.26, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.86, 1, 1, 1, 1, 1</t>
+    <t>0.295, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.895, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.33, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.93, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.365, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.965, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.4, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>1, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.435, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>1.035, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.47, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>1.07, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.505, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>1.105, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.54, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>1.14, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.575, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>1.175, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.61, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>1.21, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.645, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>1.245, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.68, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>1.28, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.715, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>1.315, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.75, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>1.35, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.785, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>1.385, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.82, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>1.42, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.855, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>1.455, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.89, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>1.49, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.925, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>1.525, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.96, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>1.56, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>0.995, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>1.595, 5, 1, 1</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 0.7, 0.1, 0.1, 0.01</t>
+  </si>
+  <si>
+    <t>2, 1, 4, 3, 7, 5, 5</t>
+  </si>
+  <si>
+    <t>, , , , , e, e</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 0.7, 0.1, 0.01</t>
+  </si>
+  <si>
+    <t>55.7, 100, 2, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>56.3, 100, 2, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.295, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.895, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.33, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.93, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.365, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.965, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.4, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.435, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.035, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.47, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.07, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>68.7, 100, 2, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>69.3, 100, 2, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.54, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.14, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.575, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.175, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.61, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.21, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.645, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.245, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.68, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.28, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.715, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.315, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>78.45, 100, 2, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>79.05, 100, 2, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.785, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.385, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.82, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.42, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.855, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.455, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.89, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.49, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.925, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.525, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.96, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.56, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>86.033, 100, 2, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>86.633, 100, 2, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1, 0.7, 0.1, 0.2, 0.04, 0.02</t>
+  </si>
+  <si>
+    <t>2, 7, 5, 5, 5</t>
+  </si>
+  <si>
+    <t>, , e, e, e</t>
+  </si>
+  <si>
+    <t>1, 0.7, 0.2, 0.04, 0.02</t>
+  </si>
+  <si>
+    <t>55.7, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>56.3, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.295, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.895, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.33, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.93, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.365, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.965, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.4, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.435, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.035, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.47, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.07, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>68.7, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>69.3, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.54, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.14, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.575, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.175, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.61, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.21, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.645, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.245, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.68, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.28, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.715, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.315, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>78.45, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>79.05, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.785, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.385, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.82, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.42, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.855, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.455, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.89, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.49, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.925, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.525, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.96, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.56, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>86.033, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>86.633, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>c1008</t>
+  </si>
+  <si>
+    <t>c1009</t>
+  </si>
+  <si>
+    <t>c1010</t>
+  </si>
+  <si>
+    <t>c1011</t>
+  </si>
+  <si>
+    <t>c1012</t>
+  </si>
+  <si>
+    <t>c1013</t>
+  </si>
+  <si>
+    <t>c1014</t>
+  </si>
+  <si>
+    <t>c1015</t>
+  </si>
+  <si>
+    <t>c1016</t>
+  </si>
+  <si>
+    <t>c1017</t>
+  </si>
+  <si>
+    <t>c1018</t>
+  </si>
+  <si>
+    <t>c1019</t>
+  </si>
+  <si>
+    <t>c1020</t>
+  </si>
+  <si>
+    <t>c1021</t>
+  </si>
+  <si>
+    <t>c1022</t>
+  </si>
+  <si>
+    <t>c1023</t>
+  </si>
+  <si>
+    <t>c1024</t>
+  </si>
+  <si>
+    <t>c1025</t>
+  </si>
+  <si>
+    <t>c1026</t>
+  </si>
+  <si>
+    <t>c1027</t>
+  </si>
+  <si>
+    <t>c1028</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 0.7, 0.25, 0.025</t>
+  </si>
+  <si>
+    <t>0.26, 100, 2, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.86, 100, 2, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>c5008</t>
+  </si>
+  <si>
+    <t>c5009</t>
+  </si>
+  <si>
+    <t>c5010</t>
+  </si>
+  <si>
+    <t>c5011</t>
+  </si>
+  <si>
+    <t>c5012</t>
+  </si>
+  <si>
+    <t>c5013</t>
+  </si>
+  <si>
+    <t>c5014</t>
+  </si>
+  <si>
+    <t>0.505, 100, 2, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.105, 100, 2, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>c5015</t>
+  </si>
+  <si>
+    <t>c5016</t>
+  </si>
+  <si>
+    <t>c5017</t>
+  </si>
+  <si>
+    <t>c5018</t>
+  </si>
+  <si>
+    <t>c5019</t>
+  </si>
+  <si>
+    <t>c5020</t>
+  </si>
+  <si>
+    <t>c5021</t>
+  </si>
+  <si>
+    <t>0.75, 100, 2, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.35, 100, 2, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>c5022</t>
+  </si>
+  <si>
+    <t>c5023</t>
+  </si>
+  <si>
+    <t>c5024</t>
+  </si>
+  <si>
+    <t>c5025</t>
+  </si>
+  <si>
+    <t>c5026</t>
+  </si>
+  <si>
+    <t>c5027</t>
+  </si>
+  <si>
+    <t>c5028</t>
+  </si>
+  <si>
+    <t>0.995, 100, 2, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.595, 100, 2, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1, 0.7, 0.5, 0.1, 0.05</t>
+  </si>
+  <si>
+    <t>0.26, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.86, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>c6008</t>
+  </si>
+  <si>
+    <t>c6009</t>
+  </si>
+  <si>
+    <t>c6010</t>
+  </si>
+  <si>
+    <t>c6011</t>
+  </si>
+  <si>
+    <t>c6012</t>
+  </si>
+  <si>
+    <t>c6013</t>
+  </si>
+  <si>
+    <t>c6014</t>
+  </si>
+  <si>
+    <t>0.505, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.105, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>c6015</t>
+  </si>
+  <si>
+    <t>c6016</t>
+  </si>
+  <si>
+    <t>c6017</t>
+  </si>
+  <si>
+    <t>c6018</t>
+  </si>
+  <si>
+    <t>c6019</t>
+  </si>
+  <si>
+    <t>c6020</t>
+  </si>
+  <si>
+    <t>c6021</t>
+  </si>
+  <si>
+    <t>0.75, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.35, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>c6022</t>
+  </si>
+  <si>
+    <t>c6023</t>
+  </si>
+  <si>
+    <t>c6024</t>
+  </si>
+  <si>
+    <t>c6025</t>
+  </si>
+  <si>
+    <t>c6026</t>
+  </si>
+  <si>
+    <t>c6027</t>
+  </si>
+  <si>
+    <t>c6028</t>
+  </si>
+  <si>
+    <t>0.995, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.595, 1, 1, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -890,9 +1532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1101,364 +1745,367 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>5000</v>
+        <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5001</v>
+        <v>1009</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>5002</v>
+        <v>1010</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>5003</v>
+        <v>1011</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>5004</v>
+        <v>1012</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>5005</v>
+        <v>1013</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>5006</v>
+        <v>1014</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>5007</v>
+        <v>1015</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>6000</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F19">
-        <v>0.14499999999999999</v>
+        <v>1016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>6001</v>
+        <v>1017</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>6002</v>
+        <v>1018</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>6003</v>
+        <v>1019</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>6004</v>
+        <v>1020</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>6005</v>
+        <v>1021</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="F24" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>6006</v>
+        <v>1022</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="F25" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>6007</v>
+        <v>1023</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="F26" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>123</v>
+      <c r="A27">
+        <v>1024</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>124</v>
+      <c r="A28">
+        <v>1025</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>125</v>
+      <c r="A29">
+        <v>1026</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -1470,15 +2117,15 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>126</v>
+      <c r="A30">
+        <v>1027</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -1490,15 +2137,15 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>199</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>127</v>
+      <c r="A31">
+        <v>1028</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -1510,115 +2157,115 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>128</v>
+      <c r="A32">
+        <v>5000</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>129</v>
+      <c r="A33">
+        <v>5001</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>130</v>
+      <c r="A34">
+        <v>5002</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="E34" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>152</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>131</v>
+      <c r="A35">
+        <v>5003</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>132</v>
+      <c r="A36">
+        <v>5004</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>133</v>
+      <c r="A37">
+        <v>5005</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -1627,18 +2274,18 @@
         <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>134</v>
+      <c r="A38">
+        <v>5006</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
@@ -1647,38 +2294,38 @@
         <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>135</v>
+      <c r="A39">
+        <v>5007</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>206</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>136</v>
+      <c r="A40">
+        <v>5008</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
@@ -1687,18 +2334,18 @@
         <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="E40" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="F40" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>137</v>
+      <c r="A41">
+        <v>5009</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
@@ -1707,18 +2354,18 @@
         <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="F41" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>138</v>
+      <c r="A42">
+        <v>5010</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -1727,649 +2374,3166 @@
         <v>52</v>
       </c>
       <c r="D42" t="s">
+        <v>203</v>
+      </c>
+      <c r="E42" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>5011</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>203</v>
+      </c>
+      <c r="E43" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>5012</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" t="s">
+        <v>203</v>
+      </c>
+      <c r="E44" t="s">
+        <v>217</v>
+      </c>
+      <c r="F44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>5013</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E45" t="s">
+        <v>219</v>
+      </c>
+      <c r="F45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>5014</v>
+      </c>
+      <c r="B46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46" t="s">
+        <v>206</v>
+      </c>
+      <c r="E46" t="s">
+        <v>221</v>
+      </c>
+      <c r="F46" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>5015</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" t="s">
+        <v>203</v>
+      </c>
+      <c r="E47" t="s">
+        <v>223</v>
+      </c>
+      <c r="F47" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>5016</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" t="s">
+        <v>203</v>
+      </c>
+      <c r="E48" t="s">
+        <v>225</v>
+      </c>
+      <c r="F48" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>5017</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" t="s">
+        <v>227</v>
+      </c>
+      <c r="F49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>5018</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" t="s">
+        <v>229</v>
+      </c>
+      <c r="F50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>5019</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" t="s">
+        <v>231</v>
+      </c>
+      <c r="F51" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>5020</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" t="s">
+        <v>233</v>
+      </c>
+      <c r="F52" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>5021</v>
+      </c>
+      <c r="B53" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" t="s">
+        <v>206</v>
+      </c>
+      <c r="E53" t="s">
+        <v>235</v>
+      </c>
+      <c r="F53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>5022</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>203</v>
+      </c>
+      <c r="E54" t="s">
+        <v>237</v>
+      </c>
+      <c r="F54" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>5023</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" t="s">
+        <v>203</v>
+      </c>
+      <c r="E55" t="s">
+        <v>239</v>
+      </c>
+      <c r="F55" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>5024</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" t="s">
+        <v>203</v>
+      </c>
+      <c r="E56" t="s">
+        <v>241</v>
+      </c>
+      <c r="F56" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>5025</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" t="s">
+        <v>203</v>
+      </c>
+      <c r="E57" t="s">
+        <v>243</v>
+      </c>
+      <c r="F57" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>5026</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" t="s">
+        <v>203</v>
+      </c>
+      <c r="E58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F58" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>5027</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" t="s">
+        <v>203</v>
+      </c>
+      <c r="E59" t="s">
+        <v>247</v>
+      </c>
+      <c r="F59" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>5028</v>
+      </c>
+      <c r="B60" t="s">
+        <v>204</v>
+      </c>
+      <c r="C60" t="s">
+        <v>205</v>
+      </c>
+      <c r="D60" t="s">
+        <v>206</v>
+      </c>
+      <c r="E60" t="s">
+        <v>249</v>
+      </c>
+      <c r="F60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>6000</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F61">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>6001</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>6002</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" t="s">
+        <v>251</v>
+      </c>
+      <c r="E63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>6003</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" t="s">
+        <v>251</v>
+      </c>
+      <c r="E64" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>6004</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" t="s">
+        <v>251</v>
+      </c>
+      <c r="E65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>6005</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" t="s">
+        <v>251</v>
+      </c>
+      <c r="E66" t="s">
+        <v>157</v>
+      </c>
+      <c r="F66" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>6006</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" t="s">
+        <v>251</v>
+      </c>
+      <c r="E67" t="s">
+        <v>159</v>
+      </c>
+      <c r="F67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>6007</v>
+      </c>
+      <c r="B68" t="s">
+        <v>252</v>
+      </c>
+      <c r="C68" t="s">
+        <v>253</v>
+      </c>
+      <c r="D68" t="s">
+        <v>254</v>
+      </c>
+      <c r="E68" t="s">
+        <v>255</v>
+      </c>
+      <c r="F68" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>6008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" t="s">
+        <v>251</v>
+      </c>
+      <c r="E69" t="s">
+        <v>257</v>
+      </c>
+      <c r="F69" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>6009</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" t="s">
+        <v>251</v>
+      </c>
+      <c r="E70" t="s">
+        <v>259</v>
+      </c>
+      <c r="F70" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>6010</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" t="s">
+        <v>251</v>
+      </c>
+      <c r="E71" t="s">
+        <v>261</v>
+      </c>
+      <c r="F71" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>6011</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" t="s">
+        <v>251</v>
+      </c>
+      <c r="E72" t="s">
+        <v>263</v>
+      </c>
+      <c r="F72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>6012</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" t="s">
+        <v>251</v>
+      </c>
+      <c r="E73" t="s">
+        <v>264</v>
+      </c>
+      <c r="F73" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>6013</v>
+      </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" t="s">
+        <v>251</v>
+      </c>
+      <c r="E74" t="s">
+        <v>266</v>
+      </c>
+      <c r="F74" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>6014</v>
+      </c>
+      <c r="B75" t="s">
+        <v>252</v>
+      </c>
+      <c r="C75" t="s">
+        <v>253</v>
+      </c>
+      <c r="D75" t="s">
+        <v>254</v>
+      </c>
+      <c r="E75" t="s">
+        <v>268</v>
+      </c>
+      <c r="F75" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>6015</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" t="s">
+        <v>251</v>
+      </c>
+      <c r="E76" t="s">
+        <v>270</v>
+      </c>
+      <c r="F76" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>6016</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" t="s">
+        <v>251</v>
+      </c>
+      <c r="E77" t="s">
+        <v>272</v>
+      </c>
+      <c r="F77" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>6017</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" t="s">
+        <v>251</v>
+      </c>
+      <c r="E78" t="s">
+        <v>274</v>
+      </c>
+      <c r="F78" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>6018</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" t="s">
+        <v>251</v>
+      </c>
+      <c r="E79" t="s">
+        <v>276</v>
+      </c>
+      <c r="F79" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>6019</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" t="s">
+        <v>251</v>
+      </c>
+      <c r="E80" t="s">
+        <v>278</v>
+      </c>
+      <c r="F80" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>6020</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" t="s">
+        <v>251</v>
+      </c>
+      <c r="E81" t="s">
+        <v>280</v>
+      </c>
+      <c r="F81" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>6021</v>
+      </c>
+      <c r="B82" t="s">
+        <v>252</v>
+      </c>
+      <c r="C82" t="s">
+        <v>253</v>
+      </c>
+      <c r="D82" t="s">
+        <v>254</v>
+      </c>
+      <c r="E82" t="s">
+        <v>282</v>
+      </c>
+      <c r="F82" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>6022</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" t="s">
+        <v>251</v>
+      </c>
+      <c r="E83" t="s">
+        <v>284</v>
+      </c>
+      <c r="F83" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>6023</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" t="s">
+        <v>251</v>
+      </c>
+      <c r="E84" t="s">
+        <v>286</v>
+      </c>
+      <c r="F84" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>6024</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" t="s">
+        <v>251</v>
+      </c>
+      <c r="E85" t="s">
+        <v>288</v>
+      </c>
+      <c r="F85" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>6025</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" t="s">
+        <v>251</v>
+      </c>
+      <c r="E86" t="s">
+        <v>290</v>
+      </c>
+      <c r="F86" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>6026</v>
+      </c>
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87" t="s">
+        <v>251</v>
+      </c>
+      <c r="E87" t="s">
+        <v>292</v>
+      </c>
+      <c r="F87" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>6027</v>
+      </c>
+      <c r="B88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" t="s">
+        <v>251</v>
+      </c>
+      <c r="E88" t="s">
+        <v>294</v>
+      </c>
+      <c r="F88" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>6028</v>
+      </c>
+      <c r="B89" t="s">
+        <v>252</v>
+      </c>
+      <c r="C89" t="s">
+        <v>253</v>
+      </c>
+      <c r="D89" t="s">
+        <v>254</v>
+      </c>
+      <c r="E89" t="s">
+        <v>296</v>
+      </c>
+      <c r="F89" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" t="s">
+        <v>31</v>
+      </c>
+      <c r="F90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91" t="s">
+        <v>33</v>
+      </c>
+      <c r="F91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>48</v>
+      </c>
+      <c r="F92" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>47</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>47</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>47</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" t="s">
+        <v>147</v>
+      </c>
+      <c r="F95" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>47</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" t="s">
+        <v>149</v>
+      </c>
+      <c r="F96" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>130</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>47</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="s">
+        <v>151</v>
+      </c>
+      <c r="F97" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>298</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>47</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" t="s">
+        <v>161</v>
+      </c>
+      <c r="F98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>299</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>47</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" t="s">
+        <v>163</v>
+      </c>
+      <c r="F99" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>300</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>47</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" t="s">
+        <v>165</v>
+      </c>
+      <c r="F100" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>301</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>47</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" t="s">
+        <v>167</v>
+      </c>
+      <c r="F101" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>302</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>47</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" t="s">
+        <v>169</v>
+      </c>
+      <c r="F102" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>303</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>47</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" t="s">
+        <v>171</v>
+      </c>
+      <c r="F103" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>304</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>47</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>173</v>
+      </c>
+      <c r="F104" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>305</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>47</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" t="s">
+        <v>175</v>
+      </c>
+      <c r="F105" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>306</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>47</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" t="s">
+        <v>177</v>
+      </c>
+      <c r="F106" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>307</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>47</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>179</v>
+      </c>
+      <c r="F107" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>308</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" t="s">
+        <v>47</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>181</v>
+      </c>
+      <c r="F108" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>309</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" t="s">
+        <v>47</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" t="s">
+        <v>183</v>
+      </c>
+      <c r="F109" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>310</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="s">
+        <v>47</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" t="s">
+        <v>185</v>
+      </c>
+      <c r="F110" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>311</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>47</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>187</v>
+      </c>
+      <c r="F111" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>312</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" t="s">
+        <v>47</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" t="s">
+        <v>189</v>
+      </c>
+      <c r="F112" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>313</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" t="s">
+        <v>47</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>191</v>
+      </c>
+      <c r="F113" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>314</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" t="s">
+        <v>47</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>193</v>
+      </c>
+      <c r="F114" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>315</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>47</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" t="s">
+        <v>195</v>
+      </c>
+      <c r="F115" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>316</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>47</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>197</v>
+      </c>
+      <c r="F116" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>317</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s">
+        <v>47</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" t="s">
+        <v>199</v>
+      </c>
+      <c r="F117" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>318</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" t="s">
+        <v>47</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>201</v>
+      </c>
+      <c r="F118" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>131</v>
+      </c>
+      <c r="B119" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" t="s">
+        <v>50</v>
+      </c>
+      <c r="D119" t="s">
+        <v>36</v>
+      </c>
+      <c r="E119" t="s">
+        <v>37</v>
+      </c>
+      <c r="F119" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" t="s">
+        <v>39</v>
+      </c>
+      <c r="C120" t="s">
+        <v>51</v>
+      </c>
+      <c r="D120" t="s">
+        <v>40</v>
+      </c>
+      <c r="E120" t="s">
+        <v>41</v>
+      </c>
+      <c r="F120" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>133</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>52</v>
+      </c>
+      <c r="D121" t="s">
         <v>13</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>134</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D123" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>52</v>
+      </c>
+      <c r="D124" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" t="s">
+        <v>153</v>
+      </c>
+      <c r="F124" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>137</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>52</v>
+      </c>
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" t="s">
+        <v>155</v>
+      </c>
+      <c r="F125" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>138</v>
+      </c>
+      <c r="B126" t="s">
+        <v>204</v>
+      </c>
+      <c r="C126" t="s">
+        <v>205</v>
+      </c>
+      <c r="D126" t="s">
+        <v>319</v>
+      </c>
+      <c r="E126" t="s">
+        <v>320</v>
+      </c>
+      <c r="F126" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>322</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>52</v>
+      </c>
+      <c r="D127" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" t="s">
+        <v>209</v>
+      </c>
+      <c r="F127" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>323</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>52</v>
+      </c>
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" t="s">
+        <v>211</v>
+      </c>
+      <c r="F128" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>324</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>52</v>
+      </c>
+      <c r="D129" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" t="s">
+        <v>213</v>
+      </c>
+      <c r="F129" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>325</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>52</v>
+      </c>
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" t="s">
+        <v>215</v>
+      </c>
+      <c r="F130" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>326</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>52</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" t="s">
+        <v>217</v>
+      </c>
+      <c r="F131" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>327</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>52</v>
+      </c>
+      <c r="D132" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" t="s">
+        <v>219</v>
+      </c>
+      <c r="F132" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>328</v>
+      </c>
+      <c r="B133" t="s">
+        <v>204</v>
+      </c>
+      <c r="C133" t="s">
+        <v>205</v>
+      </c>
+      <c r="D133" t="s">
+        <v>319</v>
+      </c>
+      <c r="E133" t="s">
+        <v>329</v>
+      </c>
+      <c r="F133" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>331</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>52</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" t="s">
+        <v>223</v>
+      </c>
+      <c r="F134" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>332</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>52</v>
+      </c>
+      <c r="D135" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" t="s">
+        <v>225</v>
+      </c>
+      <c r="F135" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>333</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>52</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" t="s">
+        <v>227</v>
+      </c>
+      <c r="F136" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>334</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" t="s">
+        <v>52</v>
+      </c>
+      <c r="D137" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" t="s">
+        <v>229</v>
+      </c>
+      <c r="F137" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>335</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>52</v>
+      </c>
+      <c r="D138" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" t="s">
+        <v>231</v>
+      </c>
+      <c r="F138" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>336</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>52</v>
+      </c>
+      <c r="D139" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" t="s">
+        <v>233</v>
+      </c>
+      <c r="F139" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>337</v>
+      </c>
+      <c r="B140" t="s">
+        <v>204</v>
+      </c>
+      <c r="C140" t="s">
+        <v>205</v>
+      </c>
+      <c r="D140" t="s">
+        <v>319</v>
+      </c>
+      <c r="E140" t="s">
+        <v>338</v>
+      </c>
+      <c r="F140" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>340</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>52</v>
+      </c>
+      <c r="D141" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" t="s">
+        <v>237</v>
+      </c>
+      <c r="F141" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>341</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>52</v>
+      </c>
+      <c r="D142" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" t="s">
+        <v>239</v>
+      </c>
+      <c r="F142" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>342</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>52</v>
+      </c>
+      <c r="D143" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" t="s">
+        <v>241</v>
+      </c>
+      <c r="F143" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>343</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>52</v>
+      </c>
+      <c r="D144" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" t="s">
+        <v>243</v>
+      </c>
+      <c r="F144" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>344</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>52</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" t="s">
+        <v>245</v>
+      </c>
+      <c r="F145" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>345</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>52</v>
+      </c>
+      <c r="D146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" t="s">
+        <v>247</v>
+      </c>
+      <c r="F146" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>346</v>
+      </c>
+      <c r="B147" t="s">
+        <v>204</v>
+      </c>
+      <c r="C147" t="s">
+        <v>205</v>
+      </c>
+      <c r="D147" t="s">
+        <v>319</v>
+      </c>
+      <c r="E147" t="s">
+        <v>347</v>
+      </c>
+      <c r="F147" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>139</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F148">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>140</v>
+      </c>
+      <c r="B149" t="s">
+        <v>43</v>
+      </c>
+      <c r="C149" t="s">
+        <v>29</v>
+      </c>
+      <c r="D149" t="s">
+        <v>44</v>
+      </c>
+      <c r="E149" t="s">
+        <v>45</v>
+      </c>
+      <c r="F149" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>141</v>
+      </c>
+      <c r="B150" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150" t="s">
+        <v>53</v>
+      </c>
+      <c r="D150" t="s">
+        <v>21</v>
+      </c>
+      <c r="E150" t="s">
+        <v>22</v>
+      </c>
+      <c r="F150" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>142</v>
+      </c>
+      <c r="B151" t="s">
+        <v>20</v>
+      </c>
+      <c r="C151" t="s">
+        <v>53</v>
+      </c>
+      <c r="D151" t="s">
+        <v>21</v>
+      </c>
+      <c r="E151" t="s">
+        <v>24</v>
+      </c>
+      <c r="F151" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>143</v>
+      </c>
+      <c r="B152" t="s">
+        <v>20</v>
+      </c>
+      <c r="C152" t="s">
+        <v>53</v>
+      </c>
+      <c r="D152" t="s">
+        <v>21</v>
+      </c>
+      <c r="E152" t="s">
+        <v>26</v>
+      </c>
+      <c r="F152" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>144</v>
+      </c>
+      <c r="B153" t="s">
+        <v>20</v>
+      </c>
+      <c r="C153" t="s">
+        <v>53</v>
+      </c>
+      <c r="D153" t="s">
+        <v>21</v>
+      </c>
+      <c r="E153" t="s">
         <v>157</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F153" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>139</v>
-      </c>
-      <c r="B43">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>145</v>
+      </c>
+      <c r="B154" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" t="s">
+        <v>53</v>
+      </c>
+      <c r="D154" t="s">
+        <v>21</v>
+      </c>
+      <c r="E154" t="s">
+        <v>159</v>
+      </c>
+      <c r="F154" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>146</v>
+      </c>
+      <c r="B155" t="s">
+        <v>252</v>
+      </c>
+      <c r="C155" t="s">
+        <v>253</v>
+      </c>
+      <c r="D155" t="s">
+        <v>349</v>
+      </c>
+      <c r="E155" t="s">
+        <v>350</v>
+      </c>
+      <c r="F155" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>352</v>
+      </c>
+      <c r="B156" t="s">
+        <v>20</v>
+      </c>
+      <c r="C156" t="s">
+        <v>53</v>
+      </c>
+      <c r="D156" t="s">
+        <v>21</v>
+      </c>
+      <c r="E156" t="s">
+        <v>257</v>
+      </c>
+      <c r="F156" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>353</v>
+      </c>
+      <c r="B157" t="s">
+        <v>20</v>
+      </c>
+      <c r="C157" t="s">
+        <v>53</v>
+      </c>
+      <c r="D157" t="s">
+        <v>21</v>
+      </c>
+      <c r="E157" t="s">
+        <v>259</v>
+      </c>
+      <c r="F157" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>354</v>
+      </c>
+      <c r="B158" t="s">
+        <v>20</v>
+      </c>
+      <c r="C158" t="s">
+        <v>53</v>
+      </c>
+      <c r="D158" t="s">
+        <v>21</v>
+      </c>
+      <c r="E158" t="s">
+        <v>261</v>
+      </c>
+      <c r="F158" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>355</v>
+      </c>
+      <c r="B159" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159" t="s">
+        <v>53</v>
+      </c>
+      <c r="D159" t="s">
+        <v>21</v>
+      </c>
+      <c r="E159" t="s">
+        <v>263</v>
+      </c>
+      <c r="F159" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>356</v>
+      </c>
+      <c r="B160" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160" t="s">
+        <v>53</v>
+      </c>
+      <c r="D160" t="s">
+        <v>21</v>
+      </c>
+      <c r="E160" t="s">
+        <v>264</v>
+      </c>
+      <c r="F160" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>357</v>
+      </c>
+      <c r="B161" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161" t="s">
+        <v>53</v>
+      </c>
+      <c r="D161" t="s">
+        <v>21</v>
+      </c>
+      <c r="E161" t="s">
+        <v>266</v>
+      </c>
+      <c r="F161" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>358</v>
+      </c>
+      <c r="B162" t="s">
+        <v>252</v>
+      </c>
+      <c r="C162" t="s">
+        <v>253</v>
+      </c>
+      <c r="D162" t="s">
+        <v>349</v>
+      </c>
+      <c r="E162" t="s">
+        <v>359</v>
+      </c>
+      <c r="F162" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>361</v>
+      </c>
+      <c r="B163" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" t="s">
+        <v>53</v>
+      </c>
+      <c r="D163" t="s">
+        <v>21</v>
+      </c>
+      <c r="E163" t="s">
+        <v>270</v>
+      </c>
+      <c r="F163" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>362</v>
+      </c>
+      <c r="B164" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" t="s">
+        <v>53</v>
+      </c>
+      <c r="D164" t="s">
+        <v>21</v>
+      </c>
+      <c r="E164" t="s">
+        <v>272</v>
+      </c>
+      <c r="F164" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>363</v>
+      </c>
+      <c r="B165" t="s">
+        <v>20</v>
+      </c>
+      <c r="C165" t="s">
+        <v>53</v>
+      </c>
+      <c r="D165" t="s">
+        <v>21</v>
+      </c>
+      <c r="E165" t="s">
+        <v>274</v>
+      </c>
+      <c r="F165" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>364</v>
+      </c>
+      <c r="B166" t="s">
+        <v>20</v>
+      </c>
+      <c r="C166" t="s">
+        <v>53</v>
+      </c>
+      <c r="D166" t="s">
+        <v>21</v>
+      </c>
+      <c r="E166" t="s">
+        <v>276</v>
+      </c>
+      <c r="F166" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>365</v>
+      </c>
+      <c r="B167" t="s">
+        <v>20</v>
+      </c>
+      <c r="C167" t="s">
+        <v>53</v>
+      </c>
+      <c r="D167" t="s">
+        <v>21</v>
+      </c>
+      <c r="E167" t="s">
+        <v>278</v>
+      </c>
+      <c r="F167" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>366</v>
+      </c>
+      <c r="B168" t="s">
+        <v>20</v>
+      </c>
+      <c r="C168" t="s">
+        <v>53</v>
+      </c>
+      <c r="D168" t="s">
+        <v>21</v>
+      </c>
+      <c r="E168" t="s">
+        <v>280</v>
+      </c>
+      <c r="F168" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>367</v>
+      </c>
+      <c r="B169" t="s">
+        <v>252</v>
+      </c>
+      <c r="C169" t="s">
+        <v>253</v>
+      </c>
+      <c r="D169" t="s">
+        <v>349</v>
+      </c>
+      <c r="E169" t="s">
+        <v>368</v>
+      </c>
+      <c r="F169" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>370</v>
+      </c>
+      <c r="B170" t="s">
+        <v>20</v>
+      </c>
+      <c r="C170" t="s">
+        <v>53</v>
+      </c>
+      <c r="D170" t="s">
+        <v>21</v>
+      </c>
+      <c r="E170" t="s">
+        <v>284</v>
+      </c>
+      <c r="F170" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>371</v>
+      </c>
+      <c r="B171" t="s">
+        <v>20</v>
+      </c>
+      <c r="C171" t="s">
+        <v>53</v>
+      </c>
+      <c r="D171" t="s">
+        <v>21</v>
+      </c>
+      <c r="E171" t="s">
+        <v>286</v>
+      </c>
+      <c r="F171" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>372</v>
+      </c>
+      <c r="B172" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" t="s">
+        <v>53</v>
+      </c>
+      <c r="D172" t="s">
+        <v>21</v>
+      </c>
+      <c r="E172" t="s">
+        <v>288</v>
+      </c>
+      <c r="F172" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>373</v>
+      </c>
+      <c r="B173" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173" t="s">
+        <v>53</v>
+      </c>
+      <c r="D173" t="s">
+        <v>21</v>
+      </c>
+      <c r="E173" t="s">
+        <v>290</v>
+      </c>
+      <c r="F173" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>374</v>
+      </c>
+      <c r="B174" t="s">
+        <v>20</v>
+      </c>
+      <c r="C174" t="s">
+        <v>53</v>
+      </c>
+      <c r="D174" t="s">
+        <v>21</v>
+      </c>
+      <c r="E174" t="s">
+        <v>292</v>
+      </c>
+      <c r="F174" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>375</v>
+      </c>
+      <c r="B175" t="s">
+        <v>20</v>
+      </c>
+      <c r="C175" t="s">
+        <v>53</v>
+      </c>
+      <c r="D175" t="s">
+        <v>21</v>
+      </c>
+      <c r="E175" t="s">
+        <v>294</v>
+      </c>
+      <c r="F175" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>376</v>
+      </c>
+      <c r="B176" t="s">
+        <v>252</v>
+      </c>
+      <c r="C176" t="s">
+        <v>253</v>
+      </c>
+      <c r="D176" t="s">
+        <v>349</v>
+      </c>
+      <c r="E176" t="s">
+        <v>377</v>
+      </c>
+      <c r="F176" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>54</v>
+      </c>
+      <c r="B177">
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>55</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>56</v>
+      </c>
+      <c r="B178" t="s">
+        <v>57</v>
+      </c>
+      <c r="C178" t="s">
+        <v>58</v>
+      </c>
+      <c r="D178" t="s">
+        <v>59</v>
+      </c>
+      <c r="E178" t="s">
+        <v>59</v>
+      </c>
+      <c r="F178" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>60</v>
+      </c>
+      <c r="B179" t="s">
+        <v>64</v>
+      </c>
+      <c r="C179" t="s">
+        <v>65</v>
+      </c>
+      <c r="D179" t="s">
+        <v>113</v>
+      </c>
+      <c r="E179" t="s">
+        <v>114</v>
+      </c>
+      <c r="F179" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>111</v>
+      </c>
+      <c r="B180" t="s">
+        <v>64</v>
+      </c>
+      <c r="C180" t="s">
+        <v>65</v>
+      </c>
+      <c r="D180" t="s">
+        <v>113</v>
+      </c>
+      <c r="E180" t="s">
+        <v>115</v>
+      </c>
+      <c r="F180" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>61</v>
+      </c>
+      <c r="B181" t="s">
+        <v>67</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" t="s">
+        <v>70</v>
+      </c>
+      <c r="F181" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>72</v>
+      </c>
+      <c r="B182">
         <v>2</v>
       </c>
-      <c r="D43">
+      <c r="C182">
         <v>1</v>
       </c>
-      <c r="E43">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F43">
-        <v>0.14499999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>140</v>
-      </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>141</v>
-      </c>
-      <c r="B45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>142</v>
-      </c>
-      <c r="B46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" t="s">
-        <v>159</v>
-      </c>
-      <c r="F48" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" t="s">
-        <v>161</v>
-      </c>
-      <c r="F49" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>146</v>
-      </c>
-      <c r="B50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" t="s">
-        <v>163</v>
-      </c>
-      <c r="F50" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51">
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>9999</v>
+      </c>
+      <c r="F182">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>73</v>
+      </c>
+      <c r="B183">
+        <v>8</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>9999</v>
+      </c>
+      <c r="F183">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>74</v>
+      </c>
+      <c r="B184" t="s">
+        <v>75</v>
+      </c>
+      <c r="C184" t="s">
+        <v>76</v>
+      </c>
+      <c r="D184" t="s">
+        <v>76</v>
+      </c>
+      <c r="E184" t="s">
+        <v>77</v>
+      </c>
+      <c r="F184" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>100</v>
+      </c>
+      <c r="B185">
+        <v>8</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>9999</v>
+      </c>
+      <c r="F185">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>78</v>
+      </c>
+      <c r="B186" t="s">
+        <v>79</v>
+      </c>
+      <c r="C186" t="s">
+        <v>80</v>
+      </c>
+      <c r="D186" t="s">
+        <v>76</v>
+      </c>
+      <c r="E186" t="s">
+        <v>76</v>
+      </c>
+      <c r="F186" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>81</v>
+      </c>
+      <c r="B187" t="s">
+        <v>82</v>
+      </c>
+      <c r="C187" t="s">
+        <v>83</v>
+      </c>
+      <c r="D187" t="s">
+        <v>84</v>
+      </c>
+      <c r="E187" t="s">
+        <v>84</v>
+      </c>
+      <c r="F187" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>85</v>
+      </c>
+      <c r="B188" t="s">
+        <v>86</v>
+      </c>
+      <c r="C188" t="s">
+        <v>87</v>
+      </c>
+      <c r="D188" t="s">
+        <v>36</v>
+      </c>
+      <c r="E188" t="s">
+        <v>36</v>
+      </c>
+      <c r="F188" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>88</v>
+      </c>
+      <c r="B189" t="s">
+        <v>89</v>
+      </c>
+      <c r="C189" t="s">
+        <v>90</v>
+      </c>
+      <c r="D189" t="s">
+        <v>91</v>
+      </c>
+      <c r="E189" t="s">
+        <v>91</v>
+      </c>
+      <c r="F189" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>92</v>
+      </c>
+      <c r="B190" t="s">
+        <v>93</v>
+      </c>
+      <c r="C190" t="s">
+        <v>94</v>
+      </c>
+      <c r="D190" t="s">
+        <v>95</v>
+      </c>
+      <c r="E190" t="s">
+        <v>95</v>
+      </c>
+      <c r="F190" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>96</v>
+      </c>
+      <c r="B191" t="s">
+        <v>97</v>
+      </c>
+      <c r="C191" t="s">
+        <v>98</v>
+      </c>
+      <c r="D191" t="s">
+        <v>99</v>
+      </c>
+      <c r="E191" t="s">
+        <v>99</v>
+      </c>
+      <c r="F191" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>101</v>
+      </c>
+      <c r="B192">
+        <v>9</v>
+      </c>
+      <c r="C192" t="s">
+        <v>102</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>103</v>
+      </c>
+      <c r="B193">
+        <v>9</v>
+      </c>
+      <c r="C193" t="s">
+        <v>104</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>105</v>
+      </c>
+      <c r="B194">
         <v>5</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C194" t="s">
+        <v>106</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>107</v>
+      </c>
+      <c r="B195">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>108</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>109</v>
+      </c>
+      <c r="B196">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>110</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>116</v>
+      </c>
+      <c r="B197">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
         <v>55</v>
       </c>
-      <c r="D51">
+      <c r="D197">
         <v>1</v>
       </c>
-      <c r="E51">
+      <c r="E197">
         <v>1</v>
       </c>
-      <c r="F51">
+      <c r="F197">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" t="s">
-        <v>113</v>
-      </c>
-      <c r="E54" t="s">
-        <v>115</v>
-      </c>
-      <c r="F54" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" t="s">
-        <v>70</v>
-      </c>
-      <c r="F55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56">
-        <v>2</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>9999</v>
-      </c>
-      <c r="F56">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57">
-        <v>8</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>9999</v>
-      </c>
-      <c r="F57">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" t="s">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>117</v>
+      </c>
+      <c r="B198" t="s">
+        <v>79</v>
+      </c>
+      <c r="C198" t="s">
+        <v>118</v>
+      </c>
+      <c r="D198" t="s">
         <v>76</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E198" t="s">
         <v>76</v>
       </c>
-      <c r="E58" t="s">
-        <v>77</v>
-      </c>
-      <c r="F58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59">
-        <v>8</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>9999</v>
-      </c>
-      <c r="F59">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="F198" t="s">
         <v>76</v>
       </c>
-      <c r="E60" t="s">
-        <v>76</v>
-      </c>
-      <c r="F60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>119</v>
+      </c>
+      <c r="B199" t="s">
         <v>82</v>
       </c>
-      <c r="C61" t="s">
-        <v>83</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C199" t="s">
+        <v>120</v>
+      </c>
+      <c r="D199" t="s">
         <v>84</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E199" t="s">
         <v>84</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F199" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>85</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>121</v>
+      </c>
+      <c r="B200" t="s">
         <v>86</v>
       </c>
-      <c r="C62" t="s">
-        <v>87</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C200" t="s">
+        <v>122</v>
+      </c>
+      <c r="D200" t="s">
         <v>36</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E200" t="s">
         <v>36</v>
       </c>
-      <c r="F62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>88</v>
-      </c>
-      <c r="B63" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" t="s">
-        <v>91</v>
-      </c>
-      <c r="F63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E64" t="s">
-        <v>95</v>
-      </c>
-      <c r="F64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>96</v>
-      </c>
-      <c r="B65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" t="s">
-        <v>98</v>
-      </c>
-      <c r="D65" t="s">
-        <v>99</v>
-      </c>
-      <c r="E65" t="s">
-        <v>99</v>
-      </c>
-      <c r="F65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>101</v>
-      </c>
-      <c r="B66">
-        <v>9</v>
-      </c>
-      <c r="C66" t="s">
-        <v>102</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>103</v>
-      </c>
-      <c r="B67">
-        <v>9</v>
-      </c>
-      <c r="C67" t="s">
-        <v>104</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>105</v>
-      </c>
-      <c r="B68">
-        <v>5</v>
-      </c>
-      <c r="C68" t="s">
-        <v>106</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>107</v>
-      </c>
-      <c r="B69">
-        <v>5</v>
-      </c>
-      <c r="C69" t="s">
-        <v>108</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>109</v>
-      </c>
-      <c r="B70">
-        <v>5</v>
-      </c>
-      <c r="C70" t="s">
-        <v>110</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>116</v>
-      </c>
-      <c r="B71">
-        <v>5</v>
-      </c>
-      <c r="C71" t="s">
-        <v>55</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>117</v>
-      </c>
-      <c r="B72" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" t="s">
-        <v>118</v>
-      </c>
-      <c r="D72" t="s">
-        <v>76</v>
-      </c>
-      <c r="E72" t="s">
-        <v>76</v>
-      </c>
-      <c r="F72" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>119</v>
-      </c>
-      <c r="B73" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" t="s">
-        <v>120</v>
-      </c>
-      <c r="D73" t="s">
-        <v>84</v>
-      </c>
-      <c r="E73" t="s">
-        <v>84</v>
-      </c>
-      <c r="F73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>121</v>
-      </c>
-      <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" t="s">
-        <v>122</v>
-      </c>
-      <c r="D74" t="s">
-        <v>36</v>
-      </c>
-      <c r="E74" t="s">
-        <v>36</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="F200" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6516815D-94AA-4C99-BC65-696625A7AAB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC139A72-BE72-4CC8-B989-44A90D959852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -232,9 +232,6 @@
     <t>, , , , , , , , s</t>
   </si>
   <si>
-    <t>1600, 1600, 3, 25, 25, 25, 25, 25, 1</t>
-  </si>
-  <si>
     <t>10, 10, 10, 10, 10, 10, 9, 9</t>
   </si>
   <si>
@@ -244,12 +241,6 @@
     <t>1, 1, 1, 1, 1, 1, 0.05, 0.05</t>
   </si>
   <si>
-    <t>35, 35, 35, 35, 35, 35, 1, 1</t>
-  </si>
-  <si>
-    <t>45, 45, 45, 45, 45, 45, 1, 1</t>
-  </si>
-  <si>
     <t>ShopGold</t>
   </si>
   <si>
@@ -370,18 +361,9 @@
     <t>Zozoflr</t>
   </si>
   <si>
-    <t>3200, 3200, 3, 50, 50, 50, 50, 50, 1</t>
-  </si>
-  <si>
     <t>1, 1, 1, 1, 1, 1, 1, 1, 0.05</t>
   </si>
   <si>
-    <t>1400, 1400, 3, 15, 15, 15, 15, 15, 1</t>
-  </si>
-  <si>
-    <t>2800, 2800, 3, 30, 30, 30, 30, 30, 1</t>
-  </si>
-  <si>
     <t>Shemwkdt</t>
   </si>
   <si>
@@ -1169,6 +1151,24 @@
   </si>
   <si>
     <t>1.595, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1400, 1400, 3, 6, 6, 6, 6, 6, 1</t>
+  </si>
+  <si>
+    <t>1600, 1600, 3, 22, 22, 22, 22, 22, 1</t>
+  </si>
+  <si>
+    <t>2800, 2800, 3, 12, 12, 12, 12, 12, 1</t>
+  </si>
+  <si>
+    <t>3200, 3200, 3, 44, 44, 44, 44, 44, 1</t>
+  </si>
+  <si>
+    <t>16, 16, 16, 16, 16, 16, 1, 1</t>
+  </si>
+  <si>
+    <t>48, 48, 48, 48, 48, 48, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1535,7 @@
   <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1697,10 +1697,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1717,10 +1717,10 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1737,10 +1737,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1757,10 +1757,10 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1777,10 +1777,10 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1797,10 +1797,10 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1817,10 +1817,10 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1837,10 +1837,10 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1857,10 +1857,10 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1877,10 +1877,10 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1897,10 +1897,10 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1917,10 +1917,10 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1937,10 +1937,10 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1957,10 +1957,10 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1977,10 +1977,10 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1997,10 +1997,10 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2017,10 +2017,10 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2037,10 +2037,10 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F25" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2057,10 +2057,10 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2077,10 +2077,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F27" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2097,10 +2097,10 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F28" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2117,10 +2117,10 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F29" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2137,10 +2137,10 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F30" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2157,10 +2157,10 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F31" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2214,7 +2214,7 @@
         <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
@@ -2254,7 +2254,7 @@
         <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E36" t="s">
         <v>18</v>
@@ -2274,13 +2274,13 @@
         <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E37" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F37" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2294,13 +2294,13 @@
         <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E38" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F38" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2308,19 +2308,19 @@
         <v>5007</v>
       </c>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D39" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E39" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F39" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2334,13 +2334,13 @@
         <v>52</v>
       </c>
       <c r="D40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E40" t="s">
         <v>203</v>
       </c>
-      <c r="E40" t="s">
-        <v>209</v>
-      </c>
       <c r="F40" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2354,13 +2354,13 @@
         <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E41" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F41" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2374,13 +2374,13 @@
         <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F42" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2394,13 +2394,13 @@
         <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E43" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F43" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2414,13 +2414,13 @@
         <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E44" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F44" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2434,13 +2434,13 @@
         <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E45" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F45" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2448,19 +2448,19 @@
         <v>5014</v>
       </c>
       <c r="B46" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C46" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D46" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E46" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F46" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2474,13 +2474,13 @@
         <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E47" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F47" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2494,13 +2494,13 @@
         <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E48" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F48" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2514,13 +2514,13 @@
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E49" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F49" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2534,13 +2534,13 @@
         <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E50" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F50" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2554,13 +2554,13 @@
         <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E51" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F51" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2574,13 +2574,13 @@
         <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E52" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F52" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2588,19 +2588,19 @@
         <v>5021</v>
       </c>
       <c r="B53" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C53" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D53" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E53" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F53" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2614,13 +2614,13 @@
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E54" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F54" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2634,13 +2634,13 @@
         <v>52</v>
       </c>
       <c r="D55" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E55" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F55" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2654,13 +2654,13 @@
         <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E56" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F56" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2674,13 +2674,13 @@
         <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E57" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F57" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2694,13 +2694,13 @@
         <v>52</v>
       </c>
       <c r="D58" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E58" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F58" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2714,13 +2714,13 @@
         <v>52</v>
       </c>
       <c r="D59" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E59" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F59" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2728,19 +2728,19 @@
         <v>5028</v>
       </c>
       <c r="B60" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C60" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D60" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E60" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F60" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2791,7 +2791,7 @@
         <v>53</v>
       </c>
       <c r="D63" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
@@ -2811,7 +2811,7 @@
         <v>53</v>
       </c>
       <c r="D64" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E64" t="s">
         <v>24</v>
@@ -2831,7 +2831,7 @@
         <v>53</v>
       </c>
       <c r="D65" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E65" t="s">
         <v>26</v>
@@ -2851,13 +2851,13 @@
         <v>53</v>
       </c>
       <c r="D66" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E66" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F66" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2871,13 +2871,13 @@
         <v>53</v>
       </c>
       <c r="D67" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E67" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F67" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2885,19 +2885,19 @@
         <v>6007</v>
       </c>
       <c r="B68" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C68" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D68" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E68" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F68" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2911,13 +2911,13 @@
         <v>53</v>
       </c>
       <c r="D69" t="s">
+        <v>245</v>
+      </c>
+      <c r="E69" t="s">
         <v>251</v>
       </c>
-      <c r="E69" t="s">
-        <v>257</v>
-      </c>
       <c r="F69" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2931,13 +2931,13 @@
         <v>53</v>
       </c>
       <c r="D70" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E70" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F70" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2951,13 +2951,13 @@
         <v>53</v>
       </c>
       <c r="D71" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E71" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F71" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2971,13 +2971,13 @@
         <v>53</v>
       </c>
       <c r="D72" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E72" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2991,13 +2991,13 @@
         <v>53</v>
       </c>
       <c r="D73" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E73" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F73" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3011,13 +3011,13 @@
         <v>53</v>
       </c>
       <c r="D74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E74" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F74" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3025,19 +3025,19 @@
         <v>6014</v>
       </c>
       <c r="B75" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C75" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D75" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E75" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F75" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3051,13 +3051,13 @@
         <v>53</v>
       </c>
       <c r="D76" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E76" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F76" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3071,13 +3071,13 @@
         <v>53</v>
       </c>
       <c r="D77" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E77" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F77" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3091,13 +3091,13 @@
         <v>53</v>
       </c>
       <c r="D78" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E78" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F78" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3111,13 +3111,13 @@
         <v>53</v>
       </c>
       <c r="D79" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E79" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F79" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3131,13 +3131,13 @@
         <v>53</v>
       </c>
       <c r="D80" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E80" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F80" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3151,13 +3151,13 @@
         <v>53</v>
       </c>
       <c r="D81" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E81" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F81" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3165,19 +3165,19 @@
         <v>6021</v>
       </c>
       <c r="B82" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C82" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D82" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E82" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F82" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3191,13 +3191,13 @@
         <v>53</v>
       </c>
       <c r="D83" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E83" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F83" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3211,13 +3211,13 @@
         <v>53</v>
       </c>
       <c r="D84" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E84" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F84" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3231,13 +3231,13 @@
         <v>53</v>
       </c>
       <c r="D85" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E85" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F85" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3251,13 +3251,13 @@
         <v>53</v>
       </c>
       <c r="D86" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E86" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F86" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3271,13 +3271,13 @@
         <v>53</v>
       </c>
       <c r="D87" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E87" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F87" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3291,13 +3291,13 @@
         <v>53</v>
       </c>
       <c r="D88" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E88" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F88" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3305,24 +3305,24 @@
         <v>6028</v>
       </c>
       <c r="B89" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C89" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D89" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E89" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F89" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B90" t="s">
         <v>28</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B91" t="s">
         <v>28</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -3434,15 +3434,15 @@
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F95" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -3454,15 +3454,15 @@
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F96" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -3474,15 +3474,15 @@
         <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F97" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -3494,15 +3494,15 @@
         <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F98" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -3514,15 +3514,15 @@
         <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F99" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -3534,15 +3534,15 @@
         <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F100" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -3554,15 +3554,15 @@
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F101" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -3574,15 +3574,15 @@
         <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F102" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -3594,15 +3594,15 @@
         <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F103" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -3614,15 +3614,15 @@
         <v>7</v>
       </c>
       <c r="E104" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F104" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -3634,15 +3634,15 @@
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F105" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -3654,15 +3654,15 @@
         <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F106" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -3674,15 +3674,15 @@
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F107" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -3694,15 +3694,15 @@
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F108" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -3714,15 +3714,15 @@
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F109" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -3734,15 +3734,15 @@
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F110" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -3754,15 +3754,15 @@
         <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F111" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -3774,15 +3774,15 @@
         <v>7</v>
       </c>
       <c r="E112" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F112" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -3794,15 +3794,15 @@
         <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F113" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -3814,15 +3814,15 @@
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F114" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -3834,15 +3834,15 @@
         <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F115" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -3854,15 +3854,15 @@
         <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F116" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -3874,15 +3874,15 @@
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F117" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -3894,15 +3894,15 @@
         <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F118" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B119" t="s">
         <v>35</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B120" t="s">
         <v>39</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B122" t="s">
         <v>12</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B124" t="s">
         <v>12</v>
@@ -4014,15 +4014,15 @@
         <v>13</v>
       </c>
       <c r="E124" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F124" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B125" t="s">
         <v>12</v>
@@ -4034,35 +4034,35 @@
         <v>13</v>
       </c>
       <c r="E125" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F125" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C126" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D126" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E126" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F126" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B127" t="s">
         <v>12</v>
@@ -4074,15 +4074,15 @@
         <v>13</v>
       </c>
       <c r="E127" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F127" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B128" t="s">
         <v>12</v>
@@ -4094,15 +4094,15 @@
         <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F128" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
@@ -4114,15 +4114,15 @@
         <v>13</v>
       </c>
       <c r="E129" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F129" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
@@ -4134,15 +4134,15 @@
         <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F130" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B131" t="s">
         <v>12</v>
@@ -4154,15 +4154,15 @@
         <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F131" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B132" t="s">
         <v>12</v>
@@ -4174,35 +4174,35 @@
         <v>13</v>
       </c>
       <c r="E132" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F132" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B133" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C133" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D133" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E133" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F133" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B134" t="s">
         <v>12</v>
@@ -4214,15 +4214,15 @@
         <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F134" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B135" t="s">
         <v>12</v>
@@ -4234,15 +4234,15 @@
         <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F135" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B136" t="s">
         <v>12</v>
@@ -4254,15 +4254,15 @@
         <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F136" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
@@ -4274,15 +4274,15 @@
         <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F137" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B138" t="s">
         <v>12</v>
@@ -4294,15 +4294,15 @@
         <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F138" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B139" t="s">
         <v>12</v>
@@ -4314,35 +4314,35 @@
         <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F139" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B140" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C140" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D140" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E140" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F140" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B141" t="s">
         <v>12</v>
@@ -4354,15 +4354,15 @@
         <v>13</v>
       </c>
       <c r="E141" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F141" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B142" t="s">
         <v>12</v>
@@ -4374,15 +4374,15 @@
         <v>13</v>
       </c>
       <c r="E142" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F142" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B143" t="s">
         <v>12</v>
@@ -4394,15 +4394,15 @@
         <v>13</v>
       </c>
       <c r="E143" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F143" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B144" t="s">
         <v>12</v>
@@ -4414,15 +4414,15 @@
         <v>13</v>
       </c>
       <c r="E144" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F144" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B145" t="s">
         <v>12</v>
@@ -4434,15 +4434,15 @@
         <v>13</v>
       </c>
       <c r="E145" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F145" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B146" t="s">
         <v>12</v>
@@ -4454,35 +4454,35 @@
         <v>13</v>
       </c>
       <c r="E146" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F146" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B147" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C147" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D147" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E147" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F147" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B149" t="s">
         <v>43</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B150" t="s">
         <v>20</v>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B151" t="s">
         <v>20</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B152" t="s">
         <v>20</v>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B153" t="s">
         <v>20</v>
@@ -4591,15 +4591,15 @@
         <v>21</v>
       </c>
       <c r="E153" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F153" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B154" t="s">
         <v>20</v>
@@ -4611,35 +4611,35 @@
         <v>21</v>
       </c>
       <c r="E154" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F154" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B155" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C155" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D155" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E155" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F155" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B156" t="s">
         <v>20</v>
@@ -4651,15 +4651,15 @@
         <v>21</v>
       </c>
       <c r="E156" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F156" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B157" t="s">
         <v>20</v>
@@ -4671,15 +4671,15 @@
         <v>21</v>
       </c>
       <c r="E157" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F157" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B158" t="s">
         <v>20</v>
@@ -4691,15 +4691,15 @@
         <v>21</v>
       </c>
       <c r="E158" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F158" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B159" t="s">
         <v>20</v>
@@ -4711,15 +4711,15 @@
         <v>21</v>
       </c>
       <c r="E159" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F159" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B160" t="s">
         <v>20</v>
@@ -4731,15 +4731,15 @@
         <v>21</v>
       </c>
       <c r="E160" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F160" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B161" t="s">
         <v>20</v>
@@ -4751,35 +4751,35 @@
         <v>21</v>
       </c>
       <c r="E161" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F161" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B162" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C162" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D162" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E162" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F162" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B163" t="s">
         <v>20</v>
@@ -4791,15 +4791,15 @@
         <v>21</v>
       </c>
       <c r="E163" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F163" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B164" t="s">
         <v>20</v>
@@ -4811,15 +4811,15 @@
         <v>21</v>
       </c>
       <c r="E164" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F164" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B165" t="s">
         <v>20</v>
@@ -4831,15 +4831,15 @@
         <v>21</v>
       </c>
       <c r="E165" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F165" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B166" t="s">
         <v>20</v>
@@ -4851,15 +4851,15 @@
         <v>21</v>
       </c>
       <c r="E166" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F166" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B167" t="s">
         <v>20</v>
@@ -4871,15 +4871,15 @@
         <v>21</v>
       </c>
       <c r="E167" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F167" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B168" t="s">
         <v>20</v>
@@ -4891,35 +4891,35 @@
         <v>21</v>
       </c>
       <c r="E168" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F168" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B169" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C169" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D169" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E169" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F169" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B170" t="s">
         <v>20</v>
@@ -4931,15 +4931,15 @@
         <v>21</v>
       </c>
       <c r="E170" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F170" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B171" t="s">
         <v>20</v>
@@ -4951,15 +4951,15 @@
         <v>21</v>
       </c>
       <c r="E171" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F171" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B172" t="s">
         <v>20</v>
@@ -4971,15 +4971,15 @@
         <v>21</v>
       </c>
       <c r="E172" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F172" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B173" t="s">
         <v>20</v>
@@ -4991,15 +4991,15 @@
         <v>21</v>
       </c>
       <c r="E173" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F173" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B174" t="s">
         <v>20</v>
@@ -5011,15 +5011,15 @@
         <v>21</v>
       </c>
       <c r="E174" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F174" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B175" t="s">
         <v>20</v>
@@ -5031,30 +5031,30 @@
         <v>21</v>
       </c>
       <c r="E175" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F175" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B176" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C176" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D176" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E176" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F176" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -5108,18 +5108,18 @@
         <v>65</v>
       </c>
       <c r="D179" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E179" t="s">
-        <v>114</v>
+        <v>373</v>
       </c>
       <c r="F179" t="s">
-        <v>66</v>
+        <v>374</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B180" t="s">
         <v>64</v>
@@ -5128,13 +5128,13 @@
         <v>65</v>
       </c>
       <c r="D180" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E180" t="s">
-        <v>115</v>
+        <v>375</v>
       </c>
       <c r="F180" t="s">
-        <v>112</v>
+        <v>376</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -5142,24 +5142,24 @@
         <v>61</v>
       </c>
       <c r="B181" t="s">
+        <v>66</v>
+      </c>
+      <c r="C181" t="s">
         <v>67</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>68</v>
       </c>
-      <c r="D181" t="s">
-        <v>69</v>
-      </c>
       <c r="E181" t="s">
-        <v>70</v>
+        <v>377</v>
       </c>
       <c r="F181" t="s">
-        <v>71</v>
+        <v>378</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B182">
         <v>2</v>
@@ -5179,7 +5179,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B183">
         <v>8</v>
@@ -5199,27 +5199,27 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
+        <v>71</v>
+      </c>
+      <c r="B184" t="s">
+        <v>72</v>
+      </c>
+      <c r="C184" t="s">
+        <v>73</v>
+      </c>
+      <c r="D184" t="s">
+        <v>73</v>
+      </c>
+      <c r="E184" t="s">
         <v>74</v>
       </c>
-      <c r="B184" t="s">
-        <v>75</v>
-      </c>
-      <c r="C184" t="s">
-        <v>76</v>
-      </c>
-      <c r="D184" t="s">
-        <v>76</v>
-      </c>
-      <c r="E184" t="s">
-        <v>77</v>
-      </c>
       <c r="F184" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B185">
         <v>8</v>
@@ -5239,53 +5239,53 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B186" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C186" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D186" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E186" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F186" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>78</v>
+      </c>
+      <c r="B187" t="s">
+        <v>79</v>
+      </c>
+      <c r="C187" t="s">
+        <v>80</v>
+      </c>
+      <c r="D187" t="s">
         <v>81</v>
       </c>
-      <c r="B187" t="s">
-        <v>82</v>
-      </c>
-      <c r="C187" t="s">
-        <v>83</v>
-      </c>
-      <c r="D187" t="s">
-        <v>84</v>
-      </c>
       <c r="E187" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F187" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B188" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C188" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D188" t="s">
         <v>36</v>
@@ -5299,73 +5299,73 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
+        <v>85</v>
+      </c>
+      <c r="B189" t="s">
+        <v>86</v>
+      </c>
+      <c r="C189" t="s">
+        <v>87</v>
+      </c>
+      <c r="D189" t="s">
         <v>88</v>
       </c>
-      <c r="B189" t="s">
-        <v>89</v>
-      </c>
-      <c r="C189" t="s">
-        <v>90</v>
-      </c>
-      <c r="D189" t="s">
-        <v>91</v>
-      </c>
       <c r="E189" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F189" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
+        <v>89</v>
+      </c>
+      <c r="B190" t="s">
+        <v>90</v>
+      </c>
+      <c r="C190" t="s">
+        <v>91</v>
+      </c>
+      <c r="D190" t="s">
         <v>92</v>
       </c>
-      <c r="B190" t="s">
-        <v>93</v>
-      </c>
-      <c r="C190" t="s">
-        <v>94</v>
-      </c>
-      <c r="D190" t="s">
-        <v>95</v>
-      </c>
       <c r="E190" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F190" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>93</v>
+      </c>
+      <c r="B191" t="s">
+        <v>94</v>
+      </c>
+      <c r="C191" t="s">
+        <v>95</v>
+      </c>
+      <c r="D191" t="s">
         <v>96</v>
       </c>
-      <c r="B191" t="s">
-        <v>97</v>
-      </c>
-      <c r="C191" t="s">
-        <v>98</v>
-      </c>
-      <c r="D191" t="s">
-        <v>99</v>
-      </c>
       <c r="E191" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F191" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B192">
         <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -5379,13 +5379,13 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B193">
         <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -5399,13 +5399,13 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B194">
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -5419,13 +5419,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B195">
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -5439,13 +5439,13 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B196">
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B197">
         <v>5</v>
@@ -5479,53 +5479,53 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B198" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C198" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D198" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E198" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F198" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B199" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C199" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D199" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E199" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F199" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B200" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C200" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D200" t="s">
         <v>36</v>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC139A72-BE72-4CC8-B989-44A90D959852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925B2BFD-0673-4783-B4A6-64522788318A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -238,9 +238,6 @@
     <t>, , , , , , s, s</t>
   </si>
   <si>
-    <t>1, 1, 1, 1, 1, 1, 0.05, 0.05</t>
-  </si>
-  <si>
     <t>ShopGold</t>
   </si>
   <si>
@@ -361,9 +358,6 @@
     <t>Zozoflr</t>
   </si>
   <si>
-    <t>1, 1, 1, 1, 1, 1, 1, 1, 0.05</t>
-  </si>
-  <si>
     <t>Shemwkdt</t>
   </si>
   <si>
@@ -1169,6 +1163,12 @@
   </si>
   <si>
     <t>48, 48, 48, 48, 48, 48, 1, 1</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 1, 1, 1, 0.046</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 1, 0.046, 0.046</t>
   </si>
 </sst>
 </file>
@@ -1697,10 +1697,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1717,10 +1717,10 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1737,10 +1737,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1757,10 +1757,10 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1777,10 +1777,10 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1797,10 +1797,10 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1817,10 +1817,10 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1837,10 +1837,10 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1857,10 +1857,10 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1877,10 +1877,10 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1897,10 +1897,10 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1917,10 +1917,10 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1937,10 +1937,10 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1957,10 +1957,10 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1977,10 +1977,10 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1997,10 +1997,10 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2017,10 +2017,10 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2037,10 +2037,10 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2057,10 +2057,10 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2077,10 +2077,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2097,10 +2097,10 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2117,10 +2117,10 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2137,10 +2137,10 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2157,10 +2157,10 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2214,7 +2214,7 @@
         <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
@@ -2254,7 +2254,7 @@
         <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E36" t="s">
         <v>18</v>
@@ -2274,13 +2274,13 @@
         <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2294,13 +2294,13 @@
         <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2308,19 +2308,19 @@
         <v>5007</v>
       </c>
       <c r="B39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" t="s">
         <v>198</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>199</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>200</v>
-      </c>
-      <c r="E39" t="s">
-        <v>201</v>
-      </c>
-      <c r="F39" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2334,13 +2334,13 @@
         <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2354,13 +2354,13 @@
         <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2374,13 +2374,13 @@
         <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F42" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2394,13 +2394,13 @@
         <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2414,13 +2414,13 @@
         <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F44" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2434,13 +2434,13 @@
         <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E45" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F45" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2448,19 +2448,19 @@
         <v>5014</v>
       </c>
       <c r="B46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" t="s">
         <v>198</v>
       </c>
-      <c r="C46" t="s">
-        <v>199</v>
-      </c>
-      <c r="D46" t="s">
-        <v>200</v>
-      </c>
       <c r="E46" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F46" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2474,13 +2474,13 @@
         <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F47" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2494,13 +2494,13 @@
         <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E48" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F48" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2514,13 +2514,13 @@
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E49" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F49" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2534,13 +2534,13 @@
         <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E50" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F50" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2554,13 +2554,13 @@
         <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E51" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F51" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2574,13 +2574,13 @@
         <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2588,19 +2588,19 @@
         <v>5021</v>
       </c>
       <c r="B53" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" t="s">
+        <v>197</v>
+      </c>
+      <c r="D53" t="s">
         <v>198</v>
       </c>
-      <c r="C53" t="s">
-        <v>199</v>
-      </c>
-      <c r="D53" t="s">
-        <v>200</v>
-      </c>
       <c r="E53" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F53" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2614,13 +2614,13 @@
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E54" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2634,13 +2634,13 @@
         <v>52</v>
       </c>
       <c r="D55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E55" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2654,13 +2654,13 @@
         <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E56" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F56" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2674,13 +2674,13 @@
         <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E57" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F57" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2694,13 +2694,13 @@
         <v>52</v>
       </c>
       <c r="D58" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E58" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F58" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2714,13 +2714,13 @@
         <v>52</v>
       </c>
       <c r="D59" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E59" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F59" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2728,19 +2728,19 @@
         <v>5028</v>
       </c>
       <c r="B60" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" t="s">
+        <v>197</v>
+      </c>
+      <c r="D60" t="s">
         <v>198</v>
       </c>
-      <c r="C60" t="s">
-        <v>199</v>
-      </c>
-      <c r="D60" t="s">
-        <v>200</v>
-      </c>
       <c r="E60" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F60" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2791,7 +2791,7 @@
         <v>53</v>
       </c>
       <c r="D63" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
@@ -2811,7 +2811,7 @@
         <v>53</v>
       </c>
       <c r="D64" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E64" t="s">
         <v>24</v>
@@ -2831,7 +2831,7 @@
         <v>53</v>
       </c>
       <c r="D65" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E65" t="s">
         <v>26</v>
@@ -2851,13 +2851,13 @@
         <v>53</v>
       </c>
       <c r="D66" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2871,13 +2871,13 @@
         <v>53</v>
       </c>
       <c r="D67" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E67" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F67" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2885,19 +2885,19 @@
         <v>6007</v>
       </c>
       <c r="B68" t="s">
+        <v>244</v>
+      </c>
+      <c r="C68" t="s">
+        <v>245</v>
+      </c>
+      <c r="D68" t="s">
         <v>246</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E68" t="s">
         <v>247</v>
       </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
         <v>248</v>
-      </c>
-      <c r="E68" t="s">
-        <v>249</v>
-      </c>
-      <c r="F68" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2911,13 +2911,13 @@
         <v>53</v>
       </c>
       <c r="D69" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E69" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F69" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2931,13 +2931,13 @@
         <v>53</v>
       </c>
       <c r="D70" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E70" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F70" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2951,13 +2951,13 @@
         <v>53</v>
       </c>
       <c r="D71" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E71" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F71" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2971,13 +2971,13 @@
         <v>53</v>
       </c>
       <c r="D72" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E72" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2991,13 +2991,13 @@
         <v>53</v>
       </c>
       <c r="D73" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E73" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F73" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3011,13 +3011,13 @@
         <v>53</v>
       </c>
       <c r="D74" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E74" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F74" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3025,19 +3025,19 @@
         <v>6014</v>
       </c>
       <c r="B75" t="s">
+        <v>244</v>
+      </c>
+      <c r="C75" t="s">
+        <v>245</v>
+      </c>
+      <c r="D75" t="s">
         <v>246</v>
       </c>
-      <c r="C75" t="s">
-        <v>247</v>
-      </c>
-      <c r="D75" t="s">
-        <v>248</v>
-      </c>
       <c r="E75" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F75" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3051,13 +3051,13 @@
         <v>53</v>
       </c>
       <c r="D76" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E76" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3071,13 +3071,13 @@
         <v>53</v>
       </c>
       <c r="D77" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E77" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F77" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3091,13 +3091,13 @@
         <v>53</v>
       </c>
       <c r="D78" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E78" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F78" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3111,13 +3111,13 @@
         <v>53</v>
       </c>
       <c r="D79" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E79" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F79" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3131,13 +3131,13 @@
         <v>53</v>
       </c>
       <c r="D80" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E80" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F80" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3151,13 +3151,13 @@
         <v>53</v>
       </c>
       <c r="D81" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E81" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F81" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3165,19 +3165,19 @@
         <v>6021</v>
       </c>
       <c r="B82" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" t="s">
+        <v>245</v>
+      </c>
+      <c r="D82" t="s">
         <v>246</v>
       </c>
-      <c r="C82" t="s">
-        <v>247</v>
-      </c>
-      <c r="D82" t="s">
-        <v>248</v>
-      </c>
       <c r="E82" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F82" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3191,13 +3191,13 @@
         <v>53</v>
       </c>
       <c r="D83" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E83" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F83" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3211,13 +3211,13 @@
         <v>53</v>
       </c>
       <c r="D84" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E84" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F84" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3231,13 +3231,13 @@
         <v>53</v>
       </c>
       <c r="D85" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E85" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F85" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3251,13 +3251,13 @@
         <v>53</v>
       </c>
       <c r="D86" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E86" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F86" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3271,13 +3271,13 @@
         <v>53</v>
       </c>
       <c r="D87" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E87" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F87" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3291,13 +3291,13 @@
         <v>53</v>
       </c>
       <c r="D88" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E88" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F88" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3305,24 +3305,24 @@
         <v>6028</v>
       </c>
       <c r="B89" t="s">
+        <v>244</v>
+      </c>
+      <c r="C89" t="s">
+        <v>245</v>
+      </c>
+      <c r="D89" t="s">
         <v>246</v>
       </c>
-      <c r="C89" t="s">
-        <v>247</v>
-      </c>
-      <c r="D89" t="s">
-        <v>248</v>
-      </c>
       <c r="E89" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F89" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B90" t="s">
         <v>28</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B91" t="s">
         <v>28</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -3434,15 +3434,15 @@
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F95" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -3454,15 +3454,15 @@
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F96" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -3474,15 +3474,15 @@
         <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F97" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -3494,15 +3494,15 @@
         <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F98" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -3514,15 +3514,15 @@
         <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F99" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -3534,15 +3534,15 @@
         <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F100" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -3554,15 +3554,15 @@
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F101" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -3574,15 +3574,15 @@
         <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F102" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -3594,15 +3594,15 @@
         <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F103" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -3614,15 +3614,15 @@
         <v>7</v>
       </c>
       <c r="E104" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F104" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -3634,15 +3634,15 @@
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F105" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -3654,15 +3654,15 @@
         <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F106" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -3674,15 +3674,15 @@
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F107" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -3694,15 +3694,15 @@
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F108" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -3714,15 +3714,15 @@
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F109" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -3734,15 +3734,15 @@
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F110" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -3754,15 +3754,15 @@
         <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F111" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -3774,15 +3774,15 @@
         <v>7</v>
       </c>
       <c r="E112" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F112" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -3794,15 +3794,15 @@
         <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F113" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -3814,15 +3814,15 @@
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F114" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -3834,15 +3834,15 @@
         <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F115" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -3854,15 +3854,15 @@
         <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F116" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -3874,15 +3874,15 @@
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F117" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -3894,15 +3894,15 @@
         <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F118" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B119" t="s">
         <v>35</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B120" t="s">
         <v>39</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B122" t="s">
         <v>12</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B124" t="s">
         <v>12</v>
@@ -4014,15 +4014,15 @@
         <v>13</v>
       </c>
       <c r="E124" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F124" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B125" t="s">
         <v>12</v>
@@ -4034,35 +4034,35 @@
         <v>13</v>
       </c>
       <c r="E125" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F125" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B126" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C126" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D126" t="s">
+        <v>311</v>
+      </c>
+      <c r="E126" t="s">
+        <v>312</v>
+      </c>
+      <c r="F126" t="s">
         <v>313</v>
-      </c>
-      <c r="E126" t="s">
-        <v>314</v>
-      </c>
-      <c r="F126" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B127" t="s">
         <v>12</v>
@@ -4074,15 +4074,15 @@
         <v>13</v>
       </c>
       <c r="E127" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F127" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B128" t="s">
         <v>12</v>
@@ -4094,15 +4094,15 @@
         <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F128" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
@@ -4114,15 +4114,15 @@
         <v>13</v>
       </c>
       <c r="E129" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F129" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
@@ -4134,15 +4134,15 @@
         <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F130" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B131" t="s">
         <v>12</v>
@@ -4154,15 +4154,15 @@
         <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F131" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B132" t="s">
         <v>12</v>
@@ -4174,35 +4174,35 @@
         <v>13</v>
       </c>
       <c r="E132" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F132" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>320</v>
+      </c>
+      <c r="B133" t="s">
+        <v>196</v>
+      </c>
+      <c r="C133" t="s">
+        <v>197</v>
+      </c>
+      <c r="D133" t="s">
+        <v>311</v>
+      </c>
+      <c r="E133" t="s">
+        <v>321</v>
+      </c>
+      <c r="F133" t="s">
         <v>322</v>
-      </c>
-      <c r="B133" t="s">
-        <v>198</v>
-      </c>
-      <c r="C133" t="s">
-        <v>199</v>
-      </c>
-      <c r="D133" t="s">
-        <v>313</v>
-      </c>
-      <c r="E133" t="s">
-        <v>323</v>
-      </c>
-      <c r="F133" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B134" t="s">
         <v>12</v>
@@ -4214,15 +4214,15 @@
         <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F134" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B135" t="s">
         <v>12</v>
@@ -4234,15 +4234,15 @@
         <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F135" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B136" t="s">
         <v>12</v>
@@ -4254,15 +4254,15 @@
         <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F136" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
@@ -4274,15 +4274,15 @@
         <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F137" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B138" t="s">
         <v>12</v>
@@ -4294,15 +4294,15 @@
         <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F138" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B139" t="s">
         <v>12</v>
@@ -4314,35 +4314,35 @@
         <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F139" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
+        <v>329</v>
+      </c>
+      <c r="B140" t="s">
+        <v>196</v>
+      </c>
+      <c r="C140" t="s">
+        <v>197</v>
+      </c>
+      <c r="D140" t="s">
+        <v>311</v>
+      </c>
+      <c r="E140" t="s">
+        <v>330</v>
+      </c>
+      <c r="F140" t="s">
         <v>331</v>
-      </c>
-      <c r="B140" t="s">
-        <v>198</v>
-      </c>
-      <c r="C140" t="s">
-        <v>199</v>
-      </c>
-      <c r="D140" t="s">
-        <v>313</v>
-      </c>
-      <c r="E140" t="s">
-        <v>332</v>
-      </c>
-      <c r="F140" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B141" t="s">
         <v>12</v>
@@ -4354,15 +4354,15 @@
         <v>13</v>
       </c>
       <c r="E141" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F141" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B142" t="s">
         <v>12</v>
@@ -4374,15 +4374,15 @@
         <v>13</v>
       </c>
       <c r="E142" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F142" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B143" t="s">
         <v>12</v>
@@ -4394,15 +4394,15 @@
         <v>13</v>
       </c>
       <c r="E143" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F143" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B144" t="s">
         <v>12</v>
@@ -4414,15 +4414,15 @@
         <v>13</v>
       </c>
       <c r="E144" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F144" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B145" t="s">
         <v>12</v>
@@ -4434,15 +4434,15 @@
         <v>13</v>
       </c>
       <c r="E145" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F145" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B146" t="s">
         <v>12</v>
@@ -4454,35 +4454,35 @@
         <v>13</v>
       </c>
       <c r="E146" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F146" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>338</v>
+      </c>
+      <c r="B147" t="s">
+        <v>196</v>
+      </c>
+      <c r="C147" t="s">
+        <v>197</v>
+      </c>
+      <c r="D147" t="s">
+        <v>311</v>
+      </c>
+      <c r="E147" t="s">
+        <v>339</v>
+      </c>
+      <c r="F147" t="s">
         <v>340</v>
-      </c>
-      <c r="B147" t="s">
-        <v>198</v>
-      </c>
-      <c r="C147" t="s">
-        <v>199</v>
-      </c>
-      <c r="D147" t="s">
-        <v>313</v>
-      </c>
-      <c r="E147" t="s">
-        <v>341</v>
-      </c>
-      <c r="F147" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B149" t="s">
         <v>43</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B150" t="s">
         <v>20</v>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B151" t="s">
         <v>20</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B152" t="s">
         <v>20</v>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B153" t="s">
         <v>20</v>
@@ -4591,15 +4591,15 @@
         <v>21</v>
       </c>
       <c r="E153" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F153" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B154" t="s">
         <v>20</v>
@@ -4611,35 +4611,35 @@
         <v>21</v>
       </c>
       <c r="E154" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B155" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C155" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D155" t="s">
+        <v>341</v>
+      </c>
+      <c r="E155" t="s">
+        <v>342</v>
+      </c>
+      <c r="F155" t="s">
         <v>343</v>
-      </c>
-      <c r="E155" t="s">
-        <v>344</v>
-      </c>
-      <c r="F155" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B156" t="s">
         <v>20</v>
@@ -4651,15 +4651,15 @@
         <v>21</v>
       </c>
       <c r="E156" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F156" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B157" t="s">
         <v>20</v>
@@ -4671,15 +4671,15 @@
         <v>21</v>
       </c>
       <c r="E157" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F157" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B158" t="s">
         <v>20</v>
@@ -4691,15 +4691,15 @@
         <v>21</v>
       </c>
       <c r="E158" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F158" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B159" t="s">
         <v>20</v>
@@ -4711,15 +4711,15 @@
         <v>21</v>
       </c>
       <c r="E159" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F159" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B160" t="s">
         <v>20</v>
@@ -4731,15 +4731,15 @@
         <v>21</v>
       </c>
       <c r="E160" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F160" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B161" t="s">
         <v>20</v>
@@ -4751,35 +4751,35 @@
         <v>21</v>
       </c>
       <c r="E161" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F161" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>350</v>
+      </c>
+      <c r="B162" t="s">
+        <v>244</v>
+      </c>
+      <c r="C162" t="s">
+        <v>245</v>
+      </c>
+      <c r="D162" t="s">
+        <v>341</v>
+      </c>
+      <c r="E162" t="s">
+        <v>351</v>
+      </c>
+      <c r="F162" t="s">
         <v>352</v>
-      </c>
-      <c r="B162" t="s">
-        <v>246</v>
-      </c>
-      <c r="C162" t="s">
-        <v>247</v>
-      </c>
-      <c r="D162" t="s">
-        <v>343</v>
-      </c>
-      <c r="E162" t="s">
-        <v>353</v>
-      </c>
-      <c r="F162" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B163" t="s">
         <v>20</v>
@@ -4791,15 +4791,15 @@
         <v>21</v>
       </c>
       <c r="E163" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F163" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B164" t="s">
         <v>20</v>
@@ -4811,15 +4811,15 @@
         <v>21</v>
       </c>
       <c r="E164" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F164" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B165" t="s">
         <v>20</v>
@@ -4831,15 +4831,15 @@
         <v>21</v>
       </c>
       <c r="E165" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F165" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B166" t="s">
         <v>20</v>
@@ -4851,15 +4851,15 @@
         <v>21</v>
       </c>
       <c r="E166" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F166" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B167" t="s">
         <v>20</v>
@@ -4871,15 +4871,15 @@
         <v>21</v>
       </c>
       <c r="E167" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F167" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B168" t="s">
         <v>20</v>
@@ -4891,35 +4891,35 @@
         <v>21</v>
       </c>
       <c r="E168" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F168" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
+        <v>359</v>
+      </c>
+      <c r="B169" t="s">
+        <v>244</v>
+      </c>
+      <c r="C169" t="s">
+        <v>245</v>
+      </c>
+      <c r="D169" t="s">
+        <v>341</v>
+      </c>
+      <c r="E169" t="s">
+        <v>360</v>
+      </c>
+      <c r="F169" t="s">
         <v>361</v>
-      </c>
-      <c r="B169" t="s">
-        <v>246</v>
-      </c>
-      <c r="C169" t="s">
-        <v>247</v>
-      </c>
-      <c r="D169" t="s">
-        <v>343</v>
-      </c>
-      <c r="E169" t="s">
-        <v>362</v>
-      </c>
-      <c r="F169" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B170" t="s">
         <v>20</v>
@@ -4931,15 +4931,15 @@
         <v>21</v>
       </c>
       <c r="E170" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F170" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B171" t="s">
         <v>20</v>
@@ -4951,15 +4951,15 @@
         <v>21</v>
       </c>
       <c r="E171" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F171" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B172" t="s">
         <v>20</v>
@@ -4971,15 +4971,15 @@
         <v>21</v>
       </c>
       <c r="E172" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F172" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B173" t="s">
         <v>20</v>
@@ -4991,15 +4991,15 @@
         <v>21</v>
       </c>
       <c r="E173" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F173" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B174" t="s">
         <v>20</v>
@@ -5011,15 +5011,15 @@
         <v>21</v>
       </c>
       <c r="E174" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F174" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B175" t="s">
         <v>20</v>
@@ -5031,30 +5031,30 @@
         <v>21</v>
       </c>
       <c r="E175" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F175" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
+        <v>368</v>
+      </c>
+      <c r="B176" t="s">
+        <v>244</v>
+      </c>
+      <c r="C176" t="s">
+        <v>245</v>
+      </c>
+      <c r="D176" t="s">
+        <v>341</v>
+      </c>
+      <c r="E176" t="s">
+        <v>369</v>
+      </c>
+      <c r="F176" t="s">
         <v>370</v>
-      </c>
-      <c r="B176" t="s">
-        <v>246</v>
-      </c>
-      <c r="C176" t="s">
-        <v>247</v>
-      </c>
-      <c r="D176" t="s">
-        <v>343</v>
-      </c>
-      <c r="E176" t="s">
-        <v>371</v>
-      </c>
-      <c r="F176" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -5108,18 +5108,18 @@
         <v>65</v>
       </c>
       <c r="D179" t="s">
-        <v>109</v>
+        <v>377</v>
       </c>
       <c r="E179" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F179" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B180" t="s">
         <v>64</v>
@@ -5128,13 +5128,13 @@
         <v>65</v>
       </c>
       <c r="D180" t="s">
-        <v>109</v>
+        <v>377</v>
       </c>
       <c r="E180" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F180" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -5148,18 +5148,18 @@
         <v>67</v>
       </c>
       <c r="D181" t="s">
-        <v>68</v>
+        <v>378</v>
       </c>
       <c r="E181" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F181" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B182">
         <v>2</v>
@@ -5179,7 +5179,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B183">
         <v>8</v>
@@ -5199,27 +5199,27 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
+        <v>70</v>
+      </c>
+      <c r="B184" t="s">
         <v>71</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>72</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
+        <v>72</v>
+      </c>
+      <c r="E184" t="s">
         <v>73</v>
       </c>
-      <c r="D184" t="s">
+      <c r="F184" t="s">
         <v>73</v>
-      </c>
-      <c r="E184" t="s">
-        <v>74</v>
-      </c>
-      <c r="F184" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B185">
         <v>8</v>
@@ -5239,53 +5239,53 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
+        <v>74</v>
+      </c>
+      <c r="B186" t="s">
         <v>75</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>76</v>
       </c>
-      <c r="C186" t="s">
-        <v>77</v>
-      </c>
       <c r="D186" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E186" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F186" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>77</v>
+      </c>
+      <c r="B187" t="s">
         <v>78</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>79</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>80</v>
       </c>
-      <c r="D187" t="s">
-        <v>81</v>
-      </c>
       <c r="E187" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F187" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
+        <v>81</v>
+      </c>
+      <c r="B188" t="s">
         <v>82</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>83</v>
-      </c>
-      <c r="C188" t="s">
-        <v>84</v>
       </c>
       <c r="D188" t="s">
         <v>36</v>
@@ -5299,73 +5299,73 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
+        <v>84</v>
+      </c>
+      <c r="B189" t="s">
         <v>85</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>86</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>87</v>
       </c>
-      <c r="D189" t="s">
-        <v>88</v>
-      </c>
       <c r="E189" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F189" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
+        <v>88</v>
+      </c>
+      <c r="B190" t="s">
         <v>89</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>90</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>91</v>
       </c>
-      <c r="D190" t="s">
-        <v>92</v>
-      </c>
       <c r="E190" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F190" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>92</v>
+      </c>
+      <c r="B191" t="s">
         <v>93</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>94</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>95</v>
       </c>
-      <c r="D191" t="s">
-        <v>96</v>
-      </c>
       <c r="E191" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F191" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B192">
         <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -5379,13 +5379,13 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B193">
         <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -5399,13 +5399,13 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B194">
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -5419,13 +5419,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B195">
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -5439,13 +5439,13 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B196">
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B197">
         <v>5</v>
@@ -5479,53 +5479,53 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B198" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C198" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D198" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E198" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F198" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B199" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C199" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D199" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E199" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F199" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B200" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C200" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D200" t="s">
         <v>36</v>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925B2BFD-0673-4783-B4A6-64522788318A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770BF16C-C03D-4B69-9543-E2D968E1F72C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -1147,18 +1147,6 @@
     <t>1.595, 1, 1, 1, 1</t>
   </si>
   <si>
-    <t>1400, 1400, 3, 6, 6, 6, 6, 6, 1</t>
-  </si>
-  <si>
-    <t>1600, 1600, 3, 22, 22, 22, 22, 22, 1</t>
-  </si>
-  <si>
-    <t>2800, 2800, 3, 12, 12, 12, 12, 12, 1</t>
-  </si>
-  <si>
-    <t>3200, 3200, 3, 44, 44, 44, 44, 44, 1</t>
-  </si>
-  <si>
     <t>16, 16, 16, 16, 16, 16, 1, 1</t>
   </si>
   <si>
@@ -1169,6 +1157,18 @@
   </si>
   <si>
     <t>1, 1, 1, 1, 1, 1, 0.046, 0.046</t>
+  </si>
+  <si>
+    <t>1250, 1250, 3, 6, 6, 6, 6, 6, 1</t>
+  </si>
+  <si>
+    <t>1750, 1750, 3, 22, 22, 22, 22, 22, 1</t>
+  </si>
+  <si>
+    <t>2500, 2500, 3, 12, 12, 12, 12, 12, 1</t>
+  </si>
+  <si>
+    <t>3500, 3500, 3, 44, 44, 44, 44, 44, 1</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1535,7 @@
   <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5108,13 +5108,13 @@
         <v>65</v>
       </c>
       <c r="D179" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E179" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F179" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -5128,13 +5128,13 @@
         <v>65</v>
       </c>
       <c r="D180" t="s">
+        <v>373</v>
+      </c>
+      <c r="E180" t="s">
         <v>377</v>
       </c>
-      <c r="E180" t="s">
-        <v>373</v>
-      </c>
       <c r="F180" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -5148,13 +5148,13 @@
         <v>67</v>
       </c>
       <c r="D181" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E181" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F181" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770BF16C-C03D-4B69-9543-E2D968E1F72C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD94CB1-CC54-484E-8BE0-73328256B8D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="381">
   <si>
     <t>dropId|String</t>
   </si>
@@ -1169,6 +1169,12 @@
   </si>
   <si>
     <t>3500, 3500, 3, 44, 44, 44, 44, 44, 1</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 0.7, 0.1, 0.2, 0.02</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 0.7, 0.1, 0.15, 0.015</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1541,7 @@
   <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2214,7 +2220,7 @@
         <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>195</v>
+        <v>379</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -2234,7 +2240,7 @@
         <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>195</v>
+        <v>380</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD94CB1-CC54-484E-8BE0-73328256B8D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61FEC1F-AEC4-4BE4-B4AA-50BAAE514626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="382">
   <si>
     <t>dropId|String</t>
   </si>
@@ -364,21 +364,12 @@
     <t>Shemwkdu</t>
   </si>
   <si>
-    <t>g, g</t>
-  </si>
-  <si>
     <t>Shemwkdv</t>
   </si>
   <si>
-    <t>g, g, g</t>
-  </si>
-  <si>
     <t>Shemwkdw</t>
   </si>
   <si>
-    <t>g, g, g, g</t>
-  </si>
-  <si>
     <t>c1000</t>
   </si>
   <si>
@@ -1175,6 +1166,18 @@
   </si>
   <si>
     <t>1, 1, 1, 1, 0.7, 0.1, 0.15, 0.015</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>k, k</t>
+  </si>
+  <si>
+    <t>k, k, k</t>
+  </si>
+  <si>
+    <t>k, k, k, k</t>
   </si>
 </sst>
 </file>
@@ -1540,9 +1543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1703,10 +1704,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1723,10 +1724,10 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1743,10 +1744,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1763,10 +1764,10 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1783,10 +1784,10 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1803,10 +1804,10 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1823,10 +1824,10 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1843,10 +1844,10 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1863,10 +1864,10 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1883,10 +1884,10 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1903,10 +1904,10 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1923,10 +1924,10 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1943,10 +1944,10 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1963,10 +1964,10 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1983,10 +1984,10 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2003,10 +2004,10 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2023,10 +2024,10 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F24" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2043,10 +2044,10 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2063,10 +2064,10 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F26" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2083,10 +2084,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F27" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2103,10 +2104,10 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F28" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2123,10 +2124,10 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2143,10 +2144,10 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2163,10 +2164,10 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2220,7 +2221,7 @@
         <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -2240,7 +2241,7 @@
         <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
@@ -2260,7 +2261,7 @@
         <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E36" t="s">
         <v>18</v>
@@ -2280,13 +2281,13 @@
         <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F37" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2300,13 +2301,13 @@
         <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F38" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2314,19 +2315,19 @@
         <v>5007</v>
       </c>
       <c r="B39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" t="s">
         <v>196</v>
       </c>
-      <c r="C39" t="s">
+      <c r="F39" t="s">
         <v>197</v>
-      </c>
-      <c r="D39" t="s">
-        <v>198</v>
-      </c>
-      <c r="E39" t="s">
-        <v>199</v>
-      </c>
-      <c r="F39" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2340,13 +2341,13 @@
         <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2360,13 +2361,13 @@
         <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F41" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2380,13 +2381,13 @@
         <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E42" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F42" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2400,13 +2401,13 @@
         <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E43" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F43" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2420,13 +2421,13 @@
         <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E44" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F44" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2440,13 +2441,13 @@
         <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E45" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F45" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2454,19 +2455,19 @@
         <v>5014</v>
       </c>
       <c r="B46" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C46" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E46" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F46" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2480,13 +2481,13 @@
         <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E47" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F47" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2500,13 +2501,13 @@
         <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F48" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2520,13 +2521,13 @@
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E49" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F49" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2540,13 +2541,13 @@
         <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E50" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F50" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2560,13 +2561,13 @@
         <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E51" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F51" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2580,13 +2581,13 @@
         <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E52" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F52" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2594,19 +2595,19 @@
         <v>5021</v>
       </c>
       <c r="B53" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C53" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D53" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E53" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F53" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2620,13 +2621,13 @@
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E54" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F54" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2640,13 +2641,13 @@
         <v>52</v>
       </c>
       <c r="D55" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E55" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F55" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2660,13 +2661,13 @@
         <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E56" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F56" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2680,13 +2681,13 @@
         <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E57" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F57" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2700,13 +2701,13 @@
         <v>52</v>
       </c>
       <c r="D58" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E58" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F58" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2720,13 +2721,13 @@
         <v>52</v>
       </c>
       <c r="D59" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E59" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F59" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2734,19 +2735,19 @@
         <v>5028</v>
       </c>
       <c r="B60" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E60" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F60" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2797,7 +2798,7 @@
         <v>53</v>
       </c>
       <c r="D63" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
@@ -2817,7 +2818,7 @@
         <v>53</v>
       </c>
       <c r="D64" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E64" t="s">
         <v>24</v>
@@ -2837,7 +2838,7 @@
         <v>53</v>
       </c>
       <c r="D65" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E65" t="s">
         <v>26</v>
@@ -2857,13 +2858,13 @@
         <v>53</v>
       </c>
       <c r="D66" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E66" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F66" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2877,13 +2878,13 @@
         <v>53</v>
       </c>
       <c r="D67" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E67" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F67" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2891,19 +2892,19 @@
         <v>6007</v>
       </c>
       <c r="B68" t="s">
+        <v>241</v>
+      </c>
+      <c r="C68" t="s">
+        <v>242</v>
+      </c>
+      <c r="D68" t="s">
+        <v>243</v>
+      </c>
+      <c r="E68" t="s">
         <v>244</v>
       </c>
-      <c r="C68" t="s">
+      <c r="F68" t="s">
         <v>245</v>
-      </c>
-      <c r="D68" t="s">
-        <v>246</v>
-      </c>
-      <c r="E68" t="s">
-        <v>247</v>
-      </c>
-      <c r="F68" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2917,13 +2918,13 @@
         <v>53</v>
       </c>
       <c r="D69" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E69" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F69" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2937,13 +2938,13 @@
         <v>53</v>
       </c>
       <c r="D70" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E70" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F70" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2957,13 +2958,13 @@
         <v>53</v>
       </c>
       <c r="D71" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E71" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F71" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2977,10 +2978,10 @@
         <v>53</v>
       </c>
       <c r="D72" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E72" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F72" t="s">
         <v>91</v>
@@ -2997,13 +2998,13 @@
         <v>53</v>
       </c>
       <c r="D73" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E73" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F73" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3017,13 +3018,13 @@
         <v>53</v>
       </c>
       <c r="D74" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E74" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F74" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3031,19 +3032,19 @@
         <v>6014</v>
       </c>
       <c r="B75" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C75" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D75" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E75" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F75" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3057,13 +3058,13 @@
         <v>53</v>
       </c>
       <c r="D76" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E76" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F76" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3077,13 +3078,13 @@
         <v>53</v>
       </c>
       <c r="D77" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E77" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F77" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3097,13 +3098,13 @@
         <v>53</v>
       </c>
       <c r="D78" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F78" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3117,13 +3118,13 @@
         <v>53</v>
       </c>
       <c r="D79" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E79" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F79" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3137,13 +3138,13 @@
         <v>53</v>
       </c>
       <c r="D80" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E80" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F80" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3157,13 +3158,13 @@
         <v>53</v>
       </c>
       <c r="D81" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E81" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F81" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3171,19 +3172,19 @@
         <v>6021</v>
       </c>
       <c r="B82" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C82" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D82" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E82" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F82" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3197,13 +3198,13 @@
         <v>53</v>
       </c>
       <c r="D83" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E83" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F83" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3217,13 +3218,13 @@
         <v>53</v>
       </c>
       <c r="D84" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E84" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F84" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3237,13 +3238,13 @@
         <v>53</v>
       </c>
       <c r="D85" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E85" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F85" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3257,13 +3258,13 @@
         <v>53</v>
       </c>
       <c r="D86" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E86" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F86" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3277,13 +3278,13 @@
         <v>53</v>
       </c>
       <c r="D87" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E87" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F87" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3297,13 +3298,13 @@
         <v>53</v>
       </c>
       <c r="D88" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E88" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F88" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3311,24 +3312,24 @@
         <v>6028</v>
       </c>
       <c r="B89" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C89" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D89" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E89" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F89" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B90" t="s">
         <v>28</v>
@@ -3348,7 +3349,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B91" t="s">
         <v>28</v>
@@ -3368,7 +3369,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -3388,7 +3389,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -3408,7 +3409,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -3428,7 +3429,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -3440,15 +3441,15 @@
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F95" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -3460,15 +3461,15 @@
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F96" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -3480,15 +3481,15 @@
         <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F97" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -3500,15 +3501,15 @@
         <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F98" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -3520,15 +3521,15 @@
         <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F99" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -3540,15 +3541,15 @@
         <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F100" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -3560,15 +3561,15 @@
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F101" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -3580,15 +3581,15 @@
         <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F102" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -3600,15 +3601,15 @@
         <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F103" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -3620,15 +3621,15 @@
         <v>7</v>
       </c>
       <c r="E104" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F104" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -3640,15 +3641,15 @@
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F105" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -3660,15 +3661,15 @@
         <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F106" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -3680,15 +3681,15 @@
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F107" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -3700,15 +3701,15 @@
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F108" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -3720,15 +3721,15 @@
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F109" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -3740,15 +3741,15 @@
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F110" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -3760,15 +3761,15 @@
         <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F111" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -3780,15 +3781,15 @@
         <v>7</v>
       </c>
       <c r="E112" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F112" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -3800,15 +3801,15 @@
         <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F113" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -3820,15 +3821,15 @@
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F114" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -3840,15 +3841,15 @@
         <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F115" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -3860,15 +3861,15 @@
         <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F116" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -3880,15 +3881,15 @@
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F117" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -3900,15 +3901,15 @@
         <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F118" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B119" t="s">
         <v>35</v>
@@ -3928,7 +3929,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B120" t="s">
         <v>39</v>
@@ -3948,7 +3949,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
@@ -3968,7 +3969,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B122" t="s">
         <v>12</v>
@@ -3988,7 +3989,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
@@ -4008,7 +4009,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B124" t="s">
         <v>12</v>
@@ -4020,15 +4021,15 @@
         <v>13</v>
       </c>
       <c r="E124" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F124" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B125" t="s">
         <v>12</v>
@@ -4040,35 +4041,35 @@
         <v>13</v>
       </c>
       <c r="E125" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F125" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C126" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D126" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E126" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F126" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B127" t="s">
         <v>12</v>
@@ -4080,15 +4081,15 @@
         <v>13</v>
       </c>
       <c r="E127" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F127" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B128" t="s">
         <v>12</v>
@@ -4100,15 +4101,15 @@
         <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F128" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
@@ -4120,15 +4121,15 @@
         <v>13</v>
       </c>
       <c r="E129" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F129" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
@@ -4140,15 +4141,15 @@
         <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F130" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B131" t="s">
         <v>12</v>
@@ -4160,15 +4161,15 @@
         <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F131" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B132" t="s">
         <v>12</v>
@@ -4180,35 +4181,35 @@
         <v>13</v>
       </c>
       <c r="E132" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F132" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B133" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C133" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D133" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E133" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F133" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B134" t="s">
         <v>12</v>
@@ -4220,15 +4221,15 @@
         <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F134" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B135" t="s">
         <v>12</v>
@@ -4240,15 +4241,15 @@
         <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F135" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B136" t="s">
         <v>12</v>
@@ -4260,15 +4261,15 @@
         <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F136" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
@@ -4280,15 +4281,15 @@
         <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F137" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B138" t="s">
         <v>12</v>
@@ -4300,15 +4301,15 @@
         <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F138" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B139" t="s">
         <v>12</v>
@@ -4320,35 +4321,35 @@
         <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F139" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B140" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C140" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D140" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E140" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F140" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B141" t="s">
         <v>12</v>
@@ -4360,15 +4361,15 @@
         <v>13</v>
       </c>
       <c r="E141" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F141" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B142" t="s">
         <v>12</v>
@@ -4380,15 +4381,15 @@
         <v>13</v>
       </c>
       <c r="E142" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F142" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B143" t="s">
         <v>12</v>
@@ -4400,15 +4401,15 @@
         <v>13</v>
       </c>
       <c r="E143" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F143" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B144" t="s">
         <v>12</v>
@@ -4420,15 +4421,15 @@
         <v>13</v>
       </c>
       <c r="E144" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F144" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B145" t="s">
         <v>12</v>
@@ -4440,15 +4441,15 @@
         <v>13</v>
       </c>
       <c r="E145" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F145" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B146" t="s">
         <v>12</v>
@@ -4460,35 +4461,35 @@
         <v>13</v>
       </c>
       <c r="E146" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F146" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B147" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C147" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D147" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E147" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F147" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -4505,7 +4506,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B149" t="s">
         <v>43</v>
@@ -4525,7 +4526,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B150" t="s">
         <v>20</v>
@@ -4545,7 +4546,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B151" t="s">
         <v>20</v>
@@ -4565,7 +4566,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B152" t="s">
         <v>20</v>
@@ -4585,7 +4586,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B153" t="s">
         <v>20</v>
@@ -4597,15 +4598,15 @@
         <v>21</v>
       </c>
       <c r="E153" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F153" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B154" t="s">
         <v>20</v>
@@ -4617,35 +4618,35 @@
         <v>21</v>
       </c>
       <c r="E154" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F154" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B155" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C155" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D155" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E155" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F155" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B156" t="s">
         <v>20</v>
@@ -4657,15 +4658,15 @@
         <v>21</v>
       </c>
       <c r="E156" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F156" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B157" t="s">
         <v>20</v>
@@ -4677,15 +4678,15 @@
         <v>21</v>
       </c>
       <c r="E157" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F157" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B158" t="s">
         <v>20</v>
@@ -4697,15 +4698,15 @@
         <v>21</v>
       </c>
       <c r="E158" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F158" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B159" t="s">
         <v>20</v>
@@ -4717,7 +4718,7 @@
         <v>21</v>
       </c>
       <c r="E159" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F159" t="s">
         <v>91</v>
@@ -4725,7 +4726,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B160" t="s">
         <v>20</v>
@@ -4737,15 +4738,15 @@
         <v>21</v>
       </c>
       <c r="E160" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F160" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B161" t="s">
         <v>20</v>
@@ -4757,35 +4758,35 @@
         <v>21</v>
       </c>
       <c r="E161" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F161" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B162" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C162" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D162" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E162" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F162" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B163" t="s">
         <v>20</v>
@@ -4797,15 +4798,15 @@
         <v>21</v>
       </c>
       <c r="E163" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F163" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B164" t="s">
         <v>20</v>
@@ -4817,15 +4818,15 @@
         <v>21</v>
       </c>
       <c r="E164" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F164" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B165" t="s">
         <v>20</v>
@@ -4837,15 +4838,15 @@
         <v>21</v>
       </c>
       <c r="E165" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F165" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B166" t="s">
         <v>20</v>
@@ -4857,15 +4858,15 @@
         <v>21</v>
       </c>
       <c r="E166" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F166" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B167" t="s">
         <v>20</v>
@@ -4877,15 +4878,15 @@
         <v>21</v>
       </c>
       <c r="E167" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F167" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B168" t="s">
         <v>20</v>
@@ -4897,35 +4898,35 @@
         <v>21</v>
       </c>
       <c r="E168" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F168" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B169" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C169" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D169" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E169" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F169" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B170" t="s">
         <v>20</v>
@@ -4937,15 +4938,15 @@
         <v>21</v>
       </c>
       <c r="E170" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F170" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B171" t="s">
         <v>20</v>
@@ -4957,15 +4958,15 @@
         <v>21</v>
       </c>
       <c r="E171" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F171" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B172" t="s">
         <v>20</v>
@@ -4977,15 +4978,15 @@
         <v>21</v>
       </c>
       <c r="E172" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F172" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B173" t="s">
         <v>20</v>
@@ -4997,15 +4998,15 @@
         <v>21</v>
       </c>
       <c r="E173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F173" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B174" t="s">
         <v>20</v>
@@ -5017,15 +5018,15 @@
         <v>21</v>
       </c>
       <c r="E174" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F174" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B175" t="s">
         <v>20</v>
@@ -5037,30 +5038,30 @@
         <v>21</v>
       </c>
       <c r="E175" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F175" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B176" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C176" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D176" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E176" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F176" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -5114,13 +5115,13 @@
         <v>65</v>
       </c>
       <c r="D179" t="s">
+        <v>370</v>
+      </c>
+      <c r="E179" t="s">
+        <v>372</v>
+      </c>
+      <c r="F179" t="s">
         <v>373</v>
-      </c>
-      <c r="E179" t="s">
-        <v>375</v>
-      </c>
-      <c r="F179" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -5134,13 +5135,13 @@
         <v>65</v>
       </c>
       <c r="D180" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E180" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F180" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -5154,13 +5155,13 @@
         <v>67</v>
       </c>
       <c r="D181" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E181" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F181" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -5471,7 +5472,7 @@
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>55</v>
+        <v>378</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -5491,7 +5492,7 @@
         <v>75</v>
       </c>
       <c r="C198" t="s">
-        <v>110</v>
+        <v>379</v>
       </c>
       <c r="D198" t="s">
         <v>72</v>
@@ -5505,13 +5506,13 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B199" t="s">
         <v>78</v>
       </c>
       <c r="C199" t="s">
-        <v>112</v>
+        <v>380</v>
       </c>
       <c r="D199" t="s">
         <v>80</v>
@@ -5525,13 +5526,13 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B200" t="s">
         <v>82</v>
       </c>
       <c r="C200" t="s">
-        <v>114</v>
+        <v>381</v>
       </c>
       <c r="D200" t="s">
         <v>36</v>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61FEC1F-AEC4-4BE4-B4AA-50BAAE514626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17388C5-88AC-418D-99F9-3655B5F6B987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="383">
   <si>
     <t>dropId|String</t>
   </si>
@@ -73,9 +73,6 @@
     <t>2, 1, 4, 3, 7, 7, 5, 5</t>
   </si>
   <si>
-    <t>1, 1, 1, 1, 0.7, 0.1, 0.25, 0.025</t>
-  </si>
-  <si>
     <t>0.085, 100, 2, 1, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>2, 7, 7, 5, 5, 5</t>
   </si>
   <si>
-    <t>1, 0.7, 0.1, 0.5, 0.1, 0.05</t>
-  </si>
-  <si>
     <t>0.085, 1, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>2, 1, 4, 3, 7, 7</t>
   </si>
   <si>
-    <t>1, 1, 1, 1, 0.7, 0.1</t>
-  </si>
-  <si>
     <t>0.05, 100, 2, 1, 1, 1</t>
   </si>
   <si>
@@ -166,9 +157,6 @@
     <t>2, 7, 7</t>
   </si>
   <si>
-    <t>1, 0.7, 0.1</t>
-  </si>
-  <si>
     <t>0.05, 1, 1</t>
   </si>
   <si>
@@ -610,18 +598,12 @@
     <t>1.595, 5, 1, 1</t>
   </si>
   <si>
-    <t>1, 1, 1, 1, 0.7, 0.1, 0.1, 0.01</t>
-  </si>
-  <si>
     <t>2, 1, 4, 3, 7, 5, 5</t>
   </si>
   <si>
     <t>, , , , , e, e</t>
   </si>
   <si>
-    <t>1, 1, 1, 1, 0.7, 0.1, 0.01</t>
-  </si>
-  <si>
     <t>55.7, 100, 2, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -754,18 +736,12 @@
     <t>86.633, 100, 2, 1, 1, 1, 1</t>
   </si>
   <si>
-    <t>1, 0.7, 0.1, 0.2, 0.04, 0.02</t>
-  </si>
-  <si>
     <t>2, 7, 5, 5, 5</t>
   </si>
   <si>
     <t>, , e, e, e</t>
   </si>
   <si>
-    <t>1, 0.7, 0.2, 0.04, 0.02</t>
-  </si>
-  <si>
     <t>55.7, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -958,9 +934,6 @@
     <t>c1028</t>
   </si>
   <si>
-    <t>1, 1, 1, 1, 0.7, 0.25, 0.025</t>
-  </si>
-  <si>
     <t>0.26, 100, 2, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -1048,9 +1021,6 @@
     <t>1.595, 100, 2, 1, 1, 1, 1</t>
   </si>
   <si>
-    <t>1, 0.7, 0.5, 0.1, 0.05</t>
-  </si>
-  <si>
     <t>0.26, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -1162,12 +1132,6 @@
     <t>3500, 3500, 3, 44, 44, 44, 44, 44, 1</t>
   </si>
   <si>
-    <t>1, 1, 1, 1, 0.7, 0.1, 0.2, 0.02</t>
-  </si>
-  <si>
-    <t>1, 1, 1, 1, 0.7, 0.1, 0.15, 0.015</t>
-  </si>
-  <si>
     <t>k</t>
   </si>
   <si>
@@ -1178,6 +1142,45 @@
   </si>
   <si>
     <t>k, k, k, k</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 0.2</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 0.1, 0.01</t>
+  </si>
+  <si>
+    <t>1, 1, 0.2</t>
+  </si>
+  <si>
+    <t>1, 1, 0.2, 0.04, 0.02</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 0.2, 0.25, 0.025</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 0.25, 0.025</t>
+  </si>
+  <si>
+    <t>1, 1, 0.2, 0.5, 0.1, 0.05</t>
+  </si>
+  <si>
+    <t>1, 1, 0.5, 0.1, 0.05</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 0.3</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 0.3, 0.2, 0.02</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 0.3, 0.1, 0.01</t>
+  </si>
+  <si>
+    <t>1, 1, 0.3</t>
+  </si>
+  <si>
+    <t>1, 1, 0.3, 0.2, 0.04, 0.02</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1546,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1595,19 +1600,19 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1615,19 +1620,19 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1638,16 +1643,16 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1658,7 +1663,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1678,7 +1683,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1698,16 +1703,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1718,16 +1723,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1738,16 +1743,16 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1758,16 +1763,16 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1778,16 +1783,16 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1798,16 +1803,16 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1818,16 +1823,16 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1838,16 +1843,16 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1858,16 +1863,16 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1878,16 +1883,16 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1898,16 +1903,16 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1918,16 +1923,16 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1938,16 +1943,16 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1958,16 +1963,16 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1978,16 +1983,16 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1998,16 +2003,16 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2018,16 +2023,16 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2038,16 +2043,16 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2058,16 +2063,16 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2078,16 +2083,16 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2098,16 +2103,16 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2118,16 +2123,16 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2138,16 +2143,16 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2158,16 +2163,16 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2175,19 +2180,19 @@
         <v>5000</v>
       </c>
       <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
         <v>35</v>
       </c>
-      <c r="C32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>36</v>
-      </c>
-      <c r="E32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2195,19 +2200,19 @@
         <v>5001</v>
       </c>
       <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>378</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
         <v>39</v>
-      </c>
-      <c r="C33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2218,16 +2223,16 @@
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
         <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2238,16 +2243,16 @@
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
         <v>16</v>
-      </c>
-      <c r="F35" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2258,16 +2263,16 @@
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
         <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2278,16 +2283,16 @@
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2298,16 +2303,16 @@
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F38" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2315,19 +2320,19 @@
         <v>5007</v>
       </c>
       <c r="B39" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D39" t="s">
-        <v>195</v>
+        <v>371</v>
       </c>
       <c r="E39" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F39" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2338,16 +2343,16 @@
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
+        <v>380</v>
+      </c>
+      <c r="E40" t="s">
         <v>192</v>
       </c>
-      <c r="E40" t="s">
-        <v>198</v>
-      </c>
       <c r="F40" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2358,16 +2363,16 @@
         <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="E41" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F41" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2378,16 +2383,16 @@
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="E42" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F42" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2398,16 +2403,16 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F43" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2418,16 +2423,16 @@
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="E44" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F44" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2438,16 +2443,16 @@
         <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="E45" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F45" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2455,19 +2460,19 @@
         <v>5014</v>
       </c>
       <c r="B46" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D46" t="s">
-        <v>195</v>
+        <v>371</v>
       </c>
       <c r="E46" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F46" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2478,16 +2483,16 @@
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="E47" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F47" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2498,16 +2503,16 @@
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="E48" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F48" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2518,16 +2523,16 @@
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="E49" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F49" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2538,16 +2543,16 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="E50" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F50" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2558,16 +2563,16 @@
         <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="E51" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F51" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2578,16 +2583,16 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="E52" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F52" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2595,19 +2600,19 @@
         <v>5021</v>
       </c>
       <c r="B53" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C53" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D53" t="s">
-        <v>195</v>
+        <v>371</v>
       </c>
       <c r="E53" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F53" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2618,16 +2623,16 @@
         <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="E54" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F54" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2638,16 +2643,16 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="E55" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F55" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2658,16 +2663,16 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="E56" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F56" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2678,16 +2683,16 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D57" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="E57" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F57" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2698,16 +2703,16 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="E58" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F58" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2718,16 +2723,16 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="E59" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F59" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2735,19 +2740,19 @@
         <v>5028</v>
       </c>
       <c r="B60" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C60" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D60" t="s">
-        <v>195</v>
+        <v>371</v>
       </c>
       <c r="E60" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F60" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2772,19 +2777,19 @@
         <v>6001</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2792,19 +2797,19 @@
         <v>6002</v>
       </c>
       <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" t="s">
+        <v>382</v>
+      </c>
+      <c r="E63" t="s">
         <v>20</v>
       </c>
-      <c r="C63" t="s">
-        <v>53</v>
-      </c>
-      <c r="D63" t="s">
-        <v>240</v>
-      </c>
-      <c r="E63" t="s">
-        <v>22</v>
-      </c>
       <c r="F63" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2812,19 +2817,19 @@
         <v>6003</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="E64" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2832,19 +2837,19 @@
         <v>6004</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="E65" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2852,19 +2857,19 @@
         <v>6005</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="E66" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F66" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2872,19 +2877,19 @@
         <v>6006</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="E67" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F67" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2892,19 +2897,19 @@
         <v>6007</v>
       </c>
       <c r="B68" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C68" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D68" t="s">
-        <v>243</v>
+        <v>373</v>
       </c>
       <c r="E68" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F68" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2912,19 +2917,19 @@
         <v>6008</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="E69" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F69" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2932,19 +2937,19 @@
         <v>6009</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D70" t="s">
+        <v>382</v>
+      </c>
+      <c r="E70" t="s">
         <v>240</v>
       </c>
-      <c r="E70" t="s">
-        <v>248</v>
-      </c>
       <c r="F70" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2952,19 +2957,19 @@
         <v>6010</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D71" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="E71" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F71" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2972,19 +2977,19 @@
         <v>6011</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="E72" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F72" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2992,19 +2997,19 @@
         <v>6012</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D73" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="E73" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F73" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3012,19 +3017,19 @@
         <v>6013</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D74" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="E74" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F74" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3032,19 +3037,19 @@
         <v>6014</v>
       </c>
       <c r="B75" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C75" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D75" t="s">
-        <v>243</v>
+        <v>373</v>
       </c>
       <c r="E75" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F75" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3052,19 +3057,19 @@
         <v>6015</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D76" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="E76" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F76" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3072,19 +3077,19 @@
         <v>6016</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="E77" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F77" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3092,19 +3097,19 @@
         <v>6017</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D78" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="E78" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F78" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3112,19 +3117,19 @@
         <v>6018</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D79" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="E79" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F79" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3132,19 +3137,19 @@
         <v>6019</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="E80" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F80" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3152,19 +3157,19 @@
         <v>6020</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D81" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="E81" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F81" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3172,19 +3177,19 @@
         <v>6021</v>
       </c>
       <c r="B82" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C82" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D82" t="s">
-        <v>243</v>
+        <v>373</v>
       </c>
       <c r="E82" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F82" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3192,19 +3197,19 @@
         <v>6022</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D83" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="E83" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F83" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3212,19 +3217,19 @@
         <v>6023</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D84" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="E84" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F84" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3232,19 +3237,19 @@
         <v>6024</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D85" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="E85" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F85" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3252,19 +3257,19 @@
         <v>6025</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D86" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="E86" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F86" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3272,19 +3277,19 @@
         <v>6026</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D87" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="E87" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F87" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3292,19 +3297,19 @@
         <v>6027</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D88" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="E88" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F88" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3312,90 +3317,90 @@
         <v>6028</v>
       </c>
       <c r="B89" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C89" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D89" t="s">
-        <v>243</v>
+        <v>373</v>
       </c>
       <c r="E89" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F89" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B90" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" t="s">
         <v>28</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" t="s">
         <v>29</v>
       </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
         <v>30</v>
-      </c>
-      <c r="E90" t="s">
-        <v>31</v>
-      </c>
-      <c r="F90" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B91" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" t="s">
         <v>28</v>
       </c>
-      <c r="C91" t="s">
-        <v>29</v>
-      </c>
-      <c r="D91" t="s">
-        <v>30</v>
-      </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -3409,13 +3414,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
@@ -3429,1067 +3434,1067 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F95" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F96" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F97" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F98" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F99" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F100" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F101" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F102" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F103" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
       </c>
       <c r="E104" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F104" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F105" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F106" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F107" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F108" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F109" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F110" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F111" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
       </c>
       <c r="E112" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F112" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D113" t="s">
         <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F113" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F114" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F115" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F116" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F117" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F118" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B119" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" t="s">
+        <v>46</v>
+      </c>
+      <c r="D119" t="s">
+        <v>34</v>
+      </c>
+      <c r="E119" t="s">
         <v>35</v>
       </c>
-      <c r="C119" t="s">
-        <v>50</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="F119" t="s">
         <v>36</v>
-      </c>
-      <c r="E119" t="s">
-        <v>37</v>
-      </c>
-      <c r="F119" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
+        <v>37</v>
+      </c>
+      <c r="C120" t="s">
+        <v>47</v>
+      </c>
+      <c r="D120" t="s">
+        <v>370</v>
+      </c>
+      <c r="E120" t="s">
+        <v>38</v>
+      </c>
+      <c r="F120" t="s">
         <v>39</v>
-      </c>
-      <c r="C120" t="s">
-        <v>51</v>
-      </c>
-      <c r="D120" t="s">
-        <v>40</v>
-      </c>
-      <c r="E120" t="s">
-        <v>41</v>
-      </c>
-      <c r="F120" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D121" t="s">
+        <v>374</v>
+      </c>
+      <c r="E121" t="s">
         <v>13</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>14</v>
-      </c>
-      <c r="F121" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
         <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E122" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" t="s">
         <v>16</v>
-      </c>
-      <c r="F122" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E123" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" t="s">
         <v>18</v>
-      </c>
-      <c r="F123" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B124" t="s">
         <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D124" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E124" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F124" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B125" t="s">
         <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E125" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F125" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C126" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D126" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="E126" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F126" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B127" t="s">
         <v>12</v>
       </c>
       <c r="C127" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E127" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F127" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B128" t="s">
         <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D128" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E128" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F128" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D129" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E129" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F129" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
       </c>
       <c r="C130" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E130" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F130" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B131" t="s">
         <v>12</v>
       </c>
       <c r="C131" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E131" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F131" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B132" t="s">
         <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D132" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E132" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F132" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B133" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D133" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="E133" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F133" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B134" t="s">
         <v>12</v>
       </c>
       <c r="C134" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E134" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F134" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B135" t="s">
         <v>12</v>
       </c>
       <c r="C135" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D135" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E135" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F135" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B136" t="s">
         <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D136" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E136" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F136" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D137" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E137" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F137" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B138" t="s">
         <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D138" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E138" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F138" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B139" t="s">
         <v>12</v>
       </c>
       <c r="C139" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D139" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E139" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F139" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B140" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C140" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D140" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="E140" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F140" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B141" t="s">
         <v>12</v>
       </c>
       <c r="C141" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D141" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E141" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F141" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B142" t="s">
         <v>12</v>
       </c>
       <c r="C142" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D142" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E142" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F142" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B143" t="s">
         <v>12</v>
       </c>
       <c r="C143" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D143" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E143" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F143" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B144" t="s">
         <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E144" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F144" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B145" t="s">
         <v>12</v>
       </c>
       <c r="C145" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D145" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E145" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F145" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B146" t="s">
         <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D146" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="E146" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F146" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B147" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C147" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D147" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="E147" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F147" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -4506,573 +4511,573 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B149" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D149" t="s">
-        <v>44</v>
+        <v>372</v>
       </c>
       <c r="E149" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F149" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B150" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" t="s">
+        <v>49</v>
+      </c>
+      <c r="D150" t="s">
+        <v>376</v>
+      </c>
+      <c r="E150" t="s">
         <v>20</v>
       </c>
-      <c r="C150" t="s">
-        <v>53</v>
-      </c>
-      <c r="D150" t="s">
+      <c r="F150" t="s">
         <v>21</v>
-      </c>
-      <c r="E150" t="s">
-        <v>22</v>
-      </c>
-      <c r="F150" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B151" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C151" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D151" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E151" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F151" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B152" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C152" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D152" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E152" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F152" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B153" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C153" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D153" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E153" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F153" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B154" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C154" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D154" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E154" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F154" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B155" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C155" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D155" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="E155" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F155" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B156" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C156" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D156" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E156" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F156" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B157" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C157" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D157" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E157" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F157" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B158" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C158" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D158" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E158" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F158" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B159" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C159" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D159" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E159" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F159" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B160" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C160" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D160" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E160" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F160" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B161" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C161" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D161" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E161" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F161" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B162" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C162" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D162" t="s">
+        <v>377</v>
+      </c>
+      <c r="E162" t="s">
         <v>338</v>
       </c>
-      <c r="E162" t="s">
-        <v>348</v>
-      </c>
       <c r="F162" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B163" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C163" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D163" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E163" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F163" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B164" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C164" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D164" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E164" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F164" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B165" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C165" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D165" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E165" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F165" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B166" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C166" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D166" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E166" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F166" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B167" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C167" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D167" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E167" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F167" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B168" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C168" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D168" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E168" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F168" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B169" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C169" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D169" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="E169" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F169" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B170" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C170" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D170" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E170" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F170" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B171" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C171" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D171" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E171" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F171" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B172" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C172" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D172" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E172" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F172" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B173" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C173" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D173" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E173" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F173" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B174" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C174" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D174" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E174" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F174" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B175" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C175" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D175" t="s">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="E175" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F175" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B176" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C176" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D176" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="E176" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F176" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B177">
         <v>5</v>
       </c>
       <c r="C177" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -5086,87 +5091,87 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B178" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C178" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D178" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E178" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F178" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
+        <v>56</v>
+      </c>
+      <c r="B179" t="s">
         <v>60</v>
       </c>
-      <c r="B179" t="s">
-        <v>64</v>
-      </c>
       <c r="C179" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D179" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E179" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="F179" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B180" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C180" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D180" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E180" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="F180" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B181" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C181" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D181" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="E181" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F181" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B182">
         <v>2</v>
@@ -5186,7 +5191,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B183">
         <v>8</v>
@@ -5206,27 +5211,27 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B184" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C184" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D184" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E184" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F184" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B185">
         <v>8</v>
@@ -5246,133 +5251,133 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B186" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C186" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D186" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E186" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F186" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B187" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C187" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D187" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E187" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F187" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B188" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C188" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D188" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E188" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B189" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C189" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D189" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E189" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F189" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B190" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C190" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D190" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E190" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F190" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B191" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C191" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D191" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E191" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F191" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B192">
         <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -5386,13 +5391,13 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B193">
         <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -5406,13 +5411,13 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B194">
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -5426,13 +5431,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B195">
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -5446,13 +5451,13 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B196">
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -5466,13 +5471,13 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B197">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -5486,62 +5491,62 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B198" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C198" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="D198" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E198" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F198" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B199" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C199" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D199" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E199" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F199" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B200" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C200" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D200" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E200" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -5566,10 +5571,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17388C5-88AC-418D-99F9-3655B5F6B987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65F370C-BFB3-4E20-BE87-5834B9263827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="382">
   <si>
     <t>dropId|String</t>
   </si>
@@ -1169,9 +1169,6 @@
   </si>
   <si>
     <t>1, 1, 1, 1, 1, 0.3</t>
-  </si>
-  <si>
-    <t>1, 1, 1, 1, 1, 0.3, 0.2, 0.02</t>
   </si>
   <si>
     <t>1, 1, 1, 1, 1, 0.3, 0.1, 0.01</t>
@@ -1547,7 +1544,7 @@
   <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2266,7 +2263,7 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
@@ -2286,7 +2283,7 @@
         <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E37" t="s">
         <v>138</v>
@@ -2306,7 +2303,7 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E38" t="s">
         <v>140</v>
@@ -2346,7 +2343,7 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E40" t="s">
         <v>192</v>
@@ -2366,7 +2363,7 @@
         <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E41" t="s">
         <v>194</v>
@@ -2386,7 +2383,7 @@
         <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E42" t="s">
         <v>196</v>
@@ -2406,7 +2403,7 @@
         <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E43" t="s">
         <v>198</v>
@@ -2426,7 +2423,7 @@
         <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E44" t="s">
         <v>200</v>
@@ -2446,7 +2443,7 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E45" t="s">
         <v>202</v>
@@ -2486,7 +2483,7 @@
         <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E47" t="s">
         <v>206</v>
@@ -2506,7 +2503,7 @@
         <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E48" t="s">
         <v>208</v>
@@ -2526,7 +2523,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E49" t="s">
         <v>210</v>
@@ -2546,7 +2543,7 @@
         <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E50" t="s">
         <v>212</v>
@@ -2566,7 +2563,7 @@
         <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E51" t="s">
         <v>214</v>
@@ -2586,7 +2583,7 @@
         <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E52" t="s">
         <v>216</v>
@@ -2626,7 +2623,7 @@
         <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E54" t="s">
         <v>220</v>
@@ -2646,7 +2643,7 @@
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E55" t="s">
         <v>222</v>
@@ -2666,7 +2663,7 @@
         <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E56" t="s">
         <v>224</v>
@@ -2686,7 +2683,7 @@
         <v>48</v>
       </c>
       <c r="D57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E57" t="s">
         <v>226</v>
@@ -2706,7 +2703,7 @@
         <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E58" t="s">
         <v>228</v>
@@ -2726,7 +2723,7 @@
         <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E59" t="s">
         <v>230</v>
@@ -2783,7 +2780,7 @@
         <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E62" t="s">
         <v>41</v>
@@ -2803,7 +2800,7 @@
         <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E63" t="s">
         <v>20</v>
@@ -2823,7 +2820,7 @@
         <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -2843,7 +2840,7 @@
         <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E65" t="s">
         <v>24</v>
@@ -2863,7 +2860,7 @@
         <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E66" t="s">
         <v>142</v>
@@ -2883,7 +2880,7 @@
         <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E67" t="s">
         <v>144</v>
@@ -2923,7 +2920,7 @@
         <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E69" t="s">
         <v>238</v>
@@ -2943,7 +2940,7 @@
         <v>49</v>
       </c>
       <c r="D70" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E70" t="s">
         <v>240</v>
@@ -2963,7 +2960,7 @@
         <v>49</v>
       </c>
       <c r="D71" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E71" t="s">
         <v>242</v>
@@ -2983,7 +2980,7 @@
         <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E72" t="s">
         <v>244</v>
@@ -3003,7 +3000,7 @@
         <v>49</v>
       </c>
       <c r="D73" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E73" t="s">
         <v>245</v>
@@ -3023,7 +3020,7 @@
         <v>49</v>
       </c>
       <c r="D74" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E74" t="s">
         <v>247</v>
@@ -3063,7 +3060,7 @@
         <v>49</v>
       </c>
       <c r="D76" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E76" t="s">
         <v>251</v>
@@ -3083,7 +3080,7 @@
         <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E77" t="s">
         <v>253</v>
@@ -3103,7 +3100,7 @@
         <v>49</v>
       </c>
       <c r="D78" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E78" t="s">
         <v>255</v>
@@ -3123,7 +3120,7 @@
         <v>49</v>
       </c>
       <c r="D79" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E79" t="s">
         <v>257</v>
@@ -3143,7 +3140,7 @@
         <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E80" t="s">
         <v>259</v>
@@ -3163,7 +3160,7 @@
         <v>49</v>
       </c>
       <c r="D81" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E81" t="s">
         <v>261</v>
@@ -3203,7 +3200,7 @@
         <v>49</v>
       </c>
       <c r="D83" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E83" t="s">
         <v>265</v>
@@ -3223,7 +3220,7 @@
         <v>49</v>
       </c>
       <c r="D84" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E84" t="s">
         <v>267</v>
@@ -3243,7 +3240,7 @@
         <v>49</v>
       </c>
       <c r="D85" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E85" t="s">
         <v>269</v>
@@ -3263,7 +3260,7 @@
         <v>49</v>
       </c>
       <c r="D86" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E86" t="s">
         <v>271</v>
@@ -3283,7 +3280,7 @@
         <v>49</v>
       </c>
       <c r="D87" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E87" t="s">
         <v>273</v>
@@ -3303,7 +3300,7 @@
         <v>49</v>
       </c>
       <c r="D88" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E88" t="s">
         <v>275</v>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65F370C-BFB3-4E20-BE87-5834B9263827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E079886-56DF-411F-9AB5-976F2280945E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="383">
   <si>
     <t>dropId|String</t>
   </si>
@@ -1178,6 +1178,9 @@
   </si>
   <si>
     <t>1, 1, 0.3, 0.2, 0.04, 0.02</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 0.3, 0.17, 0.017</t>
   </si>
 </sst>
 </file>
@@ -2223,7 +2226,7 @@
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -2243,7 +2246,7 @@
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E079886-56DF-411F-9AB5-976F2280945E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA99CCC-03A3-4979-BBB6-8BFE6CAF582C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -1108,30 +1108,12 @@
     <t>1.595, 1, 1, 1, 1</t>
   </si>
   <si>
-    <t>16, 16, 16, 16, 16, 16, 1, 1</t>
-  </si>
-  <si>
-    <t>48, 48, 48, 48, 48, 48, 1, 1</t>
-  </si>
-  <si>
     <t>1, 1, 1, 1, 1, 1, 1, 1, 0.046</t>
   </si>
   <si>
     <t>1, 1, 1, 1, 1, 1, 0.046, 0.046</t>
   </si>
   <si>
-    <t>1250, 1250, 3, 6, 6, 6, 6, 6, 1</t>
-  </si>
-  <si>
-    <t>1750, 1750, 3, 22, 22, 22, 22, 22, 1</t>
-  </si>
-  <si>
-    <t>2500, 2500, 3, 12, 12, 12, 12, 12, 1</t>
-  </si>
-  <si>
-    <t>3500, 3500, 3, 44, 44, 44, 44, 44, 1</t>
-  </si>
-  <si>
     <t>k</t>
   </si>
   <si>
@@ -1181,6 +1163,24 @@
   </si>
   <si>
     <t>1, 1, 1, 1, 1, 0.3, 0.17, 0.017</t>
+  </si>
+  <si>
+    <t>1250, 1250, 3, 12, 12, 12, 12, 12, 1</t>
+  </si>
+  <si>
+    <t>1750, 1750, 3, 16, 16, 16, 16, 16, 1</t>
+  </si>
+  <si>
+    <t>2500, 2500, 5, 24, 24, 24, 24, 24, 1</t>
+  </si>
+  <si>
+    <t>3500, 3500, 5, 32, 32, 32, 32, 32, 1</t>
+  </si>
+  <si>
+    <t>13, 13, 13, 13, 13, 13, 1, 1</t>
+  </si>
+  <si>
+    <t>33, 33, 33, 33, 33, 33, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -2206,7 +2206,7 @@
         <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
@@ -2226,7 +2226,7 @@
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -2246,7 +2246,7 @@
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
@@ -2266,7 +2266,7 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
@@ -2286,7 +2286,7 @@
         <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E37" t="s">
         <v>138</v>
@@ -2306,7 +2306,7 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E38" t="s">
         <v>140</v>
@@ -2326,7 +2326,7 @@
         <v>189</v>
       </c>
       <c r="D39" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E39" t="s">
         <v>190</v>
@@ -2346,7 +2346,7 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E40" t="s">
         <v>192</v>
@@ -2366,7 +2366,7 @@
         <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E41" t="s">
         <v>194</v>
@@ -2386,7 +2386,7 @@
         <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E42" t="s">
         <v>196</v>
@@ -2406,7 +2406,7 @@
         <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E43" t="s">
         <v>198</v>
@@ -2426,7 +2426,7 @@
         <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E44" t="s">
         <v>200</v>
@@ -2446,7 +2446,7 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E45" t="s">
         <v>202</v>
@@ -2466,7 +2466,7 @@
         <v>189</v>
       </c>
       <c r="D46" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E46" t="s">
         <v>204</v>
@@ -2486,7 +2486,7 @@
         <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E47" t="s">
         <v>206</v>
@@ -2506,7 +2506,7 @@
         <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E48" t="s">
         <v>208</v>
@@ -2526,7 +2526,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E49" t="s">
         <v>210</v>
@@ -2546,7 +2546,7 @@
         <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E50" t="s">
         <v>212</v>
@@ -2566,7 +2566,7 @@
         <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E51" t="s">
         <v>214</v>
@@ -2586,7 +2586,7 @@
         <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E52" t="s">
         <v>216</v>
@@ -2606,7 +2606,7 @@
         <v>189</v>
       </c>
       <c r="D53" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E53" t="s">
         <v>218</v>
@@ -2626,7 +2626,7 @@
         <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E54" t="s">
         <v>220</v>
@@ -2646,7 +2646,7 @@
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E55" t="s">
         <v>222</v>
@@ -2666,7 +2666,7 @@
         <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E56" t="s">
         <v>224</v>
@@ -2686,7 +2686,7 @@
         <v>48</v>
       </c>
       <c r="D57" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E57" t="s">
         <v>226</v>
@@ -2706,7 +2706,7 @@
         <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E58" t="s">
         <v>228</v>
@@ -2726,7 +2726,7 @@
         <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E59" t="s">
         <v>230</v>
@@ -2746,7 +2746,7 @@
         <v>189</v>
       </c>
       <c r="D60" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E60" t="s">
         <v>232</v>
@@ -2783,7 +2783,7 @@
         <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E62" t="s">
         <v>41</v>
@@ -2803,7 +2803,7 @@
         <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E63" t="s">
         <v>20</v>
@@ -2823,7 +2823,7 @@
         <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -2843,7 +2843,7 @@
         <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E65" t="s">
         <v>24</v>
@@ -2863,7 +2863,7 @@
         <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E66" t="s">
         <v>142</v>
@@ -2883,7 +2883,7 @@
         <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E67" t="s">
         <v>144</v>
@@ -2903,7 +2903,7 @@
         <v>235</v>
       </c>
       <c r="D68" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E68" t="s">
         <v>236</v>
@@ -2923,7 +2923,7 @@
         <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E69" t="s">
         <v>238</v>
@@ -2943,7 +2943,7 @@
         <v>49</v>
       </c>
       <c r="D70" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E70" t="s">
         <v>240</v>
@@ -2963,7 +2963,7 @@
         <v>49</v>
       </c>
       <c r="D71" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E71" t="s">
         <v>242</v>
@@ -2983,7 +2983,7 @@
         <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E72" t="s">
         <v>244</v>
@@ -3003,7 +3003,7 @@
         <v>49</v>
       </c>
       <c r="D73" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E73" t="s">
         <v>245</v>
@@ -3023,7 +3023,7 @@
         <v>49</v>
       </c>
       <c r="D74" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E74" t="s">
         <v>247</v>
@@ -3043,7 +3043,7 @@
         <v>235</v>
       </c>
       <c r="D75" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E75" t="s">
         <v>249</v>
@@ -3063,7 +3063,7 @@
         <v>49</v>
       </c>
       <c r="D76" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E76" t="s">
         <v>251</v>
@@ -3083,7 +3083,7 @@
         <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E77" t="s">
         <v>253</v>
@@ -3103,7 +3103,7 @@
         <v>49</v>
       </c>
       <c r="D78" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E78" t="s">
         <v>255</v>
@@ -3123,7 +3123,7 @@
         <v>49</v>
       </c>
       <c r="D79" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E79" t="s">
         <v>257</v>
@@ -3143,7 +3143,7 @@
         <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E80" t="s">
         <v>259</v>
@@ -3163,7 +3163,7 @@
         <v>49</v>
       </c>
       <c r="D81" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E81" t="s">
         <v>261</v>
@@ -3183,7 +3183,7 @@
         <v>235</v>
       </c>
       <c r="D82" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E82" t="s">
         <v>263</v>
@@ -3203,7 +3203,7 @@
         <v>49</v>
       </c>
       <c r="D83" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E83" t="s">
         <v>265</v>
@@ -3223,7 +3223,7 @@
         <v>49</v>
       </c>
       <c r="D84" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E84" t="s">
         <v>267</v>
@@ -3243,7 +3243,7 @@
         <v>49</v>
       </c>
       <c r="D85" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E85" t="s">
         <v>269</v>
@@ -3263,7 +3263,7 @@
         <v>49</v>
       </c>
       <c r="D86" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E86" t="s">
         <v>271</v>
@@ -3283,7 +3283,7 @@
         <v>49</v>
       </c>
       <c r="D87" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E87" t="s">
         <v>273</v>
@@ -3303,7 +3303,7 @@
         <v>49</v>
       </c>
       <c r="D88" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E88" t="s">
         <v>275</v>
@@ -3323,7 +3323,7 @@
         <v>235</v>
       </c>
       <c r="D89" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E89" t="s">
         <v>277</v>
@@ -3943,7 +3943,7 @@
         <v>47</v>
       </c>
       <c r="D120" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E120" t="s">
         <v>38</v>
@@ -3963,7 +3963,7 @@
         <v>48</v>
       </c>
       <c r="D121" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E121" t="s">
         <v>13</v>
@@ -3983,7 +3983,7 @@
         <v>48</v>
       </c>
       <c r="D122" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E122" t="s">
         <v>15</v>
@@ -4003,7 +4003,7 @@
         <v>48</v>
       </c>
       <c r="D123" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E123" t="s">
         <v>17</v>
@@ -4023,7 +4023,7 @@
         <v>48</v>
       </c>
       <c r="D124" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E124" t="s">
         <v>138</v>
@@ -4043,7 +4043,7 @@
         <v>48</v>
       </c>
       <c r="D125" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E125" t="s">
         <v>140</v>
@@ -4063,7 +4063,7 @@
         <v>189</v>
       </c>
       <c r="D126" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E126" t="s">
         <v>300</v>
@@ -4083,7 +4083,7 @@
         <v>48</v>
       </c>
       <c r="D127" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E127" t="s">
         <v>192</v>
@@ -4103,7 +4103,7 @@
         <v>48</v>
       </c>
       <c r="D128" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E128" t="s">
         <v>194</v>
@@ -4123,7 +4123,7 @@
         <v>48</v>
       </c>
       <c r="D129" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E129" t="s">
         <v>196</v>
@@ -4143,7 +4143,7 @@
         <v>48</v>
       </c>
       <c r="D130" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E130" t="s">
         <v>198</v>
@@ -4163,7 +4163,7 @@
         <v>48</v>
       </c>
       <c r="D131" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E131" t="s">
         <v>200</v>
@@ -4183,7 +4183,7 @@
         <v>48</v>
       </c>
       <c r="D132" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E132" t="s">
         <v>202</v>
@@ -4203,7 +4203,7 @@
         <v>189</v>
       </c>
       <c r="D133" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E133" t="s">
         <v>309</v>
@@ -4223,7 +4223,7 @@
         <v>48</v>
       </c>
       <c r="D134" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E134" t="s">
         <v>206</v>
@@ -4243,7 +4243,7 @@
         <v>48</v>
       </c>
       <c r="D135" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E135" t="s">
         <v>208</v>
@@ -4263,7 +4263,7 @@
         <v>48</v>
       </c>
       <c r="D136" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E136" t="s">
         <v>210</v>
@@ -4283,7 +4283,7 @@
         <v>48</v>
       </c>
       <c r="D137" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E137" t="s">
         <v>212</v>
@@ -4303,7 +4303,7 @@
         <v>48</v>
       </c>
       <c r="D138" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E138" t="s">
         <v>214</v>
@@ -4323,7 +4323,7 @@
         <v>48</v>
       </c>
       <c r="D139" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E139" t="s">
         <v>216</v>
@@ -4343,7 +4343,7 @@
         <v>189</v>
       </c>
       <c r="D140" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E140" t="s">
         <v>318</v>
@@ -4363,7 +4363,7 @@
         <v>48</v>
       </c>
       <c r="D141" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E141" t="s">
         <v>220</v>
@@ -4383,7 +4383,7 @@
         <v>48</v>
       </c>
       <c r="D142" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E142" t="s">
         <v>222</v>
@@ -4403,7 +4403,7 @@
         <v>48</v>
       </c>
       <c r="D143" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E143" t="s">
         <v>224</v>
@@ -4423,7 +4423,7 @@
         <v>48</v>
       </c>
       <c r="D144" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E144" t="s">
         <v>226</v>
@@ -4443,7 +4443,7 @@
         <v>48</v>
       </c>
       <c r="D145" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E145" t="s">
         <v>228</v>
@@ -4463,7 +4463,7 @@
         <v>48</v>
       </c>
       <c r="D146" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E146" t="s">
         <v>230</v>
@@ -4483,7 +4483,7 @@
         <v>189</v>
       </c>
       <c r="D147" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E147" t="s">
         <v>327</v>
@@ -4520,7 +4520,7 @@
         <v>27</v>
       </c>
       <c r="D149" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E149" t="s">
         <v>41</v>
@@ -4540,7 +4540,7 @@
         <v>49</v>
       </c>
       <c r="D150" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E150" t="s">
         <v>20</v>
@@ -4560,7 +4560,7 @@
         <v>49</v>
       </c>
       <c r="D151" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E151" t="s">
         <v>22</v>
@@ -4580,7 +4580,7 @@
         <v>49</v>
       </c>
       <c r="D152" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E152" t="s">
         <v>24</v>
@@ -4600,7 +4600,7 @@
         <v>49</v>
       </c>
       <c r="D153" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E153" t="s">
         <v>142</v>
@@ -4620,7 +4620,7 @@
         <v>49</v>
       </c>
       <c r="D154" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E154" t="s">
         <v>144</v>
@@ -4640,7 +4640,7 @@
         <v>235</v>
       </c>
       <c r="D155" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E155" t="s">
         <v>329</v>
@@ -4660,7 +4660,7 @@
         <v>49</v>
       </c>
       <c r="D156" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E156" t="s">
         <v>238</v>
@@ -4680,7 +4680,7 @@
         <v>49</v>
       </c>
       <c r="D157" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E157" t="s">
         <v>240</v>
@@ -4700,7 +4700,7 @@
         <v>49</v>
       </c>
       <c r="D158" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E158" t="s">
         <v>242</v>
@@ -4720,7 +4720,7 @@
         <v>49</v>
       </c>
       <c r="D159" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E159" t="s">
         <v>244</v>
@@ -4740,7 +4740,7 @@
         <v>49</v>
       </c>
       <c r="D160" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E160" t="s">
         <v>245</v>
@@ -4760,7 +4760,7 @@
         <v>49</v>
       </c>
       <c r="D161" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E161" t="s">
         <v>247</v>
@@ -4780,7 +4780,7 @@
         <v>235</v>
       </c>
       <c r="D162" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E162" t="s">
         <v>338</v>
@@ -4800,7 +4800,7 @@
         <v>49</v>
       </c>
       <c r="D163" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E163" t="s">
         <v>251</v>
@@ -4820,7 +4820,7 @@
         <v>49</v>
       </c>
       <c r="D164" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E164" t="s">
         <v>253</v>
@@ -4840,7 +4840,7 @@
         <v>49</v>
       </c>
       <c r="D165" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E165" t="s">
         <v>255</v>
@@ -4860,7 +4860,7 @@
         <v>49</v>
       </c>
       <c r="D166" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E166" t="s">
         <v>257</v>
@@ -4880,7 +4880,7 @@
         <v>49</v>
       </c>
       <c r="D167" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E167" t="s">
         <v>259</v>
@@ -4900,7 +4900,7 @@
         <v>49</v>
       </c>
       <c r="D168" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E168" t="s">
         <v>261</v>
@@ -4920,7 +4920,7 @@
         <v>235</v>
       </c>
       <c r="D169" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E169" t="s">
         <v>347</v>
@@ -4940,7 +4940,7 @@
         <v>49</v>
       </c>
       <c r="D170" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E170" t="s">
         <v>265</v>
@@ -4960,7 +4960,7 @@
         <v>49</v>
       </c>
       <c r="D171" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E171" t="s">
         <v>267</v>
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="D172" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E172" t="s">
         <v>269</v>
@@ -5000,7 +5000,7 @@
         <v>49</v>
       </c>
       <c r="D173" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E173" t="s">
         <v>271</v>
@@ -5020,7 +5020,7 @@
         <v>49</v>
       </c>
       <c r="D174" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E174" t="s">
         <v>273</v>
@@ -5040,7 +5040,7 @@
         <v>49</v>
       </c>
       <c r="D175" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E175" t="s">
         <v>275</v>
@@ -5060,7 +5060,7 @@
         <v>235</v>
       </c>
       <c r="D176" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E176" t="s">
         <v>356</v>
@@ -5120,13 +5120,13 @@
         <v>61</v>
       </c>
       <c r="D179" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E179" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="F179" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -5140,13 +5140,13 @@
         <v>61</v>
       </c>
       <c r="D180" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E180" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="F180" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -5160,13 +5160,13 @@
         <v>63</v>
       </c>
       <c r="D181" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E181" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="F181" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -5477,7 +5477,7 @@
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -5497,7 +5497,7 @@
         <v>71</v>
       </c>
       <c r="C198" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D198" t="s">
         <v>68</v>
@@ -5517,7 +5517,7 @@
         <v>74</v>
       </c>
       <c r="C199" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D199" t="s">
         <v>76</v>
@@ -5537,7 +5537,7 @@
         <v>78</v>
       </c>
       <c r="C200" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D200" t="s">
         <v>34</v>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA99CCC-03A3-4979-BBB6-8BFE6CAF582C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC6F2A6-2A55-437F-9FC7-4368C3F341E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -217,9 +217,6 @@
     <t>2, 2, 8, 10, 10, 10, 10, 10, 9</t>
   </si>
   <si>
-    <t>, , , , , , , , s</t>
-  </si>
-  <si>
     <t>10, 10, 10, 10, 10, 10, 9, 9</t>
   </si>
   <si>
@@ -1181,6 +1178,9 @@
   </si>
   <si>
     <t>33, 33, 33, 33, 33, 33, 1, 1</t>
+  </si>
+  <si>
+    <t>, , , f, f, f, f, f, s</t>
   </si>
 </sst>
 </file>
@@ -1546,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1709,10 +1709,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" t="s">
         <v>132</v>
-      </c>
-      <c r="F8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1729,10 +1729,10 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" t="s">
         <v>134</v>
-      </c>
-      <c r="F9" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1749,10 +1749,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" t="s">
         <v>136</v>
-      </c>
-      <c r="F10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1769,10 +1769,10 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" t="s">
         <v>146</v>
-      </c>
-      <c r="F11" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1789,10 +1789,10 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" t="s">
         <v>148</v>
-      </c>
-      <c r="F12" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1809,10 +1809,10 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" t="s">
         <v>150</v>
-      </c>
-      <c r="F13" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1829,10 +1829,10 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1849,10 +1849,10 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" t="s">
         <v>154</v>
-      </c>
-      <c r="F15" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1869,10 +1869,10 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" t="s">
         <v>156</v>
-      </c>
-      <c r="F16" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1889,10 +1889,10 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" t="s">
         <v>158</v>
-      </c>
-      <c r="F17" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1909,10 +1909,10 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" t="s">
         <v>160</v>
-      </c>
-      <c r="F18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1929,10 +1929,10 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" t="s">
         <v>162</v>
-      </c>
-      <c r="F19" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1949,10 +1949,10 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" t="s">
         <v>164</v>
-      </c>
-      <c r="F20" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1969,10 +1969,10 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" t="s">
         <v>166</v>
-      </c>
-      <c r="F21" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1989,10 +1989,10 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" t="s">
         <v>168</v>
-      </c>
-      <c r="F22" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2009,10 +2009,10 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" t="s">
         <v>170</v>
-      </c>
-      <c r="F23" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2029,10 +2029,10 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" t="s">
         <v>172</v>
-      </c>
-      <c r="F24" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2049,10 +2049,10 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" t="s">
         <v>174</v>
-      </c>
-      <c r="F25" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2069,10 +2069,10 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" t="s">
         <v>176</v>
-      </c>
-      <c r="F26" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2089,10 +2089,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" t="s">
         <v>178</v>
-      </c>
-      <c r="F27" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2109,10 +2109,10 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" t="s">
         <v>180</v>
-      </c>
-      <c r="F28" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2129,10 +2129,10 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" t="s">
         <v>182</v>
-      </c>
-      <c r="F29" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2149,10 +2149,10 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" t="s">
         <v>184</v>
-      </c>
-      <c r="F30" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2169,10 +2169,10 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" t="s">
         <v>186</v>
-      </c>
-      <c r="F31" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2206,7 +2206,7 @@
         <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
@@ -2226,7 +2226,7 @@
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -2246,7 +2246,7 @@
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
@@ -2266,7 +2266,7 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
@@ -2286,13 +2286,13 @@
         <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E37" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" t="s">
         <v>138</v>
-      </c>
-      <c r="F37" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2306,13 +2306,13 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" t="s">
         <v>140</v>
-      </c>
-      <c r="F38" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2320,19 +2320,19 @@
         <v>5007</v>
       </c>
       <c r="B39" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" t="s">
         <v>188</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>364</v>
+      </c>
+      <c r="E39" t="s">
         <v>189</v>
       </c>
-      <c r="D39" t="s">
-        <v>365</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>190</v>
-      </c>
-      <c r="F39" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2346,13 +2346,13 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E40" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40" t="s">
         <v>192</v>
-      </c>
-      <c r="F40" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2366,13 +2366,13 @@
         <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E41" t="s">
+        <v>193</v>
+      </c>
+      <c r="F41" t="s">
         <v>194</v>
-      </c>
-      <c r="F41" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2386,13 +2386,13 @@
         <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E42" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42" t="s">
         <v>196</v>
-      </c>
-      <c r="F42" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2406,13 +2406,13 @@
         <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E43" t="s">
+        <v>197</v>
+      </c>
+      <c r="F43" t="s">
         <v>198</v>
-      </c>
-      <c r="F43" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2426,13 +2426,13 @@
         <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F44" t="s">
         <v>200</v>
-      </c>
-      <c r="F44" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2446,13 +2446,13 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E45" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45" t="s">
         <v>202</v>
-      </c>
-      <c r="F45" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2460,19 +2460,19 @@
         <v>5014</v>
       </c>
       <c r="B46" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" t="s">
         <v>188</v>
       </c>
-      <c r="C46" t="s">
-        <v>189</v>
-      </c>
       <c r="D46" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E46" t="s">
+        <v>203</v>
+      </c>
+      <c r="F46" t="s">
         <v>204</v>
-      </c>
-      <c r="F46" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2486,13 +2486,13 @@
         <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E47" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" t="s">
         <v>206</v>
-      </c>
-      <c r="F47" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2506,13 +2506,13 @@
         <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E48" t="s">
+        <v>207</v>
+      </c>
+      <c r="F48" t="s">
         <v>208</v>
-      </c>
-      <c r="F48" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2526,13 +2526,13 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E49" t="s">
+        <v>209</v>
+      </c>
+      <c r="F49" t="s">
         <v>210</v>
-      </c>
-      <c r="F49" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2546,13 +2546,13 @@
         <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E50" t="s">
+        <v>211</v>
+      </c>
+      <c r="F50" t="s">
         <v>212</v>
-      </c>
-      <c r="F50" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2566,13 +2566,13 @@
         <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E51" t="s">
+        <v>213</v>
+      </c>
+      <c r="F51" t="s">
         <v>214</v>
-      </c>
-      <c r="F51" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2586,13 +2586,13 @@
         <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E52" t="s">
+        <v>215</v>
+      </c>
+      <c r="F52" t="s">
         <v>216</v>
-      </c>
-      <c r="F52" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2600,19 +2600,19 @@
         <v>5021</v>
       </c>
       <c r="B53" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" t="s">
         <v>188</v>
       </c>
-      <c r="C53" t="s">
-        <v>189</v>
-      </c>
       <c r="D53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E53" t="s">
+        <v>217</v>
+      </c>
+      <c r="F53" t="s">
         <v>218</v>
-      </c>
-      <c r="F53" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2626,13 +2626,13 @@
         <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E54" t="s">
+        <v>219</v>
+      </c>
+      <c r="F54" t="s">
         <v>220</v>
-      </c>
-      <c r="F54" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2646,13 +2646,13 @@
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E55" t="s">
+        <v>221</v>
+      </c>
+      <c r="F55" t="s">
         <v>222</v>
-      </c>
-      <c r="F55" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2666,13 +2666,13 @@
         <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E56" t="s">
+        <v>223</v>
+      </c>
+      <c r="F56" t="s">
         <v>224</v>
-      </c>
-      <c r="F56" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2686,13 +2686,13 @@
         <v>48</v>
       </c>
       <c r="D57" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E57" t="s">
+        <v>225</v>
+      </c>
+      <c r="F57" t="s">
         <v>226</v>
-      </c>
-      <c r="F57" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2706,13 +2706,13 @@
         <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E58" t="s">
+        <v>227</v>
+      </c>
+      <c r="F58" t="s">
         <v>228</v>
-      </c>
-      <c r="F58" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2726,13 +2726,13 @@
         <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E59" t="s">
+        <v>229</v>
+      </c>
+      <c r="F59" t="s">
         <v>230</v>
-      </c>
-      <c r="F59" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2740,19 +2740,19 @@
         <v>5028</v>
       </c>
       <c r="B60" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" t="s">
         <v>188</v>
       </c>
-      <c r="C60" t="s">
-        <v>189</v>
-      </c>
       <c r="D60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E60" t="s">
+        <v>231</v>
+      </c>
+      <c r="F60" t="s">
         <v>232</v>
-      </c>
-      <c r="F60" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2783,7 +2783,7 @@
         <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E62" t="s">
         <v>41</v>
@@ -2803,7 +2803,7 @@
         <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E63" t="s">
         <v>20</v>
@@ -2823,7 +2823,7 @@
         <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -2843,7 +2843,7 @@
         <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E65" t="s">
         <v>24</v>
@@ -2863,13 +2863,13 @@
         <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E66" t="s">
+        <v>141</v>
+      </c>
+      <c r="F66" t="s">
         <v>142</v>
-      </c>
-      <c r="F66" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2883,13 +2883,13 @@
         <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E67" t="s">
+        <v>143</v>
+      </c>
+      <c r="F67" t="s">
         <v>144</v>
-      </c>
-      <c r="F67" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2897,19 +2897,19 @@
         <v>6007</v>
       </c>
       <c r="B68" t="s">
+        <v>233</v>
+      </c>
+      <c r="C68" t="s">
         <v>234</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>366</v>
+      </c>
+      <c r="E68" t="s">
         <v>235</v>
       </c>
-      <c r="D68" t="s">
-        <v>367</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>236</v>
-      </c>
-      <c r="F68" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2923,13 +2923,13 @@
         <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E69" t="s">
+        <v>237</v>
+      </c>
+      <c r="F69" t="s">
         <v>238</v>
-      </c>
-      <c r="F69" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2943,13 +2943,13 @@
         <v>49</v>
       </c>
       <c r="D70" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E70" t="s">
+        <v>239</v>
+      </c>
+      <c r="F70" t="s">
         <v>240</v>
-      </c>
-      <c r="F70" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2963,13 +2963,13 @@
         <v>49</v>
       </c>
       <c r="D71" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E71" t="s">
+        <v>241</v>
+      </c>
+      <c r="F71" t="s">
         <v>242</v>
-      </c>
-      <c r="F71" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2983,13 +2983,13 @@
         <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E72" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3003,13 +3003,13 @@
         <v>49</v>
       </c>
       <c r="D73" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E73" t="s">
+        <v>244</v>
+      </c>
+      <c r="F73" t="s">
         <v>245</v>
-      </c>
-      <c r="F73" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3023,13 +3023,13 @@
         <v>49</v>
       </c>
       <c r="D74" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E74" t="s">
+        <v>246</v>
+      </c>
+      <c r="F74" t="s">
         <v>247</v>
-      </c>
-      <c r="F74" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3037,19 +3037,19 @@
         <v>6014</v>
       </c>
       <c r="B75" t="s">
+        <v>233</v>
+      </c>
+      <c r="C75" t="s">
         <v>234</v>
       </c>
-      <c r="C75" t="s">
-        <v>235</v>
-      </c>
       <c r="D75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E75" t="s">
+        <v>248</v>
+      </c>
+      <c r="F75" t="s">
         <v>249</v>
-      </c>
-      <c r="F75" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3063,13 +3063,13 @@
         <v>49</v>
       </c>
       <c r="D76" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E76" t="s">
+        <v>250</v>
+      </c>
+      <c r="F76" t="s">
         <v>251</v>
-      </c>
-      <c r="F76" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3083,13 +3083,13 @@
         <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E77" t="s">
+        <v>252</v>
+      </c>
+      <c r="F77" t="s">
         <v>253</v>
-      </c>
-      <c r="F77" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3103,13 +3103,13 @@
         <v>49</v>
       </c>
       <c r="D78" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E78" t="s">
+        <v>254</v>
+      </c>
+      <c r="F78" t="s">
         <v>255</v>
-      </c>
-      <c r="F78" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3123,13 +3123,13 @@
         <v>49</v>
       </c>
       <c r="D79" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E79" t="s">
+        <v>256</v>
+      </c>
+      <c r="F79" t="s">
         <v>257</v>
-      </c>
-      <c r="F79" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3143,13 +3143,13 @@
         <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E80" t="s">
+        <v>258</v>
+      </c>
+      <c r="F80" t="s">
         <v>259</v>
-      </c>
-      <c r="F80" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3163,13 +3163,13 @@
         <v>49</v>
       </c>
       <c r="D81" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E81" t="s">
+        <v>260</v>
+      </c>
+      <c r="F81" t="s">
         <v>261</v>
-      </c>
-      <c r="F81" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3177,19 +3177,19 @@
         <v>6021</v>
       </c>
       <c r="B82" t="s">
+        <v>233</v>
+      </c>
+      <c r="C82" t="s">
         <v>234</v>
       </c>
-      <c r="C82" t="s">
-        <v>235</v>
-      </c>
       <c r="D82" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E82" t="s">
+        <v>262</v>
+      </c>
+      <c r="F82" t="s">
         <v>263</v>
-      </c>
-      <c r="F82" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3203,13 +3203,13 @@
         <v>49</v>
       </c>
       <c r="D83" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E83" t="s">
+        <v>264</v>
+      </c>
+      <c r="F83" t="s">
         <v>265</v>
-      </c>
-      <c r="F83" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3223,13 +3223,13 @@
         <v>49</v>
       </c>
       <c r="D84" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E84" t="s">
+        <v>266</v>
+      </c>
+      <c r="F84" t="s">
         <v>267</v>
-      </c>
-      <c r="F84" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3243,13 +3243,13 @@
         <v>49</v>
       </c>
       <c r="D85" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E85" t="s">
+        <v>268</v>
+      </c>
+      <c r="F85" t="s">
         <v>269</v>
-      </c>
-      <c r="F85" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3263,13 +3263,13 @@
         <v>49</v>
       </c>
       <c r="D86" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E86" t="s">
+        <v>270</v>
+      </c>
+      <c r="F86" t="s">
         <v>271</v>
-      </c>
-      <c r="F86" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3283,13 +3283,13 @@
         <v>49</v>
       </c>
       <c r="D87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E87" t="s">
+        <v>272</v>
+      </c>
+      <c r="F87" t="s">
         <v>273</v>
-      </c>
-      <c r="F87" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3303,13 +3303,13 @@
         <v>49</v>
       </c>
       <c r="D88" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E88" t="s">
+        <v>274</v>
+      </c>
+      <c r="F88" t="s">
         <v>275</v>
-      </c>
-      <c r="F88" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3317,24 +3317,24 @@
         <v>6028</v>
       </c>
       <c r="B89" t="s">
+        <v>233</v>
+      </c>
+      <c r="C89" t="s">
         <v>234</v>
       </c>
-      <c r="C89" t="s">
-        <v>235</v>
-      </c>
       <c r="D89" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E89" t="s">
+        <v>276</v>
+      </c>
+      <c r="F89" t="s">
         <v>277</v>
-      </c>
-      <c r="F89" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B91" t="s">
         <v>26</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -3446,15 +3446,15 @@
         <v>7</v>
       </c>
       <c r="E95" t="s">
+        <v>131</v>
+      </c>
+      <c r="F95" t="s">
         <v>132</v>
-      </c>
-      <c r="F95" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -3466,15 +3466,15 @@
         <v>7</v>
       </c>
       <c r="E96" t="s">
+        <v>133</v>
+      </c>
+      <c r="F96" t="s">
         <v>134</v>
-      </c>
-      <c r="F96" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -3486,15 +3486,15 @@
         <v>7</v>
       </c>
       <c r="E97" t="s">
+        <v>135</v>
+      </c>
+      <c r="F97" t="s">
         <v>136</v>
-      </c>
-      <c r="F97" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -3506,15 +3506,15 @@
         <v>7</v>
       </c>
       <c r="E98" t="s">
+        <v>145</v>
+      </c>
+      <c r="F98" t="s">
         <v>146</v>
-      </c>
-      <c r="F98" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -3526,15 +3526,15 @@
         <v>7</v>
       </c>
       <c r="E99" t="s">
+        <v>147</v>
+      </c>
+      <c r="F99" t="s">
         <v>148</v>
-      </c>
-      <c r="F99" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -3546,15 +3546,15 @@
         <v>7</v>
       </c>
       <c r="E100" t="s">
+        <v>149</v>
+      </c>
+      <c r="F100" t="s">
         <v>150</v>
-      </c>
-      <c r="F100" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -3566,15 +3566,15 @@
         <v>7</v>
       </c>
       <c r="E101" t="s">
+        <v>151</v>
+      </c>
+      <c r="F101" t="s">
         <v>152</v>
-      </c>
-      <c r="F101" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -3586,15 +3586,15 @@
         <v>7</v>
       </c>
       <c r="E102" t="s">
+        <v>153</v>
+      </c>
+      <c r="F102" t="s">
         <v>154</v>
-      </c>
-      <c r="F102" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -3606,15 +3606,15 @@
         <v>7</v>
       </c>
       <c r="E103" t="s">
+        <v>155</v>
+      </c>
+      <c r="F103" t="s">
         <v>156</v>
-      </c>
-      <c r="F103" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -3626,15 +3626,15 @@
         <v>7</v>
       </c>
       <c r="E104" t="s">
+        <v>157</v>
+      </c>
+      <c r="F104" t="s">
         <v>158</v>
-      </c>
-      <c r="F104" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -3646,15 +3646,15 @@
         <v>7</v>
       </c>
       <c r="E105" t="s">
+        <v>159</v>
+      </c>
+      <c r="F105" t="s">
         <v>160</v>
-      </c>
-      <c r="F105" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -3666,15 +3666,15 @@
         <v>7</v>
       </c>
       <c r="E106" t="s">
+        <v>161</v>
+      </c>
+      <c r="F106" t="s">
         <v>162</v>
-      </c>
-      <c r="F106" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -3686,15 +3686,15 @@
         <v>7</v>
       </c>
       <c r="E107" t="s">
+        <v>163</v>
+      </c>
+      <c r="F107" t="s">
         <v>164</v>
-      </c>
-      <c r="F107" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -3706,15 +3706,15 @@
         <v>7</v>
       </c>
       <c r="E108" t="s">
+        <v>165</v>
+      </c>
+      <c r="F108" t="s">
         <v>166</v>
-      </c>
-      <c r="F108" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -3726,15 +3726,15 @@
         <v>7</v>
       </c>
       <c r="E109" t="s">
+        <v>167</v>
+      </c>
+      <c r="F109" t="s">
         <v>168</v>
-      </c>
-      <c r="F109" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -3746,15 +3746,15 @@
         <v>7</v>
       </c>
       <c r="E110" t="s">
+        <v>169</v>
+      </c>
+      <c r="F110" t="s">
         <v>170</v>
-      </c>
-      <c r="F110" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -3766,15 +3766,15 @@
         <v>7</v>
       </c>
       <c r="E111" t="s">
+        <v>171</v>
+      </c>
+      <c r="F111" t="s">
         <v>172</v>
-      </c>
-      <c r="F111" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -3786,15 +3786,15 @@
         <v>7</v>
       </c>
       <c r="E112" t="s">
+        <v>173</v>
+      </c>
+      <c r="F112" t="s">
         <v>174</v>
-      </c>
-      <c r="F112" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -3806,15 +3806,15 @@
         <v>7</v>
       </c>
       <c r="E113" t="s">
+        <v>175</v>
+      </c>
+      <c r="F113" t="s">
         <v>176</v>
-      </c>
-      <c r="F113" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -3826,15 +3826,15 @@
         <v>7</v>
       </c>
       <c r="E114" t="s">
+        <v>177</v>
+      </c>
+      <c r="F114" t="s">
         <v>178</v>
-      </c>
-      <c r="F114" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -3846,15 +3846,15 @@
         <v>7</v>
       </c>
       <c r="E115" t="s">
+        <v>179</v>
+      </c>
+      <c r="F115" t="s">
         <v>180</v>
-      </c>
-      <c r="F115" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -3866,15 +3866,15 @@
         <v>7</v>
       </c>
       <c r="E116" t="s">
+        <v>181</v>
+      </c>
+      <c r="F116" t="s">
         <v>182</v>
-      </c>
-      <c r="F116" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -3886,15 +3886,15 @@
         <v>7</v>
       </c>
       <c r="E117" t="s">
+        <v>183</v>
+      </c>
+      <c r="F117" t="s">
         <v>184</v>
-      </c>
-      <c r="F117" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -3906,15 +3906,15 @@
         <v>7</v>
       </c>
       <c r="E118" t="s">
+        <v>185</v>
+      </c>
+      <c r="F118" t="s">
         <v>186</v>
-      </c>
-      <c r="F118" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B119" t="s">
         <v>33</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B120" t="s">
         <v>37</v>
@@ -3943,7 +3943,7 @@
         <v>47</v>
       </c>
       <c r="D120" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E120" t="s">
         <v>38</v>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
@@ -3963,7 +3963,7 @@
         <v>48</v>
       </c>
       <c r="D121" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E121" t="s">
         <v>13</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B122" t="s">
         <v>12</v>
@@ -3983,7 +3983,7 @@
         <v>48</v>
       </c>
       <c r="D122" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E122" t="s">
         <v>15</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
@@ -4003,7 +4003,7 @@
         <v>48</v>
       </c>
       <c r="D123" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E123" t="s">
         <v>17</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B124" t="s">
         <v>12</v>
@@ -4023,18 +4023,18 @@
         <v>48</v>
       </c>
       <c r="D124" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E124" t="s">
+        <v>137</v>
+      </c>
+      <c r="F124" t="s">
         <v>138</v>
-      </c>
-      <c r="F124" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B125" t="s">
         <v>12</v>
@@ -4043,38 +4043,38 @@
         <v>48</v>
       </c>
       <c r="D125" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E125" t="s">
+        <v>139</v>
+      </c>
+      <c r="F125" t="s">
         <v>140</v>
-      </c>
-      <c r="F125" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B126" t="s">
+        <v>187</v>
+      </c>
+      <c r="C126" t="s">
         <v>188</v>
       </c>
-      <c r="C126" t="s">
-        <v>189</v>
-      </c>
       <c r="D126" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E126" t="s">
+        <v>299</v>
+      </c>
+      <c r="F126" t="s">
         <v>300</v>
-      </c>
-      <c r="F126" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B127" t="s">
         <v>12</v>
@@ -4083,18 +4083,18 @@
         <v>48</v>
       </c>
       <c r="D127" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E127" t="s">
+        <v>191</v>
+      </c>
+      <c r="F127" t="s">
         <v>192</v>
-      </c>
-      <c r="F127" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B128" t="s">
         <v>12</v>
@@ -4103,18 +4103,18 @@
         <v>48</v>
       </c>
       <c r="D128" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E128" t="s">
+        <v>193</v>
+      </c>
+      <c r="F128" t="s">
         <v>194</v>
-      </c>
-      <c r="F128" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
@@ -4123,18 +4123,18 @@
         <v>48</v>
       </c>
       <c r="D129" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E129" t="s">
+        <v>195</v>
+      </c>
+      <c r="F129" t="s">
         <v>196</v>
-      </c>
-      <c r="F129" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
@@ -4143,18 +4143,18 @@
         <v>48</v>
       </c>
       <c r="D130" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E130" t="s">
+        <v>197</v>
+      </c>
+      <c r="F130" t="s">
         <v>198</v>
-      </c>
-      <c r="F130" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B131" t="s">
         <v>12</v>
@@ -4163,18 +4163,18 @@
         <v>48</v>
       </c>
       <c r="D131" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E131" t="s">
+        <v>199</v>
+      </c>
+      <c r="F131" t="s">
         <v>200</v>
-      </c>
-      <c r="F131" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B132" t="s">
         <v>12</v>
@@ -4183,38 +4183,38 @@
         <v>48</v>
       </c>
       <c r="D132" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E132" t="s">
+        <v>201</v>
+      </c>
+      <c r="F132" t="s">
         <v>202</v>
-      </c>
-      <c r="F132" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>307</v>
+      </c>
+      <c r="B133" t="s">
+        <v>187</v>
+      </c>
+      <c r="C133" t="s">
+        <v>188</v>
+      </c>
+      <c r="D133" t="s">
+        <v>368</v>
+      </c>
+      <c r="E133" t="s">
         <v>308</v>
       </c>
-      <c r="B133" t="s">
-        <v>188</v>
-      </c>
-      <c r="C133" t="s">
-        <v>189</v>
-      </c>
-      <c r="D133" t="s">
-        <v>369</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>309</v>
-      </c>
-      <c r="F133" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B134" t="s">
         <v>12</v>
@@ -4223,18 +4223,18 @@
         <v>48</v>
       </c>
       <c r="D134" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E134" t="s">
+        <v>205</v>
+      </c>
+      <c r="F134" t="s">
         <v>206</v>
-      </c>
-      <c r="F134" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B135" t="s">
         <v>12</v>
@@ -4243,18 +4243,18 @@
         <v>48</v>
       </c>
       <c r="D135" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E135" t="s">
+        <v>207</v>
+      </c>
+      <c r="F135" t="s">
         <v>208</v>
-      </c>
-      <c r="F135" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B136" t="s">
         <v>12</v>
@@ -4263,18 +4263,18 @@
         <v>48</v>
       </c>
       <c r="D136" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E136" t="s">
+        <v>209</v>
+      </c>
+      <c r="F136" t="s">
         <v>210</v>
-      </c>
-      <c r="F136" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
@@ -4283,18 +4283,18 @@
         <v>48</v>
       </c>
       <c r="D137" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E137" t="s">
+        <v>211</v>
+      </c>
+      <c r="F137" t="s">
         <v>212</v>
-      </c>
-      <c r="F137" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B138" t="s">
         <v>12</v>
@@ -4303,18 +4303,18 @@
         <v>48</v>
       </c>
       <c r="D138" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E138" t="s">
+        <v>213</v>
+      </c>
+      <c r="F138" t="s">
         <v>214</v>
-      </c>
-      <c r="F138" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B139" t="s">
         <v>12</v>
@@ -4323,38 +4323,38 @@
         <v>48</v>
       </c>
       <c r="D139" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E139" t="s">
+        <v>215</v>
+      </c>
+      <c r="F139" t="s">
         <v>216</v>
-      </c>
-      <c r="F139" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
+        <v>316</v>
+      </c>
+      <c r="B140" t="s">
+        <v>187</v>
+      </c>
+      <c r="C140" t="s">
+        <v>188</v>
+      </c>
+      <c r="D140" t="s">
+        <v>368</v>
+      </c>
+      <c r="E140" t="s">
         <v>317</v>
       </c>
-      <c r="B140" t="s">
-        <v>188</v>
-      </c>
-      <c r="C140" t="s">
-        <v>189</v>
-      </c>
-      <c r="D140" t="s">
-        <v>369</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>318</v>
-      </c>
-      <c r="F140" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B141" t="s">
         <v>12</v>
@@ -4363,18 +4363,18 @@
         <v>48</v>
       </c>
       <c r="D141" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E141" t="s">
+        <v>219</v>
+      </c>
+      <c r="F141" t="s">
         <v>220</v>
-      </c>
-      <c r="F141" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B142" t="s">
         <v>12</v>
@@ -4383,18 +4383,18 @@
         <v>48</v>
       </c>
       <c r="D142" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E142" t="s">
+        <v>221</v>
+      </c>
+      <c r="F142" t="s">
         <v>222</v>
-      </c>
-      <c r="F142" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B143" t="s">
         <v>12</v>
@@ -4403,18 +4403,18 @@
         <v>48</v>
       </c>
       <c r="D143" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E143" t="s">
+        <v>223</v>
+      </c>
+      <c r="F143" t="s">
         <v>224</v>
-      </c>
-      <c r="F143" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B144" t="s">
         <v>12</v>
@@ -4423,18 +4423,18 @@
         <v>48</v>
       </c>
       <c r="D144" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E144" t="s">
+        <v>225</v>
+      </c>
+      <c r="F144" t="s">
         <v>226</v>
-      </c>
-      <c r="F144" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B145" t="s">
         <v>12</v>
@@ -4443,18 +4443,18 @@
         <v>48</v>
       </c>
       <c r="D145" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E145" t="s">
+        <v>227</v>
+      </c>
+      <c r="F145" t="s">
         <v>228</v>
-      </c>
-      <c r="F145" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B146" t="s">
         <v>12</v>
@@ -4463,38 +4463,38 @@
         <v>48</v>
       </c>
       <c r="D146" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E146" t="s">
+        <v>229</v>
+      </c>
+      <c r="F146" t="s">
         <v>230</v>
-      </c>
-      <c r="F146" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>325</v>
+      </c>
+      <c r="B147" t="s">
+        <v>187</v>
+      </c>
+      <c r="C147" t="s">
+        <v>188</v>
+      </c>
+      <c r="D147" t="s">
+        <v>368</v>
+      </c>
+      <c r="E147" t="s">
         <v>326</v>
       </c>
-      <c r="B147" t="s">
-        <v>188</v>
-      </c>
-      <c r="C147" t="s">
-        <v>189</v>
-      </c>
-      <c r="D147" t="s">
-        <v>369</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>327</v>
-      </c>
-      <c r="F147" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B149" t="s">
         <v>40</v>
@@ -4520,7 +4520,7 @@
         <v>27</v>
       </c>
       <c r="D149" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E149" t="s">
         <v>41</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B150" t="s">
         <v>19</v>
@@ -4540,7 +4540,7 @@
         <v>49</v>
       </c>
       <c r="D150" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E150" t="s">
         <v>20</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B151" t="s">
         <v>19</v>
@@ -4560,7 +4560,7 @@
         <v>49</v>
       </c>
       <c r="D151" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E151" t="s">
         <v>22</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B152" t="s">
         <v>19</v>
@@ -4580,7 +4580,7 @@
         <v>49</v>
       </c>
       <c r="D152" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E152" t="s">
         <v>24</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B153" t="s">
         <v>19</v>
@@ -4600,18 +4600,18 @@
         <v>49</v>
       </c>
       <c r="D153" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E153" t="s">
+        <v>141</v>
+      </c>
+      <c r="F153" t="s">
         <v>142</v>
-      </c>
-      <c r="F153" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B154" t="s">
         <v>19</v>
@@ -4620,38 +4620,38 @@
         <v>49</v>
       </c>
       <c r="D154" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E154" t="s">
+        <v>143</v>
+      </c>
+      <c r="F154" t="s">
         <v>144</v>
-      </c>
-      <c r="F154" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B155" t="s">
+        <v>233</v>
+      </c>
+      <c r="C155" t="s">
         <v>234</v>
       </c>
-      <c r="C155" t="s">
-        <v>235</v>
-      </c>
       <c r="D155" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E155" t="s">
+        <v>328</v>
+      </c>
+      <c r="F155" t="s">
         <v>329</v>
-      </c>
-      <c r="F155" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B156" t="s">
         <v>19</v>
@@ -4660,18 +4660,18 @@
         <v>49</v>
       </c>
       <c r="D156" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E156" t="s">
+        <v>237</v>
+      </c>
+      <c r="F156" t="s">
         <v>238</v>
-      </c>
-      <c r="F156" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B157" t="s">
         <v>19</v>
@@ -4680,18 +4680,18 @@
         <v>49</v>
       </c>
       <c r="D157" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E157" t="s">
+        <v>239</v>
+      </c>
+      <c r="F157" t="s">
         <v>240</v>
-      </c>
-      <c r="F157" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B158" t="s">
         <v>19</v>
@@ -4700,18 +4700,18 @@
         <v>49</v>
       </c>
       <c r="D158" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E158" t="s">
+        <v>241</v>
+      </c>
+      <c r="F158" t="s">
         <v>242</v>
-      </c>
-      <c r="F158" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B159" t="s">
         <v>19</v>
@@ -4720,18 +4720,18 @@
         <v>49</v>
       </c>
       <c r="D159" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E159" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F159" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B160" t="s">
         <v>19</v>
@@ -4740,18 +4740,18 @@
         <v>49</v>
       </c>
       <c r="D160" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E160" t="s">
+        <v>244</v>
+      </c>
+      <c r="F160" t="s">
         <v>245</v>
-      </c>
-      <c r="F160" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B161" t="s">
         <v>19</v>
@@ -4760,38 +4760,38 @@
         <v>49</v>
       </c>
       <c r="D161" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E161" t="s">
+        <v>246</v>
+      </c>
+      <c r="F161" t="s">
         <v>247</v>
-      </c>
-      <c r="F161" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>336</v>
+      </c>
+      <c r="B162" t="s">
+        <v>233</v>
+      </c>
+      <c r="C162" t="s">
+        <v>234</v>
+      </c>
+      <c r="D162" t="s">
+        <v>370</v>
+      </c>
+      <c r="E162" t="s">
         <v>337</v>
       </c>
-      <c r="B162" t="s">
-        <v>234</v>
-      </c>
-      <c r="C162" t="s">
-        <v>235</v>
-      </c>
-      <c r="D162" t="s">
-        <v>371</v>
-      </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>338</v>
-      </c>
-      <c r="F162" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B163" t="s">
         <v>19</v>
@@ -4800,18 +4800,18 @@
         <v>49</v>
       </c>
       <c r="D163" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E163" t="s">
+        <v>250</v>
+      </c>
+      <c r="F163" t="s">
         <v>251</v>
-      </c>
-      <c r="F163" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B164" t="s">
         <v>19</v>
@@ -4820,18 +4820,18 @@
         <v>49</v>
       </c>
       <c r="D164" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E164" t="s">
+        <v>252</v>
+      </c>
+      <c r="F164" t="s">
         <v>253</v>
-      </c>
-      <c r="F164" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B165" t="s">
         <v>19</v>
@@ -4840,18 +4840,18 @@
         <v>49</v>
       </c>
       <c r="D165" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E165" t="s">
+        <v>254</v>
+      </c>
+      <c r="F165" t="s">
         <v>255</v>
-      </c>
-      <c r="F165" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B166" t="s">
         <v>19</v>
@@ -4860,18 +4860,18 @@
         <v>49</v>
       </c>
       <c r="D166" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E166" t="s">
+        <v>256</v>
+      </c>
+      <c r="F166" t="s">
         <v>257</v>
-      </c>
-      <c r="F166" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B167" t="s">
         <v>19</v>
@@ -4880,18 +4880,18 @@
         <v>49</v>
       </c>
       <c r="D167" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E167" t="s">
+        <v>258</v>
+      </c>
+      <c r="F167" t="s">
         <v>259</v>
-      </c>
-      <c r="F167" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B168" t="s">
         <v>19</v>
@@ -4900,38 +4900,38 @@
         <v>49</v>
       </c>
       <c r="D168" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E168" t="s">
+        <v>260</v>
+      </c>
+      <c r="F168" t="s">
         <v>261</v>
-      </c>
-      <c r="F168" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
+        <v>345</v>
+      </c>
+      <c r="B169" t="s">
+        <v>233</v>
+      </c>
+      <c r="C169" t="s">
+        <v>234</v>
+      </c>
+      <c r="D169" t="s">
+        <v>370</v>
+      </c>
+      <c r="E169" t="s">
         <v>346</v>
       </c>
-      <c r="B169" t="s">
-        <v>234</v>
-      </c>
-      <c r="C169" t="s">
-        <v>235</v>
-      </c>
-      <c r="D169" t="s">
-        <v>371</v>
-      </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
         <v>347</v>
-      </c>
-      <c r="F169" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B170" t="s">
         <v>19</v>
@@ -4940,18 +4940,18 @@
         <v>49</v>
       </c>
       <c r="D170" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E170" t="s">
+        <v>264</v>
+      </c>
+      <c r="F170" t="s">
         <v>265</v>
-      </c>
-      <c r="F170" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B171" t="s">
         <v>19</v>
@@ -4960,18 +4960,18 @@
         <v>49</v>
       </c>
       <c r="D171" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E171" t="s">
+        <v>266</v>
+      </c>
+      <c r="F171" t="s">
         <v>267</v>
-      </c>
-      <c r="F171" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B172" t="s">
         <v>19</v>
@@ -4980,18 +4980,18 @@
         <v>49</v>
       </c>
       <c r="D172" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E172" t="s">
+        <v>268</v>
+      </c>
+      <c r="F172" t="s">
         <v>269</v>
-      </c>
-      <c r="F172" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B173" t="s">
         <v>19</v>
@@ -5000,18 +5000,18 @@
         <v>49</v>
       </c>
       <c r="D173" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E173" t="s">
+        <v>270</v>
+      </c>
+      <c r="F173" t="s">
         <v>271</v>
-      </c>
-      <c r="F173" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B174" t="s">
         <v>19</v>
@@ -5020,18 +5020,18 @@
         <v>49</v>
       </c>
       <c r="D174" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E174" t="s">
+        <v>272</v>
+      </c>
+      <c r="F174" t="s">
         <v>273</v>
-      </c>
-      <c r="F174" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B175" t="s">
         <v>19</v>
@@ -5040,33 +5040,33 @@
         <v>49</v>
       </c>
       <c r="D175" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E175" t="s">
+        <v>274</v>
+      </c>
+      <c r="F175" t="s">
         <v>275</v>
-      </c>
-      <c r="F175" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
+        <v>354</v>
+      </c>
+      <c r="B176" t="s">
+        <v>233</v>
+      </c>
+      <c r="C176" t="s">
+        <v>234</v>
+      </c>
+      <c r="D176" t="s">
+        <v>370</v>
+      </c>
+      <c r="E176" t="s">
         <v>355</v>
       </c>
-      <c r="B176" t="s">
-        <v>234</v>
-      </c>
-      <c r="C176" t="s">
-        <v>235</v>
-      </c>
-      <c r="D176" t="s">
-        <v>371</v>
-      </c>
-      <c r="E176" t="s">
+      <c r="F176" t="s">
         <v>356</v>
-      </c>
-      <c r="F176" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -5117,36 +5117,36 @@
         <v>60</v>
       </c>
       <c r="C179" t="s">
-        <v>61</v>
+        <v>382</v>
       </c>
       <c r="D179" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E179" t="s">
+        <v>376</v>
+      </c>
+      <c r="F179" t="s">
         <v>377</v>
-      </c>
-      <c r="F179" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B180" t="s">
         <v>60</v>
       </c>
       <c r="C180" t="s">
-        <v>61</v>
+        <v>382</v>
       </c>
       <c r="D180" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E180" t="s">
+        <v>378</v>
+      </c>
+      <c r="F180" t="s">
         <v>379</v>
-      </c>
-      <c r="F180" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -5154,24 +5154,24 @@
         <v>57</v>
       </c>
       <c r="B181" t="s">
+        <v>61</v>
+      </c>
+      <c r="C181" t="s">
         <v>62</v>
       </c>
-      <c r="C181" t="s">
-        <v>63</v>
-      </c>
       <c r="D181" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E181" t="s">
+        <v>380</v>
+      </c>
+      <c r="F181" t="s">
         <v>381</v>
-      </c>
-      <c r="F181" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B182">
         <v>2</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B183">
         <v>8</v>
@@ -5211,27 +5211,27 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
+        <v>65</v>
+      </c>
+      <c r="B184" t="s">
         <v>66</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>67</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
+        <v>67</v>
+      </c>
+      <c r="E184" t="s">
         <v>68</v>
       </c>
-      <c r="D184" t="s">
+      <c r="F184" t="s">
         <v>68</v>
-      </c>
-      <c r="E184" t="s">
-        <v>69</v>
-      </c>
-      <c r="F184" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B185">
         <v>8</v>
@@ -5251,53 +5251,53 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
+        <v>69</v>
+      </c>
+      <c r="B186" t="s">
         <v>70</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>71</v>
       </c>
-      <c r="C186" t="s">
-        <v>72</v>
-      </c>
       <c r="D186" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E186" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F186" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>72</v>
+      </c>
+      <c r="B187" t="s">
         <v>73</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>74</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>75</v>
       </c>
-      <c r="D187" t="s">
-        <v>76</v>
-      </c>
       <c r="E187" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F187" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
+        <v>76</v>
+      </c>
+      <c r="B188" t="s">
         <v>77</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>78</v>
-      </c>
-      <c r="C188" t="s">
-        <v>79</v>
       </c>
       <c r="D188" t="s">
         <v>34</v>
@@ -5311,73 +5311,73 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
+        <v>79</v>
+      </c>
+      <c r="B189" t="s">
         <v>80</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>81</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>82</v>
       </c>
-      <c r="D189" t="s">
-        <v>83</v>
-      </c>
       <c r="E189" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F189" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
+        <v>83</v>
+      </c>
+      <c r="B190" t="s">
         <v>84</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>85</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>86</v>
       </c>
-      <c r="D190" t="s">
-        <v>87</v>
-      </c>
       <c r="E190" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F190" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>87</v>
+      </c>
+      <c r="B191" t="s">
         <v>88</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>89</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>90</v>
       </c>
-      <c r="D191" t="s">
-        <v>91</v>
-      </c>
       <c r="E191" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F191" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B192">
         <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -5391,13 +5391,13 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B193">
         <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -5411,13 +5411,13 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B194">
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -5431,13 +5431,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B195">
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -5451,13 +5451,13 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B196">
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -5471,13 +5471,13 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B197">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -5491,53 +5491,53 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B198" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C198" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D198" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E198" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F198" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B199" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C199" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D199" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E199" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F199" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B200" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C200" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D200" t="s">
         <v>34</v>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC6F2A6-2A55-437F-9FC7-4368C3F341E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6240FD-7A42-4ACB-AE50-0C8B6A7574AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="384">
   <si>
     <t>dropId|String</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>2, 2, 8, 10, 10, 10, 10, 10, 9</t>
+  </si>
+  <si>
+    <t>, , , , , , , , s</t>
   </si>
   <si>
     <t>10, 10, 10, 10, 10, 10, 9, 9</t>
@@ -1546,9 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1709,10 +1710,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1729,10 +1730,10 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1749,10 +1750,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1769,10 +1770,10 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1789,10 +1790,10 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1809,10 +1810,10 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1829,10 +1830,10 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1849,10 +1850,10 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1869,10 +1870,10 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1889,10 +1890,10 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1909,10 +1910,10 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1929,10 +1930,10 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1949,10 +1950,10 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1969,10 +1970,10 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1989,10 +1990,10 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2009,10 +2010,10 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2029,10 +2030,10 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2049,10 +2050,10 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2069,10 +2070,10 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2089,10 +2090,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2109,10 +2110,10 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2129,10 +2130,10 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2149,10 +2150,10 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2169,10 +2170,10 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2206,7 +2207,7 @@
         <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
@@ -2226,7 +2227,7 @@
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -2246,7 +2247,7 @@
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
@@ -2266,7 +2267,7 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
@@ -2286,13 +2287,13 @@
         <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2306,13 +2307,13 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2320,19 +2321,19 @@
         <v>5007</v>
       </c>
       <c r="B39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D39" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2346,13 +2347,13 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2366,13 +2367,13 @@
         <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2386,13 +2387,13 @@
         <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2406,13 +2407,13 @@
         <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2426,13 +2427,13 @@
         <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F44" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2446,13 +2447,13 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2460,19 +2461,19 @@
         <v>5014</v>
       </c>
       <c r="B46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D46" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2486,13 +2487,13 @@
         <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E47" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2506,13 +2507,13 @@
         <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E48" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2526,13 +2527,13 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2546,13 +2547,13 @@
         <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F50" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2566,13 +2567,13 @@
         <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F51" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2586,13 +2587,13 @@
         <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2600,19 +2601,19 @@
         <v>5021</v>
       </c>
       <c r="B53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D53" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E53" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F53" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2626,13 +2627,13 @@
         <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E54" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2646,13 +2647,13 @@
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F55" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2666,13 +2667,13 @@
         <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F56" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2686,13 +2687,13 @@
         <v>48</v>
       </c>
       <c r="D57" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F57" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2706,13 +2707,13 @@
         <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E58" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F58" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2726,13 +2727,13 @@
         <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E59" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F59" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2740,19 +2741,19 @@
         <v>5028</v>
       </c>
       <c r="B60" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D60" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F60" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2783,7 +2784,7 @@
         <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E62" t="s">
         <v>41</v>
@@ -2803,7 +2804,7 @@
         <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E63" t="s">
         <v>20</v>
@@ -2823,7 +2824,7 @@
         <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -2843,7 +2844,7 @@
         <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E65" t="s">
         <v>24</v>
@@ -2863,13 +2864,13 @@
         <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E66" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F66" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2883,13 +2884,13 @@
         <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E67" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F67" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2897,19 +2898,19 @@
         <v>6007</v>
       </c>
       <c r="B68" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C68" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D68" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E68" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F68" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2923,13 +2924,13 @@
         <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E69" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F69" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2943,13 +2944,13 @@
         <v>49</v>
       </c>
       <c r="D70" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E70" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F70" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2963,13 +2964,13 @@
         <v>49</v>
       </c>
       <c r="D71" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E71" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F71" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2983,13 +2984,13 @@
         <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E72" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3003,13 +3004,13 @@
         <v>49</v>
       </c>
       <c r="D73" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E73" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F73" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3023,13 +3024,13 @@
         <v>49</v>
       </c>
       <c r="D74" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E74" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F74" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3037,19 +3038,19 @@
         <v>6014</v>
       </c>
       <c r="B75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D75" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E75" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F75" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3063,13 +3064,13 @@
         <v>49</v>
       </c>
       <c r="D76" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E76" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F76" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3083,13 +3084,13 @@
         <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E77" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F77" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3103,13 +3104,13 @@
         <v>49</v>
       </c>
       <c r="D78" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E78" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F78" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3123,13 +3124,13 @@
         <v>49</v>
       </c>
       <c r="D79" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E79" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F79" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3143,13 +3144,13 @@
         <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E80" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F80" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3163,13 +3164,13 @@
         <v>49</v>
       </c>
       <c r="D81" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E81" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F81" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3177,19 +3178,19 @@
         <v>6021</v>
       </c>
       <c r="B82" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C82" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E82" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F82" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3203,13 +3204,13 @@
         <v>49</v>
       </c>
       <c r="D83" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E83" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F83" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3223,13 +3224,13 @@
         <v>49</v>
       </c>
       <c r="D84" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E84" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F84" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3243,13 +3244,13 @@
         <v>49</v>
       </c>
       <c r="D85" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E85" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F85" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3263,13 +3264,13 @@
         <v>49</v>
       </c>
       <c r="D86" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E86" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F86" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3283,13 +3284,13 @@
         <v>49</v>
       </c>
       <c r="D87" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E87" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F87" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3303,13 +3304,13 @@
         <v>49</v>
       </c>
       <c r="D88" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E88" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F88" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3317,24 +3318,24 @@
         <v>6028</v>
       </c>
       <c r="B89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C89" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D89" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E89" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F89" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
@@ -3354,7 +3355,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B91" t="s">
         <v>26</v>
@@ -3374,7 +3375,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -3394,7 +3395,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -3414,7 +3415,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -3434,7 +3435,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -3446,15 +3447,15 @@
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F95" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -3466,15 +3467,15 @@
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F96" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -3486,15 +3487,15 @@
         <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F97" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -3506,15 +3507,15 @@
         <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F98" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -3526,15 +3527,15 @@
         <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F99" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -3546,15 +3547,15 @@
         <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F100" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -3566,15 +3567,15 @@
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F101" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -3586,15 +3587,15 @@
         <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F102" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -3606,15 +3607,15 @@
         <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F103" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -3626,15 +3627,15 @@
         <v>7</v>
       </c>
       <c r="E104" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F104" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -3646,15 +3647,15 @@
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F105" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -3666,15 +3667,15 @@
         <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F106" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -3686,15 +3687,15 @@
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F107" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -3706,15 +3707,15 @@
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F108" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -3726,15 +3727,15 @@
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F109" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -3746,15 +3747,15 @@
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F110" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -3766,15 +3767,15 @@
         <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F111" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -3786,15 +3787,15 @@
         <v>7</v>
       </c>
       <c r="E112" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F112" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -3806,15 +3807,15 @@
         <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F113" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -3826,15 +3827,15 @@
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F114" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -3846,15 +3847,15 @@
         <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F115" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -3866,15 +3867,15 @@
         <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F116" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -3886,15 +3887,15 @@
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F117" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -3906,15 +3907,15 @@
         <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F118" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B119" t="s">
         <v>33</v>
@@ -3934,7 +3935,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
         <v>37</v>
@@ -3943,7 +3944,7 @@
         <v>47</v>
       </c>
       <c r="D120" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E120" t="s">
         <v>38</v>
@@ -3954,7 +3955,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
@@ -3963,7 +3964,7 @@
         <v>48</v>
       </c>
       <c r="D121" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E121" t="s">
         <v>13</v>
@@ -3974,7 +3975,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
         <v>12</v>
@@ -3983,7 +3984,7 @@
         <v>48</v>
       </c>
       <c r="D122" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E122" t="s">
         <v>15</v>
@@ -3994,7 +3995,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
@@ -4003,7 +4004,7 @@
         <v>48</v>
       </c>
       <c r="D123" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E123" t="s">
         <v>17</v>
@@ -4014,7 +4015,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B124" t="s">
         <v>12</v>
@@ -4023,18 +4024,18 @@
         <v>48</v>
       </c>
       <c r="D124" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E124" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F124" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B125" t="s">
         <v>12</v>
@@ -4043,38 +4044,38 @@
         <v>48</v>
       </c>
       <c r="D125" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F125" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C126" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D126" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E126" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F126" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B127" t="s">
         <v>12</v>
@@ -4083,18 +4084,18 @@
         <v>48</v>
       </c>
       <c r="D127" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E127" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F127" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B128" t="s">
         <v>12</v>
@@ -4103,18 +4104,18 @@
         <v>48</v>
       </c>
       <c r="D128" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E128" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F128" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
@@ -4123,18 +4124,18 @@
         <v>48</v>
       </c>
       <c r="D129" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E129" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F129" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
@@ -4143,18 +4144,18 @@
         <v>48</v>
       </c>
       <c r="D130" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E130" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F130" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B131" t="s">
         <v>12</v>
@@ -4163,18 +4164,18 @@
         <v>48</v>
       </c>
       <c r="D131" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E131" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F131" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B132" t="s">
         <v>12</v>
@@ -4183,38 +4184,38 @@
         <v>48</v>
       </c>
       <c r="D132" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E132" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F132" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B133" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C133" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D133" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E133" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F133" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B134" t="s">
         <v>12</v>
@@ -4223,18 +4224,18 @@
         <v>48</v>
       </c>
       <c r="D134" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E134" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F134" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B135" t="s">
         <v>12</v>
@@ -4243,18 +4244,18 @@
         <v>48</v>
       </c>
       <c r="D135" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E135" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F135" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B136" t="s">
         <v>12</v>
@@ -4263,18 +4264,18 @@
         <v>48</v>
       </c>
       <c r="D136" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E136" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F136" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
@@ -4283,18 +4284,18 @@
         <v>48</v>
       </c>
       <c r="D137" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E137" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F137" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B138" t="s">
         <v>12</v>
@@ -4303,18 +4304,18 @@
         <v>48</v>
       </c>
       <c r="D138" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E138" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F138" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B139" t="s">
         <v>12</v>
@@ -4323,38 +4324,38 @@
         <v>48</v>
       </c>
       <c r="D139" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E139" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F139" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B140" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C140" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D140" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E140" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F140" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B141" t="s">
         <v>12</v>
@@ -4363,18 +4364,18 @@
         <v>48</v>
       </c>
       <c r="D141" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E141" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F141" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B142" t="s">
         <v>12</v>
@@ -4383,18 +4384,18 @@
         <v>48</v>
       </c>
       <c r="D142" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E142" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F142" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B143" t="s">
         <v>12</v>
@@ -4403,18 +4404,18 @@
         <v>48</v>
       </c>
       <c r="D143" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E143" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F143" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B144" t="s">
         <v>12</v>
@@ -4423,18 +4424,18 @@
         <v>48</v>
       </c>
       <c r="D144" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E144" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F144" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B145" t="s">
         <v>12</v>
@@ -4443,18 +4444,18 @@
         <v>48</v>
       </c>
       <c r="D145" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E145" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F145" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B146" t="s">
         <v>12</v>
@@ -4463,38 +4464,38 @@
         <v>48</v>
       </c>
       <c r="D146" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E146" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F146" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B147" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C147" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D147" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E147" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F147" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -4511,7 +4512,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B149" t="s">
         <v>40</v>
@@ -4520,7 +4521,7 @@
         <v>27</v>
       </c>
       <c r="D149" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E149" t="s">
         <v>41</v>
@@ -4531,7 +4532,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B150" t="s">
         <v>19</v>
@@ -4540,7 +4541,7 @@
         <v>49</v>
       </c>
       <c r="D150" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E150" t="s">
         <v>20</v>
@@ -4551,7 +4552,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B151" t="s">
         <v>19</v>
@@ -4560,7 +4561,7 @@
         <v>49</v>
       </c>
       <c r="D151" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E151" t="s">
         <v>22</v>
@@ -4571,7 +4572,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B152" t="s">
         <v>19</v>
@@ -4580,7 +4581,7 @@
         <v>49</v>
       </c>
       <c r="D152" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E152" t="s">
         <v>24</v>
@@ -4591,7 +4592,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B153" t="s">
         <v>19</v>
@@ -4600,18 +4601,18 @@
         <v>49</v>
       </c>
       <c r="D153" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E153" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F153" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B154" t="s">
         <v>19</v>
@@ -4620,38 +4621,38 @@
         <v>49</v>
       </c>
       <c r="D154" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E154" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F154" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B155" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C155" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D155" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E155" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F155" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B156" t="s">
         <v>19</v>
@@ -4660,18 +4661,18 @@
         <v>49</v>
       </c>
       <c r="D156" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E156" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F156" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B157" t="s">
         <v>19</v>
@@ -4680,18 +4681,18 @@
         <v>49</v>
       </c>
       <c r="D157" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E157" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F157" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B158" t="s">
         <v>19</v>
@@ -4700,18 +4701,18 @@
         <v>49</v>
       </c>
       <c r="D158" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E158" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F158" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B159" t="s">
         <v>19</v>
@@ -4720,18 +4721,18 @@
         <v>49</v>
       </c>
       <c r="D159" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E159" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F159" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B160" t="s">
         <v>19</v>
@@ -4740,18 +4741,18 @@
         <v>49</v>
       </c>
       <c r="D160" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E160" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F160" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B161" t="s">
         <v>19</v>
@@ -4760,38 +4761,38 @@
         <v>49</v>
       </c>
       <c r="D161" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E161" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F161" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B162" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C162" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D162" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E162" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F162" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B163" t="s">
         <v>19</v>
@@ -4800,18 +4801,18 @@
         <v>49</v>
       </c>
       <c r="D163" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E163" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F163" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B164" t="s">
         <v>19</v>
@@ -4820,18 +4821,18 @@
         <v>49</v>
       </c>
       <c r="D164" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E164" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F164" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B165" t="s">
         <v>19</v>
@@ -4840,18 +4841,18 @@
         <v>49</v>
       </c>
       <c r="D165" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E165" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F165" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B166" t="s">
         <v>19</v>
@@ -4860,18 +4861,18 @@
         <v>49</v>
       </c>
       <c r="D166" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E166" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F166" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B167" t="s">
         <v>19</v>
@@ -4880,18 +4881,18 @@
         <v>49</v>
       </c>
       <c r="D167" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E167" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F167" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B168" t="s">
         <v>19</v>
@@ -4900,38 +4901,38 @@
         <v>49</v>
       </c>
       <c r="D168" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E168" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F168" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B169" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C169" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D169" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E169" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F169" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B170" t="s">
         <v>19</v>
@@ -4940,18 +4941,18 @@
         <v>49</v>
       </c>
       <c r="D170" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E170" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F170" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B171" t="s">
         <v>19</v>
@@ -4960,18 +4961,18 @@
         <v>49</v>
       </c>
       <c r="D171" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E171" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F171" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B172" t="s">
         <v>19</v>
@@ -4980,18 +4981,18 @@
         <v>49</v>
       </c>
       <c r="D172" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E172" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F172" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B173" t="s">
         <v>19</v>
@@ -5000,18 +5001,18 @@
         <v>49</v>
       </c>
       <c r="D173" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E173" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F173" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B174" t="s">
         <v>19</v>
@@ -5020,18 +5021,18 @@
         <v>49</v>
       </c>
       <c r="D174" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E174" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F174" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B175" t="s">
         <v>19</v>
@@ -5040,33 +5041,33 @@
         <v>49</v>
       </c>
       <c r="D175" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E175" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F175" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B176" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C176" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D176" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E176" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F176" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -5117,36 +5118,36 @@
         <v>60</v>
       </c>
       <c r="C179" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D179" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E179" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F179" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B180" t="s">
         <v>60</v>
       </c>
       <c r="C180" t="s">
-        <v>382</v>
+        <v>61</v>
       </c>
       <c r="D180" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E180" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F180" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -5154,24 +5155,24 @@
         <v>57</v>
       </c>
       <c r="B181" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C181" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D181" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E181" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F181" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B182">
         <v>2</v>
@@ -5191,7 +5192,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B183">
         <v>8</v>
@@ -5211,27 +5212,27 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B184" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E184" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F184" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B185">
         <v>8</v>
@@ -5251,53 +5252,53 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B186" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C186" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D186" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E186" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F186" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B187" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C187" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D187" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E187" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F187" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B188" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C188" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D188" t="s">
         <v>34</v>
@@ -5311,73 +5312,73 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B189" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C189" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D189" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E189" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F189" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B190" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C190" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D190" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E190" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F190" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B191" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C191" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D191" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E191" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F191" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B192">
         <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -5391,13 +5392,13 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B193">
         <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -5411,13 +5412,13 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B194">
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -5431,13 +5432,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B195">
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -5451,13 +5452,13 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B196">
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -5471,13 +5472,13 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B197">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -5491,53 +5492,53 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B198" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C198" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D198" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E198" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F198" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B199" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C199" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D199" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E199" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F199" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B200" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C200" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D200" t="s">
         <v>34</v>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6240FD-7A42-4ACB-AE50-0C8B6A7574AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9669A4B6-E88C-4328-B7A5-91354B86FD58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -1549,7 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5559,9 +5559,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC24F54A-7C76-46A6-B550-1FB1A4C7C121}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5588,57 +5588,561 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1.1000000000000001</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>1.3</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1.4</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>1.6</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>70</v>
       </c>
-      <c r="B9">
+      <c r="B72">
         <v>1.7</v>
       </c>
     </row>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9669A4B6-E88C-4328-B7A5-91354B86FD58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCD9857-7EE6-4099-A27F-A00425D04F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -70,48 +70,6 @@
     <t>0.755, 5, 1, 1</t>
   </si>
   <si>
-    <t>2, 1, 4, 3, 7, 7, 5, 5</t>
-  </si>
-  <si>
-    <t>0.085, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.685, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.12, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.72, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.155, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.755, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>2, 7, 7, 5, 5, 5</t>
-  </si>
-  <si>
-    <t>0.085, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.685, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.12, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.72, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.155, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.755, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>2, 1, 4</t>
   </si>
   <si>
@@ -178,12 +136,6 @@
     <t xml:space="preserve">, , , , , </t>
   </si>
   <si>
-    <t>, , , , , , e, e</t>
-  </si>
-  <si>
-    <t>, , , e, e, e</t>
-  </si>
-  <si>
     <t>Wkdql</t>
   </si>
   <si>
@@ -448,30 +400,6 @@
     <t>0.86, 5, 1, 1</t>
   </si>
   <si>
-    <t>0.19, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.79, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.225, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.825, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.19, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.79, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.225, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.825, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>0.295, 5, 1, 1</t>
   </si>
   <si>
@@ -598,279 +526,6 @@
     <t>1.595, 5, 1, 1</t>
   </si>
   <si>
-    <t>2, 1, 4, 3, 7, 5, 5</t>
-  </si>
-  <si>
-    <t>, , , , , e, e</t>
-  </si>
-  <si>
-    <t>55.7, 100, 2, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>56.3, 100, 2, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.295, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.895, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.33, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.93, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.365, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.965, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.4, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.435, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.035, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.47, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.07, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>68.7, 100, 2, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>69.3, 100, 2, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.54, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.14, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.575, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.175, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.61, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.21, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.645, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.245, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.68, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.28, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.715, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.315, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>78.45, 100, 2, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>79.05, 100, 2, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.785, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.385, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.82, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.42, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.855, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.455, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.89, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.49, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.925, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.525, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.96, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.56, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>86.033, 100, 2, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>86.633, 100, 2, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>2, 7, 5, 5, 5</t>
-  </si>
-  <si>
-    <t>, , e, e, e</t>
-  </si>
-  <si>
-    <t>55.7, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>56.3, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.295, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.895, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.33, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.93, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.365, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.965, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.4, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.435, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.035, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.47, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.07, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>68.7, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>69.3, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.54, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.14, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.575, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.175, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.61, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.21, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.645, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.245, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.68, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.28, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.715, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.315, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>78.45, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>79.05, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.785, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.385, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.82, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.42, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.855, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.455, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.89, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.49, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.925, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.525, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.96, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.56, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>86.033, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>86.633, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>c1008</t>
   </si>
   <si>
@@ -934,12 +589,6 @@
     <t>c1028</t>
   </si>
   <si>
-    <t>0.26, 100, 2, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.86, 100, 2, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>c5008</t>
   </si>
   <si>
@@ -961,12 +610,6 @@
     <t>c5014</t>
   </si>
   <si>
-    <t>0.505, 100, 2, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.105, 100, 2, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>c5015</t>
   </si>
   <si>
@@ -988,12 +631,6 @@
     <t>c5021</t>
   </si>
   <si>
-    <t>0.75, 100, 2, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.35, 100, 2, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>c5022</t>
   </si>
   <si>
@@ -1015,18 +652,6 @@
     <t>c5028</t>
   </si>
   <si>
-    <t>0.995, 100, 2, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.595, 100, 2, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.26, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.86, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>c6008</t>
   </si>
   <si>
@@ -1048,12 +673,6 @@
     <t>c6014</t>
   </si>
   <si>
-    <t>0.505, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.105, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>c6015</t>
   </si>
   <si>
@@ -1075,12 +694,6 @@
     <t>c6021</t>
   </si>
   <si>
-    <t>0.75, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.35, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>c6022</t>
   </si>
   <si>
@@ -1102,12 +715,6 @@
     <t>c6028</t>
   </si>
   <si>
-    <t>0.995, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.595, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>1, 1, 1, 1, 1, 1, 1, 1, 0.046</t>
   </si>
   <si>
@@ -1129,42 +736,15 @@
     <t>1, 1, 1, 1, 1, 0.2</t>
   </si>
   <si>
-    <t>1, 1, 1, 1, 1, 0.1, 0.01</t>
-  </si>
-  <si>
     <t>1, 1, 0.2</t>
   </si>
   <si>
-    <t>1, 1, 0.2, 0.04, 0.02</t>
-  </si>
-  <si>
-    <t>1, 1, 1, 1, 1, 0.2, 0.25, 0.025</t>
-  </si>
-  <si>
-    <t>1, 1, 1, 1, 1, 0.25, 0.025</t>
-  </si>
-  <si>
-    <t>1, 1, 0.2, 0.5, 0.1, 0.05</t>
-  </si>
-  <si>
-    <t>1, 1, 0.5, 0.1, 0.05</t>
-  </si>
-  <si>
     <t>1, 1, 1, 1, 1, 0.3</t>
   </si>
   <si>
-    <t>1, 1, 1, 1, 1, 0.3, 0.1, 0.01</t>
-  </si>
-  <si>
     <t>1, 1, 0.3</t>
   </si>
   <si>
-    <t>1, 1, 0.3, 0.2, 0.04, 0.02</t>
-  </si>
-  <si>
-    <t>1, 1, 1, 1, 1, 0.3, 0.17, 0.017</t>
-  </si>
-  <si>
     <t>1250, 1250, 3, 12, 12, 12, 12, 12, 1</t>
   </si>
   <si>
@@ -1184,6 +764,426 @@
   </si>
   <si>
     <t>, , , f, f, f, f, f, s</t>
+  </si>
+  <si>
+    <t>2, 1, 4, 3, 7, 7, 5, 5, 5</t>
+  </si>
+  <si>
+    <t>, , , , , , e, e, e</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 0.3, 0.17, 0.085, 0.017</t>
+  </si>
+  <si>
+    <t>0.085, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.685, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.12, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.72, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 0.3, 0.1, 0.05, 0.01</t>
+  </si>
+  <si>
+    <t>0.155, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.755, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.19, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.79, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.225, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.825, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>2, 1, 4, 3, 7, 5, 5, 5</t>
+  </si>
+  <si>
+    <t>, , , , , e, e, e</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 0.1, 0.05, 0.01</t>
+  </si>
+  <si>
+    <t>55.7, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>56.3, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.295, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.895, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.33, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.93, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.365, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.965, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.4, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.435, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.035, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.47, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.07, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>68.7, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>69.3, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.54, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.14, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.575, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.175, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.61, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.21, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.645, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.245, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.68, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.28, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.715, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.315, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>78.45, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>79.05, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.785, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.385, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.82, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.42, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.855, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.455, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.89, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.49, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.925, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.525, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.96, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.56, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>86.033, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>86.633, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>2, 7, 7, 5, 5, 5, 5</t>
+  </si>
+  <si>
+    <t>, , , e, e, e, e</t>
+  </si>
+  <si>
+    <t>1, 1, 0.3, 0.2, 0.1, 0.04, 0.02</t>
+  </si>
+  <si>
+    <t>0.085, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.685, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.12, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.72, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.155, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.755, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.19, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.79, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.225, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.825, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>2, 7, 5, 5, 5, 5</t>
+  </si>
+  <si>
+    <t>, , e, e, e, e</t>
+  </si>
+  <si>
+    <t>1, 1, 0.2, 0.1, 0.04, 0.02</t>
+  </si>
+  <si>
+    <t>55.7, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>56.3, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.295, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.895, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.33, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.93, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.365, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.965, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.4, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.435, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.035, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.47, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.07, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>68.7, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>69.3, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.54, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.14, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.575, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.175, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.61, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.21, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.645, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.245, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.68, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.28, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.715, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.315, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>78.45, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>79.05, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.785, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.385, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.82, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.42, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.855, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.455, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.89, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.49, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.925, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.525, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.96, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.56, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>86.033, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>86.633, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 0.2, 0.25, 0.125, 0.025</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 0.25, 0.125, 0.025</t>
+  </si>
+  <si>
+    <t>0.26, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.86, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.505, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.105, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.75, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.35, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.995, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.595, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1, 1, 0.2, 0.5, 0.25, 0.1, 0.05</t>
+  </si>
+  <si>
+    <t>1, 1, 0.5, 0.25, 0.1, 0.05</t>
+  </si>
+  <si>
+    <t>0.26, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.86, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.505, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.105, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.75, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.35, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.995, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.595, 1, 1, 1, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1601,19 +1601,19 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1621,19 +1621,19 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1644,16 +1644,16 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1664,7 +1664,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1684,7 +1684,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1704,16 +1704,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1724,16 +1724,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1744,16 +1744,16 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1764,16 +1764,16 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F11" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1784,16 +1784,16 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1804,16 +1804,16 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="F13" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1824,16 +1824,16 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1844,16 +1844,16 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1864,16 +1864,16 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1884,16 +1884,16 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1904,16 +1904,16 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1924,16 +1924,16 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1944,16 +1944,16 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1964,16 +1964,16 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1984,16 +1984,16 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="F22" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2004,16 +2004,16 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="F23" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2024,16 +2024,16 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="F24" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2044,16 +2044,16 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="F25" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2064,16 +2064,16 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="F26" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2084,16 +2084,16 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="F27" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2104,16 +2104,16 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="F28" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2124,16 +2124,16 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="F29" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2144,16 +2144,16 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2164,16 +2164,16 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="F31" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2181,19 +2181,19 @@
         <v>5000</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2201,19 +2201,19 @@
         <v>5001</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>372</v>
+        <v>235</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2221,19 +2221,19 @@
         <v>5002</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D34" t="s">
-        <v>376</v>
+        <v>246</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2241,19 +2241,19 @@
         <v>5003</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D35" t="s">
-        <v>376</v>
+        <v>246</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2261,19 +2261,19 @@
         <v>5004</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D36" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>252</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2281,19 +2281,19 @@
         <v>5005</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D37" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F37" t="s">
-        <v>139</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2301,19 +2301,19 @@
         <v>5006</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D38" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E38" t="s">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="F38" t="s">
-        <v>141</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2321,19 +2321,19 @@
         <v>5007</v>
       </c>
       <c r="B39" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="D39" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="E39" t="s">
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="F39" t="s">
-        <v>191</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2341,19 +2341,19 @@
         <v>5008</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D40" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E40" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="F40" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2361,19 +2361,19 @@
         <v>5009</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D41" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E41" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="F41" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2381,19 +2381,19 @@
         <v>5010</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D42" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E42" t="s">
-        <v>196</v>
+        <v>267</v>
       </c>
       <c r="F42" t="s">
-        <v>197</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2401,19 +2401,19 @@
         <v>5011</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D43" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="F43" t="s">
-        <v>199</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2421,19 +2421,19 @@
         <v>5012</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D44" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E44" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="F44" t="s">
-        <v>201</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2441,19 +2441,19 @@
         <v>5013</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D45" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E45" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
       <c r="F45" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2461,19 +2461,19 @@
         <v>5014</v>
       </c>
       <c r="B46" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="D46" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="E46" t="s">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="F46" t="s">
-        <v>205</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2481,19 +2481,19 @@
         <v>5015</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D47" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E47" t="s">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="F47" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2501,19 +2501,19 @@
         <v>5016</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D48" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E48" t="s">
-        <v>208</v>
+        <v>279</v>
       </c>
       <c r="F48" t="s">
-        <v>209</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2521,19 +2521,19 @@
         <v>5017</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D49" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E49" t="s">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c r="F49" t="s">
-        <v>211</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2541,19 +2541,19 @@
         <v>5018</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D50" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E50" t="s">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="F50" t="s">
-        <v>213</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2561,19 +2561,19 @@
         <v>5019</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C51" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D51" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E51" t="s">
-        <v>214</v>
+        <v>285</v>
       </c>
       <c r="F51" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2581,19 +2581,19 @@
         <v>5020</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D52" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E52" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="F52" t="s">
-        <v>217</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2601,19 +2601,19 @@
         <v>5021</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="D53" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="E53" t="s">
-        <v>218</v>
+        <v>289</v>
       </c>
       <c r="F53" t="s">
-        <v>219</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2621,19 +2621,19 @@
         <v>5022</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C54" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D54" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E54" t="s">
-        <v>220</v>
+        <v>291</v>
       </c>
       <c r="F54" t="s">
-        <v>221</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2641,19 +2641,19 @@
         <v>5023</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D55" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E55" t="s">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="F55" t="s">
-        <v>223</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2661,19 +2661,19 @@
         <v>5024</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D56" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E56" t="s">
-        <v>224</v>
+        <v>295</v>
       </c>
       <c r="F56" t="s">
-        <v>225</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2681,19 +2681,19 @@
         <v>5025</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D57" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E57" t="s">
-        <v>226</v>
+        <v>297</v>
       </c>
       <c r="F57" t="s">
-        <v>227</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2701,19 +2701,19 @@
         <v>5026</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C58" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D58" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E58" t="s">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="F58" t="s">
-        <v>229</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2721,19 +2721,19 @@
         <v>5027</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C59" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D59" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E59" t="s">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="F59" t="s">
-        <v>231</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2741,19 +2741,19 @@
         <v>5028</v>
       </c>
       <c r="B60" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="D60" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="E60" t="s">
-        <v>232</v>
+        <v>303</v>
       </c>
       <c r="F60" t="s">
-        <v>233</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2778,19 +2778,19 @@
         <v>6001</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>236</v>
+      </c>
+      <c r="E62" t="s">
         <v>27</v>
       </c>
-      <c r="D62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E62" t="s">
-        <v>41</v>
-      </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2798,19 +2798,19 @@
         <v>6002</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C63" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D63" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E63" t="s">
-        <v>20</v>
+        <v>308</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2818,19 +2818,19 @@
         <v>6003</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C64" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D64" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2838,19 +2838,19 @@
         <v>6004</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D65" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E65" t="s">
-        <v>24</v>
+        <v>312</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2858,19 +2858,19 @@
         <v>6005</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C66" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D66" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E66" t="s">
-        <v>142</v>
+        <v>314</v>
       </c>
       <c r="F66" t="s">
-        <v>143</v>
+        <v>315</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2878,19 +2878,19 @@
         <v>6006</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C67" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D67" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E67" t="s">
-        <v>144</v>
+        <v>316</v>
       </c>
       <c r="F67" t="s">
-        <v>145</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2898,19 +2898,19 @@
         <v>6007</v>
       </c>
       <c r="B68" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="C68" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="D68" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="E68" t="s">
-        <v>236</v>
+        <v>321</v>
       </c>
       <c r="F68" t="s">
-        <v>237</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2918,19 +2918,19 @@
         <v>6008</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C69" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D69" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E69" t="s">
-        <v>238</v>
+        <v>323</v>
       </c>
       <c r="F69" t="s">
-        <v>239</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2938,19 +2938,19 @@
         <v>6009</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C70" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D70" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E70" t="s">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="F70" t="s">
-        <v>241</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2958,19 +2958,19 @@
         <v>6010</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C71" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D71" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E71" t="s">
-        <v>242</v>
+        <v>327</v>
       </c>
       <c r="F71" t="s">
-        <v>243</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2978,19 +2978,19 @@
         <v>6011</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C72" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D72" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E72" t="s">
-        <v>244</v>
+        <v>329</v>
       </c>
       <c r="F72" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2998,19 +2998,19 @@
         <v>6012</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D73" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E73" t="s">
-        <v>245</v>
+        <v>330</v>
       </c>
       <c r="F73" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3018,19 +3018,19 @@
         <v>6013</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C74" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D74" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E74" t="s">
-        <v>247</v>
+        <v>332</v>
       </c>
       <c r="F74" t="s">
-        <v>248</v>
+        <v>333</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3038,19 +3038,19 @@
         <v>6014</v>
       </c>
       <c r="B75" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="C75" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="D75" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="E75" t="s">
-        <v>249</v>
+        <v>334</v>
       </c>
       <c r="F75" t="s">
-        <v>250</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3058,19 +3058,19 @@
         <v>6015</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C76" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D76" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E76" t="s">
-        <v>251</v>
+        <v>336</v>
       </c>
       <c r="F76" t="s">
-        <v>252</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3078,19 +3078,19 @@
         <v>6016</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D77" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E77" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="F77" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3098,19 +3098,19 @@
         <v>6017</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C78" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D78" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E78" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="F78" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3118,19 +3118,19 @@
         <v>6018</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C79" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D79" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E79" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="F79" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3138,19 +3138,19 @@
         <v>6019</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C80" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D80" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E80" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="F80" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3158,19 +3158,19 @@
         <v>6020</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C81" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D81" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E81" t="s">
-        <v>261</v>
+        <v>346</v>
       </c>
       <c r="F81" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3178,19 +3178,19 @@
         <v>6021</v>
       </c>
       <c r="B82" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="C82" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="D82" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="E82" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="F82" t="s">
-        <v>264</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3198,19 +3198,19 @@
         <v>6022</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C83" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D83" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E83" t="s">
-        <v>265</v>
+        <v>350</v>
       </c>
       <c r="F83" t="s">
-        <v>266</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3218,19 +3218,19 @@
         <v>6023</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C84" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D84" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E84" t="s">
-        <v>267</v>
+        <v>352</v>
       </c>
       <c r="F84" t="s">
-        <v>268</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3238,19 +3238,19 @@
         <v>6024</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C85" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D85" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E85" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
       <c r="F85" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3258,19 +3258,19 @@
         <v>6025</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C86" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D86" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E86" t="s">
-        <v>271</v>
+        <v>356</v>
       </c>
       <c r="F86" t="s">
-        <v>272</v>
+        <v>357</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3278,19 +3278,19 @@
         <v>6026</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C87" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D87" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E87" t="s">
-        <v>273</v>
+        <v>358</v>
       </c>
       <c r="F87" t="s">
-        <v>274</v>
+        <v>359</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3298,19 +3298,19 @@
         <v>6027</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C88" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D88" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="E88" t="s">
-        <v>275</v>
+        <v>360</v>
       </c>
       <c r="F88" t="s">
-        <v>276</v>
+        <v>361</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3318,90 +3318,90 @@
         <v>6028</v>
       </c>
       <c r="B89" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="C89" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="D89" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="E89" t="s">
-        <v>277</v>
+        <v>362</v>
       </c>
       <c r="F89" t="s">
-        <v>278</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -3415,13 +3415,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
@@ -3435,1067 +3435,1067 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F95" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F96" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="F97" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>279</v>
+        <v>164</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F98" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="F99" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>281</v>
+        <v>166</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="F100" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="F101" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>283</v>
+        <v>168</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="F102" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>284</v>
+        <v>169</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="F103" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
       </c>
       <c r="E104" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="F104" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="F105" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="F106" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F107" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="F108" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>290</v>
+        <v>175</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="F109" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>291</v>
+        <v>176</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="F110" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>292</v>
+        <v>177</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="F111" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>293</v>
+        <v>178</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
       </c>
       <c r="E112" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="F112" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D113" t="s">
         <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="F113" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="F114" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>296</v>
+        <v>181</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="F115" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>297</v>
+        <v>182</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="F116" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>298</v>
+        <v>183</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="F117" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>299</v>
+        <v>184</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="F118" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B119" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C119" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D119" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B120" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C120" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D120" t="s">
-        <v>364</v>
+        <v>233</v>
       </c>
       <c r="E120" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C121" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D121" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E121" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
+        <v>248</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C122" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D122" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E122" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C123" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D123" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E123" t="s">
-        <v>17</v>
+        <v>252</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
+        <v>253</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C124" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D124" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E124" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F124" t="s">
-        <v>139</v>
+        <v>255</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C125" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D125" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E125" t="s">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="F125" t="s">
-        <v>141</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B126" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="C126" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="D126" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E126" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="F126" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>302</v>
+        <v>185</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C127" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D127" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E127" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="F127" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>303</v>
+        <v>186</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C128" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D128" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E128" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="F128" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>304</v>
+        <v>187</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C129" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D129" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E129" t="s">
-        <v>196</v>
+        <v>267</v>
       </c>
       <c r="F129" t="s">
-        <v>197</v>
+        <v>268</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>305</v>
+        <v>188</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C130" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D130" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E130" t="s">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="F130" t="s">
-        <v>199</v>
+        <v>270</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>306</v>
+        <v>189</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C131" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D131" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E131" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="F131" t="s">
-        <v>201</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>307</v>
+        <v>190</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C132" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D132" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E132" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
       <c r="F132" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>308</v>
+        <v>191</v>
       </c>
       <c r="B133" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="C133" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="D133" t="s">
+        <v>365</v>
+      </c>
+      <c r="E133" t="s">
+        <v>368</v>
+      </c>
+      <c r="F133" t="s">
         <v>369</v>
-      </c>
-      <c r="E133" t="s">
-        <v>309</v>
-      </c>
-      <c r="F133" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>311</v>
+        <v>192</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C134" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D134" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E134" t="s">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="F134" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>312</v>
+        <v>193</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C135" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D135" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E135" t="s">
-        <v>208</v>
+        <v>279</v>
       </c>
       <c r="F135" t="s">
-        <v>209</v>
+        <v>280</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>313</v>
+        <v>194</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C136" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D136" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E136" t="s">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c r="F136" t="s">
-        <v>211</v>
+        <v>282</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>314</v>
+        <v>195</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C137" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D137" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E137" t="s">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="F137" t="s">
-        <v>213</v>
+        <v>284</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>315</v>
+        <v>196</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C138" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D138" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E138" t="s">
-        <v>214</v>
+        <v>285</v>
       </c>
       <c r="F138" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>316</v>
+        <v>197</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C139" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D139" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E139" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="F139" t="s">
-        <v>217</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>317</v>
+        <v>198</v>
       </c>
       <c r="B140" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="C140" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="D140" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E140" t="s">
-        <v>318</v>
+        <v>370</v>
       </c>
       <c r="F140" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>320</v>
+        <v>199</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C141" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D141" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E141" t="s">
-        <v>220</v>
+        <v>291</v>
       </c>
       <c r="F141" t="s">
-        <v>221</v>
+        <v>292</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>321</v>
+        <v>200</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C142" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D142" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E142" t="s">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="F142" t="s">
-        <v>223</v>
+        <v>294</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>322</v>
+        <v>201</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C143" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D143" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E143" t="s">
-        <v>224</v>
+        <v>295</v>
       </c>
       <c r="F143" t="s">
-        <v>225</v>
+        <v>296</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>323</v>
+        <v>202</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C144" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D144" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E144" t="s">
-        <v>226</v>
+        <v>297</v>
       </c>
       <c r="F144" t="s">
-        <v>227</v>
+        <v>298</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>324</v>
+        <v>203</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C145" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D145" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E145" t="s">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="F145" t="s">
-        <v>229</v>
+        <v>300</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>325</v>
+        <v>204</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="C146" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D146" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E146" t="s">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="F146" t="s">
-        <v>231</v>
+        <v>302</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>326</v>
+        <v>205</v>
       </c>
       <c r="B147" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="C147" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="D147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E147" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="F147" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -4512,573 +4512,573 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B149" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C149" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" t="s">
+        <v>234</v>
+      </c>
+      <c r="E149" t="s">
         <v>27</v>
       </c>
-      <c r="D149" t="s">
-        <v>366</v>
-      </c>
-      <c r="E149" t="s">
-        <v>41</v>
-      </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B150" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C150" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D150" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E150" t="s">
-        <v>20</v>
+        <v>308</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
+        <v>309</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B151" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C151" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D151" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E151" t="s">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="F151" t="s">
-        <v>23</v>
+        <v>311</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B152" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C152" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D152" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E152" t="s">
-        <v>24</v>
+        <v>312</v>
       </c>
       <c r="F152" t="s">
-        <v>25</v>
+        <v>313</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B153" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C153" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D153" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E153" t="s">
-        <v>142</v>
+        <v>314</v>
       </c>
       <c r="F153" t="s">
-        <v>143</v>
+        <v>315</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B154" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C154" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D154" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E154" t="s">
-        <v>144</v>
+        <v>316</v>
       </c>
       <c r="F154" t="s">
-        <v>145</v>
+        <v>317</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B155" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="C155" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="D155" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E155" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="F155" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>331</v>
+        <v>206</v>
       </c>
       <c r="B156" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C156" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D156" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E156" t="s">
-        <v>238</v>
+        <v>323</v>
       </c>
       <c r="F156" t="s">
-        <v>239</v>
+        <v>324</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>332</v>
+        <v>207</v>
       </c>
       <c r="B157" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C157" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D157" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E157" t="s">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="F157" t="s">
-        <v>241</v>
+        <v>326</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>333</v>
+        <v>208</v>
       </c>
       <c r="B158" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C158" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D158" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E158" t="s">
-        <v>242</v>
+        <v>327</v>
       </c>
       <c r="F158" t="s">
-        <v>243</v>
+        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>334</v>
+        <v>209</v>
       </c>
       <c r="B159" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C159" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D159" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E159" t="s">
-        <v>244</v>
+        <v>329</v>
       </c>
       <c r="F159" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>335</v>
+        <v>210</v>
       </c>
       <c r="B160" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C160" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D160" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E160" t="s">
-        <v>245</v>
+        <v>330</v>
       </c>
       <c r="F160" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>336</v>
+        <v>211</v>
       </c>
       <c r="B161" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C161" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D161" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E161" t="s">
-        <v>247</v>
+        <v>332</v>
       </c>
       <c r="F161" t="s">
-        <v>248</v>
+        <v>333</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>337</v>
+        <v>212</v>
       </c>
       <c r="B162" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="C162" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="D162" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E162" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="F162" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>340</v>
+        <v>213</v>
       </c>
       <c r="B163" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C163" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D163" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E163" t="s">
-        <v>251</v>
+        <v>336</v>
       </c>
       <c r="F163" t="s">
-        <v>252</v>
+        <v>337</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>341</v>
+        <v>214</v>
       </c>
       <c r="B164" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C164" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D164" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E164" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="F164" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>342</v>
+        <v>215</v>
       </c>
       <c r="B165" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C165" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D165" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E165" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="F165" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
+        <v>216</v>
+      </c>
+      <c r="B166" t="s">
+        <v>305</v>
+      </c>
+      <c r="C166" t="s">
+        <v>306</v>
+      </c>
+      <c r="D166" t="s">
+        <v>374</v>
+      </c>
+      <c r="E166" t="s">
+        <v>342</v>
+      </c>
+      <c r="F166" t="s">
         <v>343</v>
-      </c>
-      <c r="B166" t="s">
-        <v>19</v>
-      </c>
-      <c r="C166" t="s">
-        <v>49</v>
-      </c>
-      <c r="D166" t="s">
-        <v>370</v>
-      </c>
-      <c r="E166" t="s">
-        <v>257</v>
-      </c>
-      <c r="F166" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
+        <v>217</v>
+      </c>
+      <c r="B167" t="s">
+        <v>305</v>
+      </c>
+      <c r="C167" t="s">
+        <v>306</v>
+      </c>
+      <c r="D167" t="s">
+        <v>374</v>
+      </c>
+      <c r="E167" t="s">
         <v>344</v>
       </c>
-      <c r="B167" t="s">
-        <v>19</v>
-      </c>
-      <c r="C167" t="s">
-        <v>49</v>
-      </c>
-      <c r="D167" t="s">
-        <v>370</v>
-      </c>
-      <c r="E167" t="s">
-        <v>259</v>
-      </c>
       <c r="F167" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>345</v>
+        <v>218</v>
       </c>
       <c r="B168" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C168" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D168" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E168" t="s">
-        <v>261</v>
+        <v>346</v>
       </c>
       <c r="F168" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>346</v>
+        <v>219</v>
       </c>
       <c r="B169" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="C169" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="D169" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E169" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="F169" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>349</v>
+        <v>220</v>
       </c>
       <c r="B170" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C170" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D170" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E170" t="s">
-        <v>265</v>
+        <v>350</v>
       </c>
       <c r="F170" t="s">
-        <v>266</v>
+        <v>351</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>350</v>
+        <v>221</v>
       </c>
       <c r="B171" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C171" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D171" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E171" t="s">
-        <v>267</v>
+        <v>352</v>
       </c>
       <c r="F171" t="s">
-        <v>268</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>351</v>
+        <v>222</v>
       </c>
       <c r="B172" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C172" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D172" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E172" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
       <c r="F172" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>352</v>
+        <v>223</v>
       </c>
       <c r="B173" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C173" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D173" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E173" t="s">
-        <v>271</v>
+        <v>356</v>
       </c>
       <c r="F173" t="s">
-        <v>272</v>
+        <v>357</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>353</v>
+        <v>224</v>
       </c>
       <c r="B174" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C174" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D174" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E174" t="s">
-        <v>273</v>
+        <v>358</v>
       </c>
       <c r="F174" t="s">
-        <v>274</v>
+        <v>359</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>354</v>
+        <v>225</v>
       </c>
       <c r="B175" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="C175" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D175" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E175" t="s">
-        <v>275</v>
+        <v>360</v>
       </c>
       <c r="F175" t="s">
-        <v>276</v>
+        <v>361</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>355</v>
+        <v>226</v>
       </c>
       <c r="B176" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="C176" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="D176" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E176" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="F176" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B177">
         <v>5</v>
       </c>
       <c r="C177" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -5092,87 +5092,87 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B178" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C178" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D178" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E178" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F178" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B179" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C179" t="s">
-        <v>383</v>
+        <v>243</v>
       </c>
       <c r="D179" t="s">
-        <v>358</v>
+        <v>227</v>
       </c>
       <c r="E179" t="s">
-        <v>377</v>
+        <v>237</v>
       </c>
       <c r="F179" t="s">
-        <v>378</v>
+        <v>238</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B180" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C180" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D180" t="s">
-        <v>358</v>
+        <v>227</v>
       </c>
       <c r="E180" t="s">
-        <v>379</v>
+        <v>239</v>
       </c>
       <c r="F180" t="s">
-        <v>380</v>
+        <v>240</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B181" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C181" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D181" t="s">
-        <v>359</v>
+        <v>228</v>
       </c>
       <c r="E181" t="s">
-        <v>381</v>
+        <v>241</v>
       </c>
       <c r="F181" t="s">
-        <v>382</v>
+        <v>242</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B182">
         <v>2</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B183">
         <v>8</v>
@@ -5212,27 +5212,27 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B184" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C184" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D184" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E184" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F184" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B185">
         <v>8</v>
@@ -5252,133 +5252,133 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B186" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C186" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D186" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E186" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F186" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C187" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D187" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E187" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F187" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B188" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C188" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D188" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E188" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B189" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C189" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D189" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E189" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F189" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B190" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C190" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D190" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E190" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F190" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B191" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C191" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D191" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E191" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F191" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B192">
         <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -5392,13 +5392,13 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B193">
         <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -5412,13 +5412,13 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B194">
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -5432,13 +5432,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B195">
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -5452,13 +5452,13 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B196">
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -5472,13 +5472,13 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B197">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -5492,62 +5492,62 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B198" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C198" t="s">
-        <v>361</v>
+        <v>230</v>
       </c>
       <c r="D198" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E198" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F198" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B199" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C199" t="s">
-        <v>362</v>
+        <v>231</v>
       </c>
       <c r="D199" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E199" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F199" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B200" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C200" t="s">
-        <v>363</v>
+        <v>232</v>
       </c>
       <c r="D200" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E200" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5561,7 +5561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC24F54A-7C76-46A6-B550-1FB1A4C7C121}">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5572,10 +5572,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCD9857-7EE6-4099-A27F-A00425D04F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD74156-9003-4AC0-90C0-A0C96BFC8A26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -169,9 +169,6 @@
     <t>2, 2, 8, 10, 10, 10, 10, 10, 9</t>
   </si>
   <si>
-    <t>, , , , , , , , s</t>
-  </si>
-  <si>
     <t>10, 10, 10, 10, 10, 10, 9, 9</t>
   </si>
   <si>
@@ -763,9 +760,6 @@
     <t>33, 33, 33, 33, 33, 33, 1, 1</t>
   </si>
   <si>
-    <t>, , , f, f, f, f, f, s</t>
-  </si>
-  <si>
     <t>2, 1, 4, 3, 7, 7, 5, 5, 5</t>
   </si>
   <si>
@@ -1184,6 +1178,12 @@
   </si>
   <si>
     <t>1.595, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>, , , f, f, f, f, f, x</t>
+  </si>
+  <si>
+    <t>, , , , , , , , x</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +1549,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1710,10 +1712,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1730,10 +1732,10 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s">
         <v>118</v>
-      </c>
-      <c r="F9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1750,10 +1752,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" t="s">
         <v>120</v>
-      </c>
-      <c r="F10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1770,10 +1772,10 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" t="s">
         <v>122</v>
-      </c>
-      <c r="F11" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1790,10 +1792,10 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" t="s">
         <v>124</v>
-      </c>
-      <c r="F12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1810,10 +1812,10 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" t="s">
         <v>126</v>
-      </c>
-      <c r="F13" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1830,10 +1832,10 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
         <v>128</v>
-      </c>
-      <c r="F14" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1850,10 +1852,10 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" t="s">
         <v>130</v>
-      </c>
-      <c r="F15" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1870,10 +1872,10 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" t="s">
         <v>132</v>
-      </c>
-      <c r="F16" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1890,10 +1892,10 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" t="s">
         <v>134</v>
-      </c>
-      <c r="F17" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1910,10 +1912,10 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" t="s">
         <v>136</v>
-      </c>
-      <c r="F18" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1930,10 +1932,10 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" t="s">
         <v>138</v>
-      </c>
-      <c r="F19" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1950,10 +1952,10 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" t="s">
         <v>140</v>
-      </c>
-      <c r="F20" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1970,10 +1972,10 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" t="s">
         <v>142</v>
-      </c>
-      <c r="F21" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1990,10 +1992,10 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" t="s">
         <v>144</v>
-      </c>
-      <c r="F22" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2010,10 +2012,10 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" t="s">
         <v>146</v>
-      </c>
-      <c r="F23" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2030,10 +2032,10 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" t="s">
         <v>148</v>
-      </c>
-      <c r="F24" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2050,10 +2052,10 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" t="s">
         <v>150</v>
-      </c>
-      <c r="F25" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2070,10 +2072,10 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" t="s">
         <v>152</v>
-      </c>
-      <c r="F26" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2090,10 +2092,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" t="s">
         <v>154</v>
-      </c>
-      <c r="F27" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2110,10 +2112,10 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" t="s">
         <v>156</v>
-      </c>
-      <c r="F28" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2130,10 +2132,10 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" t="s">
         <v>158</v>
-      </c>
-      <c r="F29" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2150,10 +2152,10 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" t="s">
         <v>160</v>
-      </c>
-      <c r="F30" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2170,10 +2172,10 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" t="s">
         <v>162</v>
-      </c>
-      <c r="F31" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2207,7 +2209,7 @@
         <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E33" t="s">
         <v>24</v>
@@ -2221,19 +2223,19 @@
         <v>5002</v>
       </c>
       <c r="B34" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" t="s">
+        <v>243</v>
+      </c>
+      <c r="D34" t="s">
         <v>244</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>245</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>246</v>
-      </c>
-      <c r="E34" t="s">
-        <v>247</v>
-      </c>
-      <c r="F34" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2241,19 +2243,19 @@
         <v>5003</v>
       </c>
       <c r="B35" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D35" t="s">
         <v>244</v>
       </c>
-      <c r="C35" t="s">
-        <v>245</v>
-      </c>
-      <c r="D35" t="s">
-        <v>246</v>
-      </c>
       <c r="E35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2261,19 +2263,19 @@
         <v>5004</v>
       </c>
       <c r="B36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D36" t="s">
+        <v>249</v>
+      </c>
+      <c r="E36" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" t="s">
         <v>251</v>
-      </c>
-      <c r="E36" t="s">
-        <v>252</v>
-      </c>
-      <c r="F36" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2281,19 +2283,19 @@
         <v>5005</v>
       </c>
       <c r="B37" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2301,19 +2303,19 @@
         <v>5006</v>
       </c>
       <c r="B38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2321,19 +2323,19 @@
         <v>5007</v>
       </c>
       <c r="B39" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39" t="s">
         <v>258</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>259</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>260</v>
-      </c>
-      <c r="E39" t="s">
-        <v>261</v>
-      </c>
-      <c r="F39" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2341,19 +2343,19 @@
         <v>5008</v>
       </c>
       <c r="B40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D40" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E40" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F40" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2361,19 +2363,19 @@
         <v>5009</v>
       </c>
       <c r="B41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C41" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D41" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E41" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F41" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2381,19 +2383,19 @@
         <v>5010</v>
       </c>
       <c r="B42" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C42" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D42" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F42" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2401,19 +2403,19 @@
         <v>5011</v>
       </c>
       <c r="B43" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E43" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F43" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2421,19 +2423,19 @@
         <v>5012</v>
       </c>
       <c r="B44" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C44" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D44" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E44" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F44" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2441,19 +2443,19 @@
         <v>5013</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C45" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D45" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E45" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F45" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2461,19 +2463,19 @@
         <v>5014</v>
       </c>
       <c r="B46" t="s">
+        <v>256</v>
+      </c>
+      <c r="C46" t="s">
+        <v>257</v>
+      </c>
+      <c r="D46" t="s">
         <v>258</v>
       </c>
-      <c r="C46" t="s">
-        <v>259</v>
-      </c>
-      <c r="D46" t="s">
-        <v>260</v>
-      </c>
       <c r="E46" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2481,19 +2483,19 @@
         <v>5015</v>
       </c>
       <c r="B47" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C47" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D47" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E47" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2501,19 +2503,19 @@
         <v>5016</v>
       </c>
       <c r="B48" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C48" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D48" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E48" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F48" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2521,19 +2523,19 @@
         <v>5017</v>
       </c>
       <c r="B49" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C49" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D49" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E49" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F49" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2541,19 +2543,19 @@
         <v>5018</v>
       </c>
       <c r="B50" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C50" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D50" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E50" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F50" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2561,19 +2563,19 @@
         <v>5019</v>
       </c>
       <c r="B51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C51" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D51" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E51" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F51" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2581,19 +2583,19 @@
         <v>5020</v>
       </c>
       <c r="B52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D52" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E52" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F52" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2601,19 +2603,19 @@
         <v>5021</v>
       </c>
       <c r="B53" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" t="s">
+        <v>257</v>
+      </c>
+      <c r="D53" t="s">
         <v>258</v>
       </c>
-      <c r="C53" t="s">
-        <v>259</v>
-      </c>
-      <c r="D53" t="s">
-        <v>260</v>
-      </c>
       <c r="E53" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F53" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2621,19 +2623,19 @@
         <v>5022</v>
       </c>
       <c r="B54" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C54" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D54" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E54" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F54" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2641,19 +2643,19 @@
         <v>5023</v>
       </c>
       <c r="B55" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C55" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D55" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E55" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F55" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2661,19 +2663,19 @@
         <v>5024</v>
       </c>
       <c r="B56" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C56" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D56" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F56" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2681,19 +2683,19 @@
         <v>5025</v>
       </c>
       <c r="B57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C57" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D57" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E57" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F57" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2701,19 +2703,19 @@
         <v>5026</v>
       </c>
       <c r="B58" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C58" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D58" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E58" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F58" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2721,19 +2723,19 @@
         <v>5027</v>
       </c>
       <c r="B59" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C59" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D59" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E59" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F59" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2741,19 +2743,19 @@
         <v>5028</v>
       </c>
       <c r="B60" t="s">
+        <v>256</v>
+      </c>
+      <c r="C60" t="s">
+        <v>257</v>
+      </c>
+      <c r="D60" t="s">
         <v>258</v>
       </c>
-      <c r="C60" t="s">
-        <v>259</v>
-      </c>
-      <c r="D60" t="s">
-        <v>260</v>
-      </c>
       <c r="E60" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F60" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2784,7 +2786,7 @@
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E62" t="s">
         <v>27</v>
@@ -2798,19 +2800,19 @@
         <v>6002</v>
       </c>
       <c r="B63" t="s">
+        <v>303</v>
+      </c>
+      <c r="C63" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" t="s">
         <v>305</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
         <v>306</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>307</v>
-      </c>
-      <c r="E63" t="s">
-        <v>308</v>
-      </c>
-      <c r="F63" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2818,19 +2820,19 @@
         <v>6003</v>
       </c>
       <c r="B64" t="s">
+        <v>303</v>
+      </c>
+      <c r="C64" t="s">
+        <v>304</v>
+      </c>
+      <c r="D64" t="s">
         <v>305</v>
       </c>
-      <c r="C64" t="s">
-        <v>306</v>
-      </c>
-      <c r="D64" t="s">
-        <v>307</v>
-      </c>
       <c r="E64" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F64" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2838,19 +2840,19 @@
         <v>6004</v>
       </c>
       <c r="B65" t="s">
+        <v>303</v>
+      </c>
+      <c r="C65" t="s">
+        <v>304</v>
+      </c>
+      <c r="D65" t="s">
         <v>305</v>
       </c>
-      <c r="C65" t="s">
-        <v>306</v>
-      </c>
-      <c r="D65" t="s">
-        <v>307</v>
-      </c>
       <c r="E65" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F65" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2858,19 +2860,19 @@
         <v>6005</v>
       </c>
       <c r="B66" t="s">
+        <v>303</v>
+      </c>
+      <c r="C66" t="s">
+        <v>304</v>
+      </c>
+      <c r="D66" t="s">
         <v>305</v>
       </c>
-      <c r="C66" t="s">
-        <v>306</v>
-      </c>
-      <c r="D66" t="s">
-        <v>307</v>
-      </c>
       <c r="E66" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F66" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2878,19 +2880,19 @@
         <v>6006</v>
       </c>
       <c r="B67" t="s">
+        <v>303</v>
+      </c>
+      <c r="C67" t="s">
+        <v>304</v>
+      </c>
+      <c r="D67" t="s">
         <v>305</v>
       </c>
-      <c r="C67" t="s">
-        <v>306</v>
-      </c>
-      <c r="D67" t="s">
-        <v>307</v>
-      </c>
       <c r="E67" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F67" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2898,19 +2900,19 @@
         <v>6007</v>
       </c>
       <c r="B68" t="s">
+        <v>316</v>
+      </c>
+      <c r="C68" t="s">
+        <v>317</v>
+      </c>
+      <c r="D68" t="s">
         <v>318</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E68" t="s">
         <v>319</v>
       </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
         <v>320</v>
-      </c>
-      <c r="E68" t="s">
-        <v>321</v>
-      </c>
-      <c r="F68" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2918,19 +2920,19 @@
         <v>6008</v>
       </c>
       <c r="B69" t="s">
+        <v>303</v>
+      </c>
+      <c r="C69" t="s">
+        <v>304</v>
+      </c>
+      <c r="D69" t="s">
         <v>305</v>
       </c>
-      <c r="C69" t="s">
-        <v>306</v>
-      </c>
-      <c r="D69" t="s">
-        <v>307</v>
-      </c>
       <c r="E69" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F69" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2938,19 +2940,19 @@
         <v>6009</v>
       </c>
       <c r="B70" t="s">
+        <v>303</v>
+      </c>
+      <c r="C70" t="s">
+        <v>304</v>
+      </c>
+      <c r="D70" t="s">
         <v>305</v>
       </c>
-      <c r="C70" t="s">
-        <v>306</v>
-      </c>
-      <c r="D70" t="s">
-        <v>307</v>
-      </c>
       <c r="E70" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F70" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2958,19 +2960,19 @@
         <v>6010</v>
       </c>
       <c r="B71" t="s">
+        <v>303</v>
+      </c>
+      <c r="C71" t="s">
+        <v>304</v>
+      </c>
+      <c r="D71" t="s">
         <v>305</v>
       </c>
-      <c r="C71" t="s">
-        <v>306</v>
-      </c>
-      <c r="D71" t="s">
-        <v>307</v>
-      </c>
       <c r="E71" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F71" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2978,19 +2980,19 @@
         <v>6011</v>
       </c>
       <c r="B72" t="s">
+        <v>303</v>
+      </c>
+      <c r="C72" t="s">
+        <v>304</v>
+      </c>
+      <c r="D72" t="s">
         <v>305</v>
       </c>
-      <c r="C72" t="s">
-        <v>306</v>
-      </c>
-      <c r="D72" t="s">
-        <v>307</v>
-      </c>
       <c r="E72" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2998,19 +3000,19 @@
         <v>6012</v>
       </c>
       <c r="B73" t="s">
+        <v>303</v>
+      </c>
+      <c r="C73" t="s">
+        <v>304</v>
+      </c>
+      <c r="D73" t="s">
         <v>305</v>
       </c>
-      <c r="C73" t="s">
-        <v>306</v>
-      </c>
-      <c r="D73" t="s">
-        <v>307</v>
-      </c>
       <c r="E73" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F73" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3018,19 +3020,19 @@
         <v>6013</v>
       </c>
       <c r="B74" t="s">
+        <v>303</v>
+      </c>
+      <c r="C74" t="s">
+        <v>304</v>
+      </c>
+      <c r="D74" t="s">
         <v>305</v>
       </c>
-      <c r="C74" t="s">
-        <v>306</v>
-      </c>
-      <c r="D74" t="s">
-        <v>307</v>
-      </c>
       <c r="E74" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F74" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3038,19 +3040,19 @@
         <v>6014</v>
       </c>
       <c r="B75" t="s">
+        <v>316</v>
+      </c>
+      <c r="C75" t="s">
+        <v>317</v>
+      </c>
+      <c r="D75" t="s">
         <v>318</v>
       </c>
-      <c r="C75" t="s">
-        <v>319</v>
-      </c>
-      <c r="D75" t="s">
-        <v>320</v>
-      </c>
       <c r="E75" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F75" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3058,19 +3060,19 @@
         <v>6015</v>
       </c>
       <c r="B76" t="s">
+        <v>303</v>
+      </c>
+      <c r="C76" t="s">
+        <v>304</v>
+      </c>
+      <c r="D76" t="s">
         <v>305</v>
       </c>
-      <c r="C76" t="s">
-        <v>306</v>
-      </c>
-      <c r="D76" t="s">
-        <v>307</v>
-      </c>
       <c r="E76" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F76" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3078,19 +3080,19 @@
         <v>6016</v>
       </c>
       <c r="B77" t="s">
+        <v>303</v>
+      </c>
+      <c r="C77" t="s">
+        <v>304</v>
+      </c>
+      <c r="D77" t="s">
         <v>305</v>
       </c>
-      <c r="C77" t="s">
-        <v>306</v>
-      </c>
-      <c r="D77" t="s">
-        <v>307</v>
-      </c>
       <c r="E77" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F77" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3098,19 +3100,19 @@
         <v>6017</v>
       </c>
       <c r="B78" t="s">
+        <v>303</v>
+      </c>
+      <c r="C78" t="s">
+        <v>304</v>
+      </c>
+      <c r="D78" t="s">
         <v>305</v>
       </c>
-      <c r="C78" t="s">
-        <v>306</v>
-      </c>
-      <c r="D78" t="s">
-        <v>307</v>
-      </c>
       <c r="E78" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F78" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3118,19 +3120,19 @@
         <v>6018</v>
       </c>
       <c r="B79" t="s">
+        <v>303</v>
+      </c>
+      <c r="C79" t="s">
+        <v>304</v>
+      </c>
+      <c r="D79" t="s">
         <v>305</v>
       </c>
-      <c r="C79" t="s">
-        <v>306</v>
-      </c>
-      <c r="D79" t="s">
-        <v>307</v>
-      </c>
       <c r="E79" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F79" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3138,19 +3140,19 @@
         <v>6019</v>
       </c>
       <c r="B80" t="s">
+        <v>303</v>
+      </c>
+      <c r="C80" t="s">
+        <v>304</v>
+      </c>
+      <c r="D80" t="s">
         <v>305</v>
       </c>
-      <c r="C80" t="s">
-        <v>306</v>
-      </c>
-      <c r="D80" t="s">
-        <v>307</v>
-      </c>
       <c r="E80" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F80" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3158,19 +3160,19 @@
         <v>6020</v>
       </c>
       <c r="B81" t="s">
+        <v>303</v>
+      </c>
+      <c r="C81" t="s">
+        <v>304</v>
+      </c>
+      <c r="D81" t="s">
         <v>305</v>
       </c>
-      <c r="C81" t="s">
-        <v>306</v>
-      </c>
-      <c r="D81" t="s">
-        <v>307</v>
-      </c>
       <c r="E81" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F81" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3178,19 +3180,19 @@
         <v>6021</v>
       </c>
       <c r="B82" t="s">
+        <v>316</v>
+      </c>
+      <c r="C82" t="s">
+        <v>317</v>
+      </c>
+      <c r="D82" t="s">
         <v>318</v>
       </c>
-      <c r="C82" t="s">
-        <v>319</v>
-      </c>
-      <c r="D82" t="s">
-        <v>320</v>
-      </c>
       <c r="E82" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F82" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3198,19 +3200,19 @@
         <v>6022</v>
       </c>
       <c r="B83" t="s">
+        <v>303</v>
+      </c>
+      <c r="C83" t="s">
+        <v>304</v>
+      </c>
+      <c r="D83" t="s">
         <v>305</v>
       </c>
-      <c r="C83" t="s">
-        <v>306</v>
-      </c>
-      <c r="D83" t="s">
-        <v>307</v>
-      </c>
       <c r="E83" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F83" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3218,19 +3220,19 @@
         <v>6023</v>
       </c>
       <c r="B84" t="s">
+        <v>303</v>
+      </c>
+      <c r="C84" t="s">
+        <v>304</v>
+      </c>
+      <c r="D84" t="s">
         <v>305</v>
       </c>
-      <c r="C84" t="s">
-        <v>306</v>
-      </c>
-      <c r="D84" t="s">
-        <v>307</v>
-      </c>
       <c r="E84" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F84" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3238,19 +3240,19 @@
         <v>6024</v>
       </c>
       <c r="B85" t="s">
+        <v>303</v>
+      </c>
+      <c r="C85" t="s">
+        <v>304</v>
+      </c>
+      <c r="D85" t="s">
         <v>305</v>
       </c>
-      <c r="C85" t="s">
-        <v>306</v>
-      </c>
-      <c r="D85" t="s">
-        <v>307</v>
-      </c>
       <c r="E85" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F85" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3258,19 +3260,19 @@
         <v>6025</v>
       </c>
       <c r="B86" t="s">
+        <v>303</v>
+      </c>
+      <c r="C86" t="s">
+        <v>304</v>
+      </c>
+      <c r="D86" t="s">
         <v>305</v>
       </c>
-      <c r="C86" t="s">
-        <v>306</v>
-      </c>
-      <c r="D86" t="s">
-        <v>307</v>
-      </c>
       <c r="E86" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F86" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3278,19 +3280,19 @@
         <v>6026</v>
       </c>
       <c r="B87" t="s">
+        <v>303</v>
+      </c>
+      <c r="C87" t="s">
+        <v>304</v>
+      </c>
+      <c r="D87" t="s">
         <v>305</v>
       </c>
-      <c r="C87" t="s">
-        <v>306</v>
-      </c>
-      <c r="D87" t="s">
-        <v>307</v>
-      </c>
       <c r="E87" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F87" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3298,19 +3300,19 @@
         <v>6027</v>
       </c>
       <c r="B88" t="s">
+        <v>303</v>
+      </c>
+      <c r="C88" t="s">
+        <v>304</v>
+      </c>
+      <c r="D88" t="s">
         <v>305</v>
       </c>
-      <c r="C88" t="s">
-        <v>306</v>
-      </c>
-      <c r="D88" t="s">
-        <v>307</v>
-      </c>
       <c r="E88" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F88" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3318,24 +3320,24 @@
         <v>6028</v>
       </c>
       <c r="B89" t="s">
+        <v>316</v>
+      </c>
+      <c r="C89" t="s">
+        <v>317</v>
+      </c>
+      <c r="D89" t="s">
         <v>318</v>
       </c>
-      <c r="C89" t="s">
-        <v>319</v>
-      </c>
-      <c r="D89" t="s">
-        <v>320</v>
-      </c>
       <c r="E89" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F89" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
         <v>12</v>
@@ -3355,7 +3357,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
         <v>12</v>
@@ -3375,7 +3377,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -3395,7 +3397,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -3415,7 +3417,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -3435,7 +3437,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -3447,15 +3449,15 @@
         <v>7</v>
       </c>
       <c r="E95" t="s">
+        <v>115</v>
+      </c>
+      <c r="F95" t="s">
         <v>116</v>
-      </c>
-      <c r="F95" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -3467,15 +3469,15 @@
         <v>7</v>
       </c>
       <c r="E96" t="s">
+        <v>117</v>
+      </c>
+      <c r="F96" t="s">
         <v>118</v>
-      </c>
-      <c r="F96" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -3487,15 +3489,15 @@
         <v>7</v>
       </c>
       <c r="E97" t="s">
+        <v>119</v>
+      </c>
+      <c r="F97" t="s">
         <v>120</v>
-      </c>
-      <c r="F97" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -3507,15 +3509,15 @@
         <v>7</v>
       </c>
       <c r="E98" t="s">
+        <v>121</v>
+      </c>
+      <c r="F98" t="s">
         <v>122</v>
-      </c>
-      <c r="F98" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -3527,15 +3529,15 @@
         <v>7</v>
       </c>
       <c r="E99" t="s">
+        <v>123</v>
+      </c>
+      <c r="F99" t="s">
         <v>124</v>
-      </c>
-      <c r="F99" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -3547,15 +3549,15 @@
         <v>7</v>
       </c>
       <c r="E100" t="s">
+        <v>125</v>
+      </c>
+      <c r="F100" t="s">
         <v>126</v>
-      </c>
-      <c r="F100" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -3567,15 +3569,15 @@
         <v>7</v>
       </c>
       <c r="E101" t="s">
+        <v>127</v>
+      </c>
+      <c r="F101" t="s">
         <v>128</v>
-      </c>
-      <c r="F101" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -3587,15 +3589,15 @@
         <v>7</v>
       </c>
       <c r="E102" t="s">
+        <v>129</v>
+      </c>
+      <c r="F102" t="s">
         <v>130</v>
-      </c>
-      <c r="F102" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -3607,15 +3609,15 @@
         <v>7</v>
       </c>
       <c r="E103" t="s">
+        <v>131</v>
+      </c>
+      <c r="F103" t="s">
         <v>132</v>
-      </c>
-      <c r="F103" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -3627,15 +3629,15 @@
         <v>7</v>
       </c>
       <c r="E104" t="s">
+        <v>133</v>
+      </c>
+      <c r="F104" t="s">
         <v>134</v>
-      </c>
-      <c r="F104" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -3647,15 +3649,15 @@
         <v>7</v>
       </c>
       <c r="E105" t="s">
+        <v>135</v>
+      </c>
+      <c r="F105" t="s">
         <v>136</v>
-      </c>
-      <c r="F105" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -3667,15 +3669,15 @@
         <v>7</v>
       </c>
       <c r="E106" t="s">
+        <v>137</v>
+      </c>
+      <c r="F106" t="s">
         <v>138</v>
-      </c>
-      <c r="F106" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -3687,15 +3689,15 @@
         <v>7</v>
       </c>
       <c r="E107" t="s">
+        <v>139</v>
+      </c>
+      <c r="F107" t="s">
         <v>140</v>
-      </c>
-      <c r="F107" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -3707,15 +3709,15 @@
         <v>7</v>
       </c>
       <c r="E108" t="s">
+        <v>141</v>
+      </c>
+      <c r="F108" t="s">
         <v>142</v>
-      </c>
-      <c r="F108" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -3727,15 +3729,15 @@
         <v>7</v>
       </c>
       <c r="E109" t="s">
+        <v>143</v>
+      </c>
+      <c r="F109" t="s">
         <v>144</v>
-      </c>
-      <c r="F109" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -3747,15 +3749,15 @@
         <v>7</v>
       </c>
       <c r="E110" t="s">
+        <v>145</v>
+      </c>
+      <c r="F110" t="s">
         <v>146</v>
-      </c>
-      <c r="F110" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -3767,15 +3769,15 @@
         <v>7</v>
       </c>
       <c r="E111" t="s">
+        <v>147</v>
+      </c>
+      <c r="F111" t="s">
         <v>148</v>
-      </c>
-      <c r="F111" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -3787,15 +3789,15 @@
         <v>7</v>
       </c>
       <c r="E112" t="s">
+        <v>149</v>
+      </c>
+      <c r="F112" t="s">
         <v>150</v>
-      </c>
-      <c r="F112" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -3807,15 +3809,15 @@
         <v>7</v>
       </c>
       <c r="E113" t="s">
+        <v>151</v>
+      </c>
+      <c r="F113" t="s">
         <v>152</v>
-      </c>
-      <c r="F113" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -3827,15 +3829,15 @@
         <v>7</v>
       </c>
       <c r="E114" t="s">
+        <v>153</v>
+      </c>
+      <c r="F114" t="s">
         <v>154</v>
-      </c>
-      <c r="F114" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -3847,15 +3849,15 @@
         <v>7</v>
       </c>
       <c r="E115" t="s">
+        <v>155</v>
+      </c>
+      <c r="F115" t="s">
         <v>156</v>
-      </c>
-      <c r="F115" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -3867,15 +3869,15 @@
         <v>7</v>
       </c>
       <c r="E116" t="s">
+        <v>157</v>
+      </c>
+      <c r="F116" t="s">
         <v>158</v>
-      </c>
-      <c r="F116" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -3887,15 +3889,15 @@
         <v>7</v>
       </c>
       <c r="E117" t="s">
+        <v>159</v>
+      </c>
+      <c r="F117" t="s">
         <v>160</v>
-      </c>
-      <c r="F117" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -3907,15 +3909,15 @@
         <v>7</v>
       </c>
       <c r="E118" t="s">
+        <v>161</v>
+      </c>
+      <c r="F118" t="s">
         <v>162</v>
-      </c>
-      <c r="F118" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B119" t="s">
         <v>19</v>
@@ -3935,7 +3937,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B120" t="s">
         <v>23</v>
@@ -3944,7 +3946,7 @@
         <v>33</v>
       </c>
       <c r="D120" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E120" t="s">
         <v>24</v>
@@ -3955,547 +3957,547 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B121" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C121" t="s">
+        <v>243</v>
+      </c>
+      <c r="D121" t="s">
+        <v>362</v>
+      </c>
+      <c r="E121" t="s">
         <v>245</v>
       </c>
-      <c r="D121" t="s">
-        <v>364</v>
-      </c>
-      <c r="E121" t="s">
-        <v>247</v>
-      </c>
       <c r="F121" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C122" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D122" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E122" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F122" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C123" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D123" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E123" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F123" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D124" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E124" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F124" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D125" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E125" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F125" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B126" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C126" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D126" t="s">
+        <v>363</v>
+      </c>
+      <c r="E126" t="s">
+        <v>364</v>
+      </c>
+      <c r="F126" t="s">
         <v>365</v>
-      </c>
-      <c r="E126" t="s">
-        <v>366</v>
-      </c>
-      <c r="F126" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B127" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C127" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D127" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E127" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F127" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B128" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C128" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D128" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E128" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F128" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B129" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C129" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D129" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E129" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F129" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B130" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C130" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D130" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E130" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F130" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B131" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C131" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D131" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E131" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F131" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B132" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C132" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D132" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E132" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F132" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B133" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D133" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E133" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F133" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B134" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C134" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D134" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E134" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F134" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B135" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C135" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D135" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E135" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F135" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B136" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C136" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D136" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E136" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F136" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B137" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C137" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D137" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E137" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F137" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B138" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C138" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D138" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E138" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F138" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B139" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C139" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D139" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E139" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F139" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B140" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C140" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D140" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E140" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F140" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B141" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C141" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D141" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E141" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F141" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B142" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C142" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D142" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E142" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F142" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B143" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C143" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D143" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E143" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F143" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B144" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C144" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D144" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E144" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F144" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B145" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C145" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D145" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E145" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F145" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B146" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C146" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D146" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E146" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F146" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B147" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C147" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D147" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E147" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F147" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -4512,7 +4514,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B149" t="s">
         <v>26</v>
@@ -4521,7 +4523,7 @@
         <v>13</v>
       </c>
       <c r="D149" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E149" t="s">
         <v>27</v>
@@ -4532,542 +4534,542 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B150" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C150" t="s">
+        <v>304</v>
+      </c>
+      <c r="D150" t="s">
+        <v>372</v>
+      </c>
+      <c r="E150" t="s">
         <v>306</v>
       </c>
-      <c r="D150" t="s">
-        <v>374</v>
-      </c>
-      <c r="E150" t="s">
-        <v>308</v>
-      </c>
       <c r="F150" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B151" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C151" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D151" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E151" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F151" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B152" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C152" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D152" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E152" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F152" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B153" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C153" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D153" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E153" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F153" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B154" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C154" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D154" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E154" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F154" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B155" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C155" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D155" t="s">
+        <v>373</v>
+      </c>
+      <c r="E155" t="s">
+        <v>374</v>
+      </c>
+      <c r="F155" t="s">
         <v>375</v>
-      </c>
-      <c r="E155" t="s">
-        <v>376</v>
-      </c>
-      <c r="F155" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B156" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C156" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D156" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E156" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F156" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B157" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C157" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D157" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E157" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F157" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B158" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C158" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D158" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E158" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F158" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B159" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C159" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D159" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E159" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F159" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B160" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C160" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D160" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E160" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F160" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B161" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C161" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D161" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E161" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F161" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B162" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C162" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D162" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E162" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F162" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B163" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C163" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D163" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E163" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F163" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B164" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C164" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D164" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E164" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F164" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B165" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C165" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D165" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E165" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F165" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B166" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C166" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D166" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E166" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F166" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B167" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C167" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D167" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E167" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F167" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B168" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C168" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D168" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E168" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F168" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B169" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C169" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D169" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E169" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F169" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B170" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C170" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D170" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E170" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F170" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B171" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C171" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D171" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E171" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F171" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B172" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C172" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D172" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E172" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F172" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B173" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C173" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D173" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E173" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F173" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B174" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C174" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D174" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E174" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F174" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B175" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C175" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D175" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E175" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F175" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B176" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C176" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D176" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E176" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F176" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -5118,36 +5120,36 @@
         <v>44</v>
       </c>
       <c r="C179" t="s">
-        <v>243</v>
+        <v>382</v>
       </c>
       <c r="D179" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E179" t="s">
+        <v>236</v>
+      </c>
+      <c r="F179" t="s">
         <v>237</v>
-      </c>
-      <c r="F179" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B180" t="s">
         <v>44</v>
       </c>
       <c r="C180" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="D180" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E180" t="s">
+        <v>238</v>
+      </c>
+      <c r="F180" t="s">
         <v>239</v>
-      </c>
-      <c r="F180" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -5155,24 +5157,24 @@
         <v>41</v>
       </c>
       <c r="B181" t="s">
+        <v>45</v>
+      </c>
+      <c r="C181" t="s">
         <v>46</v>
       </c>
-      <c r="C181" t="s">
-        <v>47</v>
-      </c>
       <c r="D181" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E181" t="s">
+        <v>240</v>
+      </c>
+      <c r="F181" t="s">
         <v>241</v>
-      </c>
-      <c r="F181" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B182">
         <v>2</v>
@@ -5192,7 +5194,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B183">
         <v>8</v>
@@ -5212,27 +5214,27 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
+        <v>49</v>
+      </c>
+      <c r="B184" t="s">
         <v>50</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>51</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
+        <v>51</v>
+      </c>
+      <c r="E184" t="s">
         <v>52</v>
       </c>
-      <c r="D184" t="s">
+      <c r="F184" t="s">
         <v>52</v>
-      </c>
-      <c r="E184" t="s">
-        <v>53</v>
-      </c>
-      <c r="F184" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B185">
         <v>8</v>
@@ -5252,53 +5254,53 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
+        <v>53</v>
+      </c>
+      <c r="B186" t="s">
         <v>54</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>55</v>
       </c>
-      <c r="C186" t="s">
-        <v>56</v>
-      </c>
       <c r="D186" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E186" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F186" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>56</v>
+      </c>
+      <c r="B187" t="s">
         <v>57</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>58</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>59</v>
       </c>
-      <c r="D187" t="s">
-        <v>60</v>
-      </c>
       <c r="E187" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F187" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
+        <v>60</v>
+      </c>
+      <c r="B188" t="s">
         <v>61</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>62</v>
-      </c>
-      <c r="C188" t="s">
-        <v>63</v>
       </c>
       <c r="D188" t="s">
         <v>20</v>
@@ -5312,73 +5314,73 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
+        <v>63</v>
+      </c>
+      <c r="B189" t="s">
         <v>64</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>65</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>66</v>
       </c>
-      <c r="D189" t="s">
-        <v>67</v>
-      </c>
       <c r="E189" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F189" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
+        <v>67</v>
+      </c>
+      <c r="B190" t="s">
         <v>68</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>69</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>70</v>
       </c>
-      <c r="D190" t="s">
-        <v>71</v>
-      </c>
       <c r="E190" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F190" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>71</v>
+      </c>
+      <c r="B191" t="s">
         <v>72</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>73</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>74</v>
       </c>
-      <c r="D191" t="s">
-        <v>75</v>
-      </c>
       <c r="E191" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F191" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B192">
         <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -5392,13 +5394,13 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B193">
         <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -5412,13 +5414,13 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B194">
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -5432,13 +5434,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B195">
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -5452,13 +5454,13 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B196">
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -5472,13 +5474,13 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B197">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -5492,53 +5494,53 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B198" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C198" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D198" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E198" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F198" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B199" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C199" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D199" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E199" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F199" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B200" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C200" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D200" t="s">
         <v>20</v>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD74156-9003-4AC0-90C0-A0C96BFC8A26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF731A1-50EA-4E13-842C-6506716685DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -754,12 +754,6 @@
     <t>3500, 3500, 5, 32, 32, 32, 32, 32, 1</t>
   </si>
   <si>
-    <t>13, 13, 13, 13, 13, 13, 1, 1</t>
-  </si>
-  <si>
-    <t>33, 33, 33, 33, 33, 33, 1, 1</t>
-  </si>
-  <si>
     <t>2, 1, 4, 3, 7, 7, 5, 5, 5</t>
   </si>
   <si>
@@ -1184,6 +1178,12 @@
   </si>
   <si>
     <t>, , , , , , , , x</t>
+  </si>
+  <si>
+    <t>10, 10, 10, 10, 10, 10, 1, 1</t>
+  </si>
+  <si>
+    <t>20, 20, 20, 20, 20, 20, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -1549,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2223,19 +2223,19 @@
         <v>5002</v>
       </c>
       <c r="B34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" t="s">
+        <v>241</v>
+      </c>
+      <c r="D34" t="s">
         <v>242</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>243</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>244</v>
-      </c>
-      <c r="E34" t="s">
-        <v>245</v>
-      </c>
-      <c r="F34" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2243,19 +2243,19 @@
         <v>5003</v>
       </c>
       <c r="B35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" t="s">
+        <v>241</v>
+      </c>
+      <c r="D35" t="s">
         <v>242</v>
       </c>
-      <c r="C35" t="s">
-        <v>243</v>
-      </c>
-      <c r="D35" t="s">
-        <v>244</v>
-      </c>
       <c r="E35" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F35" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2263,19 +2263,19 @@
         <v>5004</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C36" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D36" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36" t="s">
+        <v>248</v>
+      </c>
+      <c r="F36" t="s">
         <v>249</v>
-      </c>
-      <c r="E36" t="s">
-        <v>250</v>
-      </c>
-      <c r="F36" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2283,19 +2283,19 @@
         <v>5005</v>
       </c>
       <c r="B37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E37" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F37" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2303,19 +2303,19 @@
         <v>5006</v>
       </c>
       <c r="B38" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2323,19 +2323,19 @@
         <v>5007</v>
       </c>
       <c r="B39" t="s">
+        <v>254</v>
+      </c>
+      <c r="C39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" t="s">
         <v>256</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>257</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>258</v>
-      </c>
-      <c r="E39" t="s">
-        <v>259</v>
-      </c>
-      <c r="F39" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2343,19 +2343,19 @@
         <v>5008</v>
       </c>
       <c r="B40" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C40" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D40" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E40" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2363,19 +2363,19 @@
         <v>5009</v>
       </c>
       <c r="B41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C41" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F41" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2383,19 +2383,19 @@
         <v>5010</v>
       </c>
       <c r="B42" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C42" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E42" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F42" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2403,19 +2403,19 @@
         <v>5011</v>
       </c>
       <c r="B43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C43" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E43" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F43" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2423,19 +2423,19 @@
         <v>5012</v>
       </c>
       <c r="B44" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C44" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D44" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E44" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F44" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2443,19 +2443,19 @@
         <v>5013</v>
       </c>
       <c r="B45" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E45" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F45" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2463,19 +2463,19 @@
         <v>5014</v>
       </c>
       <c r="B46" t="s">
+        <v>254</v>
+      </c>
+      <c r="C46" t="s">
+        <v>255</v>
+      </c>
+      <c r="D46" t="s">
         <v>256</v>
       </c>
-      <c r="C46" t="s">
-        <v>257</v>
-      </c>
-      <c r="D46" t="s">
-        <v>258</v>
-      </c>
       <c r="E46" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F46" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2483,19 +2483,19 @@
         <v>5015</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C47" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D47" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F47" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2503,19 +2503,19 @@
         <v>5016</v>
       </c>
       <c r="B48" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C48" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D48" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E48" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F48" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2523,19 +2523,19 @@
         <v>5017</v>
       </c>
       <c r="B49" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C49" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D49" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E49" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F49" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2543,19 +2543,19 @@
         <v>5018</v>
       </c>
       <c r="B50" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C50" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D50" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E50" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F50" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2563,19 +2563,19 @@
         <v>5019</v>
       </c>
       <c r="B51" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C51" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D51" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E51" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F51" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2583,19 +2583,19 @@
         <v>5020</v>
       </c>
       <c r="B52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E52" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F52" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2603,19 +2603,19 @@
         <v>5021</v>
       </c>
       <c r="B53" t="s">
+        <v>254</v>
+      </c>
+      <c r="C53" t="s">
+        <v>255</v>
+      </c>
+      <c r="D53" t="s">
         <v>256</v>
       </c>
-      <c r="C53" t="s">
-        <v>257</v>
-      </c>
-      <c r="D53" t="s">
-        <v>258</v>
-      </c>
       <c r="E53" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F53" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2623,19 +2623,19 @@
         <v>5022</v>
       </c>
       <c r="B54" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C54" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D54" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E54" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F54" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2643,19 +2643,19 @@
         <v>5023</v>
       </c>
       <c r="B55" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C55" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D55" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E55" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F55" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2663,19 +2663,19 @@
         <v>5024</v>
       </c>
       <c r="B56" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C56" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D56" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E56" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F56" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2683,19 +2683,19 @@
         <v>5025</v>
       </c>
       <c r="B57" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C57" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D57" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E57" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F57" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2703,19 +2703,19 @@
         <v>5026</v>
       </c>
       <c r="B58" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C58" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D58" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E58" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F58" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2723,19 +2723,19 @@
         <v>5027</v>
       </c>
       <c r="B59" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C59" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D59" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E59" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F59" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2743,19 +2743,19 @@
         <v>5028</v>
       </c>
       <c r="B60" t="s">
+        <v>254</v>
+      </c>
+      <c r="C60" t="s">
+        <v>255</v>
+      </c>
+      <c r="D60" t="s">
         <v>256</v>
       </c>
-      <c r="C60" t="s">
-        <v>257</v>
-      </c>
-      <c r="D60" t="s">
-        <v>258</v>
-      </c>
       <c r="E60" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F60" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2800,19 +2800,19 @@
         <v>6002</v>
       </c>
       <c r="B63" t="s">
+        <v>301</v>
+      </c>
+      <c r="C63" t="s">
+        <v>302</v>
+      </c>
+      <c r="D63" t="s">
         <v>303</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
         <v>304</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>305</v>
-      </c>
-      <c r="E63" t="s">
-        <v>306</v>
-      </c>
-      <c r="F63" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2820,19 +2820,19 @@
         <v>6003</v>
       </c>
       <c r="B64" t="s">
+        <v>301</v>
+      </c>
+      <c r="C64" t="s">
+        <v>302</v>
+      </c>
+      <c r="D64" t="s">
         <v>303</v>
       </c>
-      <c r="C64" t="s">
-        <v>304</v>
-      </c>
-      <c r="D64" t="s">
-        <v>305</v>
-      </c>
       <c r="E64" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F64" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2840,19 +2840,19 @@
         <v>6004</v>
       </c>
       <c r="B65" t="s">
+        <v>301</v>
+      </c>
+      <c r="C65" t="s">
+        <v>302</v>
+      </c>
+      <c r="D65" t="s">
         <v>303</v>
       </c>
-      <c r="C65" t="s">
-        <v>304</v>
-      </c>
-      <c r="D65" t="s">
-        <v>305</v>
-      </c>
       <c r="E65" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F65" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2860,19 +2860,19 @@
         <v>6005</v>
       </c>
       <c r="B66" t="s">
+        <v>301</v>
+      </c>
+      <c r="C66" t="s">
+        <v>302</v>
+      </c>
+      <c r="D66" t="s">
         <v>303</v>
       </c>
-      <c r="C66" t="s">
-        <v>304</v>
-      </c>
-      <c r="D66" t="s">
-        <v>305</v>
-      </c>
       <c r="E66" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F66" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2880,19 +2880,19 @@
         <v>6006</v>
       </c>
       <c r="B67" t="s">
+        <v>301</v>
+      </c>
+      <c r="C67" t="s">
+        <v>302</v>
+      </c>
+      <c r="D67" t="s">
         <v>303</v>
       </c>
-      <c r="C67" t="s">
-        <v>304</v>
-      </c>
-      <c r="D67" t="s">
-        <v>305</v>
-      </c>
       <c r="E67" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F67" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2900,19 +2900,19 @@
         <v>6007</v>
       </c>
       <c r="B68" t="s">
+        <v>314</v>
+      </c>
+      <c r="C68" t="s">
+        <v>315</v>
+      </c>
+      <c r="D68" t="s">
         <v>316</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E68" t="s">
         <v>317</v>
       </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
         <v>318</v>
-      </c>
-      <c r="E68" t="s">
-        <v>319</v>
-      </c>
-      <c r="F68" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2920,19 +2920,19 @@
         <v>6008</v>
       </c>
       <c r="B69" t="s">
+        <v>301</v>
+      </c>
+      <c r="C69" t="s">
+        <v>302</v>
+      </c>
+      <c r="D69" t="s">
         <v>303</v>
       </c>
-      <c r="C69" t="s">
-        <v>304</v>
-      </c>
-      <c r="D69" t="s">
-        <v>305</v>
-      </c>
       <c r="E69" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F69" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2940,19 +2940,19 @@
         <v>6009</v>
       </c>
       <c r="B70" t="s">
+        <v>301</v>
+      </c>
+      <c r="C70" t="s">
+        <v>302</v>
+      </c>
+      <c r="D70" t="s">
         <v>303</v>
       </c>
-      <c r="C70" t="s">
-        <v>304</v>
-      </c>
-      <c r="D70" t="s">
-        <v>305</v>
-      </c>
       <c r="E70" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F70" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2960,19 +2960,19 @@
         <v>6010</v>
       </c>
       <c r="B71" t="s">
+        <v>301</v>
+      </c>
+      <c r="C71" t="s">
+        <v>302</v>
+      </c>
+      <c r="D71" t="s">
         <v>303</v>
       </c>
-      <c r="C71" t="s">
-        <v>304</v>
-      </c>
-      <c r="D71" t="s">
-        <v>305</v>
-      </c>
       <c r="E71" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F71" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2980,16 +2980,16 @@
         <v>6011</v>
       </c>
       <c r="B72" t="s">
+        <v>301</v>
+      </c>
+      <c r="C72" t="s">
+        <v>302</v>
+      </c>
+      <c r="D72" t="s">
         <v>303</v>
       </c>
-      <c r="C72" t="s">
-        <v>304</v>
-      </c>
-      <c r="D72" t="s">
-        <v>305</v>
-      </c>
       <c r="E72" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F72" t="s">
         <v>74</v>
@@ -3000,19 +3000,19 @@
         <v>6012</v>
       </c>
       <c r="B73" t="s">
+        <v>301</v>
+      </c>
+      <c r="C73" t="s">
+        <v>302</v>
+      </c>
+      <c r="D73" t="s">
         <v>303</v>
       </c>
-      <c r="C73" t="s">
-        <v>304</v>
-      </c>
-      <c r="D73" t="s">
-        <v>305</v>
-      </c>
       <c r="E73" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F73" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3020,19 +3020,19 @@
         <v>6013</v>
       </c>
       <c r="B74" t="s">
+        <v>301</v>
+      </c>
+      <c r="C74" t="s">
+        <v>302</v>
+      </c>
+      <c r="D74" t="s">
         <v>303</v>
       </c>
-      <c r="C74" t="s">
-        <v>304</v>
-      </c>
-      <c r="D74" t="s">
-        <v>305</v>
-      </c>
       <c r="E74" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F74" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3040,19 +3040,19 @@
         <v>6014</v>
       </c>
       <c r="B75" t="s">
+        <v>314</v>
+      </c>
+      <c r="C75" t="s">
+        <v>315</v>
+      </c>
+      <c r="D75" t="s">
         <v>316</v>
       </c>
-      <c r="C75" t="s">
-        <v>317</v>
-      </c>
-      <c r="D75" t="s">
-        <v>318</v>
-      </c>
       <c r="E75" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F75" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3060,19 +3060,19 @@
         <v>6015</v>
       </c>
       <c r="B76" t="s">
+        <v>301</v>
+      </c>
+      <c r="C76" t="s">
+        <v>302</v>
+      </c>
+      <c r="D76" t="s">
         <v>303</v>
       </c>
-      <c r="C76" t="s">
-        <v>304</v>
-      </c>
-      <c r="D76" t="s">
-        <v>305</v>
-      </c>
       <c r="E76" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F76" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3080,19 +3080,19 @@
         <v>6016</v>
       </c>
       <c r="B77" t="s">
+        <v>301</v>
+      </c>
+      <c r="C77" t="s">
+        <v>302</v>
+      </c>
+      <c r="D77" t="s">
         <v>303</v>
       </c>
-      <c r="C77" t="s">
-        <v>304</v>
-      </c>
-      <c r="D77" t="s">
-        <v>305</v>
-      </c>
       <c r="E77" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F77" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3100,19 +3100,19 @@
         <v>6017</v>
       </c>
       <c r="B78" t="s">
+        <v>301</v>
+      </c>
+      <c r="C78" t="s">
+        <v>302</v>
+      </c>
+      <c r="D78" t="s">
         <v>303</v>
       </c>
-      <c r="C78" t="s">
-        <v>304</v>
-      </c>
-      <c r="D78" t="s">
-        <v>305</v>
-      </c>
       <c r="E78" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F78" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3120,19 +3120,19 @@
         <v>6018</v>
       </c>
       <c r="B79" t="s">
+        <v>301</v>
+      </c>
+      <c r="C79" t="s">
+        <v>302</v>
+      </c>
+      <c r="D79" t="s">
         <v>303</v>
       </c>
-      <c r="C79" t="s">
-        <v>304</v>
-      </c>
-      <c r="D79" t="s">
-        <v>305</v>
-      </c>
       <c r="E79" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F79" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3140,19 +3140,19 @@
         <v>6019</v>
       </c>
       <c r="B80" t="s">
+        <v>301</v>
+      </c>
+      <c r="C80" t="s">
+        <v>302</v>
+      </c>
+      <c r="D80" t="s">
         <v>303</v>
       </c>
-      <c r="C80" t="s">
-        <v>304</v>
-      </c>
-      <c r="D80" t="s">
-        <v>305</v>
-      </c>
       <c r="E80" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F80" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3160,19 +3160,19 @@
         <v>6020</v>
       </c>
       <c r="B81" t="s">
+        <v>301</v>
+      </c>
+      <c r="C81" t="s">
+        <v>302</v>
+      </c>
+      <c r="D81" t="s">
         <v>303</v>
       </c>
-      <c r="C81" t="s">
-        <v>304</v>
-      </c>
-      <c r="D81" t="s">
-        <v>305</v>
-      </c>
       <c r="E81" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F81" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3180,19 +3180,19 @@
         <v>6021</v>
       </c>
       <c r="B82" t="s">
+        <v>314</v>
+      </c>
+      <c r="C82" t="s">
+        <v>315</v>
+      </c>
+      <c r="D82" t="s">
         <v>316</v>
       </c>
-      <c r="C82" t="s">
-        <v>317</v>
-      </c>
-      <c r="D82" t="s">
-        <v>318</v>
-      </c>
       <c r="E82" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F82" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3200,19 +3200,19 @@
         <v>6022</v>
       </c>
       <c r="B83" t="s">
+        <v>301</v>
+      </c>
+      <c r="C83" t="s">
+        <v>302</v>
+      </c>
+      <c r="D83" t="s">
         <v>303</v>
       </c>
-      <c r="C83" t="s">
-        <v>304</v>
-      </c>
-      <c r="D83" t="s">
-        <v>305</v>
-      </c>
       <c r="E83" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F83" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3220,19 +3220,19 @@
         <v>6023</v>
       </c>
       <c r="B84" t="s">
+        <v>301</v>
+      </c>
+      <c r="C84" t="s">
+        <v>302</v>
+      </c>
+      <c r="D84" t="s">
         <v>303</v>
       </c>
-      <c r="C84" t="s">
-        <v>304</v>
-      </c>
-      <c r="D84" t="s">
-        <v>305</v>
-      </c>
       <c r="E84" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F84" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3240,19 +3240,19 @@
         <v>6024</v>
       </c>
       <c r="B85" t="s">
+        <v>301</v>
+      </c>
+      <c r="C85" t="s">
+        <v>302</v>
+      </c>
+      <c r="D85" t="s">
         <v>303</v>
       </c>
-      <c r="C85" t="s">
-        <v>304</v>
-      </c>
-      <c r="D85" t="s">
-        <v>305</v>
-      </c>
       <c r="E85" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F85" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3260,19 +3260,19 @@
         <v>6025</v>
       </c>
       <c r="B86" t="s">
+        <v>301</v>
+      </c>
+      <c r="C86" t="s">
+        <v>302</v>
+      </c>
+      <c r="D86" t="s">
         <v>303</v>
       </c>
-      <c r="C86" t="s">
-        <v>304</v>
-      </c>
-      <c r="D86" t="s">
-        <v>305</v>
-      </c>
       <c r="E86" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F86" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3280,19 +3280,19 @@
         <v>6026</v>
       </c>
       <c r="B87" t="s">
+        <v>301</v>
+      </c>
+      <c r="C87" t="s">
+        <v>302</v>
+      </c>
+      <c r="D87" t="s">
         <v>303</v>
       </c>
-      <c r="C87" t="s">
-        <v>304</v>
-      </c>
-      <c r="D87" t="s">
-        <v>305</v>
-      </c>
       <c r="E87" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F87" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3300,19 +3300,19 @@
         <v>6027</v>
       </c>
       <c r="B88" t="s">
+        <v>301</v>
+      </c>
+      <c r="C88" t="s">
+        <v>302</v>
+      </c>
+      <c r="D88" t="s">
         <v>303</v>
       </c>
-      <c r="C88" t="s">
-        <v>304</v>
-      </c>
-      <c r="D88" t="s">
-        <v>305</v>
-      </c>
       <c r="E88" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F88" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3320,19 +3320,19 @@
         <v>6028</v>
       </c>
       <c r="B89" t="s">
+        <v>314</v>
+      </c>
+      <c r="C89" t="s">
+        <v>315</v>
+      </c>
+      <c r="D89" t="s">
         <v>316</v>
       </c>
-      <c r="C89" t="s">
-        <v>317</v>
-      </c>
-      <c r="D89" t="s">
-        <v>318</v>
-      </c>
       <c r="E89" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F89" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3960,19 +3960,19 @@
         <v>101</v>
       </c>
       <c r="B121" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C121" t="s">
+        <v>241</v>
+      </c>
+      <c r="D121" t="s">
+        <v>360</v>
+      </c>
+      <c r="E121" t="s">
         <v>243</v>
       </c>
-      <c r="D121" t="s">
-        <v>362</v>
-      </c>
-      <c r="E121" t="s">
-        <v>245</v>
-      </c>
       <c r="F121" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -3980,19 +3980,19 @@
         <v>102</v>
       </c>
       <c r="B122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C122" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D122" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E122" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F122" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -4000,19 +4000,19 @@
         <v>103</v>
       </c>
       <c r="B123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D123" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E123" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F123" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -4020,19 +4020,19 @@
         <v>104</v>
       </c>
       <c r="B124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D124" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E124" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F124" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -4040,19 +4040,19 @@
         <v>105</v>
       </c>
       <c r="B125" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D125" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E125" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F125" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4060,19 +4060,19 @@
         <v>106</v>
       </c>
       <c r="B126" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D126" t="s">
+        <v>361</v>
+      </c>
+      <c r="E126" t="s">
+        <v>362</v>
+      </c>
+      <c r="F126" t="s">
         <v>363</v>
-      </c>
-      <c r="E126" t="s">
-        <v>364</v>
-      </c>
-      <c r="F126" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4080,19 +4080,19 @@
         <v>184</v>
       </c>
       <c r="B127" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C127" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D127" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E127" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F127" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4100,19 +4100,19 @@
         <v>185</v>
       </c>
       <c r="B128" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C128" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D128" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E128" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F128" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -4120,19 +4120,19 @@
         <v>186</v>
       </c>
       <c r="B129" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C129" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D129" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E129" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F129" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4140,19 +4140,19 @@
         <v>187</v>
       </c>
       <c r="B130" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C130" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D130" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E130" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F130" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -4160,19 +4160,19 @@
         <v>188</v>
       </c>
       <c r="B131" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C131" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D131" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E131" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F131" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4180,19 +4180,19 @@
         <v>189</v>
       </c>
       <c r="B132" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C132" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D132" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E132" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F132" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -4200,19 +4200,19 @@
         <v>190</v>
       </c>
       <c r="B133" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C133" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D133" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E133" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F133" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -4220,19 +4220,19 @@
         <v>191</v>
       </c>
       <c r="B134" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C134" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D134" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E134" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F134" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -4240,19 +4240,19 @@
         <v>192</v>
       </c>
       <c r="B135" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C135" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D135" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E135" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F135" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -4260,19 +4260,19 @@
         <v>193</v>
       </c>
       <c r="B136" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C136" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D136" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E136" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F136" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4280,19 +4280,19 @@
         <v>194</v>
       </c>
       <c r="B137" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C137" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D137" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E137" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F137" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -4300,19 +4300,19 @@
         <v>195</v>
       </c>
       <c r="B138" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C138" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D138" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E138" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F138" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -4320,19 +4320,19 @@
         <v>196</v>
       </c>
       <c r="B139" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C139" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D139" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E139" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F139" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -4340,19 +4340,19 @@
         <v>197</v>
       </c>
       <c r="B140" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C140" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D140" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E140" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F140" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -4360,19 +4360,19 @@
         <v>198</v>
       </c>
       <c r="B141" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C141" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D141" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E141" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F141" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -4380,19 +4380,19 @@
         <v>199</v>
       </c>
       <c r="B142" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C142" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D142" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E142" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F142" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -4400,19 +4400,19 @@
         <v>200</v>
       </c>
       <c r="B143" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C143" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D143" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E143" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F143" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -4420,19 +4420,19 @@
         <v>201</v>
       </c>
       <c r="B144" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C144" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D144" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E144" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F144" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -4440,19 +4440,19 @@
         <v>202</v>
       </c>
       <c r="B145" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C145" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D145" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E145" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F145" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -4460,19 +4460,19 @@
         <v>203</v>
       </c>
       <c r="B146" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C146" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D146" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E146" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F146" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4480,19 +4480,19 @@
         <v>204</v>
       </c>
       <c r="B147" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C147" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D147" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E147" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F147" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -4537,19 +4537,19 @@
         <v>109</v>
       </c>
       <c r="B150" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C150" t="s">
+        <v>302</v>
+      </c>
+      <c r="D150" t="s">
+        <v>370</v>
+      </c>
+      <c r="E150" t="s">
         <v>304</v>
       </c>
-      <c r="D150" t="s">
-        <v>372</v>
-      </c>
-      <c r="E150" t="s">
-        <v>306</v>
-      </c>
       <c r="F150" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -4557,19 +4557,19 @@
         <v>110</v>
       </c>
       <c r="B151" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C151" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D151" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E151" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F151" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -4577,19 +4577,19 @@
         <v>111</v>
       </c>
       <c r="B152" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C152" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D152" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E152" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F152" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -4597,19 +4597,19 @@
         <v>112</v>
       </c>
       <c r="B153" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C153" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D153" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E153" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F153" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -4617,19 +4617,19 @@
         <v>113</v>
       </c>
       <c r="B154" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D154" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E154" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F154" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -4637,19 +4637,19 @@
         <v>114</v>
       </c>
       <c r="B155" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C155" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D155" t="s">
+        <v>371</v>
+      </c>
+      <c r="E155" t="s">
+        <v>372</v>
+      </c>
+      <c r="F155" t="s">
         <v>373</v>
-      </c>
-      <c r="E155" t="s">
-        <v>374</v>
-      </c>
-      <c r="F155" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -4657,19 +4657,19 @@
         <v>205</v>
       </c>
       <c r="B156" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C156" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D156" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E156" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F156" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -4677,19 +4677,19 @@
         <v>206</v>
       </c>
       <c r="B157" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C157" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D157" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E157" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F157" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -4697,19 +4697,19 @@
         <v>207</v>
       </c>
       <c r="B158" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C158" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D158" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E158" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F158" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -4717,16 +4717,16 @@
         <v>208</v>
       </c>
       <c r="B159" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C159" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D159" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E159" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F159" t="s">
         <v>74</v>
@@ -4737,19 +4737,19 @@
         <v>209</v>
       </c>
       <c r="B160" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C160" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D160" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E160" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F160" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -4757,19 +4757,19 @@
         <v>210</v>
       </c>
       <c r="B161" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C161" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D161" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E161" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F161" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -4777,19 +4777,19 @@
         <v>211</v>
       </c>
       <c r="B162" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C162" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D162" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E162" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F162" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -4797,19 +4797,19 @@
         <v>212</v>
       </c>
       <c r="B163" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C163" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D163" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E163" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F163" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -4817,19 +4817,19 @@
         <v>213</v>
       </c>
       <c r="B164" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C164" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D164" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E164" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F164" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -4837,19 +4837,19 @@
         <v>214</v>
       </c>
       <c r="B165" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C165" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D165" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E165" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F165" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -4857,19 +4857,19 @@
         <v>215</v>
       </c>
       <c r="B166" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C166" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D166" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E166" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F166" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -4877,19 +4877,19 @@
         <v>216</v>
       </c>
       <c r="B167" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C167" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D167" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E167" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F167" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -4897,19 +4897,19 @@
         <v>217</v>
       </c>
       <c r="B168" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C168" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D168" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E168" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F168" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -4917,19 +4917,19 @@
         <v>218</v>
       </c>
       <c r="B169" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C169" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D169" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E169" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F169" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -4937,19 +4937,19 @@
         <v>219</v>
       </c>
       <c r="B170" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C170" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D170" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E170" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F170" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -4957,19 +4957,19 @@
         <v>220</v>
       </c>
       <c r="B171" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C171" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D171" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E171" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F171" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -4977,19 +4977,19 @@
         <v>221</v>
       </c>
       <c r="B172" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C172" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D172" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E172" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F172" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -4997,19 +4997,19 @@
         <v>222</v>
       </c>
       <c r="B173" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C173" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D173" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E173" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F173" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -5017,19 +5017,19 @@
         <v>223</v>
       </c>
       <c r="B174" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C174" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D174" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E174" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F174" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -5037,19 +5037,19 @@
         <v>224</v>
       </c>
       <c r="B175" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C175" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D175" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E175" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F175" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -5057,19 +5057,19 @@
         <v>225</v>
       </c>
       <c r="B176" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C176" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D176" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E176" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F176" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -5120,7 +5120,7 @@
         <v>44</v>
       </c>
       <c r="C179" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D179" t="s">
         <v>226</v>
@@ -5140,7 +5140,7 @@
         <v>44</v>
       </c>
       <c r="C180" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D180" t="s">
         <v>226</v>
@@ -5166,10 +5166,10 @@
         <v>227</v>
       </c>
       <c r="E181" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="F181" t="s">
-        <v>241</v>
+        <v>383</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF731A1-50EA-4E13-842C-6506716685DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AB5A63-A382-40AA-92B3-86885A2F24ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -1180,10 +1180,10 @@
     <t>, , , , , , , , x</t>
   </si>
   <si>
-    <t>10, 10, 10, 10, 10, 10, 1, 1</t>
-  </si>
-  <si>
-    <t>20, 20, 20, 20, 20, 20, 1, 1</t>
+    <t>7, 7, 7, 7, 7, 7, 1, 1</t>
+  </si>
+  <si>
+    <t>17, 17, 17, 17, 17, 17, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -1549,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AB5A63-A382-40AA-92B3-86885A2F24ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837676FE-BF10-4F33-85F7-603A2006C925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -1549,7 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5561,9 +5561,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC24F54A-7C76-46A6-B550-1FB1A4C7C121}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5593,7 +5593,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.01</v>
+        <v>1.0057</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5601,7 +5601,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.0114000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5609,7 +5609,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.03</v>
+        <v>1.0170999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5617,7 +5617,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.04</v>
+        <v>1.0227999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5625,7 +5625,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.0286</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5633,7 +5633,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.06</v>
+        <v>1.0344</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5641,7 +5641,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.07</v>
+        <v>1.0403</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5649,7 +5649,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.08</v>
+        <v>1.0462</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5657,7 +5657,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.0900000000000001</v>
+        <v>1.0521</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5665,7 +5665,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.1000000000000001</v>
+        <v>1.0581</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5673,7 +5673,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.1100000000000001</v>
+        <v>1.0641</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5681,7 +5681,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.1200000000000001</v>
+        <v>1.0701000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5689,7 +5689,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.1299999999999999</v>
+        <v>1.0761000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -5697,7 +5697,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.1399999999999999</v>
+        <v>1.0822000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -5705,7 +5705,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.1499999999999999</v>
+        <v>1.0884</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -5713,7 +5713,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.1599999999999999</v>
+        <v>1.0945</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -5721,7 +5721,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.17</v>
+        <v>1.1007</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -5729,7 +5729,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.18</v>
+        <v>1.107</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -5737,7 +5737,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.19</v>
+        <v>1.1132</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -5745,7 +5745,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.2</v>
+        <v>1.1194999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -5753,7 +5753,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.21</v>
+        <v>1.1258999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -5761,7 +5761,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.22</v>
+        <v>1.1322000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -5769,7 +5769,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.23</v>
+        <v>1.1386000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -5777,7 +5777,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.24</v>
+        <v>1.1451</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -5785,7 +5785,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.25</v>
+        <v>1.1516</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -5793,7 +5793,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.26</v>
+        <v>1.1580999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -5801,7 +5801,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.27</v>
+        <v>1.1646000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -5809,7 +5809,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.28</v>
+        <v>1.1712</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -5817,7 +5817,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.29</v>
+        <v>1.1778999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -5825,7 +5825,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.3</v>
+        <v>1.1845000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -5833,7 +5833,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.31</v>
+        <v>1.1912</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -5841,7 +5841,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.32</v>
+        <v>1.198</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -5849,7 +5849,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.33</v>
+        <v>1.2048000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -5857,7 +5857,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.34</v>
+        <v>1.2116</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -5865,7 +5865,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.35</v>
+        <v>1.2183999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -5873,7 +5873,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.36</v>
+        <v>1.2253000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -5881,7 +5881,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.37</v>
+        <v>1.2323</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -5889,7 +5889,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.38</v>
+        <v>1.2393000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -5897,7 +5897,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.39</v>
+        <v>1.2463</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -5905,7 +5905,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.4</v>
+        <v>1.2533000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -5913,7 +5913,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.41</v>
+        <v>1.2604</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -5921,7 +5921,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.42</v>
+        <v>1.2676000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -5929,7 +5929,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.43</v>
+        <v>1.2746999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -5937,7 +5937,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.44</v>
+        <v>1.2819</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -5945,7 +5945,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.45</v>
+        <v>1.2891999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -5953,7 +5953,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.46</v>
+        <v>1.2965</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -5961,7 +5961,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.47</v>
+        <v>1.3038000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -5969,7 +5969,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.48</v>
+        <v>1.3111999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -5977,7 +5977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.49</v>
+        <v>1.3186</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -5985,7 +5985,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.5</v>
+        <v>1.3261000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -5993,7 +5993,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.51</v>
+        <v>1.3335999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -6001,7 +6001,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.52</v>
+        <v>1.3411999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -6009,7 +6009,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.53</v>
+        <v>1.3488</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -6017,7 +6017,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.54</v>
+        <v>1.3564000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -6025,7 +6025,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.55</v>
+        <v>1.3641000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -6033,7 +6033,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.56</v>
+        <v>1.3717999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -6041,7 +6041,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.57</v>
+        <v>1.3795999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -6049,7 +6049,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.58</v>
+        <v>1.3874</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -6057,7 +6057,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.59</v>
+        <v>1.3952</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -6065,7 +6065,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.6</v>
+        <v>1.4031</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -6073,7 +6073,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.61</v>
+        <v>1.4111</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -6081,7 +6081,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.62</v>
+        <v>1.419</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -6089,7 +6089,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.63</v>
+        <v>1.4271</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -6097,7 +6097,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.64</v>
+        <v>1.4352</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -6105,7 +6105,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.65</v>
+        <v>1.4433</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -6113,7 +6113,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.66</v>
+        <v>1.4515</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -6121,7 +6121,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.67</v>
+        <v>1.4597</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -6129,7 +6129,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.68</v>
+        <v>1.4679</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -6137,7 +6137,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.69</v>
+        <v>1.4762</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -6145,6 +6145,198 @@
         <v>70</v>
       </c>
       <c r="B72">
+        <v>1.4845999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>1.4930000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>1.5015000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>1.5185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>1.5270999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>1.5357000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>1.5444</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>1.5531999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>1.5620000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>1.5708</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>1.5797000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1.5887</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>1.5975999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>1.6067</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>1.6157999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>1.6249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>1.6341000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>1.6434</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>1.6527000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>1.6619999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>1.6714</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>1.6809000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>1.6903999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
         <v>1.7</v>
       </c>
     </row>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837676FE-BF10-4F33-85F7-603A2006C925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE0ED51-DE1D-4D7F-925F-7E8E02D36772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -805,12 +805,6 @@
     <t>1, 1, 1, 1, 1, 0.1, 0.05, 0.01</t>
   </si>
   <si>
-    <t>55.7, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>56.3, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>0.295, 100, 2, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -847,12 +841,6 @@
     <t>1.07, 100, 2, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
-    <t>68.7, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>69.3, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>0.54, 100, 2, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -889,12 +877,6 @@
     <t>1.315, 100, 2, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
-    <t>78.45, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>79.05, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>0.785, 100, 2, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -931,12 +913,6 @@
     <t>1.56, 100, 2, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
-    <t>86.033, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>86.633, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>2, 7, 7, 5, 5, 5, 5</t>
   </si>
   <si>
@@ -985,12 +961,6 @@
     <t>1, 1, 0.2, 0.1, 0.04, 0.02</t>
   </si>
   <si>
-    <t>55.7, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>56.3, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>0.295, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -1024,12 +994,6 @@
     <t>1.07, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
-    <t>68.7, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>69.3, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>0.54, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -1066,12 +1030,6 @@
     <t>1.315, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
-    <t>78.45, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>79.05, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>0.785, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -1108,12 +1066,6 @@
     <t>1.56, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
-    <t>86.033, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>86.633, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>1, 1, 1, 1, 1, 0.2, 0.25, 0.125, 0.025</t>
   </si>
   <si>
@@ -1184,6 +1136,54 @@
   </si>
   <si>
     <t>17, 17, 17, 17, 17, 17, 1, 1</t>
+  </si>
+  <si>
+    <t>27.1, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>28.9, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>33.6, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>35.4, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>38.475, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>40.275, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>42.267, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>44.067, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>27.1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>28.9, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>33.6, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>35.4, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>38.475, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>40.275, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>42.267, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>44.067, 1, 1, 1, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2332,10 +2332,10 @@
         <v>256</v>
       </c>
       <c r="E39" t="s">
-        <v>257</v>
+        <v>368</v>
       </c>
       <c r="F39" t="s">
-        <v>258</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2352,10 +2352,10 @@
         <v>247</v>
       </c>
       <c r="E40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2372,10 +2372,10 @@
         <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2392,10 +2392,10 @@
         <v>247</v>
       </c>
       <c r="E42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2412,10 +2412,10 @@
         <v>247</v>
       </c>
       <c r="E43" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F43" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2432,10 +2432,10 @@
         <v>247</v>
       </c>
       <c r="E44" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F44" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2452,10 +2452,10 @@
         <v>247</v>
       </c>
       <c r="E45" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F45" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2472,10 +2472,10 @@
         <v>256</v>
       </c>
       <c r="E46" t="s">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="F46" t="s">
-        <v>272</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2492,10 +2492,10 @@
         <v>247</v>
       </c>
       <c r="E47" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F47" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2512,10 +2512,10 @@
         <v>247</v>
       </c>
       <c r="E48" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F48" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2532,10 +2532,10 @@
         <v>247</v>
       </c>
       <c r="E49" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F49" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2552,10 +2552,10 @@
         <v>247</v>
       </c>
       <c r="E50" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F50" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2572,10 +2572,10 @@
         <v>247</v>
       </c>
       <c r="E51" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F51" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2592,10 +2592,10 @@
         <v>247</v>
       </c>
       <c r="E52" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F52" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2612,10 +2612,10 @@
         <v>256</v>
       </c>
       <c r="E53" t="s">
-        <v>285</v>
+        <v>372</v>
       </c>
       <c r="F53" t="s">
-        <v>286</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2632,10 +2632,10 @@
         <v>247</v>
       </c>
       <c r="E54" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F54" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2652,10 +2652,10 @@
         <v>247</v>
       </c>
       <c r="E55" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F55" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2672,10 +2672,10 @@
         <v>247</v>
       </c>
       <c r="E56" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F56" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2692,10 +2692,10 @@
         <v>247</v>
       </c>
       <c r="E57" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F57" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2712,10 +2712,10 @@
         <v>247</v>
       </c>
       <c r="E58" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F58" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2732,10 +2732,10 @@
         <v>247</v>
       </c>
       <c r="E59" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F59" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2752,10 +2752,10 @@
         <v>256</v>
       </c>
       <c r="E60" t="s">
-        <v>299</v>
+        <v>374</v>
       </c>
       <c r="F60" t="s">
-        <v>300</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2800,19 +2800,19 @@
         <v>6002</v>
       </c>
       <c r="B63" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C63" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D63" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E63" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F63" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2820,19 +2820,19 @@
         <v>6003</v>
       </c>
       <c r="B64" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C64" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D64" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E64" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F64" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2840,19 +2840,19 @@
         <v>6004</v>
       </c>
       <c r="B65" t="s">
+        <v>293</v>
+      </c>
+      <c r="C65" t="s">
+        <v>294</v>
+      </c>
+      <c r="D65" t="s">
+        <v>295</v>
+      </c>
+      <c r="E65" t="s">
+        <v>300</v>
+      </c>
+      <c r="F65" t="s">
         <v>301</v>
-      </c>
-      <c r="C65" t="s">
-        <v>302</v>
-      </c>
-      <c r="D65" t="s">
-        <v>303</v>
-      </c>
-      <c r="E65" t="s">
-        <v>308</v>
-      </c>
-      <c r="F65" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2860,19 +2860,19 @@
         <v>6005</v>
       </c>
       <c r="B66" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C66" t="s">
+        <v>294</v>
+      </c>
+      <c r="D66" t="s">
+        <v>295</v>
+      </c>
+      <c r="E66" t="s">
         <v>302</v>
       </c>
-      <c r="D66" t="s">
+      <c r="F66" t="s">
         <v>303</v>
-      </c>
-      <c r="E66" t="s">
-        <v>310</v>
-      </c>
-      <c r="F66" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2880,19 +2880,19 @@
         <v>6006</v>
       </c>
       <c r="B67" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C67" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D67" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E67" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F67" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2900,19 +2900,19 @@
         <v>6007</v>
       </c>
       <c r="B68" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C68" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D68" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E68" t="s">
-        <v>317</v>
+        <v>376</v>
       </c>
       <c r="F68" t="s">
-        <v>318</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2920,19 +2920,19 @@
         <v>6008</v>
       </c>
       <c r="B69" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C69" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D69" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E69" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F69" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2940,19 +2940,19 @@
         <v>6009</v>
       </c>
       <c r="B70" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C70" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D70" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E70" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F70" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2960,19 +2960,19 @@
         <v>6010</v>
       </c>
       <c r="B71" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C71" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D71" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E71" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F71" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2980,16 +2980,16 @@
         <v>6011</v>
       </c>
       <c r="B72" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C72" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D72" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E72" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F72" t="s">
         <v>74</v>
@@ -3000,19 +3000,19 @@
         <v>6012</v>
       </c>
       <c r="B73" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C73" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D73" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E73" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F73" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3020,19 +3020,19 @@
         <v>6013</v>
       </c>
       <c r="B74" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C74" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D74" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E74" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F74" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3040,19 +3040,19 @@
         <v>6014</v>
       </c>
       <c r="B75" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C75" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D75" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E75" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="F75" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3060,19 +3060,19 @@
         <v>6015</v>
       </c>
       <c r="B76" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C76" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D76" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E76" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="F76" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3080,19 +3080,19 @@
         <v>6016</v>
       </c>
       <c r="B77" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C77" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D77" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E77" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="F77" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3100,19 +3100,19 @@
         <v>6017</v>
       </c>
       <c r="B78" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C78" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D78" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E78" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="F78" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3120,19 +3120,19 @@
         <v>6018</v>
       </c>
       <c r="B79" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C79" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D79" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E79" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F79" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3140,19 +3140,19 @@
         <v>6019</v>
       </c>
       <c r="B80" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C80" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D80" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E80" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="F80" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3160,19 +3160,19 @@
         <v>6020</v>
       </c>
       <c r="B81" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C81" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D81" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E81" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="F81" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3180,19 +3180,19 @@
         <v>6021</v>
       </c>
       <c r="B82" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C82" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D82" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E82" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="F82" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3200,19 +3200,19 @@
         <v>6022</v>
       </c>
       <c r="B83" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C83" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D83" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E83" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="F83" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3220,19 +3220,19 @@
         <v>6023</v>
       </c>
       <c r="B84" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C84" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D84" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E84" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="F84" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3240,19 +3240,19 @@
         <v>6024</v>
       </c>
       <c r="B85" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C85" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D85" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E85" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="F85" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3260,19 +3260,19 @@
         <v>6025</v>
       </c>
       <c r="B86" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C86" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D86" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E86" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="F86" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3280,19 +3280,19 @@
         <v>6026</v>
       </c>
       <c r="B87" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C87" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D87" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E87" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="F87" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3300,19 +3300,19 @@
         <v>6027</v>
       </c>
       <c r="B88" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C88" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D88" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E88" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="F88" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3320,19 +3320,19 @@
         <v>6028</v>
       </c>
       <c r="B89" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C89" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D89" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E89" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="F89" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3966,7 +3966,7 @@
         <v>241</v>
       </c>
       <c r="D121" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E121" t="s">
         <v>243</v>
@@ -3986,7 +3986,7 @@
         <v>241</v>
       </c>
       <c r="D122" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E122" t="s">
         <v>245</v>
@@ -4006,7 +4006,7 @@
         <v>241</v>
       </c>
       <c r="D123" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E123" t="s">
         <v>248</v>
@@ -4026,7 +4026,7 @@
         <v>241</v>
       </c>
       <c r="D124" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E124" t="s">
         <v>250</v>
@@ -4046,7 +4046,7 @@
         <v>241</v>
       </c>
       <c r="D125" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E125" t="s">
         <v>252</v>
@@ -4066,13 +4066,13 @@
         <v>255</v>
       </c>
       <c r="D126" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="E126" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="F126" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4086,13 +4086,13 @@
         <v>241</v>
       </c>
       <c r="D127" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E127" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F127" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4106,13 +4106,13 @@
         <v>241</v>
       </c>
       <c r="D128" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E128" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F128" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -4126,13 +4126,13 @@
         <v>241</v>
       </c>
       <c r="D129" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E129" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F129" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4146,13 +4146,13 @@
         <v>241</v>
       </c>
       <c r="D130" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E130" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F130" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -4166,13 +4166,13 @@
         <v>241</v>
       </c>
       <c r="D131" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E131" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F131" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4186,13 +4186,13 @@
         <v>241</v>
       </c>
       <c r="D132" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E132" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F132" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -4206,13 +4206,13 @@
         <v>255</v>
       </c>
       <c r="D133" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="E133" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="F133" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -4226,13 +4226,13 @@
         <v>241</v>
       </c>
       <c r="D134" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E134" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F134" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -4246,13 +4246,13 @@
         <v>241</v>
       </c>
       <c r="D135" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E135" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F135" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -4266,13 +4266,13 @@
         <v>241</v>
       </c>
       <c r="D136" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E136" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F136" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4286,13 +4286,13 @@
         <v>241</v>
       </c>
       <c r="D137" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E137" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F137" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -4306,13 +4306,13 @@
         <v>241</v>
       </c>
       <c r="D138" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E138" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F138" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -4326,13 +4326,13 @@
         <v>241</v>
       </c>
       <c r="D139" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E139" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F139" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -4346,13 +4346,13 @@
         <v>255</v>
       </c>
       <c r="D140" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="E140" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="F140" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -4366,13 +4366,13 @@
         <v>241</v>
       </c>
       <c r="D141" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E141" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F141" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -4386,13 +4386,13 @@
         <v>241</v>
       </c>
       <c r="D142" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E142" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F142" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -4406,13 +4406,13 @@
         <v>241</v>
       </c>
       <c r="D143" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E143" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F143" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -4426,13 +4426,13 @@
         <v>241</v>
       </c>
       <c r="D144" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E144" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F144" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -4446,13 +4446,13 @@
         <v>241</v>
       </c>
       <c r="D145" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E145" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F145" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -4466,13 +4466,13 @@
         <v>241</v>
       </c>
       <c r="D146" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E146" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F146" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4486,13 +4486,13 @@
         <v>255</v>
       </c>
       <c r="D147" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="E147" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="F147" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -4537,19 +4537,19 @@
         <v>109</v>
       </c>
       <c r="B150" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C150" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D150" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E150" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F150" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -4557,19 +4557,19 @@
         <v>110</v>
       </c>
       <c r="B151" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C151" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D151" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E151" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F151" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -4577,19 +4577,19 @@
         <v>111</v>
       </c>
       <c r="B152" t="s">
+        <v>293</v>
+      </c>
+      <c r="C152" t="s">
+        <v>294</v>
+      </c>
+      <c r="D152" t="s">
+        <v>354</v>
+      </c>
+      <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="C152" t="s">
-        <v>302</v>
-      </c>
-      <c r="D152" t="s">
-        <v>370</v>
-      </c>
-      <c r="E152" t="s">
-        <v>308</v>
-      </c>
-      <c r="F152" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -4597,19 +4597,19 @@
         <v>112</v>
       </c>
       <c r="B153" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C153" t="s">
+        <v>294</v>
+      </c>
+      <c r="D153" t="s">
+        <v>354</v>
+      </c>
+      <c r="E153" t="s">
         <v>302</v>
       </c>
-      <c r="D153" t="s">
-        <v>370</v>
-      </c>
-      <c r="E153" t="s">
-        <v>310</v>
-      </c>
       <c r="F153" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -4617,19 +4617,19 @@
         <v>113</v>
       </c>
       <c r="B154" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C154" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D154" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E154" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F154" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -4637,19 +4637,19 @@
         <v>114</v>
       </c>
       <c r="B155" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C155" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D155" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="E155" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="F155" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -4657,19 +4657,19 @@
         <v>205</v>
       </c>
       <c r="B156" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C156" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D156" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E156" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F156" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -4677,19 +4677,19 @@
         <v>206</v>
       </c>
       <c r="B157" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C157" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D157" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E157" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F157" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -4697,19 +4697,19 @@
         <v>207</v>
       </c>
       <c r="B158" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C158" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D158" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E158" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F158" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -4717,16 +4717,16 @@
         <v>208</v>
       </c>
       <c r="B159" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C159" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D159" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E159" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F159" t="s">
         <v>74</v>
@@ -4737,19 +4737,19 @@
         <v>209</v>
       </c>
       <c r="B160" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C160" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D160" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E160" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F160" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -4757,19 +4757,19 @@
         <v>210</v>
       </c>
       <c r="B161" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C161" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D161" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E161" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F161" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -4777,19 +4777,19 @@
         <v>211</v>
       </c>
       <c r="B162" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C162" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D162" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="E162" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="F162" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -4797,19 +4797,19 @@
         <v>212</v>
       </c>
       <c r="B163" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C163" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D163" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E163" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="F163" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -4817,19 +4817,19 @@
         <v>213</v>
       </c>
       <c r="B164" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C164" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D164" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E164" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="F164" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -4837,19 +4837,19 @@
         <v>214</v>
       </c>
       <c r="B165" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C165" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D165" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E165" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="F165" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -4857,19 +4857,19 @@
         <v>215</v>
       </c>
       <c r="B166" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C166" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D166" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E166" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F166" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -4877,19 +4877,19 @@
         <v>216</v>
       </c>
       <c r="B167" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C167" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D167" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E167" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="F167" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -4897,19 +4897,19 @@
         <v>217</v>
       </c>
       <c r="B168" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C168" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D168" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E168" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="F168" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -4917,19 +4917,19 @@
         <v>218</v>
       </c>
       <c r="B169" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C169" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D169" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="E169" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="F169" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -4937,19 +4937,19 @@
         <v>219</v>
       </c>
       <c r="B170" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C170" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D170" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E170" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="F170" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -4957,19 +4957,19 @@
         <v>220</v>
       </c>
       <c r="B171" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C171" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D171" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E171" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="F171" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -4977,19 +4977,19 @@
         <v>221</v>
       </c>
       <c r="B172" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C172" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D172" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E172" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="F172" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -4997,19 +4997,19 @@
         <v>222</v>
       </c>
       <c r="B173" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C173" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D173" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E173" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="F173" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -5017,19 +5017,19 @@
         <v>223</v>
       </c>
       <c r="B174" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C174" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D174" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E174" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="F174" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -5037,19 +5037,19 @@
         <v>224</v>
       </c>
       <c r="B175" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C175" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D175" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E175" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="F175" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -5057,19 +5057,19 @@
         <v>225</v>
       </c>
       <c r="B176" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C176" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D176" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="E176" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="F176" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -5120,7 +5120,7 @@
         <v>44</v>
       </c>
       <c r="C179" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="D179" t="s">
         <v>226</v>
@@ -5140,7 +5140,7 @@
         <v>44</v>
       </c>
       <c r="C180" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="D180" t="s">
         <v>226</v>
@@ -5166,10 +5166,10 @@
         <v>227</v>
       </c>
       <c r="E181" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="F181" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -5563,7 +5563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC24F54A-7C76-46A6-B550-1FB1A4C7C121}">
   <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE0ED51-DE1D-4D7F-925F-7E8E02D36772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B63963E-7EC2-4D4A-B5A5-E0220DDA8380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -1138,52 +1138,52 @@
     <t>17, 17, 17, 17, 17, 17, 1, 1</t>
   </si>
   <si>
-    <t>27.1, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>28.9, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>33.6, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>35.4, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>38.475, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>40.275, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>42.267, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>44.067, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>27.1, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>28.9, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>33.6, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>35.4, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>38.475, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>40.275, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>42.267, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>44.067, 1, 1, 1, 1, 1</t>
+    <t>18.7, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>20.5, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>23.25, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>25.05, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>26.6625, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>28.4625, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>29.317, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>31.117, 100, 2, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>18.7, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>20.5, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>23.25, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>25.05, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>26.6625, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>28.4625, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>29.317, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>31.117, 1, 1, 1, 1, 1</t>
   </si>
 </sst>
 </file>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B63963E-7EC2-4D4A-B5A5-E0220DDA8380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4F552E-24D4-4E6B-B304-5802E1A9E067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="441">
   <si>
     <t>dropId|String</t>
   </si>
@@ -1184,6 +1184,177 @@
   </si>
   <si>
     <t>31.117, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>c8003</t>
+  </si>
+  <si>
+    <t>2, 2, 5, 8, 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, , w, , </t>
+  </si>
+  <si>
+    <t>0.2, 0.02, 0.6666, 0.01, 0.001</t>
+  </si>
+  <si>
+    <t>100, 1000, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>200, 2000, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>c8004</t>
+  </si>
+  <si>
+    <t>c8005</t>
+  </si>
+  <si>
+    <t>c8006</t>
+  </si>
+  <si>
+    <t>c8007</t>
+  </si>
+  <si>
+    <t>c8008</t>
+  </si>
+  <si>
+    <t>c8009</t>
+  </si>
+  <si>
+    <t>c8010</t>
+  </si>
+  <si>
+    <t>c8011</t>
+  </si>
+  <si>
+    <t>c8012</t>
+  </si>
+  <si>
+    <t>c8013</t>
+  </si>
+  <si>
+    <t>c8014</t>
+  </si>
+  <si>
+    <t>c8015</t>
+  </si>
+  <si>
+    <t>c8016</t>
+  </si>
+  <si>
+    <t>c8017</t>
+  </si>
+  <si>
+    <t>c8018</t>
+  </si>
+  <si>
+    <t>c8019</t>
+  </si>
+  <si>
+    <t>c8020</t>
+  </si>
+  <si>
+    <t>c8021</t>
+  </si>
+  <si>
+    <t>c8022</t>
+  </si>
+  <si>
+    <t>c8023</t>
+  </si>
+  <si>
+    <t>c8024</t>
+  </si>
+  <si>
+    <t>c8025</t>
+  </si>
+  <si>
+    <t>c8026</t>
+  </si>
+  <si>
+    <t>c8027</t>
+  </si>
+  <si>
+    <t>c8028</t>
+  </si>
+  <si>
+    <t>c9003</t>
+  </si>
+  <si>
+    <t>c9004</t>
+  </si>
+  <si>
+    <t>c9005</t>
+  </si>
+  <si>
+    <t>c9006</t>
+  </si>
+  <si>
+    <t>c9007</t>
+  </si>
+  <si>
+    <t>c9008</t>
+  </si>
+  <si>
+    <t>c9009</t>
+  </si>
+  <si>
+    <t>c9010</t>
+  </si>
+  <si>
+    <t>c9011</t>
+  </si>
+  <si>
+    <t>c9012</t>
+  </si>
+  <si>
+    <t>c9013</t>
+  </si>
+  <si>
+    <t>c9014</t>
+  </si>
+  <si>
+    <t>c9015</t>
+  </si>
+  <si>
+    <t>c9016</t>
+  </si>
+  <si>
+    <t>c9017</t>
+  </si>
+  <si>
+    <t>c9018</t>
+  </si>
+  <si>
+    <t>c9019</t>
+  </si>
+  <si>
+    <t>c9020</t>
+  </si>
+  <si>
+    <t>c9021</t>
+  </si>
+  <si>
+    <t>c9022</t>
+  </si>
+  <si>
+    <t>c9023</t>
+  </si>
+  <si>
+    <t>c9024</t>
+  </si>
+  <si>
+    <t>c9025</t>
+  </si>
+  <si>
+    <t>c9026</t>
+  </si>
+  <si>
+    <t>c9027</t>
+  </si>
+  <si>
+    <t>c9028</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:F252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5074,481 +5245,1443 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>34</v>
-      </c>
-      <c r="B177">
-        <v>5</v>
+        <v>384</v>
+      </c>
+      <c r="B177" t="s">
+        <v>385</v>
       </c>
       <c r="C177" t="s">
-        <v>35</v>
-      </c>
-      <c r="D177">
-        <v>1</v>
-      </c>
-      <c r="E177">
-        <v>1</v>
-      </c>
-      <c r="F177">
-        <v>1</v>
+        <v>386</v>
+      </c>
+      <c r="D177" t="s">
+        <v>387</v>
+      </c>
+      <c r="E177" t="s">
+        <v>388</v>
+      </c>
+      <c r="F177" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>36</v>
+        <v>390</v>
       </c>
       <c r="B178" t="s">
-        <v>37</v>
+        <v>385</v>
       </c>
       <c r="C178" t="s">
-        <v>38</v>
+        <v>386</v>
       </c>
       <c r="D178" t="s">
-        <v>39</v>
+        <v>387</v>
       </c>
       <c r="E178" t="s">
-        <v>39</v>
+        <v>388</v>
       </c>
       <c r="F178" t="s">
-        <v>39</v>
+        <v>389</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>40</v>
+        <v>391</v>
       </c>
       <c r="B179" t="s">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="C179" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="D179" t="s">
-        <v>226</v>
+        <v>387</v>
       </c>
       <c r="E179" t="s">
-        <v>236</v>
+        <v>388</v>
       </c>
       <c r="F179" t="s">
-        <v>237</v>
+        <v>389</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>86</v>
+        <v>392</v>
       </c>
       <c r="B180" t="s">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="C180" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="D180" t="s">
-        <v>226</v>
+        <v>387</v>
       </c>
       <c r="E180" t="s">
-        <v>238</v>
+        <v>388</v>
       </c>
       <c r="F180" t="s">
-        <v>239</v>
+        <v>389</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>41</v>
+        <v>393</v>
       </c>
       <c r="B181" t="s">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="C181" t="s">
-        <v>46</v>
+        <v>386</v>
       </c>
       <c r="D181" t="s">
-        <v>227</v>
+        <v>387</v>
       </c>
       <c r="E181" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="F181" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>47</v>
-      </c>
-      <c r="B182">
-        <v>2</v>
-      </c>
-      <c r="C182">
-        <v>1</v>
-      </c>
-      <c r="D182">
-        <v>1</v>
-      </c>
-      <c r="E182">
-        <v>9999</v>
-      </c>
-      <c r="F182">
-        <v>9999</v>
+        <v>394</v>
+      </c>
+      <c r="B182" t="s">
+        <v>385</v>
+      </c>
+      <c r="C182" t="s">
+        <v>386</v>
+      </c>
+      <c r="D182" t="s">
+        <v>387</v>
+      </c>
+      <c r="E182" t="s">
+        <v>388</v>
+      </c>
+      <c r="F182" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>48</v>
-      </c>
-      <c r="B183">
-        <v>8</v>
-      </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-      <c r="D183">
-        <v>1</v>
-      </c>
-      <c r="E183">
-        <v>9999</v>
-      </c>
-      <c r="F183">
-        <v>9999</v>
+        <v>395</v>
+      </c>
+      <c r="B183" t="s">
+        <v>385</v>
+      </c>
+      <c r="C183" t="s">
+        <v>386</v>
+      </c>
+      <c r="D183" t="s">
+        <v>387</v>
+      </c>
+      <c r="E183" t="s">
+        <v>388</v>
+      </c>
+      <c r="F183" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>49</v>
+        <v>396</v>
       </c>
       <c r="B184" t="s">
-        <v>50</v>
+        <v>385</v>
       </c>
       <c r="C184" t="s">
-        <v>51</v>
+        <v>386</v>
       </c>
       <c r="D184" t="s">
-        <v>51</v>
+        <v>387</v>
       </c>
       <c r="E184" t="s">
-        <v>52</v>
+        <v>388</v>
       </c>
       <c r="F184" t="s">
-        <v>52</v>
+        <v>389</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>75</v>
-      </c>
-      <c r="B185">
-        <v>8</v>
-      </c>
-      <c r="C185">
-        <v>1</v>
-      </c>
-      <c r="D185">
-        <v>1</v>
-      </c>
-      <c r="E185">
-        <v>9999</v>
-      </c>
-      <c r="F185">
-        <v>9999</v>
+        <v>397</v>
+      </c>
+      <c r="B185" t="s">
+        <v>385</v>
+      </c>
+      <c r="C185" t="s">
+        <v>386</v>
+      </c>
+      <c r="D185" t="s">
+        <v>387</v>
+      </c>
+      <c r="E185" t="s">
+        <v>388</v>
+      </c>
+      <c r="F185" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>53</v>
+        <v>398</v>
       </c>
       <c r="B186" t="s">
-        <v>54</v>
+        <v>385</v>
       </c>
       <c r="C186" t="s">
-        <v>55</v>
+        <v>386</v>
       </c>
       <c r="D186" t="s">
-        <v>51</v>
+        <v>387</v>
       </c>
       <c r="E186" t="s">
-        <v>51</v>
+        <v>388</v>
       </c>
       <c r="F186" t="s">
-        <v>51</v>
+        <v>389</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>56</v>
+        <v>399</v>
       </c>
       <c r="B187" t="s">
-        <v>57</v>
+        <v>385</v>
       </c>
       <c r="C187" t="s">
-        <v>58</v>
+        <v>386</v>
       </c>
       <c r="D187" t="s">
-        <v>59</v>
+        <v>387</v>
       </c>
       <c r="E187" t="s">
-        <v>59</v>
+        <v>388</v>
       </c>
       <c r="F187" t="s">
-        <v>59</v>
+        <v>389</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="B188" t="s">
-        <v>61</v>
+        <v>385</v>
       </c>
       <c r="C188" t="s">
-        <v>62</v>
+        <v>386</v>
       </c>
       <c r="D188" t="s">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="E188" t="s">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="F188" t="s">
-        <v>20</v>
+        <v>389</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>63</v>
+        <v>401</v>
       </c>
       <c r="B189" t="s">
-        <v>64</v>
+        <v>385</v>
       </c>
       <c r="C189" t="s">
-        <v>65</v>
+        <v>386</v>
       </c>
       <c r="D189" t="s">
-        <v>66</v>
+        <v>387</v>
       </c>
       <c r="E189" t="s">
-        <v>66</v>
+        <v>388</v>
       </c>
       <c r="F189" t="s">
-        <v>66</v>
+        <v>389</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>67</v>
+        <v>402</v>
       </c>
       <c r="B190" t="s">
-        <v>68</v>
+        <v>385</v>
       </c>
       <c r="C190" t="s">
-        <v>69</v>
+        <v>386</v>
       </c>
       <c r="D190" t="s">
-        <v>70</v>
+        <v>387</v>
       </c>
       <c r="E190" t="s">
-        <v>70</v>
+        <v>388</v>
       </c>
       <c r="F190" t="s">
-        <v>70</v>
+        <v>389</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>71</v>
+        <v>403</v>
       </c>
       <c r="B191" t="s">
-        <v>72</v>
+        <v>385</v>
       </c>
       <c r="C191" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="D191" t="s">
-        <v>74</v>
+        <v>387</v>
       </c>
       <c r="E191" t="s">
-        <v>74</v>
+        <v>388</v>
       </c>
       <c r="F191" t="s">
-        <v>74</v>
+        <v>389</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>76</v>
-      </c>
-      <c r="B192">
-        <v>9</v>
+        <v>404</v>
+      </c>
+      <c r="B192" t="s">
+        <v>385</v>
       </c>
       <c r="C192" t="s">
-        <v>77</v>
-      </c>
-      <c r="D192">
-        <v>1</v>
-      </c>
-      <c r="E192">
-        <v>1</v>
-      </c>
-      <c r="F192">
-        <v>1</v>
+        <v>386</v>
+      </c>
+      <c r="D192" t="s">
+        <v>387</v>
+      </c>
+      <c r="E192" t="s">
+        <v>388</v>
+      </c>
+      <c r="F192" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>78</v>
-      </c>
-      <c r="B193">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="B193" t="s">
+        <v>385</v>
       </c>
       <c r="C193" t="s">
-        <v>79</v>
-      </c>
-      <c r="D193">
-        <v>1</v>
-      </c>
-      <c r="E193">
-        <v>1</v>
-      </c>
-      <c r="F193">
-        <v>1</v>
+        <v>386</v>
+      </c>
+      <c r="D193" t="s">
+        <v>387</v>
+      </c>
+      <c r="E193" t="s">
+        <v>388</v>
+      </c>
+      <c r="F193" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>80</v>
-      </c>
-      <c r="B194">
-        <v>5</v>
+        <v>406</v>
+      </c>
+      <c r="B194" t="s">
+        <v>385</v>
       </c>
       <c r="C194" t="s">
-        <v>81</v>
-      </c>
-      <c r="D194">
-        <v>1</v>
-      </c>
-      <c r="E194">
-        <v>1</v>
-      </c>
-      <c r="F194">
-        <v>1</v>
+        <v>386</v>
+      </c>
+      <c r="D194" t="s">
+        <v>387</v>
+      </c>
+      <c r="E194" t="s">
+        <v>388</v>
+      </c>
+      <c r="F194" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>82</v>
-      </c>
-      <c r="B195">
-        <v>5</v>
+        <v>407</v>
+      </c>
+      <c r="B195" t="s">
+        <v>385</v>
       </c>
       <c r="C195" t="s">
-        <v>83</v>
-      </c>
-      <c r="D195">
-        <v>1</v>
-      </c>
-      <c r="E195">
-        <v>1</v>
-      </c>
-      <c r="F195">
-        <v>1</v>
+        <v>386</v>
+      </c>
+      <c r="D195" t="s">
+        <v>387</v>
+      </c>
+      <c r="E195" t="s">
+        <v>388</v>
+      </c>
+      <c r="F195" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>84</v>
-      </c>
-      <c r="B196">
-        <v>5</v>
+        <v>408</v>
+      </c>
+      <c r="B196" t="s">
+        <v>385</v>
       </c>
       <c r="C196" t="s">
-        <v>85</v>
-      </c>
-      <c r="D196">
-        <v>1</v>
-      </c>
-      <c r="E196">
-        <v>1</v>
-      </c>
-      <c r="F196">
-        <v>1</v>
+        <v>386</v>
+      </c>
+      <c r="D196" t="s">
+        <v>387</v>
+      </c>
+      <c r="E196" t="s">
+        <v>388</v>
+      </c>
+      <c r="F196" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>87</v>
-      </c>
-      <c r="B197">
-        <v>5</v>
+        <v>409</v>
+      </c>
+      <c r="B197" t="s">
+        <v>385</v>
       </c>
       <c r="C197" t="s">
-        <v>228</v>
-      </c>
-      <c r="D197">
-        <v>1</v>
-      </c>
-      <c r="E197">
-        <v>1</v>
-      </c>
-      <c r="F197">
-        <v>1</v>
+        <v>386</v>
+      </c>
+      <c r="D197" t="s">
+        <v>387</v>
+      </c>
+      <c r="E197" t="s">
+        <v>388</v>
+      </c>
+      <c r="F197" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>88</v>
+        <v>410</v>
       </c>
       <c r="B198" t="s">
-        <v>54</v>
+        <v>385</v>
       </c>
       <c r="C198" t="s">
-        <v>229</v>
+        <v>386</v>
       </c>
       <c r="D198" t="s">
-        <v>51</v>
+        <v>387</v>
       </c>
       <c r="E198" t="s">
-        <v>51</v>
+        <v>388</v>
       </c>
       <c r="F198" t="s">
-        <v>51</v>
+        <v>389</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>89</v>
+        <v>411</v>
       </c>
       <c r="B199" t="s">
-        <v>57</v>
+        <v>385</v>
       </c>
       <c r="C199" t="s">
-        <v>230</v>
+        <v>386</v>
       </c>
       <c r="D199" t="s">
-        <v>59</v>
+        <v>387</v>
       </c>
       <c r="E199" t="s">
-        <v>59</v>
+        <v>388</v>
       </c>
       <c r="F199" t="s">
-        <v>59</v>
+        <v>389</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
+        <v>412</v>
+      </c>
+      <c r="B200" t="s">
+        <v>385</v>
+      </c>
+      <c r="C200" t="s">
+        <v>386</v>
+      </c>
+      <c r="D200" t="s">
+        <v>387</v>
+      </c>
+      <c r="E200" t="s">
+        <v>388</v>
+      </c>
+      <c r="F200" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>413</v>
+      </c>
+      <c r="B201" t="s">
+        <v>385</v>
+      </c>
+      <c r="C201" t="s">
+        <v>386</v>
+      </c>
+      <c r="D201" t="s">
+        <v>387</v>
+      </c>
+      <c r="E201" t="s">
+        <v>388</v>
+      </c>
+      <c r="F201" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>414</v>
+      </c>
+      <c r="B202" t="s">
+        <v>385</v>
+      </c>
+      <c r="C202" t="s">
+        <v>386</v>
+      </c>
+      <c r="D202" t="s">
+        <v>387</v>
+      </c>
+      <c r="E202" t="s">
+        <v>388</v>
+      </c>
+      <c r="F202" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>415</v>
+      </c>
+      <c r="B203">
+        <v>2</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>100</v>
+      </c>
+      <c r="F203">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>416</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>100</v>
+      </c>
+      <c r="F204">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>417</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>100</v>
+      </c>
+      <c r="F205">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>418</v>
+      </c>
+      <c r="B206">
+        <v>2</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>100</v>
+      </c>
+      <c r="F206">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>419</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>100</v>
+      </c>
+      <c r="F207">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>420</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>100</v>
+      </c>
+      <c r="F208">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>421</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>100</v>
+      </c>
+      <c r="F209">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>422</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>100</v>
+      </c>
+      <c r="F210">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>423</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>100</v>
+      </c>
+      <c r="F211">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>424</v>
+      </c>
+      <c r="B212">
+        <v>2</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212">
+        <v>100</v>
+      </c>
+      <c r="F212">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>425</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213">
+        <v>100</v>
+      </c>
+      <c r="F213">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>426</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="E214">
+        <v>100</v>
+      </c>
+      <c r="F214">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>427</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215">
+        <v>100</v>
+      </c>
+      <c r="F215">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>428</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216">
+        <v>100</v>
+      </c>
+      <c r="F216">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>429</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217">
+        <v>100</v>
+      </c>
+      <c r="F217">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>430</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>100</v>
+      </c>
+      <c r="F218">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>431</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <v>100</v>
+      </c>
+      <c r="F219">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>432</v>
+      </c>
+      <c r="B220">
+        <v>2</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>100</v>
+      </c>
+      <c r="F220">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>433</v>
+      </c>
+      <c r="B221">
+        <v>2</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>100</v>
+      </c>
+      <c r="F221">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>434</v>
+      </c>
+      <c r="B222">
+        <v>2</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>100</v>
+      </c>
+      <c r="F222">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>435</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>100</v>
+      </c>
+      <c r="F223">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>436</v>
+      </c>
+      <c r="B224">
+        <v>2</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>100</v>
+      </c>
+      <c r="F224">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>437</v>
+      </c>
+      <c r="B225">
+        <v>2</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>100</v>
+      </c>
+      <c r="F225">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>438</v>
+      </c>
+      <c r="B226">
+        <v>2</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>100</v>
+      </c>
+      <c r="F226">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>439</v>
+      </c>
+      <c r="B227">
+        <v>2</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>100</v>
+      </c>
+      <c r="F227">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>440</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>100</v>
+      </c>
+      <c r="F228">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>34</v>
+      </c>
+      <c r="B229">
+        <v>5</v>
+      </c>
+      <c r="C229" t="s">
+        <v>35</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>36</v>
+      </c>
+      <c r="B230" t="s">
+        <v>37</v>
+      </c>
+      <c r="C230" t="s">
+        <v>38</v>
+      </c>
+      <c r="D230" t="s">
+        <v>39</v>
+      </c>
+      <c r="E230" t="s">
+        <v>39</v>
+      </c>
+      <c r="F230" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>40</v>
+      </c>
+      <c r="B231" t="s">
+        <v>44</v>
+      </c>
+      <c r="C231" t="s">
+        <v>364</v>
+      </c>
+      <c r="D231" t="s">
+        <v>226</v>
+      </c>
+      <c r="E231" t="s">
+        <v>236</v>
+      </c>
+      <c r="F231" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>86</v>
+      </c>
+      <c r="B232" t="s">
+        <v>44</v>
+      </c>
+      <c r="C232" t="s">
+        <v>365</v>
+      </c>
+      <c r="D232" t="s">
+        <v>226</v>
+      </c>
+      <c r="E232" t="s">
+        <v>238</v>
+      </c>
+      <c r="F232" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>41</v>
+      </c>
+      <c r="B233" t="s">
+        <v>45</v>
+      </c>
+      <c r="C233" t="s">
+        <v>46</v>
+      </c>
+      <c r="D233" t="s">
+        <v>227</v>
+      </c>
+      <c r="E233" t="s">
+        <v>366</v>
+      </c>
+      <c r="F233" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>47</v>
+      </c>
+      <c r="B234">
+        <v>2</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>9999</v>
+      </c>
+      <c r="F234">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>48</v>
+      </c>
+      <c r="B235">
+        <v>8</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>9999</v>
+      </c>
+      <c r="F235">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>49</v>
+      </c>
+      <c r="B236" t="s">
+        <v>50</v>
+      </c>
+      <c r="C236" t="s">
+        <v>51</v>
+      </c>
+      <c r="D236" t="s">
+        <v>51</v>
+      </c>
+      <c r="E236" t="s">
+        <v>52</v>
+      </c>
+      <c r="F236" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>75</v>
+      </c>
+      <c r="B237">
+        <v>8</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>9999</v>
+      </c>
+      <c r="F237">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>53</v>
+      </c>
+      <c r="B238" t="s">
+        <v>54</v>
+      </c>
+      <c r="C238" t="s">
+        <v>55</v>
+      </c>
+      <c r="D238" t="s">
+        <v>51</v>
+      </c>
+      <c r="E238" t="s">
+        <v>51</v>
+      </c>
+      <c r="F238" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>56</v>
+      </c>
+      <c r="B239" t="s">
+        <v>57</v>
+      </c>
+      <c r="C239" t="s">
+        <v>58</v>
+      </c>
+      <c r="D239" t="s">
+        <v>59</v>
+      </c>
+      <c r="E239" t="s">
+        <v>59</v>
+      </c>
+      <c r="F239" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>60</v>
+      </c>
+      <c r="B240" t="s">
+        <v>61</v>
+      </c>
+      <c r="C240" t="s">
+        <v>62</v>
+      </c>
+      <c r="D240" t="s">
+        <v>20</v>
+      </c>
+      <c r="E240" t="s">
+        <v>20</v>
+      </c>
+      <c r="F240" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>63</v>
+      </c>
+      <c r="B241" t="s">
+        <v>64</v>
+      </c>
+      <c r="C241" t="s">
+        <v>65</v>
+      </c>
+      <c r="D241" t="s">
+        <v>66</v>
+      </c>
+      <c r="E241" t="s">
+        <v>66</v>
+      </c>
+      <c r="F241" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>67</v>
+      </c>
+      <c r="B242" t="s">
+        <v>68</v>
+      </c>
+      <c r="C242" t="s">
+        <v>69</v>
+      </c>
+      <c r="D242" t="s">
+        <v>70</v>
+      </c>
+      <c r="E242" t="s">
+        <v>70</v>
+      </c>
+      <c r="F242" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>71</v>
+      </c>
+      <c r="B243" t="s">
+        <v>72</v>
+      </c>
+      <c r="C243" t="s">
+        <v>73</v>
+      </c>
+      <c r="D243" t="s">
+        <v>74</v>
+      </c>
+      <c r="E243" t="s">
+        <v>74</v>
+      </c>
+      <c r="F243" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>76</v>
+      </c>
+      <c r="B244">
+        <v>9</v>
+      </c>
+      <c r="C244" t="s">
+        <v>77</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>78</v>
+      </c>
+      <c r="B245">
+        <v>9</v>
+      </c>
+      <c r="C245" t="s">
+        <v>79</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>80</v>
+      </c>
+      <c r="B246">
+        <v>5</v>
+      </c>
+      <c r="C246" t="s">
+        <v>81</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>82</v>
+      </c>
+      <c r="B247">
+        <v>5</v>
+      </c>
+      <c r="C247" t="s">
+        <v>83</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>84</v>
+      </c>
+      <c r="B248">
+        <v>5</v>
+      </c>
+      <c r="C248" t="s">
+        <v>85</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>87</v>
+      </c>
+      <c r="B249">
+        <v>5</v>
+      </c>
+      <c r="C249" t="s">
+        <v>228</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>88</v>
+      </c>
+      <c r="B250" t="s">
+        <v>54</v>
+      </c>
+      <c r="C250" t="s">
+        <v>229</v>
+      </c>
+      <c r="D250" t="s">
+        <v>51</v>
+      </c>
+      <c r="E250" t="s">
+        <v>51</v>
+      </c>
+      <c r="F250" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>89</v>
+      </c>
+      <c r="B251" t="s">
+        <v>57</v>
+      </c>
+      <c r="C251" t="s">
+        <v>230</v>
+      </c>
+      <c r="D251" t="s">
+        <v>59</v>
+      </c>
+      <c r="E251" t="s">
+        <v>59</v>
+      </c>
+      <c r="F251" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
         <v>90</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B252" t="s">
         <v>61</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C252" t="s">
         <v>231</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D252" t="s">
         <v>20</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E252" t="s">
         <v>20</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F252" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4F552E-24D4-4E6B-B304-5802E1A9E067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416A3FAA-B084-4EAC-9ECF-D5F1DD73D4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -1195,15 +1195,9 @@
     <t xml:space="preserve">, , w, , </t>
   </si>
   <si>
-    <t>0.2, 0.02, 0.6666, 0.01, 0.001</t>
-  </si>
-  <si>
     <t>100, 1000, 1, 1, 1</t>
   </si>
   <si>
-    <t>200, 2000, 1, 1, 1</t>
-  </si>
-  <si>
     <t>c8004</t>
   </si>
   <si>
@@ -1355,6 +1349,12 @@
   </si>
   <si>
     <t>c9028</t>
+  </si>
+  <si>
+    <t>0.8, 0.02, 0.8, 0.01, 0.001</t>
+  </si>
+  <si>
+    <t>300, 1900, 1, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -5254,18 +5254,18 @@
         <v>386</v>
       </c>
       <c r="D177" t="s">
+        <v>439</v>
+      </c>
+      <c r="E177" t="s">
         <v>387</v>
       </c>
-      <c r="E177" t="s">
-        <v>388</v>
-      </c>
       <c r="F177" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B178" t="s">
         <v>385</v>
@@ -5274,18 +5274,18 @@
         <v>386</v>
       </c>
       <c r="D178" t="s">
+        <v>439</v>
+      </c>
+      <c r="E178" t="s">
         <v>387</v>
       </c>
-      <c r="E178" t="s">
-        <v>388</v>
-      </c>
       <c r="F178" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B179" t="s">
         <v>385</v>
@@ -5294,18 +5294,18 @@
         <v>386</v>
       </c>
       <c r="D179" t="s">
+        <v>439</v>
+      </c>
+      <c r="E179" t="s">
         <v>387</v>
       </c>
-      <c r="E179" t="s">
-        <v>388</v>
-      </c>
       <c r="F179" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B180" t="s">
         <v>385</v>
@@ -5314,18 +5314,18 @@
         <v>386</v>
       </c>
       <c r="D180" t="s">
+        <v>439</v>
+      </c>
+      <c r="E180" t="s">
         <v>387</v>
       </c>
-      <c r="E180" t="s">
-        <v>388</v>
-      </c>
       <c r="F180" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B181" t="s">
         <v>385</v>
@@ -5334,18 +5334,18 @@
         <v>386</v>
       </c>
       <c r="D181" t="s">
+        <v>439</v>
+      </c>
+      <c r="E181" t="s">
         <v>387</v>
       </c>
-      <c r="E181" t="s">
-        <v>388</v>
-      </c>
       <c r="F181" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B182" t="s">
         <v>385</v>
@@ -5354,18 +5354,18 @@
         <v>386</v>
       </c>
       <c r="D182" t="s">
+        <v>439</v>
+      </c>
+      <c r="E182" t="s">
         <v>387</v>
       </c>
-      <c r="E182" t="s">
-        <v>388</v>
-      </c>
       <c r="F182" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B183" t="s">
         <v>385</v>
@@ -5374,18 +5374,18 @@
         <v>386</v>
       </c>
       <c r="D183" t="s">
+        <v>439</v>
+      </c>
+      <c r="E183" t="s">
         <v>387</v>
       </c>
-      <c r="E183" t="s">
-        <v>388</v>
-      </c>
       <c r="F183" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B184" t="s">
         <v>385</v>
@@ -5394,18 +5394,18 @@
         <v>386</v>
       </c>
       <c r="D184" t="s">
+        <v>439</v>
+      </c>
+      <c r="E184" t="s">
         <v>387</v>
       </c>
-      <c r="E184" t="s">
-        <v>388</v>
-      </c>
       <c r="F184" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B185" t="s">
         <v>385</v>
@@ -5414,18 +5414,18 @@
         <v>386</v>
       </c>
       <c r="D185" t="s">
+        <v>439</v>
+      </c>
+      <c r="E185" t="s">
         <v>387</v>
       </c>
-      <c r="E185" t="s">
-        <v>388</v>
-      </c>
       <c r="F185" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B186" t="s">
         <v>385</v>
@@ -5434,18 +5434,18 @@
         <v>386</v>
       </c>
       <c r="D186" t="s">
+        <v>439</v>
+      </c>
+      <c r="E186" t="s">
         <v>387</v>
       </c>
-      <c r="E186" t="s">
-        <v>388</v>
-      </c>
       <c r="F186" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B187" t="s">
         <v>385</v>
@@ -5454,18 +5454,18 @@
         <v>386</v>
       </c>
       <c r="D187" t="s">
+        <v>439</v>
+      </c>
+      <c r="E187" t="s">
         <v>387</v>
       </c>
-      <c r="E187" t="s">
-        <v>388</v>
-      </c>
       <c r="F187" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B188" t="s">
         <v>385</v>
@@ -5474,18 +5474,18 @@
         <v>386</v>
       </c>
       <c r="D188" t="s">
+        <v>439</v>
+      </c>
+      <c r="E188" t="s">
         <v>387</v>
       </c>
-      <c r="E188" t="s">
-        <v>388</v>
-      </c>
       <c r="F188" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B189" t="s">
         <v>385</v>
@@ -5494,18 +5494,18 @@
         <v>386</v>
       </c>
       <c r="D189" t="s">
+        <v>439</v>
+      </c>
+      <c r="E189" t="s">
         <v>387</v>
       </c>
-      <c r="E189" t="s">
-        <v>388</v>
-      </c>
       <c r="F189" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B190" t="s">
         <v>385</v>
@@ -5514,18 +5514,18 @@
         <v>386</v>
       </c>
       <c r="D190" t="s">
+        <v>439</v>
+      </c>
+      <c r="E190" t="s">
         <v>387</v>
       </c>
-      <c r="E190" t="s">
-        <v>388</v>
-      </c>
       <c r="F190" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B191" t="s">
         <v>385</v>
@@ -5534,18 +5534,18 @@
         <v>386</v>
       </c>
       <c r="D191" t="s">
+        <v>439</v>
+      </c>
+      <c r="E191" t="s">
         <v>387</v>
       </c>
-      <c r="E191" t="s">
-        <v>388</v>
-      </c>
       <c r="F191" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B192" t="s">
         <v>385</v>
@@ -5554,18 +5554,18 @@
         <v>386</v>
       </c>
       <c r="D192" t="s">
+        <v>439</v>
+      </c>
+      <c r="E192" t="s">
         <v>387</v>
       </c>
-      <c r="E192" t="s">
-        <v>388</v>
-      </c>
       <c r="F192" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B193" t="s">
         <v>385</v>
@@ -5574,18 +5574,18 @@
         <v>386</v>
       </c>
       <c r="D193" t="s">
+        <v>439</v>
+      </c>
+      <c r="E193" t="s">
         <v>387</v>
       </c>
-      <c r="E193" t="s">
-        <v>388</v>
-      </c>
       <c r="F193" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B194" t="s">
         <v>385</v>
@@ -5594,18 +5594,18 @@
         <v>386</v>
       </c>
       <c r="D194" t="s">
+        <v>439</v>
+      </c>
+      <c r="E194" t="s">
         <v>387</v>
       </c>
-      <c r="E194" t="s">
-        <v>388</v>
-      </c>
       <c r="F194" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B195" t="s">
         <v>385</v>
@@ -5614,18 +5614,18 @@
         <v>386</v>
       </c>
       <c r="D195" t="s">
+        <v>439</v>
+      </c>
+      <c r="E195" t="s">
         <v>387</v>
       </c>
-      <c r="E195" t="s">
-        <v>388</v>
-      </c>
       <c r="F195" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B196" t="s">
         <v>385</v>
@@ -5634,18 +5634,18 @@
         <v>386</v>
       </c>
       <c r="D196" t="s">
+        <v>439</v>
+      </c>
+      <c r="E196" t="s">
         <v>387</v>
       </c>
-      <c r="E196" t="s">
-        <v>388</v>
-      </c>
       <c r="F196" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B197" t="s">
         <v>385</v>
@@ -5654,18 +5654,18 @@
         <v>386</v>
       </c>
       <c r="D197" t="s">
+        <v>439</v>
+      </c>
+      <c r="E197" t="s">
         <v>387</v>
       </c>
-      <c r="E197" t="s">
-        <v>388</v>
-      </c>
       <c r="F197" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B198" t="s">
         <v>385</v>
@@ -5674,18 +5674,18 @@
         <v>386</v>
       </c>
       <c r="D198" t="s">
+        <v>439</v>
+      </c>
+      <c r="E198" t="s">
         <v>387</v>
       </c>
-      <c r="E198" t="s">
-        <v>388</v>
-      </c>
       <c r="F198" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B199" t="s">
         <v>385</v>
@@ -5694,18 +5694,18 @@
         <v>386</v>
       </c>
       <c r="D199" t="s">
+        <v>439</v>
+      </c>
+      <c r="E199" t="s">
         <v>387</v>
       </c>
-      <c r="E199" t="s">
-        <v>388</v>
-      </c>
       <c r="F199" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B200" t="s">
         <v>385</v>
@@ -5714,18 +5714,18 @@
         <v>386</v>
       </c>
       <c r="D200" t="s">
+        <v>439</v>
+      </c>
+      <c r="E200" t="s">
         <v>387</v>
       </c>
-      <c r="E200" t="s">
-        <v>388</v>
-      </c>
       <c r="F200" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B201" t="s">
         <v>385</v>
@@ -5734,18 +5734,18 @@
         <v>386</v>
       </c>
       <c r="D201" t="s">
+        <v>439</v>
+      </c>
+      <c r="E201" t="s">
         <v>387</v>
       </c>
-      <c r="E201" t="s">
-        <v>388</v>
-      </c>
       <c r="F201" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B202" t="s">
         <v>385</v>
@@ -5754,18 +5754,18 @@
         <v>386</v>
       </c>
       <c r="D202" t="s">
+        <v>439</v>
+      </c>
+      <c r="E202" t="s">
         <v>387</v>
       </c>
-      <c r="E202" t="s">
-        <v>388</v>
-      </c>
       <c r="F202" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B203">
         <v>2</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B204">
         <v>2</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B206">
         <v>2</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B207">
         <v>2</v>
@@ -5850,7 +5850,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B208">
         <v>2</v>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B209">
         <v>2</v>
@@ -5884,7 +5884,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -5901,7 +5901,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -5918,7 +5918,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B212">
         <v>2</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B213">
         <v>2</v>
@@ -5952,7 +5952,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B215">
         <v>2</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -6003,7 +6003,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B217">
         <v>2</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B218">
         <v>2</v>
@@ -6037,7 +6037,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B219">
         <v>2</v>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B220">
         <v>2</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B221">
         <v>2</v>
@@ -6088,7 +6088,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B223">
         <v>2</v>
@@ -6122,7 +6122,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B224">
         <v>2</v>
@@ -6139,7 +6139,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B225">
         <v>2</v>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B226">
         <v>2</v>
@@ -6173,7 +6173,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B227">
         <v>2</v>
@@ -6190,7 +6190,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B228">
         <v>2</v>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416A3FAA-B084-4EAC-9ECF-D5F1DD73D4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713CB47A-53F4-41B8-9D4B-0907844870F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="450">
   <si>
     <t>dropId|String</t>
   </si>
@@ -718,18 +718,6 @@
     <t>1, 1, 1, 1, 1, 1, 0.046, 0.046</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>k, k</t>
-  </si>
-  <si>
-    <t>k, k, k</t>
-  </si>
-  <si>
-    <t>k, k, k, k</t>
-  </si>
-  <si>
     <t>1, 1, 1, 1, 1, 0.2</t>
   </si>
   <si>
@@ -1355,6 +1343,45 @@
   </si>
   <si>
     <t>300, 1900, 1, 1, 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t>2, 2, 5</t>
+  </si>
+  <si>
+    <t>, , k</t>
+  </si>
+  <si>
+    <t>9, 9, 1</t>
+  </si>
+  <si>
+    <t>2, 2, 5, 5</t>
+  </si>
+  <si>
+    <t>, , k, k</t>
+  </si>
+  <si>
+    <t>9, 9, 1, 1</t>
+  </si>
+  <si>
+    <t>2, 2, 5, 5, 5</t>
+  </si>
+  <si>
+    <t>, , k, k, k</t>
+  </si>
+  <si>
+    <t>9, 9, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>2, 2, 5, 5, 5, 5</t>
+  </si>
+  <si>
+    <t>, , k, k, k, k</t>
+  </si>
+  <si>
+    <t>9, 9, 1, 1, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -2380,7 +2407,7 @@
         <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E33" t="s">
         <v>24</v>
@@ -2394,19 +2421,19 @@
         <v>5002</v>
       </c>
       <c r="B34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" t="s">
+        <v>239</v>
+      </c>
+      <c r="F34" t="s">
         <v>240</v>
-      </c>
-      <c r="C34" t="s">
-        <v>241</v>
-      </c>
-      <c r="D34" t="s">
-        <v>242</v>
-      </c>
-      <c r="E34" t="s">
-        <v>243</v>
-      </c>
-      <c r="F34" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2414,19 +2441,19 @@
         <v>5003</v>
       </c>
       <c r="B35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C35" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" t="s">
         <v>241</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>242</v>
-      </c>
-      <c r="E35" t="s">
-        <v>245</v>
-      </c>
-      <c r="F35" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2434,19 +2461,19 @@
         <v>5004</v>
       </c>
       <c r="B36" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C36" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D36" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E36" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F36" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2454,19 +2481,19 @@
         <v>5005</v>
       </c>
       <c r="B37" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D37" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" t="s">
+        <v>246</v>
+      </c>
+      <c r="F37" t="s">
         <v>247</v>
-      </c>
-      <c r="E37" t="s">
-        <v>250</v>
-      </c>
-      <c r="F37" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2474,19 +2501,19 @@
         <v>5006</v>
       </c>
       <c r="B38" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C38" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D38" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E38" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F38" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2494,19 +2521,19 @@
         <v>5007</v>
       </c>
       <c r="B39" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C39" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D39" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E39" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F39" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2514,19 +2541,19 @@
         <v>5008</v>
       </c>
       <c r="B40" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C40" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D40" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E40" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F40" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2534,19 +2561,19 @@
         <v>5009</v>
       </c>
       <c r="B41" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C41" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D41" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E41" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F41" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2554,19 +2581,19 @@
         <v>5010</v>
       </c>
       <c r="B42" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D42" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E42" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F42" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2574,19 +2601,19 @@
         <v>5011</v>
       </c>
       <c r="B43" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C43" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D43" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F43" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2594,19 +2621,19 @@
         <v>5012</v>
       </c>
       <c r="B44" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C44" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D44" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E44" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F44" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2614,19 +2641,19 @@
         <v>5013</v>
       </c>
       <c r="B45" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C45" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D45" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E45" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F45" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2634,19 +2661,19 @@
         <v>5014</v>
       </c>
       <c r="B46" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C46" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D46" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E46" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F46" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2654,19 +2681,19 @@
         <v>5015</v>
       </c>
       <c r="B47" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C47" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D47" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E47" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F47" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2674,19 +2701,19 @@
         <v>5016</v>
       </c>
       <c r="B48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C48" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D48" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E48" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F48" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2694,19 +2721,19 @@
         <v>5017</v>
       </c>
       <c r="B49" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C49" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D49" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E49" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F49" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2714,19 +2741,19 @@
         <v>5018</v>
       </c>
       <c r="B50" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C50" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D50" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E50" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F50" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2734,19 +2761,19 @@
         <v>5019</v>
       </c>
       <c r="B51" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C51" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D51" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E51" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F51" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2754,19 +2781,19 @@
         <v>5020</v>
       </c>
       <c r="B52" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C52" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D52" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E52" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F52" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2774,19 +2801,19 @@
         <v>5021</v>
       </c>
       <c r="B53" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C53" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D53" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E53" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F53" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2794,19 +2821,19 @@
         <v>5022</v>
       </c>
       <c r="B54" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C54" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D54" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E54" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F54" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2814,19 +2841,19 @@
         <v>5023</v>
       </c>
       <c r="B55" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C55" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D55" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E55" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F55" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2834,19 +2861,19 @@
         <v>5024</v>
       </c>
       <c r="B56" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C56" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D56" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E56" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F56" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2854,19 +2881,19 @@
         <v>5025</v>
       </c>
       <c r="B57" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C57" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D57" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E57" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F57" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2874,19 +2901,19 @@
         <v>5026</v>
       </c>
       <c r="B58" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C58" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D58" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E58" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F58" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2894,19 +2921,19 @@
         <v>5027</v>
       </c>
       <c r="B59" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C59" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D59" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E59" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F59" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2914,19 +2941,19 @@
         <v>5028</v>
       </c>
       <c r="B60" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C60" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D60" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E60" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F60" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2957,7 +2984,7 @@
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E62" t="s">
         <v>27</v>
@@ -2971,19 +2998,19 @@
         <v>6002</v>
       </c>
       <c r="B63" t="s">
+        <v>289</v>
+      </c>
+      <c r="C63" t="s">
+        <v>290</v>
+      </c>
+      <c r="D63" t="s">
+        <v>291</v>
+      </c>
+      <c r="E63" t="s">
+        <v>292</v>
+      </c>
+      <c r="F63" t="s">
         <v>293</v>
-      </c>
-      <c r="C63" t="s">
-        <v>294</v>
-      </c>
-      <c r="D63" t="s">
-        <v>295</v>
-      </c>
-      <c r="E63" t="s">
-        <v>296</v>
-      </c>
-      <c r="F63" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2991,19 +3018,19 @@
         <v>6003</v>
       </c>
       <c r="B64" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C64" t="s">
+        <v>290</v>
+      </c>
+      <c r="D64" t="s">
+        <v>291</v>
+      </c>
+      <c r="E64" t="s">
         <v>294</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
         <v>295</v>
-      </c>
-      <c r="E64" t="s">
-        <v>298</v>
-      </c>
-      <c r="F64" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -3011,19 +3038,19 @@
         <v>6004</v>
       </c>
       <c r="B65" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C65" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D65" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E65" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F65" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -3031,19 +3058,19 @@
         <v>6005</v>
       </c>
       <c r="B66" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C66" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D66" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E66" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F66" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -3051,19 +3078,19 @@
         <v>6006</v>
       </c>
       <c r="B67" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C67" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D67" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E67" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F67" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3071,19 +3098,19 @@
         <v>6007</v>
       </c>
       <c r="B68" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C68" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D68" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E68" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F68" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -3091,19 +3118,19 @@
         <v>6008</v>
       </c>
       <c r="B69" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C69" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D69" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E69" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F69" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -3111,19 +3138,19 @@
         <v>6009</v>
       </c>
       <c r="B70" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C70" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D70" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E70" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F70" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3131,19 +3158,19 @@
         <v>6010</v>
       </c>
       <c r="B71" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C71" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D71" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E71" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F71" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3151,16 +3178,16 @@
         <v>6011</v>
       </c>
       <c r="B72" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C72" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D72" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E72" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F72" t="s">
         <v>74</v>
@@ -3171,19 +3198,19 @@
         <v>6012</v>
       </c>
       <c r="B73" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C73" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D73" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E73" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F73" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3191,19 +3218,19 @@
         <v>6013</v>
       </c>
       <c r="B74" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C74" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D74" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E74" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F74" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3211,19 +3238,19 @@
         <v>6014</v>
       </c>
       <c r="B75" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C75" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D75" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E75" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F75" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3231,19 +3258,19 @@
         <v>6015</v>
       </c>
       <c r="B76" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C76" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D76" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E76" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F76" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3251,19 +3278,19 @@
         <v>6016</v>
       </c>
       <c r="B77" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C77" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D77" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E77" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F77" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3271,19 +3298,19 @@
         <v>6017</v>
       </c>
       <c r="B78" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C78" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D78" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E78" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F78" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3291,19 +3318,19 @@
         <v>6018</v>
       </c>
       <c r="B79" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C79" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D79" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E79" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F79" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3311,19 +3338,19 @@
         <v>6019</v>
       </c>
       <c r="B80" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C80" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D80" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E80" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F80" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3331,19 +3358,19 @@
         <v>6020</v>
       </c>
       <c r="B81" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C81" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D81" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E81" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F81" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3351,19 +3378,19 @@
         <v>6021</v>
       </c>
       <c r="B82" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C82" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D82" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E82" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F82" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3371,19 +3398,19 @@
         <v>6022</v>
       </c>
       <c r="B83" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C83" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D83" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E83" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F83" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3391,19 +3418,19 @@
         <v>6023</v>
       </c>
       <c r="B84" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C84" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D84" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E84" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F84" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3411,19 +3438,19 @@
         <v>6024</v>
       </c>
       <c r="B85" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C85" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D85" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E85" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F85" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3431,19 +3458,19 @@
         <v>6025</v>
       </c>
       <c r="B86" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C86" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D86" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E86" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F86" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3451,19 +3478,19 @@
         <v>6026</v>
       </c>
       <c r="B87" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C87" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D87" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E87" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F87" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3471,19 +3498,19 @@
         <v>6027</v>
       </c>
       <c r="B88" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C88" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D88" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E88" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F88" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3491,19 +3518,19 @@
         <v>6028</v>
       </c>
       <c r="B89" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C89" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D89" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E89" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F89" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -4117,7 +4144,7 @@
         <v>33</v>
       </c>
       <c r="D120" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E120" t="s">
         <v>24</v>
@@ -4131,19 +4158,19 @@
         <v>101</v>
       </c>
       <c r="B121" t="s">
+        <v>236</v>
+      </c>
+      <c r="C121" t="s">
+        <v>237</v>
+      </c>
+      <c r="D121" t="s">
+        <v>340</v>
+      </c>
+      <c r="E121" t="s">
+        <v>239</v>
+      </c>
+      <c r="F121" t="s">
         <v>240</v>
-      </c>
-      <c r="C121" t="s">
-        <v>241</v>
-      </c>
-      <c r="D121" t="s">
-        <v>344</v>
-      </c>
-      <c r="E121" t="s">
-        <v>243</v>
-      </c>
-      <c r="F121" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -4151,19 +4178,19 @@
         <v>102</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C122" t="s">
+        <v>237</v>
+      </c>
+      <c r="D122" t="s">
+        <v>340</v>
+      </c>
+      <c r="E122" t="s">
         <v>241</v>
       </c>
-      <c r="D122" t="s">
-        <v>344</v>
-      </c>
-      <c r="E122" t="s">
-        <v>245</v>
-      </c>
       <c r="F122" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -4171,19 +4198,19 @@
         <v>103</v>
       </c>
       <c r="B123" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C123" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D123" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E123" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F123" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -4191,19 +4218,19 @@
         <v>104</v>
       </c>
       <c r="B124" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C124" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D124" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E124" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F124" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -4211,19 +4238,19 @@
         <v>105</v>
       </c>
       <c r="B125" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C125" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D125" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E125" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F125" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4231,19 +4258,19 @@
         <v>106</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C126" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D126" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E126" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F126" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4251,19 +4278,19 @@
         <v>184</v>
       </c>
       <c r="B127" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C127" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D127" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E127" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F127" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4271,19 +4298,19 @@
         <v>185</v>
       </c>
       <c r="B128" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C128" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D128" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E128" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F128" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -4291,19 +4318,19 @@
         <v>186</v>
       </c>
       <c r="B129" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C129" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D129" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E129" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F129" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4311,19 +4338,19 @@
         <v>187</v>
       </c>
       <c r="B130" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C130" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D130" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E130" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F130" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -4331,19 +4358,19 @@
         <v>188</v>
       </c>
       <c r="B131" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C131" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D131" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E131" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F131" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4351,19 +4378,19 @@
         <v>189</v>
       </c>
       <c r="B132" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C132" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D132" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E132" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F132" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -4371,19 +4398,19 @@
         <v>190</v>
       </c>
       <c r="B133" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C133" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D133" t="s">
+        <v>341</v>
+      </c>
+      <c r="E133" t="s">
+        <v>344</v>
+      </c>
+      <c r="F133" t="s">
         <v>345</v>
-      </c>
-      <c r="E133" t="s">
-        <v>348</v>
-      </c>
-      <c r="F133" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -4391,19 +4418,19 @@
         <v>191</v>
       </c>
       <c r="B134" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C134" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D134" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E134" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F134" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -4411,19 +4438,19 @@
         <v>192</v>
       </c>
       <c r="B135" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C135" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D135" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E135" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F135" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -4431,19 +4458,19 @@
         <v>193</v>
       </c>
       <c r="B136" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C136" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D136" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E136" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F136" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4451,19 +4478,19 @@
         <v>194</v>
       </c>
       <c r="B137" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C137" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D137" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E137" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F137" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -4471,19 +4498,19 @@
         <v>195</v>
       </c>
       <c r="B138" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C138" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D138" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E138" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F138" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -4491,19 +4518,19 @@
         <v>196</v>
       </c>
       <c r="B139" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C139" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D139" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E139" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F139" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -4511,19 +4538,19 @@
         <v>197</v>
       </c>
       <c r="B140" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C140" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D140" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E140" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F140" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -4531,19 +4558,19 @@
         <v>198</v>
       </c>
       <c r="B141" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C141" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D141" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E141" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F141" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -4551,19 +4578,19 @@
         <v>199</v>
       </c>
       <c r="B142" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C142" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D142" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E142" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F142" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -4571,19 +4598,19 @@
         <v>200</v>
       </c>
       <c r="B143" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C143" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D143" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E143" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F143" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -4591,19 +4618,19 @@
         <v>201</v>
       </c>
       <c r="B144" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C144" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D144" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E144" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F144" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -4611,19 +4638,19 @@
         <v>202</v>
       </c>
       <c r="B145" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C145" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D145" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E145" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -4631,19 +4658,19 @@
         <v>203</v>
       </c>
       <c r="B146" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C146" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D146" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E146" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F146" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4651,19 +4678,19 @@
         <v>204</v>
       </c>
       <c r="B147" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C147" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D147" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E147" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F147" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -4694,7 +4721,7 @@
         <v>13</v>
       </c>
       <c r="D149" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E149" t="s">
         <v>27</v>
@@ -4708,19 +4735,19 @@
         <v>109</v>
       </c>
       <c r="B150" t="s">
+        <v>289</v>
+      </c>
+      <c r="C150" t="s">
+        <v>290</v>
+      </c>
+      <c r="D150" t="s">
+        <v>350</v>
+      </c>
+      <c r="E150" t="s">
+        <v>292</v>
+      </c>
+      <c r="F150" t="s">
         <v>293</v>
-      </c>
-      <c r="C150" t="s">
-        <v>294</v>
-      </c>
-      <c r="D150" t="s">
-        <v>354</v>
-      </c>
-      <c r="E150" t="s">
-        <v>296</v>
-      </c>
-      <c r="F150" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -4728,19 +4755,19 @@
         <v>110</v>
       </c>
       <c r="B151" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C151" t="s">
+        <v>290</v>
+      </c>
+      <c r="D151" t="s">
+        <v>350</v>
+      </c>
+      <c r="E151" t="s">
         <v>294</v>
       </c>
-      <c r="D151" t="s">
-        <v>354</v>
-      </c>
-      <c r="E151" t="s">
-        <v>298</v>
-      </c>
       <c r="F151" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -4748,19 +4775,19 @@
         <v>111</v>
       </c>
       <c r="B152" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C152" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D152" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E152" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F152" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -4768,19 +4795,19 @@
         <v>112</v>
       </c>
       <c r="B153" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C153" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D153" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E153" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F153" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -4788,19 +4815,19 @@
         <v>113</v>
       </c>
       <c r="B154" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C154" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D154" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E154" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F154" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -4808,19 +4835,19 @@
         <v>114</v>
       </c>
       <c r="B155" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C155" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D155" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E155" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F155" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -4828,19 +4855,19 @@
         <v>205</v>
       </c>
       <c r="B156" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C156" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D156" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -4848,19 +4875,19 @@
         <v>206</v>
       </c>
       <c r="B157" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C157" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D157" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -4868,19 +4895,19 @@
         <v>207</v>
       </c>
       <c r="B158" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C158" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D158" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -4888,16 +4915,16 @@
         <v>208</v>
       </c>
       <c r="B159" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C159" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D159" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F159" t="s">
         <v>74</v>
@@ -4908,19 +4935,19 @@
         <v>209</v>
       </c>
       <c r="B160" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C160" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D160" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E160" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F160" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -4928,19 +4955,19 @@
         <v>210</v>
       </c>
       <c r="B161" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C161" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D161" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E161" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F161" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -4948,19 +4975,19 @@
         <v>211</v>
       </c>
       <c r="B162" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C162" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D162" t="s">
+        <v>351</v>
+      </c>
+      <c r="E162" t="s">
+        <v>354</v>
+      </c>
+      <c r="F162" t="s">
         <v>355</v>
-      </c>
-      <c r="E162" t="s">
-        <v>358</v>
-      </c>
-      <c r="F162" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -4968,19 +4995,19 @@
         <v>212</v>
       </c>
       <c r="B163" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C163" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D163" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E163" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F163" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -4988,19 +5015,19 @@
         <v>213</v>
       </c>
       <c r="B164" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C164" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D164" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E164" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F164" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -5008,19 +5035,19 @@
         <v>214</v>
       </c>
       <c r="B165" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C165" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D165" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E165" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F165" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -5028,19 +5055,19 @@
         <v>215</v>
       </c>
       <c r="B166" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C166" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D166" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E166" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F166" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -5048,19 +5075,19 @@
         <v>216</v>
       </c>
       <c r="B167" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C167" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D167" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E167" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F167" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -5068,19 +5095,19 @@
         <v>217</v>
       </c>
       <c r="B168" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C168" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D168" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E168" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F168" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -5088,19 +5115,19 @@
         <v>218</v>
       </c>
       <c r="B169" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C169" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D169" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E169" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F169" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -5108,19 +5135,19 @@
         <v>219</v>
       </c>
       <c r="B170" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C170" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D170" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E170" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F170" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -5128,19 +5155,19 @@
         <v>220</v>
       </c>
       <c r="B171" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C171" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D171" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E171" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F171" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -5148,19 +5175,19 @@
         <v>221</v>
       </c>
       <c r="B172" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C172" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D172" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E172" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F172" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -5168,19 +5195,19 @@
         <v>222</v>
       </c>
       <c r="B173" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C173" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D173" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E173" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F173" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -5188,19 +5215,19 @@
         <v>223</v>
       </c>
       <c r="B174" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C174" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D174" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E174" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F174" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -5208,19 +5235,19 @@
         <v>224</v>
       </c>
       <c r="B175" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C175" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D175" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E175" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F175" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -5228,544 +5255,544 @@
         <v>225</v>
       </c>
       <c r="B176" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C176" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D176" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E176" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F176" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B177" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C177" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D177" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E177" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F177" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B178" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C178" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D178" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E178" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F178" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B179" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C179" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D179" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E179" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F179" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B180" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C180" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D180" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E180" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F180" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B181" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C181" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D181" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E181" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F181" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B182" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C182" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D182" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E182" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F182" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B183" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C183" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D183" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E183" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F183" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B184" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C184" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D184" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E184" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F184" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B185" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C185" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D185" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E185" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F185" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B186" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C186" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D186" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E186" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F186" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B187" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C187" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D187" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E187" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F187" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B188" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C188" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D188" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E188" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F188" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B189" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C189" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D189" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E189" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F189" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B190" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C190" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D190" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E190" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F190" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B191" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C191" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D191" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E191" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F191" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B192" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C192" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D192" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E192" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F192" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B193" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C193" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D193" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E193" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F193" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B194" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C194" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D194" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E194" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F194" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B195" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C195" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D195" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F195" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B196" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C196" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D196" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F196" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B197" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C197" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D197" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F197" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B198" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C198" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D198" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F198" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B199" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C199" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D199" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F199" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B200" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C200" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D200" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E200" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F200" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B201" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C201" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D201" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E201" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F201" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B202" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C202" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D202" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F202" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B203">
         <v>2</v>
@@ -5782,7 +5809,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B204">
         <v>2</v>
@@ -5799,7 +5826,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -5816,7 +5843,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B206">
         <v>2</v>
@@ -5833,7 +5860,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B207">
         <v>2</v>
@@ -5850,7 +5877,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B208">
         <v>2</v>
@@ -5867,7 +5894,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B209">
         <v>2</v>
@@ -5884,7 +5911,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -5901,7 +5928,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -5918,7 +5945,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B212">
         <v>2</v>
@@ -5935,7 +5962,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B213">
         <v>2</v>
@@ -5952,7 +5979,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -5969,7 +5996,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B215">
         <v>2</v>
@@ -5986,7 +6013,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -6003,7 +6030,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B217">
         <v>2</v>
@@ -6020,7 +6047,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B218">
         <v>2</v>
@@ -6037,7 +6064,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B219">
         <v>2</v>
@@ -6054,7 +6081,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B220">
         <v>2</v>
@@ -6071,7 +6098,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B221">
         <v>2</v>
@@ -6088,7 +6115,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -6105,7 +6132,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B223">
         <v>2</v>
@@ -6122,7 +6149,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B224">
         <v>2</v>
@@ -6139,7 +6166,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B225">
         <v>2</v>
@@ -6156,7 +6183,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B226">
         <v>2</v>
@@ -6173,7 +6200,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B227">
         <v>2</v>
@@ -6190,7 +6217,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -6253,16 +6280,16 @@
         <v>44</v>
       </c>
       <c r="C231" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D231" t="s">
         <v>226</v>
       </c>
       <c r="E231" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F231" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -6273,16 +6300,16 @@
         <v>44</v>
       </c>
       <c r="C232" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D232" t="s">
         <v>226</v>
       </c>
       <c r="E232" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F232" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -6299,10 +6326,10 @@
         <v>227</v>
       </c>
       <c r="E233" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F233" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -6312,9 +6339,6 @@
       <c r="B234">
         <v>2</v>
       </c>
-      <c r="C234">
-        <v>1</v>
-      </c>
       <c r="D234">
         <v>1</v>
       </c>
@@ -6332,9 +6356,6 @@
       <c r="B235">
         <v>8</v>
       </c>
-      <c r="C235">
-        <v>1</v>
-      </c>
       <c r="D235">
         <v>1</v>
       </c>
@@ -6353,7 +6374,7 @@
         <v>50</v>
       </c>
       <c r="C236" t="s">
-        <v>51</v>
+        <v>437</v>
       </c>
       <c r="D236" t="s">
         <v>51</v>
@@ -6372,9 +6393,6 @@
       <c r="B237">
         <v>8</v>
       </c>
-      <c r="C237">
-        <v>1</v>
-      </c>
       <c r="D237">
         <v>1</v>
       </c>
@@ -6609,20 +6627,20 @@
       <c r="A249" t="s">
         <v>87</v>
       </c>
-      <c r="B249">
-        <v>5</v>
+      <c r="B249" t="s">
+        <v>438</v>
       </c>
       <c r="C249" t="s">
-        <v>228</v>
-      </c>
-      <c r="D249">
-        <v>1</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
+        <v>439</v>
+      </c>
+      <c r="D249" t="s">
+        <v>59</v>
+      </c>
+      <c r="E249" t="s">
+        <v>440</v>
+      </c>
+      <c r="F249" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -6630,19 +6648,19 @@
         <v>88</v>
       </c>
       <c r="B250" t="s">
-        <v>54</v>
+        <v>441</v>
       </c>
       <c r="C250" t="s">
-        <v>229</v>
+        <v>442</v>
       </c>
       <c r="D250" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E250" t="s">
-        <v>51</v>
+        <v>443</v>
       </c>
       <c r="F250" t="s">
-        <v>51</v>
+        <v>443</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -6650,19 +6668,19 @@
         <v>89</v>
       </c>
       <c r="B251" t="s">
-        <v>57</v>
+        <v>444</v>
       </c>
       <c r="C251" t="s">
-        <v>230</v>
+        <v>445</v>
       </c>
       <c r="D251" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E251" t="s">
-        <v>59</v>
+        <v>446</v>
       </c>
       <c r="F251" t="s">
-        <v>59</v>
+        <v>446</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -6670,19 +6688,19 @@
         <v>90</v>
       </c>
       <c r="B252" t="s">
-        <v>61</v>
+        <v>447</v>
       </c>
       <c r="C252" t="s">
-        <v>231</v>
+        <v>448</v>
       </c>
       <c r="D252" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E252" t="s">
-        <v>20</v>
+        <v>449</v>
       </c>
       <c r="F252" t="s">
-        <v>20</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713CB47A-53F4-41B8-9D4B-0907844870F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B34F14-349B-40BF-AB65-A33FBC074B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="500">
   <si>
     <t>dropId|String</t>
   </si>
@@ -1177,15 +1177,6 @@
     <t>c8003</t>
   </si>
   <si>
-    <t>2, 2, 5, 8, 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, , w, , </t>
-  </si>
-  <si>
-    <t>100, 1000, 1, 1, 1</t>
-  </si>
-  <si>
     <t>c8004</t>
   </si>
   <si>
@@ -1339,12 +1330,6 @@
     <t>c9028</t>
   </si>
   <si>
-    <t>0.8, 0.02, 0.8, 0.01, 0.001</t>
-  </si>
-  <si>
-    <t>300, 1900, 1, 1, 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">, </t>
   </si>
   <si>
@@ -1382,6 +1367,171 @@
   </si>
   <si>
     <t>9, 9, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>2, 2, 5, 5, 8, 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, , w, w, , </t>
+  </si>
+  <si>
+    <t>0.6, 0.04, 0.8, 0.5, 0.05, 0.03</t>
+  </si>
+  <si>
+    <t>100, 900, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>230, 1145, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>103, 905, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>233, 1175, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>106, 910, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>236, 1205, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>109, 915, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>239, 1235, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>112, 920, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>242, 1265, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>115, 925, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>245, 1295, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>118, 930, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>248, 1325, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>121, 935, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>251, 1355, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>124, 940, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>254, 1385, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>127, 945, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>257, 1415, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>130, 950, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>260, 1445, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>133, 955, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>263, 1475, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>136, 960, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>266, 1505, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>139, 965, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>269, 1535, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>142, 970, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>272, 1565, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>145, 975, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>275, 1595, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>148, 980, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>278, 1625, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>151, 985, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>281, 1655, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>154, 990, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>284, 1685, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>157, 995, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>287, 1715, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>160, 1000, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>290, 1745, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>163, 1005, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>293, 1775, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>166, 1010, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>296, 1805, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>169, 1015, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>299, 1835, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>172, 1020, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>302, 1865, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>175, 1025, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>305, 1895, 1, 1, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -5275,524 +5425,524 @@
         <v>380</v>
       </c>
       <c r="B177" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C177" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D177" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E177" t="s">
-        <v>383</v>
+        <v>448</v>
       </c>
       <c r="F177" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B178" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C178" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D178" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E178" t="s">
-        <v>383</v>
+        <v>450</v>
       </c>
       <c r="F178" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B179" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C179" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D179" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E179" t="s">
-        <v>383</v>
+        <v>452</v>
       </c>
       <c r="F179" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B180" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C180" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D180" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E180" t="s">
-        <v>383</v>
+        <v>454</v>
       </c>
       <c r="F180" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B181" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C181" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D181" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E181" t="s">
-        <v>383</v>
+        <v>456</v>
       </c>
       <c r="F181" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B182" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C182" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D182" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E182" t="s">
-        <v>383</v>
+        <v>458</v>
       </c>
       <c r="F182" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B183" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C183" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D183" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E183" t="s">
-        <v>383</v>
+        <v>460</v>
       </c>
       <c r="F183" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B184" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C184" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D184" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E184" t="s">
-        <v>383</v>
+        <v>462</v>
       </c>
       <c r="F184" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B185" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C185" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D185" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E185" t="s">
-        <v>383</v>
+        <v>464</v>
       </c>
       <c r="F185" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B186" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C186" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D186" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E186" t="s">
-        <v>383</v>
+        <v>466</v>
       </c>
       <c r="F186" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B187" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C187" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D187" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E187" t="s">
-        <v>383</v>
+        <v>468</v>
       </c>
       <c r="F187" t="s">
-        <v>436</v>
+        <v>469</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B188" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C188" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D188" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E188" t="s">
-        <v>383</v>
+        <v>470</v>
       </c>
       <c r="F188" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B189" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C189" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D189" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E189" t="s">
-        <v>383</v>
+        <v>472</v>
       </c>
       <c r="F189" t="s">
-        <v>436</v>
+        <v>473</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B190" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C190" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D190" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E190" t="s">
-        <v>383</v>
+        <v>474</v>
       </c>
       <c r="F190" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B191" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C191" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D191" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E191" t="s">
-        <v>383</v>
+        <v>476</v>
       </c>
       <c r="F191" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B192" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C192" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D192" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E192" t="s">
-        <v>383</v>
+        <v>478</v>
       </c>
       <c r="F192" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B193" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C193" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D193" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>480</v>
       </c>
       <c r="F193" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B194" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C194" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D194" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>482</v>
       </c>
       <c r="F194" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B195" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C195" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D195" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>484</v>
       </c>
       <c r="F195" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B196" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C196" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D196" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>486</v>
       </c>
       <c r="F196" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B197" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C197" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D197" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>488</v>
       </c>
       <c r="F197" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B198" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C198" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D198" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>490</v>
       </c>
       <c r="F198" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B199" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C199" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D199" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>492</v>
       </c>
       <c r="F199" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B200" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C200" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D200" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>494</v>
       </c>
       <c r="F200" t="s">
-        <v>436</v>
+        <v>495</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B201" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C201" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D201" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>496</v>
       </c>
       <c r="F201" t="s">
-        <v>436</v>
+        <v>497</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B202" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="C202" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="D202" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E202" t="s">
-        <v>383</v>
+        <v>498</v>
       </c>
       <c r="F202" t="s">
-        <v>436</v>
+        <v>499</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B203">
         <v>2</v>
@@ -5804,12 +5954,12 @@
         <v>100</v>
       </c>
       <c r="F203">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B204">
         <v>2</v>
@@ -5818,15 +5968,15 @@
         <v>1</v>
       </c>
       <c r="E204">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F204">
-        <v>200</v>
+        <v>233</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -5835,15 +5985,15 @@
         <v>1</v>
       </c>
       <c r="E205">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F205">
-        <v>200</v>
+        <v>236</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B206">
         <v>2</v>
@@ -5852,15 +6002,15 @@
         <v>1</v>
       </c>
       <c r="E206">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F206">
-        <v>200</v>
+        <v>239</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B207">
         <v>2</v>
@@ -5869,15 +6019,15 @@
         <v>1</v>
       </c>
       <c r="E207">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="F207">
-        <v>200</v>
+        <v>242</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B208">
         <v>2</v>
@@ -5886,15 +6036,15 @@
         <v>1</v>
       </c>
       <c r="E208">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F208">
-        <v>200</v>
+        <v>245</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B209">
         <v>2</v>
@@ -5903,15 +6053,15 @@
         <v>1</v>
       </c>
       <c r="E209">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="F209">
-        <v>200</v>
+        <v>248</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -5920,15 +6070,15 @@
         <v>1</v>
       </c>
       <c r="E210">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F210">
-        <v>200</v>
+        <v>251</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -5937,15 +6087,15 @@
         <v>1</v>
       </c>
       <c r="E211">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F211">
-        <v>200</v>
+        <v>254</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B212">
         <v>2</v>
@@ -5954,15 +6104,15 @@
         <v>1</v>
       </c>
       <c r="E212">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="F212">
-        <v>200</v>
+        <v>257</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B213">
         <v>2</v>
@@ -5971,15 +6121,15 @@
         <v>1</v>
       </c>
       <c r="E213">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F213">
-        <v>200</v>
+        <v>260</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -5988,15 +6138,15 @@
         <v>1</v>
       </c>
       <c r="E214">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="F214">
-        <v>200</v>
+        <v>263</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B215">
         <v>2</v>
@@ -6005,15 +6155,15 @@
         <v>1</v>
       </c>
       <c r="E215">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="F215">
-        <v>200</v>
+        <v>266</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -6022,15 +6172,15 @@
         <v>1</v>
       </c>
       <c r="E216">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="F216">
-        <v>200</v>
+        <v>269</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B217">
         <v>2</v>
@@ -6039,15 +6189,15 @@
         <v>1</v>
       </c>
       <c r="E217">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="F217">
-        <v>200</v>
+        <v>272</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B218">
         <v>2</v>
@@ -6056,15 +6206,15 @@
         <v>1</v>
       </c>
       <c r="E218">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="F218">
-        <v>200</v>
+        <v>275</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B219">
         <v>2</v>
@@ -6073,15 +6223,15 @@
         <v>1</v>
       </c>
       <c r="E219">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="F219">
-        <v>200</v>
+        <v>278</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B220">
         <v>2</v>
@@ -6090,15 +6240,15 @@
         <v>1</v>
       </c>
       <c r="E220">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="F220">
-        <v>200</v>
+        <v>281</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B221">
         <v>2</v>
@@ -6107,15 +6257,15 @@
         <v>1</v>
       </c>
       <c r="E221">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="F221">
-        <v>200</v>
+        <v>284</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -6124,15 +6274,15 @@
         <v>1</v>
       </c>
       <c r="E222">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="F222">
-        <v>200</v>
+        <v>287</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B223">
         <v>2</v>
@@ -6141,15 +6291,15 @@
         <v>1</v>
       </c>
       <c r="E223">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="F223">
-        <v>200</v>
+        <v>290</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B224">
         <v>2</v>
@@ -6158,15 +6308,15 @@
         <v>1</v>
       </c>
       <c r="E224">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="F224">
-        <v>200</v>
+        <v>293</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B225">
         <v>2</v>
@@ -6175,15 +6325,15 @@
         <v>1</v>
       </c>
       <c r="E225">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="F225">
-        <v>200</v>
+        <v>296</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B226">
         <v>2</v>
@@ -6192,15 +6342,15 @@
         <v>1</v>
       </c>
       <c r="E226">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="F226">
-        <v>200</v>
+        <v>299</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B227">
         <v>2</v>
@@ -6209,15 +6359,15 @@
         <v>1</v>
       </c>
       <c r="E227">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="F227">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -6226,10 +6376,10 @@
         <v>1</v>
       </c>
       <c r="E228">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="F228">
-        <v>200</v>
+        <v>305</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -6374,7 +6524,7 @@
         <v>50</v>
       </c>
       <c r="C236" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D236" t="s">
         <v>51</v>
@@ -6628,19 +6778,19 @@
         <v>87</v>
       </c>
       <c r="B249" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C249" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D249" t="s">
         <v>59</v>
       </c>
       <c r="E249" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F249" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -6648,19 +6798,19 @@
         <v>88</v>
       </c>
       <c r="B250" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C250" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D250" t="s">
         <v>20</v>
       </c>
       <c r="E250" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F250" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -6668,19 +6818,19 @@
         <v>89</v>
       </c>
       <c r="B251" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C251" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D251" t="s">
         <v>66</v>
       </c>
       <c r="E251" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F251" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -6688,19 +6838,19 @@
         <v>90</v>
       </c>
       <c r="B252" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C252" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D252" t="s">
         <v>70</v>
       </c>
       <c r="E252" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F252" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B34F14-349B-40BF-AB65-A33FBC074B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539E525E-77F2-4C92-94A6-52F46F87575E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -1375,9 +1375,6 @@
     <t xml:space="preserve">, , w, w, , </t>
   </si>
   <si>
-    <t>0.6, 0.04, 0.8, 0.5, 0.05, 0.03</t>
-  </si>
-  <si>
     <t>100, 900, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -1532,6 +1529,9 @@
   </si>
   <si>
     <t>305, 1895, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.6, 0.09, 0.8, 0.5, 0.05, 0.03</t>
   </si>
 </sst>
 </file>
@@ -5431,13 +5431,13 @@
         <v>446</v>
       </c>
       <c r="D177" t="s">
+        <v>499</v>
+      </c>
+      <c r="E177" t="s">
         <v>447</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>448</v>
-      </c>
-      <c r="F177" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -5451,13 +5451,13 @@
         <v>446</v>
       </c>
       <c r="D178" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E178" t="s">
+        <v>449</v>
+      </c>
+      <c r="F178" t="s">
         <v>450</v>
-      </c>
-      <c r="F178" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -5471,13 +5471,13 @@
         <v>446</v>
       </c>
       <c r="D179" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E179" t="s">
+        <v>451</v>
+      </c>
+      <c r="F179" t="s">
         <v>452</v>
-      </c>
-      <c r="F179" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -5491,13 +5491,13 @@
         <v>446</v>
       </c>
       <c r="D180" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E180" t="s">
+        <v>453</v>
+      </c>
+      <c r="F180" t="s">
         <v>454</v>
-      </c>
-      <c r="F180" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -5511,13 +5511,13 @@
         <v>446</v>
       </c>
       <c r="D181" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E181" t="s">
+        <v>455</v>
+      </c>
+      <c r="F181" t="s">
         <v>456</v>
-      </c>
-      <c r="F181" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -5531,13 +5531,13 @@
         <v>446</v>
       </c>
       <c r="D182" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E182" t="s">
+        <v>457</v>
+      </c>
+      <c r="F182" t="s">
         <v>458</v>
-      </c>
-      <c r="F182" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -5551,13 +5551,13 @@
         <v>446</v>
       </c>
       <c r="D183" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E183" t="s">
+        <v>459</v>
+      </c>
+      <c r="F183" t="s">
         <v>460</v>
-      </c>
-      <c r="F183" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -5571,13 +5571,13 @@
         <v>446</v>
       </c>
       <c r="D184" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E184" t="s">
+        <v>461</v>
+      </c>
+      <c r="F184" t="s">
         <v>462</v>
-      </c>
-      <c r="F184" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -5591,13 +5591,13 @@
         <v>446</v>
       </c>
       <c r="D185" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E185" t="s">
+        <v>463</v>
+      </c>
+      <c r="F185" t="s">
         <v>464</v>
-      </c>
-      <c r="F185" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -5611,13 +5611,13 @@
         <v>446</v>
       </c>
       <c r="D186" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E186" t="s">
+        <v>465</v>
+      </c>
+      <c r="F186" t="s">
         <v>466</v>
-      </c>
-      <c r="F186" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -5631,13 +5631,13 @@
         <v>446</v>
       </c>
       <c r="D187" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E187" t="s">
+        <v>467</v>
+      </c>
+      <c r="F187" t="s">
         <v>468</v>
-      </c>
-      <c r="F187" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -5651,13 +5651,13 @@
         <v>446</v>
       </c>
       <c r="D188" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E188" t="s">
+        <v>469</v>
+      </c>
+      <c r="F188" t="s">
         <v>470</v>
-      </c>
-      <c r="F188" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -5671,13 +5671,13 @@
         <v>446</v>
       </c>
       <c r="D189" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E189" t="s">
+        <v>471</v>
+      </c>
+      <c r="F189" t="s">
         <v>472</v>
-      </c>
-      <c r="F189" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -5691,13 +5691,13 @@
         <v>446</v>
       </c>
       <c r="D190" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E190" t="s">
+        <v>473</v>
+      </c>
+      <c r="F190" t="s">
         <v>474</v>
-      </c>
-      <c r="F190" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -5711,13 +5711,13 @@
         <v>446</v>
       </c>
       <c r="D191" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E191" t="s">
+        <v>475</v>
+      </c>
+      <c r="F191" t="s">
         <v>476</v>
-      </c>
-      <c r="F191" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -5731,13 +5731,13 @@
         <v>446</v>
       </c>
       <c r="D192" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E192" t="s">
+        <v>477</v>
+      </c>
+      <c r="F192" t="s">
         <v>478</v>
-      </c>
-      <c r="F192" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -5751,13 +5751,13 @@
         <v>446</v>
       </c>
       <c r="D193" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E193" t="s">
+        <v>479</v>
+      </c>
+      <c r="F193" t="s">
         <v>480</v>
-      </c>
-      <c r="F193" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -5771,13 +5771,13 @@
         <v>446</v>
       </c>
       <c r="D194" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E194" t="s">
+        <v>481</v>
+      </c>
+      <c r="F194" t="s">
         <v>482</v>
-      </c>
-      <c r="F194" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -5791,13 +5791,13 @@
         <v>446</v>
       </c>
       <c r="D195" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E195" t="s">
+        <v>483</v>
+      </c>
+      <c r="F195" t="s">
         <v>484</v>
-      </c>
-      <c r="F195" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -5811,13 +5811,13 @@
         <v>446</v>
       </c>
       <c r="D196" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E196" t="s">
+        <v>485</v>
+      </c>
+      <c r="F196" t="s">
         <v>486</v>
-      </c>
-      <c r="F196" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -5831,13 +5831,13 @@
         <v>446</v>
       </c>
       <c r="D197" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E197" t="s">
+        <v>487</v>
+      </c>
+      <c r="F197" t="s">
         <v>488</v>
-      </c>
-      <c r="F197" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -5851,13 +5851,13 @@
         <v>446</v>
       </c>
       <c r="D198" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E198" t="s">
+        <v>489</v>
+      </c>
+      <c r="F198" t="s">
         <v>490</v>
-      </c>
-      <c r="F198" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -5871,13 +5871,13 @@
         <v>446</v>
       </c>
       <c r="D199" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E199" t="s">
+        <v>491</v>
+      </c>
+      <c r="F199" t="s">
         <v>492</v>
-      </c>
-      <c r="F199" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -5891,13 +5891,13 @@
         <v>446</v>
       </c>
       <c r="D200" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E200" t="s">
+        <v>493</v>
+      </c>
+      <c r="F200" t="s">
         <v>494</v>
-      </c>
-      <c r="F200" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -5911,13 +5911,13 @@
         <v>446</v>
       </c>
       <c r="D201" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E201" t="s">
+        <v>495</v>
+      </c>
+      <c r="F201" t="s">
         <v>496</v>
-      </c>
-      <c r="F201" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -5931,13 +5931,13 @@
         <v>446</v>
       </c>
       <c r="D202" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="E202" t="s">
+        <v>497</v>
+      </c>
+      <c r="F202" t="s">
         <v>498</v>
-      </c>
-      <c r="F202" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539E525E-77F2-4C92-94A6-52F46F87575E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAD3EA5-6C93-4D1A-936F-030DAB5AEAD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -1531,7 +1531,7 @@
     <t>305, 1895, 1, 1, 1, 1</t>
   </si>
   <si>
-    <t>0.6, 0.09, 0.8, 0.5, 0.05, 0.03</t>
+    <t>0.6, 0.12, 0.8, 0.5, 0.05, 0.03</t>
   </si>
 </sst>
 </file>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAD3EA5-6C93-4D1A-936F-030DAB5AEAD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F711F3-3EA4-4599-A063-009844A3D08C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
     <sheet name="NotCharTable" sheetId="2" r:id="rId2"/>
+    <sheet name="NotLegendCharTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="501">
   <si>
     <t>dropId|String</t>
   </si>
@@ -1532,6 +1533,9 @@
   </si>
   <si>
     <t>0.6, 0.12, 0.8, 0.5, 0.05, 0.03</t>
+  </si>
+  <si>
+    <t>adjustWeight|Float</t>
   </si>
 </sst>
 </file>
@@ -1897,7 +1901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7645,4 +7649,1637 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC18134-B212-4596-9E3B-6BB65C31C2EA}">
+  <dimension ref="A1:B202"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.0069999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.0210999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1.0283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1.0355000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1.0427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1.0573999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1.0648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1.0722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1.0798000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1.0872999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1.0949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1.1026</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1.1103000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1.1181000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1.1258999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1.1337999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1.1416999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1.1496999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1.1577999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1.1658999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.1739999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1.1821999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1.1904999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1.1989000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1.2072000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1.2157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1.2242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1.2327999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1.2414000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1.2501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1.2587999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1.2677</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1.2765</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1.2855000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1.2945</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1.3035000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1.3127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1.3218000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1.3310999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1.3404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1.3498000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1.3592</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1.3688</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1.3783000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1.3879999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1.3976999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1.4075</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1.4173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1.4273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1.4373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1.4473</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1.4574</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1.4676</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1.4779</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1.4883</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1.4986999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1.5092000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>1.5197000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>1.5304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>1.5410999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>1.5519000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>1.5627</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>1.5737000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>1.5847</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>1.5958000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>1.607</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>1.6182000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>1.6294999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>1.6409</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>1.6524000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>1.6639999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>1.6756</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>1.6874</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>1.6992</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>1.7111000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>1.7231000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>1.7351000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>1.7473000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>1.7595000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1.7718</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>1.7842</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>1.7967</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>1.8092999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>1.8219000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>1.8347</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>1.8474999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>1.8605</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>1.8734999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>1.8866000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>1.8997999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>1.9131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>1.9265000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>1.9399909440000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>1.95357088</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>1.9672458770000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>1.9810165980000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>1.994883714</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>2.0088479000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>2.0229098350000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>2.0370702039999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>2.0513296959999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>2.0656890030000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>2.0801488259999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>2.0947098679999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>2.109372837</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>2.124138447</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>2.1390074160000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>2.1539804679999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>2.169058331</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>2.18424174</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>2.1995314320000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>2.2149281520000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>2.2304326489999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>2.2460456780000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>2.2617679970000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>2.2776003729999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>2.2935435759999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>2.3095983809999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>2.3257655700000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>2.3420459290000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>2.3584402500000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>2.3749493319999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>2.3915739770000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>2.408314995</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>2.4251732000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>2.442149412</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>2.4592444580000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>2.47645917</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>2.4937943840000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>2.5112509439999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>2.5288297009999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>2.5465315089999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>2.5643572290000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>2.5823077300000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>2.6003838840000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>2.6185865709999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>2.6369166769999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>2.655375094</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>2.67396272</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>2.692680459</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>2.7115292219999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>2.7305099269999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>2.7496234959999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>2.7688708609999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>2.7882529570000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>2.8077707269999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>2.8274251220000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>2.8472170979999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>2.8671476180000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>2.8872176509999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>2.9074281750000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>2.9277801719999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>2.948274633</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>2.9689125559999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>2.989694944</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>3.0106228079999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>3.031697168</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>3.0529190480000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>3.0742894810000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>3.0958095079999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>3.1174801740000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>3.1393025350000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>3.161277653</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>3.1834065969999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>3.2056904429999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>3.2281302759999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>3.2507271879999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>3.2734822779999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>3.296396654</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>3.3194714310000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>3.342707731</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>3.3661066850000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>3.3896694319999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>3.4133971179999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>3.4372908980000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>3.4613519340000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>3.4855813969999998</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>3.5099804670000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>3.5345503300000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>3.5592921830000002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>3.5842072279999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>3.6092966789999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>3.634561755</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>3.6600036880000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>3.685623713</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>3.7114230789999998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>3.7374030409999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>3.763564862</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>3.7899098160000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>3.8164391850000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>3.8431542589999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>3.870056339</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>3.8971467340000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>3.9244267609999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>3.9518977479999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>3.9795610319999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>4.0074179589999996</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>4.0354698850000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F711F3-3EA4-4599-A063-009844A3D08C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB81CD24-6B09-4AF7-871F-6A877F147F51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -6868,9 +6868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC24F54A-7C76-46A6-B550-1FB1A4C7C121}">
   <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7653,7 +7651,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC18134-B212-4596-9E3B-6BB65C31C2EA}">
-  <dimension ref="A1:B202"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7683,7 +7681,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.0069999999999999</v>
+        <v>1.0148999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7691,7 +7689,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.014</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7699,7 +7697,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.0210999999999999</v>
+        <v>1.0454000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7707,7 +7705,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.0283</v>
+        <v>1.0609</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7715,7 +7713,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.0355000000000001</v>
+        <v>1.0768</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -7723,7 +7721,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.0427</v>
+        <v>1.0928</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7731,7 +7729,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.1091</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -7739,7 +7737,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.0573999999999999</v>
+        <v>1.1255999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -7747,7 +7745,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.0648</v>
+        <v>1.1424000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -7755,7 +7753,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.0722</v>
+        <v>1.1594</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -7763,7 +7761,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.0798000000000001</v>
+        <v>1.1767000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -7771,7 +7769,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.0872999999999999</v>
+        <v>1.1941999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -7779,7 +7777,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.0949</v>
+        <v>1.212</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -7787,7 +7785,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.1026</v>
+        <v>1.2301</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -7795,7 +7793,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.1103000000000001</v>
+        <v>1.2484</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -7803,7 +7801,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.1181000000000001</v>
+        <v>1.2669999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -7811,7 +7809,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.1258999999999999</v>
+        <v>1.2859</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -7819,7 +7817,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.1337999999999999</v>
+        <v>1.3049999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -7827,7 +7825,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.1416999999999999</v>
+        <v>1.3245</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -7835,7 +7833,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.1496999999999999</v>
+        <v>1.3442000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -7843,7 +7841,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.1577999999999999</v>
+        <v>1.3642000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -7851,7 +7849,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.1658999999999999</v>
+        <v>1.3846000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -7859,7 +7857,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.1739999999999999</v>
+        <v>1.4052</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -7867,7 +7865,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.1821999999999999</v>
+        <v>1.4260999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -7875,7 +7873,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.1904999999999999</v>
+        <v>1.4474</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -7883,7 +7881,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.1989000000000001</v>
+        <v>1.4689000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -7891,7 +7889,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.2072000000000001</v>
+        <v>1.4907999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -7899,7 +7897,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.2157</v>
+        <v>1.5129999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -7907,7 +7905,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.2242</v>
+        <v>1.5356000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -7915,7 +7913,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.2327999999999999</v>
+        <v>1.5585</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -7923,7 +7921,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.2414000000000001</v>
+        <v>1.5817000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -7931,7 +7929,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.2501</v>
+        <v>1.6052999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -7939,7 +7937,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.2587999999999999</v>
+        <v>1.6292</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -7947,7 +7945,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.2677</v>
+        <v>1.6534</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -7955,7 +7953,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.2765</v>
+        <v>1.6780999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -7963,7 +7961,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.2855000000000001</v>
+        <v>1.7031000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -7971,7 +7969,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.2945</v>
+        <v>1.7284999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -7979,7 +7977,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.3035000000000001</v>
+        <v>1.7542</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -7987,7 +7985,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.3127</v>
+        <v>1.7804</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -7995,7 +7993,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.3218000000000001</v>
+        <v>1.8069</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -8003,7 +8001,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.3310999999999999</v>
+        <v>1.8338000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -8011,7 +8009,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.3404</v>
+        <v>1.8611</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -8019,7 +8017,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.3498000000000001</v>
+        <v>1.8889</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -8027,7 +8025,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.3592</v>
+        <v>1.917</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -8035,7 +8033,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.3688</v>
+        <v>1.9456</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -8043,7 +8041,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.3783000000000001</v>
+        <v>1.9745999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -8051,7 +8049,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.3879999999999999</v>
+        <v>2.004</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -8059,7 +8057,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.3976999999999999</v>
+        <v>2.0337999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -8067,7 +8065,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.4075</v>
+        <v>2.0640999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -8075,7 +8073,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.4173</v>
+        <v>2.0949</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -8083,7 +8081,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.4273</v>
+        <v>2.1261000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -8091,7 +8089,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.4373</v>
+        <v>2.1577999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -8099,7 +8097,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.4473</v>
+        <v>2.1899000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -8107,7 +8105,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.4574</v>
+        <v>2.2225999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -8115,7 +8113,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.4676</v>
+        <v>2.2557</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -8123,7 +8121,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.4779</v>
+        <v>2.2892999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -8131,7 +8129,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.4883</v>
+        <v>2.3233999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -8139,7 +8137,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.4986999999999999</v>
+        <v>2.3580000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -8147,7 +8145,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.5092000000000001</v>
+        <v>2.3932000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -8155,7 +8153,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.5197000000000001</v>
+        <v>2.4287999999999998</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -8163,7 +8161,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.5304</v>
+        <v>2.4649999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -8171,7 +8169,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.5410999999999999</v>
+        <v>2.5017</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -8179,7 +8177,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.5519000000000001</v>
+        <v>2.5390000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -8187,7 +8185,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.5627</v>
+        <v>2.5768</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -8195,7 +8193,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.5737000000000001</v>
+        <v>2.6152000000000002</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -8203,7 +8201,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.5847</v>
+        <v>2.6541999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -8211,7 +8209,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.5958000000000001</v>
+        <v>2.6938</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -8219,7 +8217,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.607</v>
+        <v>2.7339000000000002</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -8227,7 +8225,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.6182000000000001</v>
+        <v>2.7746</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -8235,7 +8233,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.6294999999999999</v>
+        <v>2.8159999999999998</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -8243,7 +8241,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.6409</v>
+        <v>2.8578999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -8251,7 +8249,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.6524000000000001</v>
+        <v>2.9005000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -8259,7 +8257,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1.6639999999999999</v>
+        <v>2.9437000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -8267,7 +8265,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.6756</v>
+        <v>2.9876</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -8275,7 +8273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.6874</v>
+        <v>3.0320999999999998</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -8283,7 +8281,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.6992</v>
+        <v>3.0773000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -8291,7 +8289,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1.7111000000000001</v>
+        <v>3.1231</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -8299,7 +8297,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.7231000000000001</v>
+        <v>3.1697000000000002</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -8307,7 +8305,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.7351000000000001</v>
+        <v>3.2168999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -8315,7 +8313,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1.7473000000000001</v>
+        <v>3.2648000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -8323,7 +8321,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1.7595000000000001</v>
+        <v>3.3134999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -8331,7 +8329,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.7718</v>
+        <v>3.3628</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -8339,7 +8337,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1.7842</v>
+        <v>3.4129999999999998</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -8347,7 +8345,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.7967</v>
+        <v>3.4638</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -8355,7 +8353,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.8092999999999999</v>
+        <v>3.5154000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -8363,7 +8361,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.8219000000000001</v>
+        <v>3.5678000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -8371,7 +8369,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.8347</v>
+        <v>3.621</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -8379,7 +8377,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1.8474999999999999</v>
+        <v>3.6749000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -8387,7 +8385,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1.8605</v>
+        <v>3.7296999999999998</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -8395,7 +8393,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.8734999999999999</v>
+        <v>3.7852000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -8403,7 +8401,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.8866000000000001</v>
+        <v>3.8416000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -8411,7 +8409,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1.8997999999999999</v>
+        <v>3.8988999999999998</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -8419,7 +8417,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1.9131</v>
+        <v>3.9569999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -8427,7 +8425,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.9265000000000001</v>
+        <v>4.0159000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -8435,7 +8433,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.9399909440000001</v>
+        <v>4.0758000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -8443,7 +8441,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.95357088</v>
+        <v>4.1364999999999998</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -8451,831 +8449,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.9672458770000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>1.9810165980000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>1.994883714</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>2.0088479000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>2.0229098350000001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>2.0370702039999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>2.0513296959999998</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>2.0656890030000001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>2.0801488259999998</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>2.0947098679999998</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>2.109372837</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>2.124138447</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>2.1390074160000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>2.1539804679999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>2.169058331</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>2.18424174</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>2.1995314320000001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>2.2149281520000001</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>2.2304326489999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>116</v>
-      </c>
-      <c r="B118">
-        <v>2.2460456780000002</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>2.2617679970000002</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>118</v>
-      </c>
-      <c r="B120">
-        <v>2.2776003729999998</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>119</v>
-      </c>
-      <c r="B121">
-        <v>2.2935435759999998</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>120</v>
-      </c>
-      <c r="B122">
-        <v>2.3095983809999998</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>121</v>
-      </c>
-      <c r="B123">
-        <v>2.3257655700000002</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>122</v>
-      </c>
-      <c r="B124">
-        <v>2.3420459290000002</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>123</v>
-      </c>
-      <c r="B125">
-        <v>2.3584402500000001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>124</v>
-      </c>
-      <c r="B126">
-        <v>2.3749493319999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>125</v>
-      </c>
-      <c r="B127">
-        <v>2.3915739770000002</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>2.408314995</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>2.4251732000000001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>2.442149412</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>2.4592444580000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>2.47645917</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>2.4937943840000001</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>132</v>
-      </c>
-      <c r="B134">
-        <v>2.5112509439999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>2.5288297009999998</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>2.5465315089999998</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>2.5643572290000001</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>2.5823077300000001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>137</v>
-      </c>
-      <c r="B139">
-        <v>2.6003838840000002</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>138</v>
-      </c>
-      <c r="B140">
-        <v>2.6185865709999998</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>2.6369166769999999</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>2.655375094</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>141</v>
-      </c>
-      <c r="B143">
-        <v>2.67396272</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <v>142</v>
-      </c>
-      <c r="B144">
-        <v>2.692680459</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <v>143</v>
-      </c>
-      <c r="B145">
-        <v>2.7115292219999998</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>144</v>
-      </c>
-      <c r="B146">
-        <v>2.7305099269999999</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>2.7496234959999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>2.7688708609999999</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>2.7882529570000001</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>2.8077707269999999</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>2.8274251220000002</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>2.8472170979999998</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>2.8671476180000002</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>2.8872176509999998</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>153</v>
-      </c>
-      <c r="B155">
-        <v>2.9074281750000002</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>154</v>
-      </c>
-      <c r="B156">
-        <v>2.9277801719999998</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>155</v>
-      </c>
-      <c r="B157">
-        <v>2.948274633</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>2.9689125559999998</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>157</v>
-      </c>
-      <c r="B159">
-        <v>2.989694944</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>158</v>
-      </c>
-      <c r="B160">
-        <v>3.0106228079999999</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161">
-        <v>159</v>
-      </c>
-      <c r="B161">
-        <v>3.031697168</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <v>160</v>
-      </c>
-      <c r="B162">
-        <v>3.0529190480000001</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163">
-        <v>161</v>
-      </c>
-      <c r="B163">
-        <v>3.0742894810000001</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164">
-        <v>162</v>
-      </c>
-      <c r="B164">
-        <v>3.0958095079999999</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>163</v>
-      </c>
-      <c r="B165">
-        <v>3.1174801740000002</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>3.1393025350000001</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>3.161277653</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>3.1834065969999998</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>3.2056904429999999</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>3.2281302759999999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171">
-        <v>169</v>
-      </c>
-      <c r="B171">
-        <v>3.2507271879999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <v>170</v>
-      </c>
-      <c r="B172">
-        <v>3.2734822779999999</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <v>171</v>
-      </c>
-      <c r="B173">
-        <v>3.296396654</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174">
-        <v>172</v>
-      </c>
-      <c r="B174">
-        <v>3.3194714310000002</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <v>173</v>
-      </c>
-      <c r="B175">
-        <v>3.342707731</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <v>174</v>
-      </c>
-      <c r="B176">
-        <v>3.3661066850000001</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>175</v>
-      </c>
-      <c r="B177">
-        <v>3.3896694319999998</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178">
-        <v>176</v>
-      </c>
-      <c r="B178">
-        <v>3.4133971179999998</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179">
-        <v>177</v>
-      </c>
-      <c r="B179">
-        <v>3.4372908980000001</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180">
-        <v>178</v>
-      </c>
-      <c r="B180">
-        <v>3.4613519340000001</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181">
-        <v>179</v>
-      </c>
-      <c r="B181">
-        <v>3.4855813969999998</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182">
-        <v>180</v>
-      </c>
-      <c r="B182">
-        <v>3.5099804670000001</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183">
-        <v>181</v>
-      </c>
-      <c r="B183">
-        <v>3.5345503300000001</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184">
-        <v>182</v>
-      </c>
-      <c r="B184">
-        <v>3.5592921830000002</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185">
-        <v>183</v>
-      </c>
-      <c r="B185">
-        <v>3.5842072279999999</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186">
-        <v>184</v>
-      </c>
-      <c r="B186">
-        <v>3.6092966789999998</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187">
-        <v>185</v>
-      </c>
-      <c r="B187">
-        <v>3.634561755</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188">
-        <v>186</v>
-      </c>
-      <c r="B188">
-        <v>3.6600036880000002</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189">
-        <v>187</v>
-      </c>
-      <c r="B189">
-        <v>3.685623713</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190">
-        <v>188</v>
-      </c>
-      <c r="B190">
-        <v>3.7114230789999998</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191">
-        <v>189</v>
-      </c>
-      <c r="B191">
-        <v>3.7374030409999999</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192">
-        <v>190</v>
-      </c>
-      <c r="B192">
-        <v>3.763564862</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193">
-        <v>191</v>
-      </c>
-      <c r="B193">
-        <v>3.7899098160000002</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194">
-        <v>192</v>
-      </c>
-      <c r="B194">
-        <v>3.8164391850000001</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195">
-        <v>193</v>
-      </c>
-      <c r="B195">
-        <v>3.8431542589999999</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196">
-        <v>194</v>
-      </c>
-      <c r="B196">
-        <v>3.870056339</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197">
-        <v>195</v>
-      </c>
-      <c r="B197">
-        <v>3.8971467340000001</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198">
-        <v>196</v>
-      </c>
-      <c r="B198">
-        <v>3.9244267609999999</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199">
-        <v>197</v>
-      </c>
-      <c r="B199">
-        <v>3.9518977479999999</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200">
-        <v>198</v>
-      </c>
-      <c r="B200">
-        <v>3.9795610319999999</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201">
-        <v>199</v>
-      </c>
-      <c r="B201">
-        <v>4.0074179589999996</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202">
-        <v>200</v>
-      </c>
-      <c r="B202">
-        <v>4.0354698850000004</v>
+        <v>4.1981000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB81CD24-6B09-4AF7-871F-6A877F147F51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A896F15-6F77-4411-93A1-2CC93298D80E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -7653,7 +7653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC18134-B212-4596-9E3B-6BB65C31C2EA}">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7681,7 +7683,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.0148999999999999</v>
+        <v>1.024</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7689,7 +7691,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.03</v>
+        <v>1.0486</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7697,7 +7699,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.0454000000000001</v>
+        <v>1.0737000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7705,7 +7707,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.0609</v>
+        <v>1.0994999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7713,7 +7715,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.0768</v>
+        <v>1.1258999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -7721,7 +7723,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.0928</v>
+        <v>1.1529</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7729,7 +7731,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.1091</v>
+        <v>1.1806000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -7737,7 +7739,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.1255999999999999</v>
+        <v>1.2089000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -7745,7 +7747,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.1424000000000001</v>
+        <v>1.2379</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -7753,7 +7755,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.1594</v>
+        <v>1.2677</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -7761,7 +7763,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.1767000000000001</v>
+        <v>1.2981</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -7769,7 +7771,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.1941999999999999</v>
+        <v>1.3291999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -7777,7 +7779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.212</v>
+        <v>1.3611</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -7785,7 +7787,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.2301</v>
+        <v>1.3937999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -7793,7 +7795,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.2484</v>
+        <v>1.4272</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -7801,7 +7803,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.2669999999999999</v>
+        <v>1.4615</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -7809,7 +7811,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.2859</v>
+        <v>1.4965999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -7817,7 +7819,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.3049999999999999</v>
+        <v>1.5325</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -7825,7 +7827,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.3245</v>
+        <v>1.5692999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -7833,7 +7835,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.3442000000000001</v>
+        <v>1.6069</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -7841,7 +7843,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.3642000000000001</v>
+        <v>1.6455</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -7849,7 +7851,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.3846000000000001</v>
+        <v>1.6850000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -7857,7 +7859,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.4052</v>
+        <v>1.7254</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -7865,7 +7867,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.4260999999999999</v>
+        <v>1.7667999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -7873,7 +7875,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.4474</v>
+        <v>1.8092999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -7881,7 +7883,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.4689000000000001</v>
+        <v>1.8527</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -7889,7 +7891,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.4907999999999999</v>
+        <v>1.8971</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -7897,7 +7899,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.5129999999999999</v>
+        <v>1.9427000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -7905,7 +7907,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.5356000000000001</v>
+        <v>1.9893000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -7913,7 +7915,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.5585</v>
+        <v>2.0369999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -7921,7 +7923,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.5817000000000001</v>
+        <v>2.0859000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -7929,7 +7931,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.6052999999999999</v>
+        <v>2.1360000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -7937,7 +7939,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.6292</v>
+        <v>2.1873</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -7945,7 +7947,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.6534</v>
+        <v>2.2397</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -7953,7 +7955,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.6780999999999999</v>
+        <v>2.2934999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -7961,7 +7963,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.7031000000000001</v>
+        <v>2.3485</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -7969,7 +7971,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.7284999999999999</v>
+        <v>2.4049</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -7977,7 +7979,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.7542</v>
+        <v>2.4626000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -7985,7 +7987,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.7804</v>
+        <v>2.5217000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -7993,7 +7995,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.8069</v>
+        <v>2.5821999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -8001,7 +8003,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.8338000000000001</v>
+        <v>2.6442000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -8009,7 +8011,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.8611</v>
+        <v>2.7077</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -8017,7 +8019,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.8889</v>
+        <v>2.7726999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -8025,7 +8027,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.917</v>
+        <v>2.8391999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -8033,7 +8035,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.9456</v>
+        <v>2.9074</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -8041,7 +8043,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.9745999999999999</v>
+        <v>2.9771000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -8049,7 +8051,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.004</v>
+        <v>3.0486</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -8057,7 +8059,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2.0337999999999998</v>
+        <v>3.1217000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -8065,7 +8067,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.0640999999999998</v>
+        <v>3.1966999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -8073,7 +8075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2.0949</v>
+        <v>3.2734000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -8081,7 +8083,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.1261000000000001</v>
+        <v>3.3519999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -8089,7 +8091,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.1577999999999999</v>
+        <v>3.4323999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -8097,7 +8099,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.1899000000000002</v>
+        <v>3.5148000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -8105,7 +8107,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.2225999999999999</v>
+        <v>3.5991</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -8113,7 +8115,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2.2557</v>
+        <v>3.6855000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -8121,7 +8123,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2.2892999999999999</v>
+        <v>3.774</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -8129,7 +8131,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2.3233999999999999</v>
+        <v>3.8645</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -8137,7 +8139,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2.3580000000000001</v>
+        <v>3.9573</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -8145,7 +8147,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2.3932000000000002</v>
+        <v>4.0522999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -8153,7 +8155,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2.4287999999999998</v>
+        <v>4.1494999999999997</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -8161,7 +8163,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2.4649999999999999</v>
+        <v>4.2491000000000003</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -8169,7 +8171,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2.5017</v>
+        <v>4.3510999999999997</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -8177,7 +8179,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.5390000000000001</v>
+        <v>4.4554999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -8185,7 +8187,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2.5768</v>
+        <v>4.5624000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -8193,7 +8195,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2.6152000000000002</v>
+        <v>4.6718999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -8201,7 +8203,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>2.6541999999999999</v>
+        <v>4.7840999999999996</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -8209,7 +8211,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>2.6938</v>
+        <v>4.8989000000000003</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -8217,7 +8219,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2.7339000000000002</v>
+        <v>5.0164999999999997</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -8225,7 +8227,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2.7746</v>
+        <v>5.1368999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -8233,7 +8235,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2.8159999999999998</v>
+        <v>5.2601000000000004</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -8241,7 +8243,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2.8578999999999999</v>
+        <v>5.3864000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -8249,7 +8251,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2.9005000000000001</v>
+        <v>5.5156999999999998</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -8257,7 +8259,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>2.9437000000000002</v>
+        <v>5.6479999999999997</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -8265,7 +8267,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>2.9876</v>
+        <v>5.7835999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -8273,7 +8275,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>3.0320999999999998</v>
+        <v>5.9223999999999997</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -8281,7 +8283,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3.0773000000000001</v>
+        <v>6.0644999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -8289,7 +8291,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3.1231</v>
+        <v>6.2100999999999997</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -8297,7 +8299,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3.1697000000000002</v>
+        <v>6.3590999999999998</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -8305,7 +8307,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3.2168999999999999</v>
+        <v>6.5117000000000003</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -8313,7 +8315,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>3.2648000000000001</v>
+        <v>6.6680000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -8321,7 +8323,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>3.3134999999999999</v>
+        <v>6.8280000000000003</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -8329,7 +8331,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>3.3628</v>
+        <v>6.9919000000000002</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -8337,7 +8339,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>3.4129999999999998</v>
+        <v>7.1597</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -8345,7 +8347,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>3.4638</v>
+        <v>7.3315999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -8353,7 +8355,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>3.5154000000000001</v>
+        <v>7.5075000000000003</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -8361,7 +8363,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>3.5678000000000001</v>
+        <v>7.6877000000000004</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -8369,7 +8371,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>3.621</v>
+        <v>7.8722000000000003</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -8377,7 +8379,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>3.6749000000000001</v>
+        <v>8.0610999999999997</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -8385,7 +8387,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>3.7296999999999998</v>
+        <v>8.2545999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -8393,7 +8395,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>3.7852000000000001</v>
+        <v>8.4527000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -8401,7 +8403,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>3.8416000000000001</v>
+        <v>8.6555999999999997</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -8409,7 +8411,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>3.8988999999999998</v>
+        <v>8.8633000000000006</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -8417,7 +8419,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>3.9569999999999999</v>
+        <v>9.0760000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -8425,7 +8427,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4.0159000000000002</v>
+        <v>9.2939000000000007</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -8433,7 +8435,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>4.0758000000000001</v>
+        <v>9.5168999999999997</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -8441,7 +8443,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>4.1364999999999998</v>
+        <v>9.7453000000000003</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -8449,7 +8451,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>4.1981000000000002</v>
+        <v>9.9792000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A896F15-6F77-4411-93A1-2CC93298D80E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07E633D-8FA2-45F1-8C19-F57323B9884E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -1127,30 +1127,6 @@
     <t>17, 17, 17, 17, 17, 17, 1, 1</t>
   </si>
   <si>
-    <t>18.7, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>20.5, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>23.25, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>25.05, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>26.6625, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>28.4625, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>29.317, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>31.117, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>18.7, 1, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -1536,6 +1512,30 @@
   </si>
   <si>
     <t>adjustWeight|Float</t>
+  </si>
+  <si>
+    <t>18.7, 100, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>20.5, 100, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>23.25, 100, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>25.05, 100, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>26.6625, 100, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>28.4625, 100, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>29.317, 100, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>31.117, 100, 1, 1, 1, 1, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -1901,7 +1901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2684,10 +2684,10 @@
         <v>252</v>
       </c>
       <c r="E39" t="s">
-        <v>364</v>
+        <v>493</v>
       </c>
       <c r="F39" t="s">
-        <v>365</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2824,10 +2824,10 @@
         <v>252</v>
       </c>
       <c r="E46" t="s">
-        <v>366</v>
+        <v>495</v>
       </c>
       <c r="F46" t="s">
-        <v>367</v>
+        <v>496</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2964,10 +2964,10 @@
         <v>252</v>
       </c>
       <c r="E53" t="s">
-        <v>368</v>
+        <v>497</v>
       </c>
       <c r="F53" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3104,10 +3104,10 @@
         <v>252</v>
       </c>
       <c r="E60" t="s">
-        <v>370</v>
+        <v>499</v>
       </c>
       <c r="F60" t="s">
-        <v>371</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -3261,10 +3261,10 @@
         <v>304</v>
       </c>
       <c r="E68" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F68" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -3401,10 +3401,10 @@
         <v>304</v>
       </c>
       <c r="E75" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F75" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3541,10 +3541,10 @@
         <v>304</v>
       </c>
       <c r="E82" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F82" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3681,10 +3681,10 @@
         <v>304</v>
       </c>
       <c r="E89" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F89" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -5426,527 +5426,527 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B177" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C177" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D177" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E177" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F177" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B178" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C178" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D178" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E178" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F178" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B179" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C179" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D179" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E179" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F179" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B180" t="s">
+        <v>437</v>
+      </c>
+      <c r="C180" t="s">
+        <v>438</v>
+      </c>
+      <c r="D180" t="s">
+        <v>491</v>
+      </c>
+      <c r="E180" t="s">
         <v>445</v>
       </c>
-      <c r="C180" t="s">
+      <c r="F180" t="s">
         <v>446</v>
-      </c>
-      <c r="D180" t="s">
-        <v>499</v>
-      </c>
-      <c r="E180" t="s">
-        <v>453</v>
-      </c>
-      <c r="F180" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B181" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C181" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D181" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E181" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F181" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B182" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C182" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D182" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E182" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F182" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B183" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C183" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D183" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E183" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F183" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B184" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C184" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D184" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E184" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F184" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B185" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C185" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D185" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E185" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F185" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B186" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C186" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D186" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E186" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F186" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B187" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C187" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D187" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E187" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F187" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B188" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C188" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D188" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E188" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F188" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B189" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C189" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D189" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E189" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F189" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B190" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C190" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D190" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E190" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F190" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B191" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C191" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D191" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E191" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F191" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B192" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C192" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D192" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E192" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F192" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B193" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C193" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D193" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E193" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F193" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B194" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C194" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D194" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E194" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F194" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B195" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C195" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D195" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E195" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F195" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B196" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C196" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D196" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E196" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F196" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B197" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C197" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D197" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E197" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F197" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B198" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C198" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D198" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E198" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F198" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B199" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C199" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D199" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E199" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F199" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B200" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C200" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D200" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E200" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F200" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B201" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C201" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D201" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E201" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F201" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B202" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C202" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D202" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E202" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F202" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B203">
         <v>2</v>
@@ -5963,7 +5963,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B204">
         <v>2</v>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -5997,7 +5997,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B206">
         <v>2</v>
@@ -6014,7 +6014,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B207">
         <v>2</v>
@@ -6031,7 +6031,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B208">
         <v>2</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B209">
         <v>2</v>
@@ -6065,7 +6065,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -6082,7 +6082,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -6099,7 +6099,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B212">
         <v>2</v>
@@ -6116,7 +6116,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B213">
         <v>2</v>
@@ -6133,7 +6133,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -6150,7 +6150,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B215">
         <v>2</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -6184,7 +6184,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B217">
         <v>2</v>
@@ -6201,7 +6201,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B218">
         <v>2</v>
@@ -6218,7 +6218,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B219">
         <v>2</v>
@@ -6235,7 +6235,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B220">
         <v>2</v>
@@ -6252,7 +6252,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B221">
         <v>2</v>
@@ -6269,7 +6269,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B223">
         <v>2</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B224">
         <v>2</v>
@@ -6320,7 +6320,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B225">
         <v>2</v>
@@ -6337,7 +6337,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B226">
         <v>2</v>
@@ -6354,7 +6354,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B227">
         <v>2</v>
@@ -6371,7 +6371,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -6528,7 +6528,7 @@
         <v>50</v>
       </c>
       <c r="C236" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D236" t="s">
         <v>51</v>
@@ -6782,19 +6782,19 @@
         <v>87</v>
       </c>
       <c r="B249" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C249" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="D249" t="s">
         <v>59</v>
       </c>
       <c r="E249" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F249" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -6802,19 +6802,19 @@
         <v>88</v>
       </c>
       <c r="B250" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C250" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D250" t="s">
         <v>20</v>
       </c>
       <c r="E250" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F250" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -6822,19 +6822,19 @@
         <v>89</v>
       </c>
       <c r="B251" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C251" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D251" t="s">
         <v>66</v>
       </c>
       <c r="E251" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F251" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -6842,19 +6842,19 @@
         <v>90</v>
       </c>
       <c r="B252" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C252" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D252" t="s">
         <v>70</v>
       </c>
       <c r="E252" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="F252" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -7653,7 +7653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC18134-B212-4596-9E3B-6BB65C31C2EA}">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7667,7 +7667,7 @@
         <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07E633D-8FA2-45F1-8C19-F57323B9884E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F82582C-DF33-43E9-9D4E-B3C4D49B00F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="505">
   <si>
     <t>dropId|String</t>
   </si>
@@ -1536,6 +1536,18 @@
   </si>
   <si>
     <t>31.117, 100, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>ReturnScroll</t>
+  </si>
+  <si>
+    <t>ReturnScrolls</t>
+  </si>
+  <si>
+    <t>2, 12</t>
+  </si>
+  <si>
+    <t>9999, 5</t>
   </si>
 </sst>
 </file>
@@ -1899,7 +1911,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F252"/>
+  <dimension ref="A1:F254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6559,173 +6571,170 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>53</v>
-      </c>
-      <c r="B238" t="s">
-        <v>54</v>
-      </c>
-      <c r="C238" t="s">
-        <v>55</v>
-      </c>
-      <c r="D238" t="s">
-        <v>51</v>
-      </c>
-      <c r="E238" t="s">
-        <v>51</v>
-      </c>
-      <c r="F238" t="s">
-        <v>51</v>
+        <v>501</v>
+      </c>
+      <c r="B238">
+        <v>12</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>56</v>
+        <v>502</v>
       </c>
       <c r="B239" t="s">
-        <v>57</v>
+        <v>503</v>
       </c>
       <c r="C239" t="s">
-        <v>58</v>
+        <v>424</v>
       </c>
       <c r="D239" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E239" t="s">
-        <v>59</v>
+        <v>504</v>
       </c>
       <c r="F239" t="s">
-        <v>59</v>
+        <v>504</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B240" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C240" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D240" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E240" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F240" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B241" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C241" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D241" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E241" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F241" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B242" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C242" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D242" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E242" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F242" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B243" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C243" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D243" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E243" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F243" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>76</v>
-      </c>
-      <c r="B244">
-        <v>9</v>
+        <v>67</v>
+      </c>
+      <c r="B244" t="s">
+        <v>68</v>
       </c>
       <c r="C244" t="s">
-        <v>77</v>
-      </c>
-      <c r="D244">
-        <v>1</v>
-      </c>
-      <c r="E244">
-        <v>1</v>
-      </c>
-      <c r="F244">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="D244" t="s">
+        <v>70</v>
+      </c>
+      <c r="E244" t="s">
+        <v>70</v>
+      </c>
+      <c r="F244" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>78</v>
-      </c>
-      <c r="B245">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="B245" t="s">
+        <v>72</v>
       </c>
       <c r="C245" t="s">
-        <v>79</v>
-      </c>
-      <c r="D245">
-        <v>1</v>
-      </c>
-      <c r="E245">
-        <v>1</v>
-      </c>
-      <c r="F245">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="D245" t="s">
+        <v>74</v>
+      </c>
+      <c r="E245" t="s">
+        <v>74</v>
+      </c>
+      <c r="F245" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B246">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C246" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D246">
         <v>1</v>
@@ -6739,13 +6748,13 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B247">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D247">
         <v>1</v>
@@ -6759,13 +6768,13 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B248">
         <v>5</v>
       </c>
       <c r="C248" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D248">
         <v>1</v>
@@ -6779,81 +6788,121 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>87</v>
-      </c>
-      <c r="B249" t="s">
-        <v>425</v>
+        <v>82</v>
+      </c>
+      <c r="B249">
+        <v>5</v>
       </c>
       <c r="C249" t="s">
-        <v>426</v>
-      </c>
-      <c r="D249" t="s">
-        <v>59</v>
-      </c>
-      <c r="E249" t="s">
-        <v>427</v>
-      </c>
-      <c r="F249" t="s">
-        <v>427</v>
+        <v>83</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>88</v>
-      </c>
-      <c r="B250" t="s">
-        <v>428</v>
+        <v>84</v>
+      </c>
+      <c r="B250">
+        <v>5</v>
       </c>
       <c r="C250" t="s">
-        <v>429</v>
-      </c>
-      <c r="D250" t="s">
-        <v>20</v>
-      </c>
-      <c r="E250" t="s">
-        <v>430</v>
-      </c>
-      <c r="F250" t="s">
-        <v>430</v>
+        <v>85</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B251" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C251" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D251" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E251" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F251" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
+        <v>88</v>
+      </c>
+      <c r="B252" t="s">
+        <v>428</v>
+      </c>
+      <c r="C252" t="s">
+        <v>429</v>
+      </c>
+      <c r="D252" t="s">
+        <v>20</v>
+      </c>
+      <c r="E252" t="s">
+        <v>430</v>
+      </c>
+      <c r="F252" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>89</v>
+      </c>
+      <c r="B253" t="s">
+        <v>431</v>
+      </c>
+      <c r="C253" t="s">
+        <v>432</v>
+      </c>
+      <c r="D253" t="s">
+        <v>66</v>
+      </c>
+      <c r="E253" t="s">
+        <v>433</v>
+      </c>
+      <c r="F253" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
         <v>90</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B254" t="s">
         <v>434</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C254" t="s">
         <v>435</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D254" t="s">
         <v>70</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E254" t="s">
         <v>436</v>
       </c>
-      <c r="F252" t="s">
+      <c r="F254" t="s">
         <v>436</v>
       </c>
     </row>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F82582C-DF33-43E9-9D4E-B3C4D49B00F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8053F0-82B6-41E3-B36C-28BE290C85A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="506">
   <si>
     <t>dropId|String</t>
   </si>
@@ -1548,6 +1548,9 @@
   </si>
   <si>
     <t>9999, 5</t>
+  </si>
+  <si>
+    <t>QuestGold</t>
   </si>
 </sst>
 </file>
@@ -1911,7 +1914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F254"/>
+  <dimension ref="A1:F255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6608,153 +6611,150 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>53</v>
-      </c>
-      <c r="B240" t="s">
-        <v>54</v>
-      </c>
-      <c r="C240" t="s">
-        <v>55</v>
-      </c>
-      <c r="D240" t="s">
-        <v>51</v>
-      </c>
-      <c r="E240" t="s">
-        <v>51</v>
-      </c>
-      <c r="F240" t="s">
-        <v>51</v>
+        <v>505</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240">
+        <v>9999</v>
+      </c>
+      <c r="F240">
+        <v>9999</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B241" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C241" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D241" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E241" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F241" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B242" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C242" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D242" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E242" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F242" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B243" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C243" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D243" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E243" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F243" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B244" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C244" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D244" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E244" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F244" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B245" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C245" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D245" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E245" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F245" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>76</v>
-      </c>
-      <c r="B246">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="B246" t="s">
+        <v>72</v>
       </c>
       <c r="C246" t="s">
-        <v>77</v>
-      </c>
-      <c r="D246">
-        <v>1</v>
-      </c>
-      <c r="E246">
-        <v>1</v>
-      </c>
-      <c r="F246">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="D246" t="s">
+        <v>74</v>
+      </c>
+      <c r="E246" t="s">
+        <v>74</v>
+      </c>
+      <c r="F246" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B247">
         <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D247">
         <v>1</v>
@@ -6768,13 +6768,13 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B248">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C248" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D248">
         <v>1</v>
@@ -6788,13 +6788,13 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B249">
         <v>5</v>
       </c>
       <c r="C249" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D249">
         <v>1</v>
@@ -6808,13 +6808,13 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B250">
         <v>5</v>
       </c>
       <c r="C250" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D250">
         <v>1</v>
@@ -6828,81 +6828,101 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>87</v>
-      </c>
-      <c r="B251" t="s">
-        <v>425</v>
+        <v>84</v>
+      </c>
+      <c r="B251">
+        <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>426</v>
-      </c>
-      <c r="D251" t="s">
-        <v>59</v>
-      </c>
-      <c r="E251" t="s">
-        <v>427</v>
-      </c>
-      <c r="F251" t="s">
-        <v>427</v>
+        <v>85</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B252" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C252" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D252" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E252" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F252" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B253" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C253" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D253" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E253" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F253" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
+        <v>89</v>
+      </c>
+      <c r="B254" t="s">
+        <v>431</v>
+      </c>
+      <c r="C254" t="s">
+        <v>432</v>
+      </c>
+      <c r="D254" t="s">
+        <v>66</v>
+      </c>
+      <c r="E254" t="s">
+        <v>433</v>
+      </c>
+      <c r="F254" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
         <v>90</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B255" t="s">
         <v>434</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C255" t="s">
         <v>435</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D255" t="s">
         <v>70</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E255" t="s">
         <v>436</v>
       </c>
-      <c r="F254" t="s">
+      <c r="F255" t="s">
         <v>436</v>
       </c>
     </row>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8053F0-82B6-41E3-B36C-28BE290C85A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC206CF-67F8-434E-BC25-F1FACC49A1D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="508">
   <si>
     <t>dropId|String</t>
   </si>
@@ -791,9 +791,6 @@
     <t>, , , , , e, e, e</t>
   </si>
   <si>
-    <t>1, 1, 1, 1, 1, 0.1, 0.05, 0.01</t>
-  </si>
-  <si>
     <t>0.295, 100, 2, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -1514,30 +1511,6 @@
     <t>adjustWeight|Float</t>
   </si>
   <si>
-    <t>18.7, 100, 1, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>20.5, 100, 1, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>23.25, 100, 1, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>25.05, 100, 1, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>26.6625, 100, 1, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>28.4625, 100, 1, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>29.317, 100, 1, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>31.117, 100, 1, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>ReturnScroll</t>
   </si>
   <si>
@@ -1551,6 +1524,39 @@
   </si>
   <si>
     <t>QuestGold</t>
+  </si>
+  <si>
+    <t>2, 1, 3, 7, 5, 5, 5</t>
+  </si>
+  <si>
+    <t>, , , , e, e, e</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 0.1, 0.05, 0.01</t>
+  </si>
+  <si>
+    <t>18.7, 100, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>20.5, 100, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>23.25, 100, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>25.05, 100, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>26.6625, 100, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>28.4625, 100, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>29.317, 100, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>31.117, 100, 1, 1, 1, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -2690,19 +2696,19 @@
         <v>5007</v>
       </c>
       <c r="B39" t="s">
-        <v>250</v>
+        <v>497</v>
       </c>
       <c r="C39" t="s">
-        <v>251</v>
+        <v>498</v>
       </c>
       <c r="D39" t="s">
-        <v>252</v>
+        <v>499</v>
       </c>
       <c r="E39" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="F39" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2719,10 +2725,10 @@
         <v>243</v>
       </c>
       <c r="E40" t="s">
+        <v>252</v>
+      </c>
+      <c r="F40" t="s">
         <v>253</v>
-      </c>
-      <c r="F40" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2739,10 +2745,10 @@
         <v>243</v>
       </c>
       <c r="E41" t="s">
+        <v>254</v>
+      </c>
+      <c r="F41" t="s">
         <v>255</v>
-      </c>
-      <c r="F41" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2759,10 +2765,10 @@
         <v>243</v>
       </c>
       <c r="E42" t="s">
+        <v>256</v>
+      </c>
+      <c r="F42" t="s">
         <v>257</v>
-      </c>
-      <c r="F42" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2779,10 +2785,10 @@
         <v>243</v>
       </c>
       <c r="E43" t="s">
+        <v>258</v>
+      </c>
+      <c r="F43" t="s">
         <v>259</v>
-      </c>
-      <c r="F43" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2799,10 +2805,10 @@
         <v>243</v>
       </c>
       <c r="E44" t="s">
+        <v>260</v>
+      </c>
+      <c r="F44" t="s">
         <v>261</v>
-      </c>
-      <c r="F44" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2819,10 +2825,10 @@
         <v>243</v>
       </c>
       <c r="E45" t="s">
+        <v>262</v>
+      </c>
+      <c r="F45" t="s">
         <v>263</v>
-      </c>
-      <c r="F45" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2830,19 +2836,19 @@
         <v>5014</v>
       </c>
       <c r="B46" t="s">
-        <v>250</v>
+        <v>497</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
+        <v>498</v>
       </c>
       <c r="D46" t="s">
-        <v>252</v>
+        <v>499</v>
       </c>
       <c r="E46" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="F46" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2859,10 +2865,10 @@
         <v>243</v>
       </c>
       <c r="E47" t="s">
+        <v>264</v>
+      </c>
+      <c r="F47" t="s">
         <v>265</v>
-      </c>
-      <c r="F47" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2879,10 +2885,10 @@
         <v>243</v>
       </c>
       <c r="E48" t="s">
+        <v>266</v>
+      </c>
+      <c r="F48" t="s">
         <v>267</v>
-      </c>
-      <c r="F48" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2899,10 +2905,10 @@
         <v>243</v>
       </c>
       <c r="E49" t="s">
+        <v>268</v>
+      </c>
+      <c r="F49" t="s">
         <v>269</v>
-      </c>
-      <c r="F49" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2919,10 +2925,10 @@
         <v>243</v>
       </c>
       <c r="E50" t="s">
+        <v>270</v>
+      </c>
+      <c r="F50" t="s">
         <v>271</v>
-      </c>
-      <c r="F50" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2939,10 +2945,10 @@
         <v>243</v>
       </c>
       <c r="E51" t="s">
+        <v>272</v>
+      </c>
+      <c r="F51" t="s">
         <v>273</v>
-      </c>
-      <c r="F51" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2959,10 +2965,10 @@
         <v>243</v>
       </c>
       <c r="E52" t="s">
+        <v>274</v>
+      </c>
+      <c r="F52" t="s">
         <v>275</v>
-      </c>
-      <c r="F52" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2970,19 +2976,19 @@
         <v>5021</v>
       </c>
       <c r="B53" t="s">
-        <v>250</v>
+        <v>497</v>
       </c>
       <c r="C53" t="s">
-        <v>251</v>
+        <v>498</v>
       </c>
       <c r="D53" t="s">
-        <v>252</v>
+        <v>499</v>
       </c>
       <c r="E53" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="F53" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2999,10 +3005,10 @@
         <v>243</v>
       </c>
       <c r="E54" t="s">
+        <v>276</v>
+      </c>
+      <c r="F54" t="s">
         <v>277</v>
-      </c>
-      <c r="F54" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -3019,10 +3025,10 @@
         <v>243</v>
       </c>
       <c r="E55" t="s">
+        <v>278</v>
+      </c>
+      <c r="F55" t="s">
         <v>279</v>
-      </c>
-      <c r="F55" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -3039,10 +3045,10 @@
         <v>243</v>
       </c>
       <c r="E56" t="s">
+        <v>280</v>
+      </c>
+      <c r="F56" t="s">
         <v>281</v>
-      </c>
-      <c r="F56" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -3059,10 +3065,10 @@
         <v>243</v>
       </c>
       <c r="E57" t="s">
+        <v>282</v>
+      </c>
+      <c r="F57" t="s">
         <v>283</v>
-      </c>
-      <c r="F57" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3079,10 +3085,10 @@
         <v>243</v>
       </c>
       <c r="E58" t="s">
+        <v>284</v>
+      </c>
+      <c r="F58" t="s">
         <v>285</v>
-      </c>
-      <c r="F58" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3099,10 +3105,10 @@
         <v>243</v>
       </c>
       <c r="E59" t="s">
+        <v>286</v>
+      </c>
+      <c r="F59" t="s">
         <v>287</v>
-      </c>
-      <c r="F59" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -3110,19 +3116,19 @@
         <v>5028</v>
       </c>
       <c r="B60" t="s">
-        <v>250</v>
+        <v>497</v>
       </c>
       <c r="C60" t="s">
-        <v>251</v>
+        <v>498</v>
       </c>
       <c r="D60" t="s">
-        <v>252</v>
+        <v>499</v>
       </c>
       <c r="E60" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="F60" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -3167,19 +3173,19 @@
         <v>6002</v>
       </c>
       <c r="B63" t="s">
+        <v>288</v>
+      </c>
+      <c r="C63" t="s">
         <v>289</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>290</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>291</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>292</v>
-      </c>
-      <c r="F63" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3187,19 +3193,19 @@
         <v>6003</v>
       </c>
       <c r="B64" t="s">
+        <v>288</v>
+      </c>
+      <c r="C64" t="s">
         <v>289</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>290</v>
       </c>
-      <c r="D64" t="s">
-        <v>291</v>
-      </c>
       <c r="E64" t="s">
+        <v>293</v>
+      </c>
+      <c r="F64" t="s">
         <v>294</v>
-      </c>
-      <c r="F64" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -3207,19 +3213,19 @@
         <v>6004</v>
       </c>
       <c r="B65" t="s">
+        <v>288</v>
+      </c>
+      <c r="C65" t="s">
         <v>289</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>290</v>
       </c>
-      <c r="D65" t="s">
-        <v>291</v>
-      </c>
       <c r="E65" t="s">
+        <v>295</v>
+      </c>
+      <c r="F65" t="s">
         <v>296</v>
-      </c>
-      <c r="F65" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -3227,19 +3233,19 @@
         <v>6005</v>
       </c>
       <c r="B66" t="s">
+        <v>288</v>
+      </c>
+      <c r="C66" t="s">
         <v>289</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>290</v>
       </c>
-      <c r="D66" t="s">
-        <v>291</v>
-      </c>
       <c r="E66" t="s">
+        <v>297</v>
+      </c>
+      <c r="F66" t="s">
         <v>298</v>
-      </c>
-      <c r="F66" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -3247,19 +3253,19 @@
         <v>6006</v>
       </c>
       <c r="B67" t="s">
+        <v>288</v>
+      </c>
+      <c r="C67" t="s">
         <v>289</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>290</v>
       </c>
-      <c r="D67" t="s">
-        <v>291</v>
-      </c>
       <c r="E67" t="s">
+        <v>299</v>
+      </c>
+      <c r="F67" t="s">
         <v>300</v>
-      </c>
-      <c r="F67" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3267,19 +3273,19 @@
         <v>6007</v>
       </c>
       <c r="B68" t="s">
+        <v>301</v>
+      </c>
+      <c r="C68" t="s">
         <v>302</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>303</v>
       </c>
-      <c r="D68" t="s">
-        <v>304</v>
-      </c>
       <c r="E68" t="s">
+        <v>363</v>
+      </c>
+      <c r="F68" t="s">
         <v>364</v>
-      </c>
-      <c r="F68" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -3287,19 +3293,19 @@
         <v>6008</v>
       </c>
       <c r="B69" t="s">
+        <v>288</v>
+      </c>
+      <c r="C69" t="s">
         <v>289</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>290</v>
       </c>
-      <c r="D69" t="s">
-        <v>291</v>
-      </c>
       <c r="E69" t="s">
+        <v>304</v>
+      </c>
+      <c r="F69" t="s">
         <v>305</v>
-      </c>
-      <c r="F69" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -3307,19 +3313,19 @@
         <v>6009</v>
       </c>
       <c r="B70" t="s">
+        <v>288</v>
+      </c>
+      <c r="C70" t="s">
         <v>289</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>290</v>
       </c>
-      <c r="D70" t="s">
-        <v>291</v>
-      </c>
       <c r="E70" t="s">
+        <v>306</v>
+      </c>
+      <c r="F70" t="s">
         <v>307</v>
-      </c>
-      <c r="F70" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3327,19 +3333,19 @@
         <v>6010</v>
       </c>
       <c r="B71" t="s">
+        <v>288</v>
+      </c>
+      <c r="C71" t="s">
         <v>289</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>290</v>
       </c>
-      <c r="D71" t="s">
-        <v>291</v>
-      </c>
       <c r="E71" t="s">
+        <v>308</v>
+      </c>
+      <c r="F71" t="s">
         <v>309</v>
-      </c>
-      <c r="F71" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3347,16 +3353,16 @@
         <v>6011</v>
       </c>
       <c r="B72" t="s">
+        <v>288</v>
+      </c>
+      <c r="C72" t="s">
         <v>289</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>290</v>
       </c>
-      <c r="D72" t="s">
-        <v>291</v>
-      </c>
       <c r="E72" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F72" t="s">
         <v>74</v>
@@ -3367,19 +3373,19 @@
         <v>6012</v>
       </c>
       <c r="B73" t="s">
+        <v>288</v>
+      </c>
+      <c r="C73" t="s">
         <v>289</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>290</v>
       </c>
-      <c r="D73" t="s">
-        <v>291</v>
-      </c>
       <c r="E73" t="s">
+        <v>311</v>
+      </c>
+      <c r="F73" t="s">
         <v>312</v>
-      </c>
-      <c r="F73" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3387,19 +3393,19 @@
         <v>6013</v>
       </c>
       <c r="B74" t="s">
+        <v>288</v>
+      </c>
+      <c r="C74" t="s">
         <v>289</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>290</v>
       </c>
-      <c r="D74" t="s">
-        <v>291</v>
-      </c>
       <c r="E74" t="s">
+        <v>313</v>
+      </c>
+      <c r="F74" t="s">
         <v>314</v>
-      </c>
-      <c r="F74" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3407,19 +3413,19 @@
         <v>6014</v>
       </c>
       <c r="B75" t="s">
+        <v>301</v>
+      </c>
+      <c r="C75" t="s">
         <v>302</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>303</v>
       </c>
-      <c r="D75" t="s">
-        <v>304</v>
-      </c>
       <c r="E75" t="s">
+        <v>365</v>
+      </c>
+      <c r="F75" t="s">
         <v>366</v>
-      </c>
-      <c r="F75" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3427,19 +3433,19 @@
         <v>6015</v>
       </c>
       <c r="B76" t="s">
+        <v>288</v>
+      </c>
+      <c r="C76" t="s">
         <v>289</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>290</v>
       </c>
-      <c r="D76" t="s">
-        <v>291</v>
-      </c>
       <c r="E76" t="s">
+        <v>315</v>
+      </c>
+      <c r="F76" t="s">
         <v>316</v>
-      </c>
-      <c r="F76" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3447,19 +3453,19 @@
         <v>6016</v>
       </c>
       <c r="B77" t="s">
+        <v>288</v>
+      </c>
+      <c r="C77" t="s">
         <v>289</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>290</v>
       </c>
-      <c r="D77" t="s">
-        <v>291</v>
-      </c>
       <c r="E77" t="s">
+        <v>317</v>
+      </c>
+      <c r="F77" t="s">
         <v>318</v>
-      </c>
-      <c r="F77" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3467,19 +3473,19 @@
         <v>6017</v>
       </c>
       <c r="B78" t="s">
+        <v>288</v>
+      </c>
+      <c r="C78" t="s">
         <v>289</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>290</v>
       </c>
-      <c r="D78" t="s">
-        <v>291</v>
-      </c>
       <c r="E78" t="s">
+        <v>319</v>
+      </c>
+      <c r="F78" t="s">
         <v>320</v>
-      </c>
-      <c r="F78" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3487,19 +3493,19 @@
         <v>6018</v>
       </c>
       <c r="B79" t="s">
+        <v>288</v>
+      </c>
+      <c r="C79" t="s">
         <v>289</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>290</v>
       </c>
-      <c r="D79" t="s">
-        <v>291</v>
-      </c>
       <c r="E79" t="s">
+        <v>321</v>
+      </c>
+      <c r="F79" t="s">
         <v>322</v>
-      </c>
-      <c r="F79" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3507,19 +3513,19 @@
         <v>6019</v>
       </c>
       <c r="B80" t="s">
+        <v>288</v>
+      </c>
+      <c r="C80" t="s">
         <v>289</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>290</v>
       </c>
-      <c r="D80" t="s">
-        <v>291</v>
-      </c>
       <c r="E80" t="s">
+        <v>323</v>
+      </c>
+      <c r="F80" t="s">
         <v>324</v>
-      </c>
-      <c r="F80" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3527,19 +3533,19 @@
         <v>6020</v>
       </c>
       <c r="B81" t="s">
+        <v>288</v>
+      </c>
+      <c r="C81" t="s">
         <v>289</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>290</v>
       </c>
-      <c r="D81" t="s">
-        <v>291</v>
-      </c>
       <c r="E81" t="s">
+        <v>325</v>
+      </c>
+      <c r="F81" t="s">
         <v>326</v>
-      </c>
-      <c r="F81" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3547,19 +3553,19 @@
         <v>6021</v>
       </c>
       <c r="B82" t="s">
+        <v>301</v>
+      </c>
+      <c r="C82" t="s">
         <v>302</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>303</v>
       </c>
-      <c r="D82" t="s">
-        <v>304</v>
-      </c>
       <c r="E82" t="s">
+        <v>367</v>
+      </c>
+      <c r="F82" t="s">
         <v>368</v>
-      </c>
-      <c r="F82" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3567,19 +3573,19 @@
         <v>6022</v>
       </c>
       <c r="B83" t="s">
+        <v>288</v>
+      </c>
+      <c r="C83" t="s">
         <v>289</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>290</v>
       </c>
-      <c r="D83" t="s">
-        <v>291</v>
-      </c>
       <c r="E83" t="s">
+        <v>327</v>
+      </c>
+      <c r="F83" t="s">
         <v>328</v>
-      </c>
-      <c r="F83" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3587,19 +3593,19 @@
         <v>6023</v>
       </c>
       <c r="B84" t="s">
+        <v>288</v>
+      </c>
+      <c r="C84" t="s">
         <v>289</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>290</v>
       </c>
-      <c r="D84" t="s">
-        <v>291</v>
-      </c>
       <c r="E84" t="s">
+        <v>329</v>
+      </c>
+      <c r="F84" t="s">
         <v>330</v>
-      </c>
-      <c r="F84" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3607,19 +3613,19 @@
         <v>6024</v>
       </c>
       <c r="B85" t="s">
+        <v>288</v>
+      </c>
+      <c r="C85" t="s">
         <v>289</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>290</v>
       </c>
-      <c r="D85" t="s">
-        <v>291</v>
-      </c>
       <c r="E85" t="s">
+        <v>331</v>
+      </c>
+      <c r="F85" t="s">
         <v>332</v>
-      </c>
-      <c r="F85" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3627,19 +3633,19 @@
         <v>6025</v>
       </c>
       <c r="B86" t="s">
+        <v>288</v>
+      </c>
+      <c r="C86" t="s">
         <v>289</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>290</v>
       </c>
-      <c r="D86" t="s">
-        <v>291</v>
-      </c>
       <c r="E86" t="s">
+        <v>333</v>
+      </c>
+      <c r="F86" t="s">
         <v>334</v>
-      </c>
-      <c r="F86" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3647,19 +3653,19 @@
         <v>6026</v>
       </c>
       <c r="B87" t="s">
+        <v>288</v>
+      </c>
+      <c r="C87" t="s">
         <v>289</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>290</v>
       </c>
-      <c r="D87" t="s">
-        <v>291</v>
-      </c>
       <c r="E87" t="s">
+        <v>335</v>
+      </c>
+      <c r="F87" t="s">
         <v>336</v>
-      </c>
-      <c r="F87" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3667,19 +3673,19 @@
         <v>6027</v>
       </c>
       <c r="B88" t="s">
+        <v>288</v>
+      </c>
+      <c r="C88" t="s">
         <v>289</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>290</v>
       </c>
-      <c r="D88" t="s">
-        <v>291</v>
-      </c>
       <c r="E88" t="s">
+        <v>337</v>
+      </c>
+      <c r="F88" t="s">
         <v>338</v>
-      </c>
-      <c r="F88" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3687,19 +3693,19 @@
         <v>6028</v>
       </c>
       <c r="B89" t="s">
+        <v>301</v>
+      </c>
+      <c r="C89" t="s">
         <v>302</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>303</v>
       </c>
-      <c r="D89" t="s">
-        <v>304</v>
-      </c>
       <c r="E89" t="s">
+        <v>369</v>
+      </c>
+      <c r="F89" t="s">
         <v>370</v>
-      </c>
-      <c r="F89" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -4333,7 +4339,7 @@
         <v>237</v>
       </c>
       <c r="D121" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E121" t="s">
         <v>239</v>
@@ -4353,7 +4359,7 @@
         <v>237</v>
       </c>
       <c r="D122" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E122" t="s">
         <v>241</v>
@@ -4373,7 +4379,7 @@
         <v>237</v>
       </c>
       <c r="D123" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E123" t="s">
         <v>244</v>
@@ -4393,7 +4399,7 @@
         <v>237</v>
       </c>
       <c r="D124" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E124" t="s">
         <v>246</v>
@@ -4413,7 +4419,7 @@
         <v>237</v>
       </c>
       <c r="D125" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E125" t="s">
         <v>248</v>
@@ -4433,13 +4439,13 @@
         <v>251</v>
       </c>
       <c r="D126" t="s">
+        <v>340</v>
+      </c>
+      <c r="E126" t="s">
         <v>341</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>342</v>
-      </c>
-      <c r="F126" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4453,13 +4459,13 @@
         <v>237</v>
       </c>
       <c r="D127" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4473,13 +4479,13 @@
         <v>237</v>
       </c>
       <c r="D128" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -4493,13 +4499,13 @@
         <v>237</v>
       </c>
       <c r="D129" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4513,13 +4519,13 @@
         <v>237</v>
       </c>
       <c r="D130" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -4533,13 +4539,13 @@
         <v>237</v>
       </c>
       <c r="D131" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4553,13 +4559,13 @@
         <v>237</v>
       </c>
       <c r="D132" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -4573,13 +4579,13 @@
         <v>251</v>
       </c>
       <c r="D133" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E133" t="s">
+        <v>343</v>
+      </c>
+      <c r="F133" t="s">
         <v>344</v>
-      </c>
-      <c r="F133" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -4593,13 +4599,13 @@
         <v>237</v>
       </c>
       <c r="D134" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -4613,13 +4619,13 @@
         <v>237</v>
       </c>
       <c r="D135" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -4633,13 +4639,13 @@
         <v>237</v>
       </c>
       <c r="D136" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4653,13 +4659,13 @@
         <v>237</v>
       </c>
       <c r="D137" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -4673,13 +4679,13 @@
         <v>237</v>
       </c>
       <c r="D138" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -4693,13 +4699,13 @@
         <v>237</v>
       </c>
       <c r="D139" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -4713,13 +4719,13 @@
         <v>251</v>
       </c>
       <c r="D140" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E140" t="s">
+        <v>345</v>
+      </c>
+      <c r="F140" t="s">
         <v>346</v>
-      </c>
-      <c r="F140" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -4733,13 +4739,13 @@
         <v>237</v>
       </c>
       <c r="D141" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" t="s">
         <v>277</v>
-      </c>
-      <c r="F141" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -4753,13 +4759,13 @@
         <v>237</v>
       </c>
       <c r="D142" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E142" t="s">
+        <v>278</v>
+      </c>
+      <c r="F142" t="s">
         <v>279</v>
-      </c>
-      <c r="F142" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -4773,13 +4779,13 @@
         <v>237</v>
       </c>
       <c r="D143" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E143" t="s">
+        <v>280</v>
+      </c>
+      <c r="F143" t="s">
         <v>281</v>
-      </c>
-      <c r="F143" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -4793,13 +4799,13 @@
         <v>237</v>
       </c>
       <c r="D144" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s">
         <v>283</v>
-      </c>
-      <c r="F144" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -4813,13 +4819,13 @@
         <v>237</v>
       </c>
       <c r="D145" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
-      </c>
-      <c r="F145" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -4833,13 +4839,13 @@
         <v>237</v>
       </c>
       <c r="D146" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E146" t="s">
+        <v>286</v>
+      </c>
+      <c r="F146" t="s">
         <v>287</v>
-      </c>
-      <c r="F146" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4853,13 +4859,13 @@
         <v>251</v>
       </c>
       <c r="D147" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E147" t="s">
+        <v>347</v>
+      </c>
+      <c r="F147" t="s">
         <v>348</v>
-      </c>
-      <c r="F147" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -4904,19 +4910,19 @@
         <v>109</v>
       </c>
       <c r="B150" t="s">
+        <v>288</v>
+      </c>
+      <c r="C150" t="s">
         <v>289</v>
       </c>
-      <c r="C150" t="s">
-        <v>290</v>
-      </c>
       <c r="D150" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E150" t="s">
+        <v>291</v>
+      </c>
+      <c r="F150" t="s">
         <v>292</v>
-      </c>
-      <c r="F150" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -4924,19 +4930,19 @@
         <v>110</v>
       </c>
       <c r="B151" t="s">
+        <v>288</v>
+      </c>
+      <c r="C151" t="s">
         <v>289</v>
       </c>
-      <c r="C151" t="s">
-        <v>290</v>
-      </c>
       <c r="D151" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E151" t="s">
+        <v>293</v>
+      </c>
+      <c r="F151" t="s">
         <v>294</v>
-      </c>
-      <c r="F151" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -4944,19 +4950,19 @@
         <v>111</v>
       </c>
       <c r="B152" t="s">
+        <v>288</v>
+      </c>
+      <c r="C152" t="s">
         <v>289</v>
       </c>
-      <c r="C152" t="s">
-        <v>290</v>
-      </c>
       <c r="D152" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E152" t="s">
+        <v>295</v>
+      </c>
+      <c r="F152" t="s">
         <v>296</v>
-      </c>
-      <c r="F152" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -4964,19 +4970,19 @@
         <v>112</v>
       </c>
       <c r="B153" t="s">
+        <v>288</v>
+      </c>
+      <c r="C153" t="s">
         <v>289</v>
       </c>
-      <c r="C153" t="s">
-        <v>290</v>
-      </c>
       <c r="D153" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E153" t="s">
+        <v>297</v>
+      </c>
+      <c r="F153" t="s">
         <v>298</v>
-      </c>
-      <c r="F153" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -4984,19 +4990,19 @@
         <v>113</v>
       </c>
       <c r="B154" t="s">
+        <v>288</v>
+      </c>
+      <c r="C154" t="s">
         <v>289</v>
       </c>
-      <c r="C154" t="s">
-        <v>290</v>
-      </c>
       <c r="D154" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E154" t="s">
+        <v>299</v>
+      </c>
+      <c r="F154" t="s">
         <v>300</v>
-      </c>
-      <c r="F154" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -5004,19 +5010,19 @@
         <v>114</v>
       </c>
       <c r="B155" t="s">
+        <v>301</v>
+      </c>
+      <c r="C155" t="s">
         <v>302</v>
       </c>
-      <c r="C155" t="s">
-        <v>303</v>
-      </c>
       <c r="D155" t="s">
+        <v>350</v>
+      </c>
+      <c r="E155" t="s">
         <v>351</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>352</v>
-      </c>
-      <c r="F155" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -5024,19 +5030,19 @@
         <v>205</v>
       </c>
       <c r="B156" t="s">
+        <v>288</v>
+      </c>
+      <c r="C156" t="s">
         <v>289</v>
       </c>
-      <c r="C156" t="s">
-        <v>290</v>
-      </c>
       <c r="D156" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E156" t="s">
+        <v>304</v>
+      </c>
+      <c r="F156" t="s">
         <v>305</v>
-      </c>
-      <c r="F156" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -5044,19 +5050,19 @@
         <v>206</v>
       </c>
       <c r="B157" t="s">
+        <v>288</v>
+      </c>
+      <c r="C157" t="s">
         <v>289</v>
       </c>
-      <c r="C157" t="s">
-        <v>290</v>
-      </c>
       <c r="D157" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -5064,19 +5070,19 @@
         <v>207</v>
       </c>
       <c r="B158" t="s">
+        <v>288</v>
+      </c>
+      <c r="C158" t="s">
         <v>289</v>
       </c>
-      <c r="C158" t="s">
-        <v>290</v>
-      </c>
       <c r="D158" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" t="s">
         <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -5084,16 +5090,16 @@
         <v>208</v>
       </c>
       <c r="B159" t="s">
+        <v>288</v>
+      </c>
+      <c r="C159" t="s">
         <v>289</v>
       </c>
-      <c r="C159" t="s">
-        <v>290</v>
-      </c>
       <c r="D159" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F159" t="s">
         <v>74</v>
@@ -5104,19 +5110,19 @@
         <v>209</v>
       </c>
       <c r="B160" t="s">
+        <v>288</v>
+      </c>
+      <c r="C160" t="s">
         <v>289</v>
       </c>
-      <c r="C160" t="s">
-        <v>290</v>
-      </c>
       <c r="D160" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E160" t="s">
+        <v>311</v>
+      </c>
+      <c r="F160" t="s">
         <v>312</v>
-      </c>
-      <c r="F160" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -5124,19 +5130,19 @@
         <v>210</v>
       </c>
       <c r="B161" t="s">
+        <v>288</v>
+      </c>
+      <c r="C161" t="s">
         <v>289</v>
       </c>
-      <c r="C161" t="s">
-        <v>290</v>
-      </c>
       <c r="D161" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E161" t="s">
+        <v>313</v>
+      </c>
+      <c r="F161" t="s">
         <v>314</v>
-      </c>
-      <c r="F161" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -5144,19 +5150,19 @@
         <v>211</v>
       </c>
       <c r="B162" t="s">
+        <v>301</v>
+      </c>
+      <c r="C162" t="s">
         <v>302</v>
       </c>
-      <c r="C162" t="s">
-        <v>303</v>
-      </c>
       <c r="D162" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E162" t="s">
+        <v>353</v>
+      </c>
+      <c r="F162" t="s">
         <v>354</v>
-      </c>
-      <c r="F162" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -5164,19 +5170,19 @@
         <v>212</v>
       </c>
       <c r="B163" t="s">
+        <v>288</v>
+      </c>
+      <c r="C163" t="s">
         <v>289</v>
       </c>
-      <c r="C163" t="s">
-        <v>290</v>
-      </c>
       <c r="D163" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E163" t="s">
+        <v>315</v>
+      </c>
+      <c r="F163" t="s">
         <v>316</v>
-      </c>
-      <c r="F163" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -5184,19 +5190,19 @@
         <v>213</v>
       </c>
       <c r="B164" t="s">
+        <v>288</v>
+      </c>
+      <c r="C164" t="s">
         <v>289</v>
       </c>
-      <c r="C164" t="s">
-        <v>290</v>
-      </c>
       <c r="D164" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E164" t="s">
+        <v>317</v>
+      </c>
+      <c r="F164" t="s">
         <v>318</v>
-      </c>
-      <c r="F164" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -5204,19 +5210,19 @@
         <v>214</v>
       </c>
       <c r="B165" t="s">
+        <v>288</v>
+      </c>
+      <c r="C165" t="s">
         <v>289</v>
       </c>
-      <c r="C165" t="s">
-        <v>290</v>
-      </c>
       <c r="D165" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E165" t="s">
+        <v>319</v>
+      </c>
+      <c r="F165" t="s">
         <v>320</v>
-      </c>
-      <c r="F165" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -5224,19 +5230,19 @@
         <v>215</v>
       </c>
       <c r="B166" t="s">
+        <v>288</v>
+      </c>
+      <c r="C166" t="s">
         <v>289</v>
       </c>
-      <c r="C166" t="s">
-        <v>290</v>
-      </c>
       <c r="D166" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E166" t="s">
+        <v>321</v>
+      </c>
+      <c r="F166" t="s">
         <v>322</v>
-      </c>
-      <c r="F166" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -5244,19 +5250,19 @@
         <v>216</v>
       </c>
       <c r="B167" t="s">
+        <v>288</v>
+      </c>
+      <c r="C167" t="s">
         <v>289</v>
       </c>
-      <c r="C167" t="s">
-        <v>290</v>
-      </c>
       <c r="D167" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E167" t="s">
+        <v>323</v>
+      </c>
+      <c r="F167" t="s">
         <v>324</v>
-      </c>
-      <c r="F167" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -5264,19 +5270,19 @@
         <v>217</v>
       </c>
       <c r="B168" t="s">
+        <v>288</v>
+      </c>
+      <c r="C168" t="s">
         <v>289</v>
       </c>
-      <c r="C168" t="s">
-        <v>290</v>
-      </c>
       <c r="D168" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E168" t="s">
+        <v>325</v>
+      </c>
+      <c r="F168" t="s">
         <v>326</v>
-      </c>
-      <c r="F168" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -5284,19 +5290,19 @@
         <v>218</v>
       </c>
       <c r="B169" t="s">
+        <v>301</v>
+      </c>
+      <c r="C169" t="s">
         <v>302</v>
       </c>
-      <c r="C169" t="s">
-        <v>303</v>
-      </c>
       <c r="D169" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E169" t="s">
+        <v>355</v>
+      </c>
+      <c r="F169" t="s">
         <v>356</v>
-      </c>
-      <c r="F169" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -5304,19 +5310,19 @@
         <v>219</v>
       </c>
       <c r="B170" t="s">
+        <v>288</v>
+      </c>
+      <c r="C170" t="s">
         <v>289</v>
       </c>
-      <c r="C170" t="s">
-        <v>290</v>
-      </c>
       <c r="D170" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E170" t="s">
+        <v>327</v>
+      </c>
+      <c r="F170" t="s">
         <v>328</v>
-      </c>
-      <c r="F170" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -5324,19 +5330,19 @@
         <v>220</v>
       </c>
       <c r="B171" t="s">
+        <v>288</v>
+      </c>
+      <c r="C171" t="s">
         <v>289</v>
       </c>
-      <c r="C171" t="s">
-        <v>290</v>
-      </c>
       <c r="D171" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E171" t="s">
+        <v>329</v>
+      </c>
+      <c r="F171" t="s">
         <v>330</v>
-      </c>
-      <c r="F171" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -5344,19 +5350,19 @@
         <v>221</v>
       </c>
       <c r="B172" t="s">
+        <v>288</v>
+      </c>
+      <c r="C172" t="s">
         <v>289</v>
       </c>
-      <c r="C172" t="s">
-        <v>290</v>
-      </c>
       <c r="D172" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E172" t="s">
+        <v>331</v>
+      </c>
+      <c r="F172" t="s">
         <v>332</v>
-      </c>
-      <c r="F172" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -5364,19 +5370,19 @@
         <v>222</v>
       </c>
       <c r="B173" t="s">
+        <v>288</v>
+      </c>
+      <c r="C173" t="s">
         <v>289</v>
       </c>
-      <c r="C173" t="s">
-        <v>290</v>
-      </c>
       <c r="D173" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E173" t="s">
+        <v>333</v>
+      </c>
+      <c r="F173" t="s">
         <v>334</v>
-      </c>
-      <c r="F173" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -5384,19 +5390,19 @@
         <v>223</v>
       </c>
       <c r="B174" t="s">
+        <v>288</v>
+      </c>
+      <c r="C174" t="s">
         <v>289</v>
       </c>
-      <c r="C174" t="s">
-        <v>290</v>
-      </c>
       <c r="D174" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E174" t="s">
+        <v>335</v>
+      </c>
+      <c r="F174" t="s">
         <v>336</v>
-      </c>
-      <c r="F174" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -5404,19 +5410,19 @@
         <v>224</v>
       </c>
       <c r="B175" t="s">
+        <v>288</v>
+      </c>
+      <c r="C175" t="s">
         <v>289</v>
       </c>
-      <c r="C175" t="s">
-        <v>290</v>
-      </c>
       <c r="D175" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E175" t="s">
+        <v>337</v>
+      </c>
+      <c r="F175" t="s">
         <v>338</v>
-      </c>
-      <c r="F175" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -5424,544 +5430,544 @@
         <v>225</v>
       </c>
       <c r="B176" t="s">
+        <v>301</v>
+      </c>
+      <c r="C176" t="s">
         <v>302</v>
       </c>
-      <c r="C176" t="s">
-        <v>303</v>
-      </c>
       <c r="D176" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E176" t="s">
+        <v>357</v>
+      </c>
+      <c r="F176" t="s">
         <v>358</v>
-      </c>
-      <c r="F176" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B177" t="s">
+        <v>436</v>
+      </c>
+      <c r="C177" t="s">
         <v>437</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
+        <v>490</v>
+      </c>
+      <c r="E177" t="s">
         <v>438</v>
       </c>
-      <c r="D177" t="s">
-        <v>491</v>
-      </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>439</v>
-      </c>
-      <c r="F177" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B178" t="s">
+        <v>436</v>
+      </c>
+      <c r="C178" t="s">
         <v>437</v>
       </c>
-      <c r="C178" t="s">
-        <v>438</v>
-      </c>
       <c r="D178" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E178" t="s">
+        <v>440</v>
+      </c>
+      <c r="F178" t="s">
         <v>441</v>
-      </c>
-      <c r="F178" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B179" t="s">
+        <v>436</v>
+      </c>
+      <c r="C179" t="s">
         <v>437</v>
       </c>
-      <c r="C179" t="s">
-        <v>438</v>
-      </c>
       <c r="D179" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E179" t="s">
+        <v>442</v>
+      </c>
+      <c r="F179" t="s">
         <v>443</v>
-      </c>
-      <c r="F179" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B180" t="s">
+        <v>436</v>
+      </c>
+      <c r="C180" t="s">
         <v>437</v>
       </c>
-      <c r="C180" t="s">
-        <v>438</v>
-      </c>
       <c r="D180" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E180" t="s">
+        <v>444</v>
+      </c>
+      <c r="F180" t="s">
         <v>445</v>
-      </c>
-      <c r="F180" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B181" t="s">
+        <v>436</v>
+      </c>
+      <c r="C181" t="s">
         <v>437</v>
       </c>
-      <c r="C181" t="s">
-        <v>438</v>
-      </c>
       <c r="D181" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E181" t="s">
+        <v>446</v>
+      </c>
+      <c r="F181" t="s">
         <v>447</v>
-      </c>
-      <c r="F181" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B182" t="s">
+        <v>436</v>
+      </c>
+      <c r="C182" t="s">
         <v>437</v>
       </c>
-      <c r="C182" t="s">
-        <v>438</v>
-      </c>
       <c r="D182" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E182" t="s">
+        <v>448</v>
+      </c>
+      <c r="F182" t="s">
         <v>449</v>
-      </c>
-      <c r="F182" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B183" t="s">
+        <v>436</v>
+      </c>
+      <c r="C183" t="s">
         <v>437</v>
       </c>
-      <c r="C183" t="s">
-        <v>438</v>
-      </c>
       <c r="D183" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E183" t="s">
+        <v>450</v>
+      </c>
+      <c r="F183" t="s">
         <v>451</v>
-      </c>
-      <c r="F183" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B184" t="s">
+        <v>436</v>
+      </c>
+      <c r="C184" t="s">
         <v>437</v>
       </c>
-      <c r="C184" t="s">
-        <v>438</v>
-      </c>
       <c r="D184" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E184" t="s">
+        <v>452</v>
+      </c>
+      <c r="F184" t="s">
         <v>453</v>
-      </c>
-      <c r="F184" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B185" t="s">
+        <v>436</v>
+      </c>
+      <c r="C185" t="s">
         <v>437</v>
       </c>
-      <c r="C185" t="s">
-        <v>438</v>
-      </c>
       <c r="D185" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E185" t="s">
+        <v>454</v>
+      </c>
+      <c r="F185" t="s">
         <v>455</v>
-      </c>
-      <c r="F185" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B186" t="s">
+        <v>436</v>
+      </c>
+      <c r="C186" t="s">
         <v>437</v>
       </c>
-      <c r="C186" t="s">
-        <v>438</v>
-      </c>
       <c r="D186" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E186" t="s">
+        <v>456</v>
+      </c>
+      <c r="F186" t="s">
         <v>457</v>
-      </c>
-      <c r="F186" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B187" t="s">
+        <v>436</v>
+      </c>
+      <c r="C187" t="s">
         <v>437</v>
       </c>
-      <c r="C187" t="s">
-        <v>438</v>
-      </c>
       <c r="D187" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E187" t="s">
+        <v>458</v>
+      </c>
+      <c r="F187" t="s">
         <v>459</v>
-      </c>
-      <c r="F187" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B188" t="s">
+        <v>436</v>
+      </c>
+      <c r="C188" t="s">
         <v>437</v>
       </c>
-      <c r="C188" t="s">
-        <v>438</v>
-      </c>
       <c r="D188" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E188" t="s">
+        <v>460</v>
+      </c>
+      <c r="F188" t="s">
         <v>461</v>
-      </c>
-      <c r="F188" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B189" t="s">
+        <v>436</v>
+      </c>
+      <c r="C189" t="s">
         <v>437</v>
       </c>
-      <c r="C189" t="s">
-        <v>438</v>
-      </c>
       <c r="D189" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E189" t="s">
+        <v>462</v>
+      </c>
+      <c r="F189" t="s">
         <v>463</v>
-      </c>
-      <c r="F189" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B190" t="s">
+        <v>436</v>
+      </c>
+      <c r="C190" t="s">
         <v>437</v>
       </c>
-      <c r="C190" t="s">
-        <v>438</v>
-      </c>
       <c r="D190" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E190" t="s">
+        <v>464</v>
+      </c>
+      <c r="F190" t="s">
         <v>465</v>
-      </c>
-      <c r="F190" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B191" t="s">
+        <v>436</v>
+      </c>
+      <c r="C191" t="s">
         <v>437</v>
       </c>
-      <c r="C191" t="s">
-        <v>438</v>
-      </c>
       <c r="D191" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E191" t="s">
+        <v>466</v>
+      </c>
+      <c r="F191" t="s">
         <v>467</v>
-      </c>
-      <c r="F191" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B192" t="s">
+        <v>436</v>
+      </c>
+      <c r="C192" t="s">
         <v>437</v>
       </c>
-      <c r="C192" t="s">
-        <v>438</v>
-      </c>
       <c r="D192" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E192" t="s">
+        <v>468</v>
+      </c>
+      <c r="F192" t="s">
         <v>469</v>
-      </c>
-      <c r="F192" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B193" t="s">
+        <v>436</v>
+      </c>
+      <c r="C193" t="s">
         <v>437</v>
       </c>
-      <c r="C193" t="s">
-        <v>438</v>
-      </c>
       <c r="D193" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E193" t="s">
+        <v>470</v>
+      </c>
+      <c r="F193" t="s">
         <v>471</v>
-      </c>
-      <c r="F193" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B194" t="s">
+        <v>436</v>
+      </c>
+      <c r="C194" t="s">
         <v>437</v>
       </c>
-      <c r="C194" t="s">
-        <v>438</v>
-      </c>
       <c r="D194" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E194" t="s">
+        <v>472</v>
+      </c>
+      <c r="F194" t="s">
         <v>473</v>
-      </c>
-      <c r="F194" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B195" t="s">
+        <v>436</v>
+      </c>
+      <c r="C195" t="s">
         <v>437</v>
       </c>
-      <c r="C195" t="s">
-        <v>438</v>
-      </c>
       <c r="D195" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E195" t="s">
+        <v>474</v>
+      </c>
+      <c r="F195" t="s">
         <v>475</v>
-      </c>
-      <c r="F195" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B196" t="s">
+        <v>436</v>
+      </c>
+      <c r="C196" t="s">
         <v>437</v>
       </c>
-      <c r="C196" t="s">
-        <v>438</v>
-      </c>
       <c r="D196" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E196" t="s">
+        <v>476</v>
+      </c>
+      <c r="F196" t="s">
         <v>477</v>
-      </c>
-      <c r="F196" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B197" t="s">
+        <v>436</v>
+      </c>
+      <c r="C197" t="s">
         <v>437</v>
       </c>
-      <c r="C197" t="s">
-        <v>438</v>
-      </c>
       <c r="D197" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E197" t="s">
+        <v>478</v>
+      </c>
+      <c r="F197" t="s">
         <v>479</v>
-      </c>
-      <c r="F197" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B198" t="s">
+        <v>436</v>
+      </c>
+      <c r="C198" t="s">
         <v>437</v>
       </c>
-      <c r="C198" t="s">
-        <v>438</v>
-      </c>
       <c r="D198" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E198" t="s">
+        <v>480</v>
+      </c>
+      <c r="F198" t="s">
         <v>481</v>
-      </c>
-      <c r="F198" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B199" t="s">
+        <v>436</v>
+      </c>
+      <c r="C199" t="s">
         <v>437</v>
       </c>
-      <c r="C199" t="s">
-        <v>438</v>
-      </c>
       <c r="D199" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E199" t="s">
+        <v>482</v>
+      </c>
+      <c r="F199" t="s">
         <v>483</v>
-      </c>
-      <c r="F199" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B200" t="s">
+        <v>436</v>
+      </c>
+      <c r="C200" t="s">
         <v>437</v>
       </c>
-      <c r="C200" t="s">
-        <v>438</v>
-      </c>
       <c r="D200" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E200" t="s">
+        <v>484</v>
+      </c>
+      <c r="F200" t="s">
         <v>485</v>
-      </c>
-      <c r="F200" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B201" t="s">
+        <v>436</v>
+      </c>
+      <c r="C201" t="s">
         <v>437</v>
       </c>
-      <c r="C201" t="s">
-        <v>438</v>
-      </c>
       <c r="D201" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E201" t="s">
+        <v>486</v>
+      </c>
+      <c r="F201" t="s">
         <v>487</v>
-      </c>
-      <c r="F201" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B202" t="s">
+        <v>436</v>
+      </c>
+      <c r="C202" t="s">
         <v>437</v>
       </c>
-      <c r="C202" t="s">
-        <v>438</v>
-      </c>
       <c r="D202" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E202" t="s">
+        <v>488</v>
+      </c>
+      <c r="F202" t="s">
         <v>489</v>
-      </c>
-      <c r="F202" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B203">
         <v>2</v>
@@ -5978,7 +5984,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B204">
         <v>2</v>
@@ -5995,7 +6001,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -6012,7 +6018,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B206">
         <v>2</v>
@@ -6029,7 +6035,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B207">
         <v>2</v>
@@ -6046,7 +6052,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B208">
         <v>2</v>
@@ -6063,7 +6069,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B209">
         <v>2</v>
@@ -6080,7 +6086,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -6097,7 +6103,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -6114,7 +6120,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B212">
         <v>2</v>
@@ -6131,7 +6137,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B213">
         <v>2</v>
@@ -6148,7 +6154,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -6165,7 +6171,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B215">
         <v>2</v>
@@ -6182,7 +6188,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -6199,7 +6205,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B217">
         <v>2</v>
@@ -6216,7 +6222,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B218">
         <v>2</v>
@@ -6233,7 +6239,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B219">
         <v>2</v>
@@ -6250,7 +6256,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B220">
         <v>2</v>
@@ -6267,7 +6273,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B221">
         <v>2</v>
@@ -6284,7 +6290,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -6301,7 +6307,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B223">
         <v>2</v>
@@ -6318,7 +6324,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B224">
         <v>2</v>
@@ -6335,7 +6341,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B225">
         <v>2</v>
@@ -6352,7 +6358,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B226">
         <v>2</v>
@@ -6369,7 +6375,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B227">
         <v>2</v>
@@ -6386,7 +6392,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -6449,7 +6455,7 @@
         <v>44</v>
       </c>
       <c r="C231" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D231" t="s">
         <v>226</v>
@@ -6469,7 +6475,7 @@
         <v>44</v>
       </c>
       <c r="C232" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D232" t="s">
         <v>226</v>
@@ -6495,10 +6501,10 @@
         <v>227</v>
       </c>
       <c r="E233" t="s">
+        <v>361</v>
+      </c>
+      <c r="F233" t="s">
         <v>362</v>
-      </c>
-      <c r="F233" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -6543,7 +6549,7 @@
         <v>50</v>
       </c>
       <c r="C236" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D236" t="s">
         <v>51</v>
@@ -6574,7 +6580,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B238">
         <v>12</v>
@@ -6591,27 +6597,27 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="B239" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="C239" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D239" t="s">
         <v>51</v>
       </c>
       <c r="E239" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="F239" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="B240">
         <v>2</v>
@@ -6851,19 +6857,19 @@
         <v>87</v>
       </c>
       <c r="B252" t="s">
+        <v>424</v>
+      </c>
+      <c r="C252" t="s">
         <v>425</v>
-      </c>
-      <c r="C252" t="s">
-        <v>426</v>
       </c>
       <c r="D252" t="s">
         <v>59</v>
       </c>
       <c r="E252" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F252" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -6871,19 +6877,19 @@
         <v>88</v>
       </c>
       <c r="B253" t="s">
+        <v>427</v>
+      </c>
+      <c r="C253" t="s">
         <v>428</v>
-      </c>
-      <c r="C253" t="s">
-        <v>429</v>
       </c>
       <c r="D253" t="s">
         <v>20</v>
       </c>
       <c r="E253" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F253" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -6891,19 +6897,19 @@
         <v>89</v>
       </c>
       <c r="B254" t="s">
+        <v>430</v>
+      </c>
+      <c r="C254" t="s">
         <v>431</v>
-      </c>
-      <c r="C254" t="s">
-        <v>432</v>
       </c>
       <c r="D254" t="s">
         <v>66</v>
       </c>
       <c r="E254" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F254" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -6911,19 +6917,19 @@
         <v>90</v>
       </c>
       <c r="B255" t="s">
+        <v>433</v>
+      </c>
+      <c r="C255" t="s">
         <v>434</v>
-      </c>
-      <c r="C255" t="s">
-        <v>435</v>
       </c>
       <c r="D255" t="s">
         <v>70</v>
       </c>
       <c r="E255" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F255" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -7736,7 +7742,7 @@
         <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC206CF-67F8-434E-BC25-F1FACC49A1D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE48A37E-EE68-460E-B0EB-8A48A923E0FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="511">
   <si>
     <t>dropId|String</t>
   </si>
@@ -1557,6 +1557,15 @@
   </si>
   <si>
     <t>31.117, 100, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>ReconstructDiamond</t>
+  </si>
+  <si>
+    <t>Wjstjfwkdqlk</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
@@ -1920,7 +1929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F255"/>
+  <dimension ref="A1:F257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6634,173 +6643,170 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>53</v>
-      </c>
-      <c r="B241" t="s">
-        <v>54</v>
-      </c>
-      <c r="C241" t="s">
-        <v>55</v>
-      </c>
-      <c r="D241" t="s">
-        <v>51</v>
-      </c>
-      <c r="E241" t="s">
-        <v>51</v>
-      </c>
-      <c r="F241" t="s">
-        <v>51</v>
+        <v>508</v>
+      </c>
+      <c r="B241">
+        <v>8</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+      <c r="E241">
+        <v>9999</v>
+      </c>
+      <c r="F241">
+        <v>9999</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>56</v>
-      </c>
-      <c r="B242" t="s">
-        <v>57</v>
+        <v>509</v>
+      </c>
+      <c r="B242">
+        <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>58</v>
-      </c>
-      <c r="D242" t="s">
-        <v>59</v>
-      </c>
-      <c r="E242" t="s">
-        <v>59</v>
-      </c>
-      <c r="F242" t="s">
-        <v>59</v>
+        <v>510</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B243" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C243" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D243" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E243" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F243" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B244" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C244" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D244" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E244" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F244" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B245" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C245" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D245" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E245" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F245" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B246" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C246" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D246" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E246" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F246" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>76</v>
-      </c>
-      <c r="B247">
-        <v>9</v>
+        <v>67</v>
+      </c>
+      <c r="B247" t="s">
+        <v>68</v>
       </c>
       <c r="C247" t="s">
-        <v>77</v>
-      </c>
-      <c r="D247">
-        <v>1</v>
-      </c>
-      <c r="E247">
-        <v>1</v>
-      </c>
-      <c r="F247">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="D247" t="s">
+        <v>70</v>
+      </c>
+      <c r="E247" t="s">
+        <v>70</v>
+      </c>
+      <c r="F247" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>78</v>
-      </c>
-      <c r="B248">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="B248" t="s">
+        <v>72</v>
       </c>
       <c r="C248" t="s">
-        <v>79</v>
-      </c>
-      <c r="D248">
-        <v>1</v>
-      </c>
-      <c r="E248">
-        <v>1</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="D248" t="s">
+        <v>74</v>
+      </c>
+      <c r="E248" t="s">
+        <v>74</v>
+      </c>
+      <c r="F248" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B249">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C249" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D249">
         <v>1</v>
@@ -6814,13 +6820,13 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B250">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C250" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D250">
         <v>1</v>
@@ -6834,13 +6840,13 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B251">
         <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D251">
         <v>1</v>
@@ -6854,81 +6860,121 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>87</v>
-      </c>
-      <c r="B252" t="s">
-        <v>424</v>
+        <v>82</v>
+      </c>
+      <c r="B252">
+        <v>5</v>
       </c>
       <c r="C252" t="s">
-        <v>425</v>
-      </c>
-      <c r="D252" t="s">
-        <v>59</v>
-      </c>
-      <c r="E252" t="s">
-        <v>426</v>
-      </c>
-      <c r="F252" t="s">
-        <v>426</v>
+        <v>83</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>88</v>
-      </c>
-      <c r="B253" t="s">
-        <v>427</v>
+        <v>84</v>
+      </c>
+      <c r="B253">
+        <v>5</v>
       </c>
       <c r="C253" t="s">
-        <v>428</v>
-      </c>
-      <c r="D253" t="s">
-        <v>20</v>
-      </c>
-      <c r="E253" t="s">
-        <v>429</v>
-      </c>
-      <c r="F253" t="s">
-        <v>429</v>
+        <v>85</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B254" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C254" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D254" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E254" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F254" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
+        <v>88</v>
+      </c>
+      <c r="B255" t="s">
+        <v>427</v>
+      </c>
+      <c r="C255" t="s">
+        <v>428</v>
+      </c>
+      <c r="D255" t="s">
+        <v>20</v>
+      </c>
+      <c r="E255" t="s">
+        <v>429</v>
+      </c>
+      <c r="F255" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>89</v>
+      </c>
+      <c r="B256" t="s">
+        <v>430</v>
+      </c>
+      <c r="C256" t="s">
+        <v>431</v>
+      </c>
+      <c r="D256" t="s">
+        <v>66</v>
+      </c>
+      <c r="E256" t="s">
+        <v>432</v>
+      </c>
+      <c r="F256" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
         <v>90</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B257" t="s">
         <v>433</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C257" t="s">
         <v>434</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D257" t="s">
         <v>70</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E257" t="s">
         <v>435</v>
       </c>
-      <c r="F255" t="s">
+      <c r="F257" t="s">
         <v>435</v>
       </c>
     </row>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE48A37E-EE68-460E-B0EB-8A48A923E0FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3980ADE5-FD8A-498E-AF99-386A912BB6D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -1974,10 +1974,10 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F2">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3980ADE5-FD8A-498E-AF99-386A912BB6D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B3B211-31C6-4096-9A44-39F7F3049B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -1931,9 +1931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
   <dimension ref="A1:F257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1974,10 +1972,10 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>66.667000000000002</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>66.667000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B3B211-31C6-4096-9A44-39F7F3049B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EE2B21-A992-40BA-883F-E077AF35053F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="516">
   <si>
     <t>dropId|String</t>
   </si>
@@ -1307,15 +1307,6 @@
     <t xml:space="preserve">, </t>
   </si>
   <si>
-    <t>2, 2, 5</t>
-  </si>
-  <si>
-    <t>, , k</t>
-  </si>
-  <si>
-    <t>9, 9, 1</t>
-  </si>
-  <si>
     <t>2, 2, 5, 5</t>
   </si>
   <si>
@@ -1566,6 +1557,30 @@
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t>Shemwkdx</t>
+  </si>
+  <si>
+    <t>2, 2, 5, 5, 5, 5, 5</t>
+  </si>
+  <si>
+    <t>, , k, k, k, k, k</t>
+  </si>
+  <si>
+    <t>9, 9, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>Shemwkdy</t>
+  </si>
+  <si>
+    <t>2, 2, 5, 5, 5, 5, 5, 5</t>
+  </si>
+  <si>
+    <t>, , k, k, k, k, k, k</t>
+  </si>
+  <si>
+    <t>9, 9, 1, 1, 1, 1, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -1929,9 +1944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F257"/>
+  <dimension ref="A1:F259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2703,19 +2720,19 @@
         <v>5007</v>
       </c>
       <c r="B39" t="s">
+        <v>494</v>
+      </c>
+      <c r="C39" t="s">
+        <v>495</v>
+      </c>
+      <c r="D39" t="s">
+        <v>496</v>
+      </c>
+      <c r="E39" t="s">
         <v>497</v>
       </c>
-      <c r="C39" t="s">
+      <c r="F39" t="s">
         <v>498</v>
-      </c>
-      <c r="D39" t="s">
-        <v>499</v>
-      </c>
-      <c r="E39" t="s">
-        <v>500</v>
-      </c>
-      <c r="F39" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2843,19 +2860,19 @@
         <v>5014</v>
       </c>
       <c r="B46" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C46" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D46" t="s">
+        <v>496</v>
+      </c>
+      <c r="E46" t="s">
         <v>499</v>
       </c>
-      <c r="E46" t="s">
-        <v>502</v>
-      </c>
       <c r="F46" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2983,19 +3000,19 @@
         <v>5021</v>
       </c>
       <c r="B53" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C53" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D53" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E53" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F53" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3123,19 +3140,19 @@
         <v>5028</v>
       </c>
       <c r="B60" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C60" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D60" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E60" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F60" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -5457,19 +5474,19 @@
         <v>371</v>
       </c>
       <c r="B177" t="s">
+        <v>433</v>
+      </c>
+      <c r="C177" t="s">
+        <v>434</v>
+      </c>
+      <c r="D177" t="s">
+        <v>487</v>
+      </c>
+      <c r="E177" t="s">
+        <v>435</v>
+      </c>
+      <c r="F177" t="s">
         <v>436</v>
-      </c>
-      <c r="C177" t="s">
-        <v>437</v>
-      </c>
-      <c r="D177" t="s">
-        <v>490</v>
-      </c>
-      <c r="E177" t="s">
-        <v>438</v>
-      </c>
-      <c r="F177" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -5477,19 +5494,19 @@
         <v>372</v>
       </c>
       <c r="B178" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C178" t="s">
+        <v>434</v>
+      </c>
+      <c r="D178" t="s">
+        <v>487</v>
+      </c>
+      <c r="E178" t="s">
         <v>437</v>
       </c>
-      <c r="D178" t="s">
-        <v>490</v>
-      </c>
-      <c r="E178" t="s">
-        <v>440</v>
-      </c>
       <c r="F178" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -5497,19 +5514,19 @@
         <v>373</v>
       </c>
       <c r="B179" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C179" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D179" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E179" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F179" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -5517,19 +5534,19 @@
         <v>374</v>
       </c>
       <c r="B180" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C180" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D180" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E180" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F180" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -5537,19 +5554,19 @@
         <v>375</v>
       </c>
       <c r="B181" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C181" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D181" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E181" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F181" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -5557,19 +5574,19 @@
         <v>376</v>
       </c>
       <c r="B182" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C182" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D182" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E182" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F182" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -5577,19 +5594,19 @@
         <v>377</v>
       </c>
       <c r="B183" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C183" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D183" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E183" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F183" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -5597,19 +5614,19 @@
         <v>378</v>
       </c>
       <c r="B184" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C184" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D184" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E184" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F184" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -5617,19 +5634,19 @@
         <v>379</v>
       </c>
       <c r="B185" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C185" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D185" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E185" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F185" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -5637,19 +5654,19 @@
         <v>380</v>
       </c>
       <c r="B186" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C186" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D186" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E186" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F186" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -5657,19 +5674,19 @@
         <v>381</v>
       </c>
       <c r="B187" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C187" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D187" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E187" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F187" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -5677,19 +5694,19 @@
         <v>382</v>
       </c>
       <c r="B188" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C188" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D188" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E188" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F188" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -5697,19 +5714,19 @@
         <v>383</v>
       </c>
       <c r="B189" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C189" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D189" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E189" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F189" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -5717,19 +5734,19 @@
         <v>384</v>
       </c>
       <c r="B190" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C190" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D190" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E190" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F190" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -5737,19 +5754,19 @@
         <v>385</v>
       </c>
       <c r="B191" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C191" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D191" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E191" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F191" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -5757,19 +5774,19 @@
         <v>386</v>
       </c>
       <c r="B192" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C192" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D192" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E192" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F192" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -5777,19 +5794,19 @@
         <v>387</v>
       </c>
       <c r="B193" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C193" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D193" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E193" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F193" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -5797,19 +5814,19 @@
         <v>388</v>
       </c>
       <c r="B194" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C194" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D194" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E194" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F194" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -5817,19 +5834,19 @@
         <v>389</v>
       </c>
       <c r="B195" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C195" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D195" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E195" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F195" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -5837,19 +5854,19 @@
         <v>390</v>
       </c>
       <c r="B196" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C196" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D196" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E196" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F196" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -5857,19 +5874,19 @@
         <v>391</v>
       </c>
       <c r="B197" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C197" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D197" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E197" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F197" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -5877,19 +5894,19 @@
         <v>392</v>
       </c>
       <c r="B198" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C198" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D198" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E198" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F198" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -5897,19 +5914,19 @@
         <v>393</v>
       </c>
       <c r="B199" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C199" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D199" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E199" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F199" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -5917,19 +5934,19 @@
         <v>394</v>
       </c>
       <c r="B200" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C200" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D200" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E200" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F200" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -5937,19 +5954,19 @@
         <v>395</v>
       </c>
       <c r="B201" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C201" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D201" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E201" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F201" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -5957,19 +5974,19 @@
         <v>396</v>
       </c>
       <c r="B202" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C202" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D202" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E202" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F202" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -6587,7 +6604,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B238">
         <v>12</v>
@@ -6604,10 +6621,10 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B239" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C239" t="s">
         <v>423</v>
@@ -6616,15 +6633,15 @@
         <v>51</v>
       </c>
       <c r="E239" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F239" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B240">
         <v>2</v>
@@ -6641,7 +6658,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B241">
         <v>8</v>
@@ -6658,13 +6675,13 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B242">
         <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D242">
         <v>1</v>
@@ -6907,7 +6924,7 @@
         <v>425</v>
       </c>
       <c r="D254" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E254" t="s">
         <v>426</v>
@@ -6927,7 +6944,7 @@
         <v>428</v>
       </c>
       <c r="D255" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E255" t="s">
         <v>429</v>
@@ -6947,7 +6964,7 @@
         <v>431</v>
       </c>
       <c r="D256" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E256" t="s">
         <v>432</v>
@@ -6961,19 +6978,59 @@
         <v>90</v>
       </c>
       <c r="B257" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C257" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D257" t="s">
         <v>70</v>
       </c>
       <c r="E257" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F257" t="s">
-        <v>435</v>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>508</v>
+      </c>
+      <c r="B258" t="s">
+        <v>509</v>
+      </c>
+      <c r="C258" t="s">
+        <v>510</v>
+      </c>
+      <c r="D258" t="s">
+        <v>74</v>
+      </c>
+      <c r="E258" t="s">
+        <v>511</v>
+      </c>
+      <c r="F258" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>512</v>
+      </c>
+      <c r="B259" t="s">
+        <v>513</v>
+      </c>
+      <c r="C259" t="s">
+        <v>514</v>
+      </c>
+      <c r="D259" t="s">
+        <v>39</v>
+      </c>
+      <c r="E259" t="s">
+        <v>515</v>
+      </c>
+      <c r="F259" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -7786,7 +7843,7 @@
         <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EE2B21-A992-40BA-883F-E077AF35053F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332DC2F1-7113-4814-A4CA-D6BBFA73ECF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="515">
   <si>
     <t>dropId|String</t>
   </si>
@@ -725,12 +725,6 @@
     <t>1, 1, 0.2</t>
   </si>
   <si>
-    <t>1, 1, 1, 1, 1, 0.3</t>
-  </si>
-  <si>
-    <t>1, 1, 0.3</t>
-  </si>
-  <si>
     <t>1250, 1250, 3, 12, 12, 12, 12, 12, 1</t>
   </si>
   <si>
@@ -749,9 +743,6 @@
     <t>, , , , , , e, e, e</t>
   </si>
   <si>
-    <t>1, 1, 1, 1, 1, 0.3, 0.17, 0.085, 0.017</t>
-  </si>
-  <si>
     <t>0.085, 100, 2, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -785,12 +776,6 @@
     <t>0.825, 100, 2, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
-    <t>2, 1, 4, 3, 7, 5, 5, 5</t>
-  </si>
-  <si>
-    <t>, , , , , e, e, e</t>
-  </si>
-  <si>
     <t>0.295, 100, 2, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -1055,63 +1040,9 @@
     <t>1, 1, 1, 1, 1, 0.2, 0.25, 0.125, 0.025</t>
   </si>
   <si>
-    <t>1, 1, 1, 1, 1, 0.25, 0.125, 0.025</t>
-  </si>
-  <si>
-    <t>0.26, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.86, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.505, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.105, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.75, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.35, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.995, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.595, 100, 2, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>1, 1, 0.2, 0.5, 0.25, 0.1, 0.05</t>
   </si>
   <si>
-    <t>1, 1, 0.5, 0.25, 0.1, 0.05</t>
-  </si>
-  <si>
-    <t>0.26, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.86, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.505, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.105, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.75, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.35, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>0.995, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
-    <t>1.595, 1, 1, 1, 1, 1</t>
-  </si>
-  <si>
     <t>, , , f, f, f, f, f, x</t>
   </si>
   <si>
@@ -1581,6 +1512,72 @@
   </si>
   <si>
     <t>9, 9, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 0.9</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 0.7, 0.17, 0.085, 0.017</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 0.5, 0.17, 0.085, 0.017</t>
+  </si>
+  <si>
+    <t>1, 1, 0.9</t>
+  </si>
+  <si>
+    <t>1, 1, 0.7, 0.2, 0.1, 0.04, 0.02</t>
+  </si>
+  <si>
+    <t>1, 1, 0.5, 0.2, 0.1, 0.04, 0.02</t>
+  </si>
+  <si>
+    <t>0.26, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.86, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.505, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.105, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.75, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.35, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.995, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.595, 100, 2, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.26, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.86, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.505, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.105, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.75, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.35, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.995, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>1.595, 1, 1, 1, 1, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -2606,7 +2603,7 @@
         <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>493</v>
       </c>
       <c r="E33" t="s">
         <v>24</v>
@@ -2620,19 +2617,19 @@
         <v>5002</v>
       </c>
       <c r="B34" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" t="s">
+        <v>235</v>
+      </c>
+      <c r="D34" t="s">
+        <v>494</v>
+      </c>
+      <c r="E34" t="s">
         <v>236</v>
       </c>
-      <c r="C34" t="s">
+      <c r="F34" t="s">
         <v>237</v>
-      </c>
-      <c r="D34" t="s">
-        <v>238</v>
-      </c>
-      <c r="E34" t="s">
-        <v>239</v>
-      </c>
-      <c r="F34" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2640,19 +2637,19 @@
         <v>5003</v>
       </c>
       <c r="B35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C35" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D35" t="s">
+        <v>495</v>
+      </c>
+      <c r="E35" t="s">
         <v>238</v>
       </c>
-      <c r="E35" t="s">
-        <v>241</v>
-      </c>
       <c r="F35" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2660,19 +2657,19 @@
         <v>5004</v>
       </c>
       <c r="B36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C36" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2680,19 +2677,19 @@
         <v>5005</v>
       </c>
       <c r="B37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D37" t="s">
+        <v>240</v>
+      </c>
+      <c r="E37" t="s">
         <v>243</v>
       </c>
-      <c r="E37" t="s">
-        <v>246</v>
-      </c>
       <c r="F37" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2700,19 +2697,19 @@
         <v>5006</v>
       </c>
       <c r="B38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D38" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F38" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2720,19 +2717,19 @@
         <v>5007</v>
       </c>
       <c r="B39" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="C39" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="D39" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="E39" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="F39" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2740,19 +2737,19 @@
         <v>5008</v>
       </c>
       <c r="B40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C40" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D40" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E40" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F40" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2760,19 +2757,19 @@
         <v>5009</v>
       </c>
       <c r="B41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D41" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E41" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F41" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2780,19 +2777,19 @@
         <v>5010</v>
       </c>
       <c r="B42" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C42" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D42" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E42" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F42" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2800,19 +2797,19 @@
         <v>5011</v>
       </c>
       <c r="B43" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D43" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E43" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F43" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2820,19 +2817,19 @@
         <v>5012</v>
       </c>
       <c r="B44" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C44" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D44" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E44" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F44" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2840,19 +2837,19 @@
         <v>5013</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C45" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D45" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E45" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F45" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2860,19 +2857,19 @@
         <v>5014</v>
       </c>
       <c r="B46" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="C46" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="D46" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="E46" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="F46" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2880,19 +2877,19 @@
         <v>5015</v>
       </c>
       <c r="B47" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D47" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E47" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F47" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2900,19 +2897,19 @@
         <v>5016</v>
       </c>
       <c r="B48" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D48" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E48" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F48" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2920,19 +2917,19 @@
         <v>5017</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C49" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D49" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E49" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F49" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2940,19 +2937,19 @@
         <v>5018</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C50" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D50" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E50" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F50" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2960,19 +2957,19 @@
         <v>5019</v>
       </c>
       <c r="B51" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C51" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D51" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E51" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F51" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2980,19 +2977,19 @@
         <v>5020</v>
       </c>
       <c r="B52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C52" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D52" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E52" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F52" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -3000,19 +2997,19 @@
         <v>5021</v>
       </c>
       <c r="B53" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="C53" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="D53" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="E53" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="F53" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3020,19 +3017,19 @@
         <v>5022</v>
       </c>
       <c r="B54" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C54" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D54" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E54" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F54" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -3040,19 +3037,19 @@
         <v>5023</v>
       </c>
       <c r="B55" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D55" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E55" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F55" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -3060,19 +3057,19 @@
         <v>5024</v>
       </c>
       <c r="B56" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C56" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D56" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E56" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F56" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -3080,19 +3077,19 @@
         <v>5025</v>
       </c>
       <c r="B57" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C57" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D57" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E57" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F57" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3100,19 +3097,19 @@
         <v>5026</v>
       </c>
       <c r="B58" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C58" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D58" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E58" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F58" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3120,19 +3117,19 @@
         <v>5027</v>
       </c>
       <c r="B59" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C59" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D59" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E59" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F59" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -3140,19 +3137,19 @@
         <v>5028</v>
       </c>
       <c r="B60" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="C60" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="D60" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="E60" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="F60" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -3183,7 +3180,7 @@
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>231</v>
+        <v>496</v>
       </c>
       <c r="E62" t="s">
         <v>27</v>
@@ -3197,19 +3194,19 @@
         <v>6002</v>
       </c>
       <c r="B63" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C63" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D63" t="s">
-        <v>290</v>
+        <v>497</v>
       </c>
       <c r="E63" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F63" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3217,19 +3214,19 @@
         <v>6003</v>
       </c>
       <c r="B64" t="s">
+        <v>283</v>
+      </c>
+      <c r="C64" t="s">
+        <v>284</v>
+      </c>
+      <c r="D64" t="s">
+        <v>498</v>
+      </c>
+      <c r="E64" t="s">
         <v>288</v>
       </c>
-      <c r="C64" t="s">
+      <c r="F64" t="s">
         <v>289</v>
-      </c>
-      <c r="D64" t="s">
-        <v>290</v>
-      </c>
-      <c r="E64" t="s">
-        <v>293</v>
-      </c>
-      <c r="F64" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -3237,19 +3234,19 @@
         <v>6004</v>
       </c>
       <c r="B65" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C65" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D65" t="s">
+        <v>285</v>
+      </c>
+      <c r="E65" t="s">
         <v>290</v>
       </c>
-      <c r="E65" t="s">
-        <v>295</v>
-      </c>
       <c r="F65" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -3257,19 +3254,19 @@
         <v>6005</v>
       </c>
       <c r="B66" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C66" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D66" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E66" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F66" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -3277,19 +3274,19 @@
         <v>6006</v>
       </c>
       <c r="B67" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C67" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D67" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E67" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F67" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3297,19 +3294,19 @@
         <v>6007</v>
       </c>
       <c r="B68" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C68" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D68" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E68" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="F68" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -3317,19 +3314,19 @@
         <v>6008</v>
       </c>
       <c r="B69" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C69" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D69" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E69" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F69" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -3337,19 +3334,19 @@
         <v>6009</v>
       </c>
       <c r="B70" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C70" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D70" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E70" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F70" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3357,19 +3354,19 @@
         <v>6010</v>
       </c>
       <c r="B71" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C71" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D71" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E71" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F71" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3377,16 +3374,16 @@
         <v>6011</v>
       </c>
       <c r="B72" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C72" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D72" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E72" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F72" t="s">
         <v>74</v>
@@ -3397,19 +3394,19 @@
         <v>6012</v>
       </c>
       <c r="B73" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C73" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D73" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E73" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F73" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3417,19 +3414,19 @@
         <v>6013</v>
       </c>
       <c r="B74" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C74" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D74" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E74" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F74" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3437,19 +3434,19 @@
         <v>6014</v>
       </c>
       <c r="B75" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C75" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D75" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E75" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="F75" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3457,19 +3454,19 @@
         <v>6015</v>
       </c>
       <c r="B76" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C76" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D76" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E76" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F76" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3477,19 +3474,19 @@
         <v>6016</v>
       </c>
       <c r="B77" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C77" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D77" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E77" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F77" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3497,19 +3494,19 @@
         <v>6017</v>
       </c>
       <c r="B78" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C78" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D78" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E78" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F78" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3517,19 +3514,19 @@
         <v>6018</v>
       </c>
       <c r="B79" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C79" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D79" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E79" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F79" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3537,19 +3534,19 @@
         <v>6019</v>
       </c>
       <c r="B80" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C80" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D80" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E80" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F80" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3557,19 +3554,19 @@
         <v>6020</v>
       </c>
       <c r="B81" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C81" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D81" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E81" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F81" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3577,19 +3574,19 @@
         <v>6021</v>
       </c>
       <c r="B82" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C82" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D82" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E82" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="F82" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3597,19 +3594,19 @@
         <v>6022</v>
       </c>
       <c r="B83" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C83" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D83" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E83" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F83" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3617,19 +3614,19 @@
         <v>6023</v>
       </c>
       <c r="B84" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C84" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D84" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E84" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F84" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3637,19 +3634,19 @@
         <v>6024</v>
       </c>
       <c r="B85" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C85" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D85" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E85" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F85" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3657,19 +3654,19 @@
         <v>6025</v>
       </c>
       <c r="B86" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C86" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D86" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E86" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F86" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3677,19 +3674,19 @@
         <v>6026</v>
       </c>
       <c r="B87" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C87" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D87" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E87" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F87" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3697,19 +3694,19 @@
         <v>6027</v>
       </c>
       <c r="B88" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C88" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D88" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E88" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F88" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3717,19 +3714,19 @@
         <v>6028</v>
       </c>
       <c r="B89" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C89" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D89" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E89" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="F89" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -4357,19 +4354,19 @@
         <v>101</v>
       </c>
       <c r="B121" t="s">
+        <v>234</v>
+      </c>
+      <c r="C121" t="s">
+        <v>235</v>
+      </c>
+      <c r="D121" t="s">
+        <v>334</v>
+      </c>
+      <c r="E121" t="s">
         <v>236</v>
       </c>
-      <c r="C121" t="s">
+      <c r="F121" t="s">
         <v>237</v>
-      </c>
-      <c r="D121" t="s">
-        <v>339</v>
-      </c>
-      <c r="E121" t="s">
-        <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -4377,19 +4374,19 @@
         <v>102</v>
       </c>
       <c r="B122" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D122" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -4397,19 +4394,19 @@
         <v>103</v>
       </c>
       <c r="B123" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C123" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D123" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -4417,19 +4414,19 @@
         <v>104</v>
       </c>
       <c r="B124" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C124" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D124" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -4437,19 +4434,19 @@
         <v>105</v>
       </c>
       <c r="B125" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C125" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D125" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4457,19 +4454,19 @@
         <v>106</v>
       </c>
       <c r="B126" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C126" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D126" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E126" t="s">
-        <v>341</v>
+        <v>499</v>
       </c>
       <c r="F126" t="s">
-        <v>342</v>
+        <v>500</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4477,19 +4474,19 @@
         <v>184</v>
       </c>
       <c r="B127" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C127" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D127" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E127" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4497,19 +4494,19 @@
         <v>185</v>
       </c>
       <c r="B128" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C128" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D128" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E128" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -4517,19 +4514,19 @@
         <v>186</v>
       </c>
       <c r="B129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C129" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D129" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E129" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4537,19 +4534,19 @@
         <v>187</v>
       </c>
       <c r="B130" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C130" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D130" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E130" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -4557,19 +4554,19 @@
         <v>188</v>
       </c>
       <c r="B131" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C131" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D131" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E131" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4577,19 +4574,19 @@
         <v>189</v>
       </c>
       <c r="B132" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C132" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D132" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E132" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -4597,19 +4594,19 @@
         <v>190</v>
       </c>
       <c r="B133" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C133" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D133" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E133" t="s">
-        <v>343</v>
+        <v>501</v>
       </c>
       <c r="F133" t="s">
-        <v>344</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -4617,19 +4614,19 @@
         <v>191</v>
       </c>
       <c r="B134" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C134" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D134" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E134" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -4637,19 +4634,19 @@
         <v>192</v>
       </c>
       <c r="B135" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C135" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D135" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E135" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -4657,19 +4654,19 @@
         <v>193</v>
       </c>
       <c r="B136" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C136" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D136" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E136" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4677,19 +4674,19 @@
         <v>194</v>
       </c>
       <c r="B137" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C137" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D137" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E137" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -4697,19 +4694,19 @@
         <v>195</v>
       </c>
       <c r="B138" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C138" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D138" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E138" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -4717,19 +4714,19 @@
         <v>196</v>
       </c>
       <c r="B139" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C139" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D139" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E139" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -4737,19 +4734,19 @@
         <v>197</v>
       </c>
       <c r="B140" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C140" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D140" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E140" t="s">
-        <v>345</v>
+        <v>503</v>
       </c>
       <c r="F140" t="s">
-        <v>346</v>
+        <v>504</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -4757,19 +4754,19 @@
         <v>198</v>
       </c>
       <c r="B141" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C141" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D141" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E141" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -4777,19 +4774,19 @@
         <v>199</v>
       </c>
       <c r="B142" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C142" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D142" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E142" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -4797,19 +4794,19 @@
         <v>200</v>
       </c>
       <c r="B143" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C143" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D143" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E143" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -4817,19 +4814,19 @@
         <v>201</v>
       </c>
       <c r="B144" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C144" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D144" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E144" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F144" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -4837,19 +4834,19 @@
         <v>202</v>
       </c>
       <c r="B145" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C145" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D145" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E145" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F145" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -4857,19 +4854,19 @@
         <v>203</v>
       </c>
       <c r="B146" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C146" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D146" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E146" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4877,19 +4874,19 @@
         <v>204</v>
       </c>
       <c r="B147" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C147" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D147" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E147" t="s">
-        <v>347</v>
+        <v>505</v>
       </c>
       <c r="F147" t="s">
-        <v>348</v>
+        <v>506</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -4934,19 +4931,19 @@
         <v>109</v>
       </c>
       <c r="B150" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C150" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D150" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -4954,19 +4951,19 @@
         <v>110</v>
       </c>
       <c r="B151" t="s">
+        <v>283</v>
+      </c>
+      <c r="C151" t="s">
+        <v>284</v>
+      </c>
+      <c r="D151" t="s">
+        <v>335</v>
+      </c>
+      <c r="E151" t="s">
         <v>288</v>
       </c>
-      <c r="C151" t="s">
+      <c r="F151" t="s">
         <v>289</v>
-      </c>
-      <c r="D151" t="s">
-        <v>349</v>
-      </c>
-      <c r="E151" t="s">
-        <v>293</v>
-      </c>
-      <c r="F151" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -4974,19 +4971,19 @@
         <v>111</v>
       </c>
       <c r="B152" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C152" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D152" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -4994,19 +4991,19 @@
         <v>112</v>
       </c>
       <c r="B153" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C153" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D153" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -5014,19 +5011,19 @@
         <v>113</v>
       </c>
       <c r="B154" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C154" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D154" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -5034,19 +5031,19 @@
         <v>114</v>
       </c>
       <c r="B155" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C155" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="D155" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E155" t="s">
-        <v>351</v>
+        <v>507</v>
       </c>
       <c r="F155" t="s">
-        <v>352</v>
+        <v>508</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -5054,19 +5051,19 @@
         <v>205</v>
       </c>
       <c r="B156" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C156" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D156" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E156" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -5074,19 +5071,19 @@
         <v>206</v>
       </c>
       <c r="B157" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C157" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D157" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E157" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -5094,19 +5091,19 @@
         <v>207</v>
       </c>
       <c r="B158" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C158" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D158" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E158" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -5114,16 +5111,16 @@
         <v>208</v>
       </c>
       <c r="B159" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C159" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D159" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E159" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
         <v>74</v>
@@ -5134,19 +5131,19 @@
         <v>209</v>
       </c>
       <c r="B160" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C160" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D160" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -5154,19 +5151,19 @@
         <v>210</v>
       </c>
       <c r="B161" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C161" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D161" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -5174,19 +5171,19 @@
         <v>211</v>
       </c>
       <c r="B162" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C162" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="D162" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E162" t="s">
-        <v>353</v>
+        <v>509</v>
       </c>
       <c r="F162" t="s">
-        <v>354</v>
+        <v>510</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -5194,19 +5191,19 @@
         <v>212</v>
       </c>
       <c r="B163" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C163" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D163" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -5214,19 +5211,19 @@
         <v>213</v>
       </c>
       <c r="B164" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C164" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D164" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -5234,19 +5231,19 @@
         <v>214</v>
       </c>
       <c r="B165" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C165" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D165" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -5254,19 +5251,19 @@
         <v>215</v>
       </c>
       <c r="B166" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C166" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D166" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -5274,19 +5271,19 @@
         <v>216</v>
       </c>
       <c r="B167" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C167" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D167" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -5294,19 +5291,19 @@
         <v>217</v>
       </c>
       <c r="B168" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C168" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D168" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -5314,19 +5311,19 @@
         <v>218</v>
       </c>
       <c r="B169" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C169" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="D169" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E169" t="s">
-        <v>355</v>
+        <v>511</v>
       </c>
       <c r="F169" t="s">
-        <v>356</v>
+        <v>512</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -5334,19 +5331,19 @@
         <v>219</v>
       </c>
       <c r="B170" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C170" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D170" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -5354,19 +5351,19 @@
         <v>220</v>
       </c>
       <c r="B171" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C171" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D171" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -5374,19 +5371,19 @@
         <v>221</v>
       </c>
       <c r="B172" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C172" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D172" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -5394,19 +5391,19 @@
         <v>222</v>
       </c>
       <c r="B173" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C173" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D173" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -5414,19 +5411,19 @@
         <v>223</v>
       </c>
       <c r="B174" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C174" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D174" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -5434,19 +5431,19 @@
         <v>224</v>
       </c>
       <c r="B175" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C175" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D175" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -5454,544 +5451,544 @@
         <v>225</v>
       </c>
       <c r="B176" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C176" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="D176" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E176" t="s">
-        <v>357</v>
+        <v>513</v>
       </c>
       <c r="F176" t="s">
-        <v>358</v>
+        <v>514</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="B177" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C177" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D177" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E177" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="F177" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="B178" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C178" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D178" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E178" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="F178" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="B179" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C179" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D179" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E179" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="F179" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="B180" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C180" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D180" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E180" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="F180" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="B181" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C181" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D181" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E181" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="F181" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="B182" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C182" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D182" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E182" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="F182" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="B183" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C183" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D183" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E183" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="F183" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="B184" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C184" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D184" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E184" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="F184" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="B185" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C185" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D185" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E185" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="F185" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="B186" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C186" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D186" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E186" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="F186" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="B187" t="s">
+        <v>410</v>
+      </c>
+      <c r="C187" t="s">
+        <v>411</v>
+      </c>
+      <c r="D187" t="s">
+        <v>464</v>
+      </c>
+      <c r="E187" t="s">
+        <v>432</v>
+      </c>
+      <c r="F187" t="s">
         <v>433</v>
-      </c>
-      <c r="C187" t="s">
-        <v>434</v>
-      </c>
-      <c r="D187" t="s">
-        <v>487</v>
-      </c>
-      <c r="E187" t="s">
-        <v>455</v>
-      </c>
-      <c r="F187" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="B188" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C188" t="s">
+        <v>411</v>
+      </c>
+      <c r="D188" t="s">
+        <v>464</v>
+      </c>
+      <c r="E188" t="s">
         <v>434</v>
       </c>
-      <c r="D188" t="s">
-        <v>487</v>
-      </c>
-      <c r="E188" t="s">
-        <v>457</v>
-      </c>
       <c r="F188" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="B189" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C189" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D189" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E189" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="F189" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="B190" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C190" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D190" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E190" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="F190" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="B191" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C191" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D191" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E191" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="F191" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="B192" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C192" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D192" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E192" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="F192" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="B193" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C193" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D193" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E193" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="F193" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="B194" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C194" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D194" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E194" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="F194" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="B195" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C195" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D195" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E195" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="F195" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="B196" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C196" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D196" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E196" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="F196" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="B197" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C197" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D197" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E197" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="F197" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="B198" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C198" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D198" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E198" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="F198" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="B199" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C199" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D199" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E199" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="F199" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="B200" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C200" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D200" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E200" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="F200" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="B201" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C201" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D201" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E201" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="F201" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="B202" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C202" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D202" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E202" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="F202" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="B203">
         <v>2</v>
@@ -6008,7 +6005,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="B204">
         <v>2</v>
@@ -6025,7 +6022,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -6042,7 +6039,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="B206">
         <v>2</v>
@@ -6059,7 +6056,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="B207">
         <v>2</v>
@@ -6076,7 +6073,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="B208">
         <v>2</v>
@@ -6093,7 +6090,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="B209">
         <v>2</v>
@@ -6110,7 +6107,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -6127,7 +6124,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -6144,7 +6141,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="B212">
         <v>2</v>
@@ -6161,7 +6158,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="B213">
         <v>2</v>
@@ -6178,7 +6175,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -6195,7 +6192,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="B215">
         <v>2</v>
@@ -6212,7 +6209,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -6229,7 +6226,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="B217">
         <v>2</v>
@@ -6246,7 +6243,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="B218">
         <v>2</v>
@@ -6263,7 +6260,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="B219">
         <v>2</v>
@@ -6280,7 +6277,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="B220">
         <v>2</v>
@@ -6297,7 +6294,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="B221">
         <v>2</v>
@@ -6314,7 +6311,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -6331,7 +6328,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="B223">
         <v>2</v>
@@ -6348,7 +6345,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="B224">
         <v>2</v>
@@ -6365,7 +6362,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="B225">
         <v>2</v>
@@ -6382,7 +6379,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="B226">
         <v>2</v>
@@ -6399,7 +6396,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="B227">
         <v>2</v>
@@ -6416,7 +6413,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -6479,16 +6476,16 @@
         <v>44</v>
       </c>
       <c r="C231" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="D231" t="s">
         <v>226</v>
       </c>
       <c r="E231" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F231" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -6499,16 +6496,16 @@
         <v>44</v>
       </c>
       <c r="C232" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="D232" t="s">
         <v>226</v>
       </c>
       <c r="E232" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F232" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -6525,10 +6522,10 @@
         <v>227</v>
       </c>
       <c r="E233" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="F233" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -6573,7 +6570,7 @@
         <v>50</v>
       </c>
       <c r="C236" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="D236" t="s">
         <v>51</v>
@@ -6604,7 +6601,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="B238">
         <v>12</v>
@@ -6621,27 +6618,27 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="B239" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="C239" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="D239" t="s">
         <v>51</v>
       </c>
       <c r="E239" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="F239" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="B240">
         <v>2</v>
@@ -6658,7 +6655,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="B241">
         <v>8</v>
@@ -6675,13 +6672,13 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="B242">
         <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="D242">
         <v>1</v>
@@ -6918,19 +6915,19 @@
         <v>87</v>
       </c>
       <c r="B254" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="C254" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="D254" t="s">
         <v>20</v>
       </c>
       <c r="E254" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="F254" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -6938,19 +6935,19 @@
         <v>88</v>
       </c>
       <c r="B255" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="C255" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="D255" t="s">
         <v>66</v>
       </c>
       <c r="E255" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="F255" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -6958,19 +6955,19 @@
         <v>89</v>
       </c>
       <c r="B256" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="C256" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="D256" t="s">
         <v>70</v>
       </c>
       <c r="E256" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="F256" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -6978,59 +6975,59 @@
         <v>90</v>
       </c>
       <c r="B257" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="C257" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="D257" t="s">
         <v>70</v>
       </c>
       <c r="E257" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="F257" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="B258" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="C258" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="D258" t="s">
         <v>74</v>
       </c>
       <c r="E258" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="F258" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="B259" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="C259" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="D259" t="s">
         <v>39</v>
       </c>
       <c r="E259" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="F259" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -7843,7 +7840,7 @@
         <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332DC2F1-7113-4814-A4CA-D6BBFA73ECF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57434163-4960-4100-9689-9010873971E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="529">
   <si>
     <t>dropId|String</t>
   </si>
@@ -719,12 +719,6 @@
     <t>1, 1, 1, 1, 1, 1, 0.046, 0.046</t>
   </si>
   <si>
-    <t>1, 1, 1, 1, 1, 0.2</t>
-  </si>
-  <si>
-    <t>1, 1, 0.2</t>
-  </si>
-  <si>
     <t>1250, 1250, 3, 12, 12, 12, 12, 12, 1</t>
   </si>
   <si>
@@ -755,9 +749,6 @@
     <t>0.72, 100, 2, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
-    <t>1, 1, 1, 1, 1, 0.3, 0.1, 0.05, 0.01</t>
-  </si>
-  <si>
     <t>0.155, 100, 2, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -890,9 +881,6 @@
     <t>, , , e, e, e, e</t>
   </si>
   <si>
-    <t>1, 1, 0.3, 0.2, 0.1, 0.04, 0.02</t>
-  </si>
-  <si>
     <t>0.085, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -1037,12 +1025,6 @@
     <t>1.56, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
-    <t>1, 1, 1, 1, 1, 0.2, 0.25, 0.125, 0.025</t>
-  </si>
-  <si>
-    <t>1, 1, 0.2, 0.5, 0.25, 0.1, 0.05</t>
-  </si>
-  <si>
     <t>, , , f, f, f, f, f, x</t>
   </si>
   <si>
@@ -1514,24 +1496,12 @@
     <t>9, 9, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
-    <t>1, 1, 1, 1, 1, 0.9</t>
-  </si>
-  <si>
     <t>1, 1, 1, 1, 1, 0.7, 0.17, 0.085, 0.017</t>
   </si>
   <si>
-    <t>1, 1, 1, 1, 1, 0.5, 0.17, 0.085, 0.017</t>
-  </si>
-  <si>
-    <t>1, 1, 0.9</t>
-  </si>
-  <si>
     <t>1, 1, 0.7, 0.2, 0.1, 0.04, 0.02</t>
   </si>
   <si>
-    <t>1, 1, 0.5, 0.2, 0.1, 0.04, 0.02</t>
-  </si>
-  <si>
     <t>0.26, 100, 2, 1, 1, 1, 1, 1, 1</t>
   </si>
   <si>
@@ -1578,6 +1548,78 @@
   </si>
   <si>
     <t>1.595, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>5001_s4</t>
+  </si>
+  <si>
+    <t>2, 1, 4, 3, 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, , , , </t>
+  </si>
+  <si>
+    <t>0.05, 100, 2, 1, 4</t>
+  </si>
+  <si>
+    <t>0.65, 100, 2, 1, 4</t>
+  </si>
+  <si>
+    <t>5001_s1</t>
+  </si>
+  <si>
+    <t>0.05, 100, 2, 1, 1</t>
+  </si>
+  <si>
+    <t>0.65, 100, 2, 1, 1</t>
+  </si>
+  <si>
+    <t>6001_s0</t>
+  </si>
+  <si>
+    <t>5002_s3</t>
+  </si>
+  <si>
+    <t>0.085, 100, 2, 1, 3</t>
+  </si>
+  <si>
+    <t>0.685, 100, 2, 1, 3</t>
+  </si>
+  <si>
+    <t>5002_s2</t>
+  </si>
+  <si>
+    <t>0.085, 100, 2, 1, 2</t>
+  </si>
+  <si>
+    <t>0.685, 100, 2, 1, 2</t>
+  </si>
+  <si>
+    <t>6002_s0</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 0.7</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 0.4, 0.1, 0.05, 0.01</t>
+  </si>
+  <si>
+    <t>1, 1, 0.7</t>
+  </si>
+  <si>
+    <t>1, 1, 0.4, 0.2, 0.1, 0.04, 0.02</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 0.4</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 0.4, 0.25, 0.125, 0.025</t>
+  </si>
+  <si>
+    <t>1, 1, 0.4</t>
+  </si>
+  <si>
+    <t>1, 1, 0.4, 0.5, 0.25, 0.1, 0.05</t>
   </si>
 </sst>
 </file>
@@ -1941,7 +1983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F259"/>
+  <dimension ref="A1:F265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1993,168 +2035,162 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1000</v>
+      <c r="A3" t="s">
+        <v>505</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>506</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>507</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>508</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1001</v>
+      <c r="A4" t="s">
+        <v>510</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>506</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>507</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>511</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
+      <c r="A5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.05</v>
+      </c>
+      <c r="F5">
+        <v>0.65</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1003</v>
+      <c r="A6" t="s">
+        <v>514</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>506</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>507</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>515</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1004</v>
+      <c r="A7" t="s">
+        <v>517</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>506</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>507</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>518</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1005</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" t="s">
-        <v>116</v>
+      <c r="A8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.68500000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -2166,15 +2202,15 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -2186,15 +2222,15 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -2206,15 +2242,15 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -2226,15 +2262,15 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -2246,15 +2282,15 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -2266,15 +2302,15 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -2286,15 +2322,15 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -2306,15 +2342,15 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -2326,15 +2362,15 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -2346,15 +2382,15 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -2366,15 +2402,15 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -2386,15 +2422,15 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F22" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -2406,15 +2442,15 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -2426,15 +2462,15 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -2446,15 +2482,15 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -2466,15 +2502,15 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -2486,15 +2522,15 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F27" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -2506,15 +2542,15 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F28" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -2526,15 +2562,15 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F29" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -2546,15 +2582,15 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F30" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -2566,1332 +2602,1332 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F31" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>5000</v>
+        <v>1023</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>5001</v>
+        <v>1024</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>493</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>5002</v>
+        <v>1025</v>
       </c>
       <c r="B34" t="s">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>494</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="F34" t="s">
-        <v>237</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>5003</v>
+        <v>1026</v>
       </c>
       <c r="B35" t="s">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>495</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>238</v>
+        <v>157</v>
       </c>
       <c r="F35" t="s">
-        <v>239</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>5004</v>
+        <v>1027</v>
       </c>
       <c r="B36" t="s">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>240</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>241</v>
+        <v>159</v>
       </c>
       <c r="F36" t="s">
-        <v>242</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>5005</v>
+        <v>1028</v>
       </c>
       <c r="B37" t="s">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>240</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="F37" t="s">
-        <v>244</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="B38" t="s">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>235</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>246</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>5007</v>
+        <v>5001</v>
       </c>
       <c r="B39" t="s">
-        <v>471</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>472</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>473</v>
+        <v>521</v>
       </c>
       <c r="E39" t="s">
-        <v>474</v>
+        <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>475</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>5008</v>
+        <v>5002</v>
       </c>
       <c r="B40" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" t="s">
+        <v>233</v>
+      </c>
+      <c r="D40" t="s">
+        <v>487</v>
+      </c>
+      <c r="E40" t="s">
         <v>234</v>
       </c>
-      <c r="C40" t="s">
+      <c r="F40" t="s">
         <v>235</v>
-      </c>
-      <c r="D40" t="s">
-        <v>240</v>
-      </c>
-      <c r="E40" t="s">
-        <v>247</v>
-      </c>
-      <c r="F40" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>5009</v>
+        <v>5003</v>
       </c>
       <c r="B41" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D41" t="s">
-        <v>240</v>
+        <v>487</v>
       </c>
       <c r="E41" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F41" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>5010</v>
+        <v>5004</v>
       </c>
       <c r="B42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D42" t="s">
-        <v>240</v>
+        <v>522</v>
       </c>
       <c r="E42" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F42" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>5011</v>
+        <v>5005</v>
       </c>
       <c r="B43" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C43" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D43" t="s">
+        <v>522</v>
+      </c>
+      <c r="E43" t="s">
         <v>240</v>
       </c>
-      <c r="E43" t="s">
-        <v>253</v>
-      </c>
       <c r="F43" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>5012</v>
+        <v>5006</v>
       </c>
       <c r="B44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C44" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D44" t="s">
-        <v>240</v>
+        <v>522</v>
       </c>
       <c r="E44" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="F44" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>5013</v>
+        <v>5007</v>
       </c>
       <c r="B45" t="s">
-        <v>234</v>
+        <v>465</v>
       </c>
       <c r="C45" t="s">
-        <v>235</v>
+        <v>466</v>
       </c>
       <c r="D45" t="s">
-        <v>240</v>
+        <v>467</v>
       </c>
       <c r="E45" t="s">
-        <v>257</v>
+        <v>468</v>
       </c>
       <c r="F45" t="s">
-        <v>258</v>
+        <v>469</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>5014</v>
+        <v>5008</v>
       </c>
       <c r="B46" t="s">
-        <v>471</v>
+        <v>232</v>
       </c>
       <c r="C46" t="s">
-        <v>472</v>
+        <v>233</v>
       </c>
       <c r="D46" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="E46" t="s">
-        <v>476</v>
+        <v>244</v>
       </c>
       <c r="F46" t="s">
-        <v>477</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>5015</v>
+        <v>5009</v>
       </c>
       <c r="B47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C47" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D47" t="s">
-        <v>240</v>
+        <v>522</v>
       </c>
       <c r="E47" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="F47" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>5016</v>
+        <v>5010</v>
       </c>
       <c r="B48" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C48" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D48" t="s">
-        <v>240</v>
+        <v>522</v>
       </c>
       <c r="E48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F48" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>5017</v>
+        <v>5011</v>
       </c>
       <c r="B49" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C49" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D49" t="s">
-        <v>240</v>
+        <v>522</v>
       </c>
       <c r="E49" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="F49" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="B50" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C50" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D50" t="s">
-        <v>240</v>
+        <v>522</v>
       </c>
       <c r="E50" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="F50" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>5019</v>
+        <v>5013</v>
       </c>
       <c r="B51" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D51" t="s">
-        <v>240</v>
+        <v>522</v>
       </c>
       <c r="E51" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="F51" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>5020</v>
+        <v>5014</v>
       </c>
       <c r="B52" t="s">
-        <v>234</v>
+        <v>465</v>
       </c>
       <c r="C52" t="s">
-        <v>235</v>
+        <v>466</v>
       </c>
       <c r="D52" t="s">
-        <v>240</v>
+        <v>467</v>
       </c>
       <c r="E52" t="s">
-        <v>269</v>
+        <v>470</v>
       </c>
       <c r="F52" t="s">
-        <v>270</v>
+        <v>471</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>5021</v>
+        <v>5015</v>
       </c>
       <c r="B53" t="s">
-        <v>471</v>
+        <v>232</v>
       </c>
       <c r="C53" t="s">
-        <v>472</v>
+        <v>233</v>
       </c>
       <c r="D53" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="E53" t="s">
-        <v>478</v>
+        <v>256</v>
       </c>
       <c r="F53" t="s">
-        <v>479</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>5022</v>
+        <v>5016</v>
       </c>
       <c r="B54" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D54" t="s">
-        <v>240</v>
+        <v>522</v>
       </c>
       <c r="E54" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F54" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>5023</v>
+        <v>5017</v>
       </c>
       <c r="B55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D55" t="s">
-        <v>240</v>
+        <v>522</v>
       </c>
       <c r="E55" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="F55" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>5024</v>
+        <v>5018</v>
       </c>
       <c r="B56" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C56" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D56" t="s">
-        <v>240</v>
+        <v>522</v>
       </c>
       <c r="E56" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="F56" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>5025</v>
+        <v>5019</v>
       </c>
       <c r="B57" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C57" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D57" t="s">
-        <v>240</v>
+        <v>522</v>
       </c>
       <c r="E57" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="F57" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>5026</v>
+        <v>5020</v>
       </c>
       <c r="B58" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C58" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D58" t="s">
-        <v>240</v>
+        <v>522</v>
       </c>
       <c r="E58" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="F58" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>5027</v>
+        <v>5021</v>
       </c>
       <c r="B59" t="s">
-        <v>234</v>
+        <v>465</v>
       </c>
       <c r="C59" t="s">
-        <v>235</v>
+        <v>466</v>
       </c>
       <c r="D59" t="s">
-        <v>240</v>
+        <v>467</v>
       </c>
       <c r="E59" t="s">
-        <v>281</v>
+        <v>472</v>
       </c>
       <c r="F59" t="s">
-        <v>282</v>
+        <v>473</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>5028</v>
+        <v>5022</v>
       </c>
       <c r="B60" t="s">
-        <v>471</v>
+        <v>232</v>
       </c>
       <c r="C60" t="s">
-        <v>472</v>
+        <v>233</v>
       </c>
       <c r="D60" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="E60" t="s">
-        <v>480</v>
+        <v>268</v>
       </c>
       <c r="F60" t="s">
-        <v>481</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>6000</v>
-      </c>
-      <c r="B61">
-        <v>2</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F61">
-        <v>0.14499999999999999</v>
+        <v>5023</v>
+      </c>
+      <c r="B61" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" t="s">
+        <v>233</v>
+      </c>
+      <c r="D61" t="s">
+        <v>522</v>
+      </c>
+      <c r="E61" t="s">
+        <v>270</v>
+      </c>
+      <c r="F61" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>6001</v>
+        <v>5024</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="D62" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>6002</v>
+        <v>5025</v>
       </c>
       <c r="B63" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="C63" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="D63" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="E63" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F63" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>6003</v>
+        <v>5026</v>
       </c>
       <c r="B64" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="C64" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="E64" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F64" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>6004</v>
+        <v>5027</v>
       </c>
       <c r="B65" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="C65" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="D65" t="s">
-        <v>285</v>
+        <v>522</v>
       </c>
       <c r="E65" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="F65" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>6005</v>
+        <v>5028</v>
       </c>
       <c r="B66" t="s">
-        <v>283</v>
+        <v>465</v>
       </c>
       <c r="C66" t="s">
-        <v>284</v>
+        <v>466</v>
       </c>
       <c r="D66" t="s">
-        <v>285</v>
+        <v>467</v>
       </c>
       <c r="E66" t="s">
-        <v>292</v>
+        <v>474</v>
       </c>
       <c r="F66" t="s">
-        <v>293</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>6006</v>
-      </c>
-      <c r="B67" t="s">
-        <v>283</v>
-      </c>
-      <c r="C67" t="s">
-        <v>284</v>
-      </c>
-      <c r="D67" t="s">
-        <v>285</v>
-      </c>
-      <c r="E67" t="s">
-        <v>294</v>
-      </c>
-      <c r="F67" t="s">
-        <v>295</v>
+        <v>6000</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F67">
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>6007</v>
+        <v>6001</v>
       </c>
       <c r="B68" t="s">
-        <v>296</v>
+        <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>297</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>298</v>
+        <v>523</v>
       </c>
       <c r="E68" t="s">
-        <v>340</v>
+        <v>27</v>
       </c>
       <c r="F68" t="s">
-        <v>341</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>6008</v>
+        <v>6002</v>
       </c>
       <c r="B69" t="s">
+        <v>280</v>
+      </c>
+      <c r="C69" t="s">
+        <v>281</v>
+      </c>
+      <c r="D69" t="s">
+        <v>488</v>
+      </c>
+      <c r="E69" t="s">
+        <v>282</v>
+      </c>
+      <c r="F69" t="s">
         <v>283</v>
-      </c>
-      <c r="C69" t="s">
-        <v>284</v>
-      </c>
-      <c r="D69" t="s">
-        <v>285</v>
-      </c>
-      <c r="E69" t="s">
-        <v>299</v>
-      </c>
-      <c r="F69" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>6009</v>
+        <v>6003</v>
       </c>
       <c r="B70" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C70" t="s">
+        <v>281</v>
+      </c>
+      <c r="D70" t="s">
+        <v>488</v>
+      </c>
+      <c r="E70" t="s">
         <v>284</v>
       </c>
-      <c r="D70" t="s">
+      <c r="F70" t="s">
         <v>285</v>
-      </c>
-      <c r="E70" t="s">
-        <v>301</v>
-      </c>
-      <c r="F70" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>6010</v>
+        <v>6004</v>
       </c>
       <c r="B71" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C71" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D71" t="s">
-        <v>285</v>
+        <v>524</v>
       </c>
       <c r="E71" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="F71" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>6011</v>
+        <v>6005</v>
       </c>
       <c r="B72" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C72" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D72" t="s">
-        <v>285</v>
+        <v>524</v>
       </c>
       <c r="E72" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F72" t="s">
-        <v>74</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>6012</v>
+        <v>6006</v>
       </c>
       <c r="B73" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C73" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D73" t="s">
-        <v>285</v>
+        <v>524</v>
       </c>
       <c r="E73" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="F73" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>6013</v>
+        <v>6007</v>
       </c>
       <c r="B74" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C74" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="D74" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="E74" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="F74" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>6014</v>
+        <v>6008</v>
       </c>
       <c r="B75" t="s">
+        <v>280</v>
+      </c>
+      <c r="C75" t="s">
+        <v>281</v>
+      </c>
+      <c r="D75" t="s">
+        <v>524</v>
+      </c>
+      <c r="E75" t="s">
+        <v>295</v>
+      </c>
+      <c r="F75" t="s">
         <v>296</v>
-      </c>
-      <c r="C75" t="s">
-        <v>297</v>
-      </c>
-      <c r="D75" t="s">
-        <v>298</v>
-      </c>
-      <c r="E75" t="s">
-        <v>342</v>
-      </c>
-      <c r="F75" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>6015</v>
+        <v>6009</v>
       </c>
       <c r="B76" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C76" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D76" t="s">
-        <v>285</v>
+        <v>524</v>
       </c>
       <c r="E76" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="F76" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>6016</v>
+        <v>6010</v>
       </c>
       <c r="B77" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C77" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D77" t="s">
-        <v>285</v>
+        <v>524</v>
       </c>
       <c r="E77" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="F77" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>6017</v>
+        <v>6011</v>
       </c>
       <c r="B78" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C78" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D78" t="s">
-        <v>285</v>
+        <v>524</v>
       </c>
       <c r="E78" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="F78" t="s">
-        <v>315</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>6018</v>
+        <v>6012</v>
       </c>
       <c r="B79" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C79" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D79" t="s">
-        <v>285</v>
+        <v>524</v>
       </c>
       <c r="E79" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="F79" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>6019</v>
+        <v>6013</v>
       </c>
       <c r="B80" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C80" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D80" t="s">
-        <v>285</v>
+        <v>524</v>
       </c>
       <c r="E80" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="F80" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>6020</v>
+        <v>6014</v>
       </c>
       <c r="B81" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C81" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="D81" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="E81" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="F81" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>6021</v>
+        <v>6015</v>
       </c>
       <c r="B82" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="C82" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="D82" t="s">
-        <v>298</v>
+        <v>524</v>
       </c>
       <c r="E82" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="F82" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>6022</v>
+        <v>6016</v>
       </c>
       <c r="B83" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C83" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D83" t="s">
-        <v>285</v>
+        <v>524</v>
       </c>
       <c r="E83" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="F83" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>6023</v>
+        <v>6017</v>
       </c>
       <c r="B84" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C84" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D84" t="s">
-        <v>285</v>
+        <v>524</v>
       </c>
       <c r="E84" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="F84" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>6024</v>
+        <v>6018</v>
       </c>
       <c r="B85" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C85" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D85" t="s">
-        <v>285</v>
+        <v>524</v>
       </c>
       <c r="E85" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="F85" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>6025</v>
+        <v>6019</v>
       </c>
       <c r="B86" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C86" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D86" t="s">
-        <v>285</v>
+        <v>524</v>
       </c>
       <c r="E86" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F86" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>6026</v>
+        <v>6020</v>
       </c>
       <c r="B87" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C87" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D87" t="s">
-        <v>285</v>
+        <v>524</v>
       </c>
       <c r="E87" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="F87" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>6027</v>
+        <v>6021</v>
       </c>
       <c r="B88" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C88" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="D88" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="E88" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F88" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
+        <v>6022</v>
+      </c>
+      <c r="B89" t="s">
+        <v>280</v>
+      </c>
+      <c r="C89" t="s">
+        <v>281</v>
+      </c>
+      <c r="D89" t="s">
+        <v>524</v>
+      </c>
+      <c r="E89" t="s">
+        <v>318</v>
+      </c>
+      <c r="F89" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>6023</v>
+      </c>
+      <c r="B90" t="s">
+        <v>280</v>
+      </c>
+      <c r="C90" t="s">
+        <v>281</v>
+      </c>
+      <c r="D90" t="s">
+        <v>524</v>
+      </c>
+      <c r="E90" t="s">
+        <v>320</v>
+      </c>
+      <c r="F90" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>6024</v>
+      </c>
+      <c r="B91" t="s">
+        <v>280</v>
+      </c>
+      <c r="C91" t="s">
+        <v>281</v>
+      </c>
+      <c r="D91" t="s">
+        <v>524</v>
+      </c>
+      <c r="E91" t="s">
+        <v>322</v>
+      </c>
+      <c r="F91" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>6025</v>
+      </c>
+      <c r="B92" t="s">
+        <v>280</v>
+      </c>
+      <c r="C92" t="s">
+        <v>281</v>
+      </c>
+      <c r="D92" t="s">
+        <v>524</v>
+      </c>
+      <c r="E92" t="s">
+        <v>324</v>
+      </c>
+      <c r="F92" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>6026</v>
+      </c>
+      <c r="B93" t="s">
+        <v>280</v>
+      </c>
+      <c r="C93" t="s">
+        <v>281</v>
+      </c>
+      <c r="D93" t="s">
+        <v>524</v>
+      </c>
+      <c r="E93" t="s">
+        <v>326</v>
+      </c>
+      <c r="F93" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>6027</v>
+      </c>
+      <c r="B94" t="s">
+        <v>280</v>
+      </c>
+      <c r="C94" t="s">
+        <v>281</v>
+      </c>
+      <c r="D94" t="s">
+        <v>524</v>
+      </c>
+      <c r="E94" t="s">
+        <v>328</v>
+      </c>
+      <c r="F94" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
         <v>6028</v>
       </c>
-      <c r="B89" t="s">
-        <v>296</v>
-      </c>
-      <c r="C89" t="s">
-        <v>297</v>
-      </c>
-      <c r="D89" t="s">
-        <v>298</v>
-      </c>
-      <c r="E89" t="s">
-        <v>346</v>
-      </c>
-      <c r="F89" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" t="s">
-        <v>12</v>
-      </c>
-      <c r="C91" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" t="s">
-        <v>17</v>
-      </c>
-      <c r="F91" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" t="s">
-        <v>30</v>
-      </c>
-      <c r="F92" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" t="s">
-        <v>29</v>
-      </c>
-      <c r="D93" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" t="s">
-        <v>29</v>
-      </c>
-      <c r="D94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>96</v>
-      </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>292</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>293</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>294</v>
       </c>
       <c r="E95" t="s">
-        <v>115</v>
+        <v>340</v>
       </c>
       <c r="F95" t="s">
-        <v>116</v>
+        <v>341</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="F96" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="F97" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -3903,15 +3939,15 @@
         <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -3923,15 +3959,15 @@
         <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="F99" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -3943,15 +3979,15 @@
         <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -3963,15 +3999,15 @@
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F101" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -3983,15 +4019,15 @@
         <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F102" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -4003,15 +4039,15 @@
         <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F103" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -4023,15 +4059,15 @@
         <v>7</v>
       </c>
       <c r="E104" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F104" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -4043,15 +4079,15 @@
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F105" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -4063,15 +4099,15 @@
         <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F106" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -4083,15 +4119,15 @@
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F107" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -4103,15 +4139,15 @@
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F108" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -4123,15 +4159,15 @@
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F109" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -4143,15 +4179,15 @@
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F110" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -4163,15 +4199,15 @@
         <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F111" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -4183,15 +4219,15 @@
         <v>7</v>
       </c>
       <c r="E112" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F112" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -4203,15 +4239,15 @@
         <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F113" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -4223,15 +4259,15 @@
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F114" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -4243,15 +4279,15 @@
         <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F115" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -4263,15 +4299,15 @@
         <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F116" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -4283,15 +4319,15 @@
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F117" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -4303,1794 +4339,1812 @@
         <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F118" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="B119" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D119" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E119" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="B120" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D120" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="E120" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="F120" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="B121" t="s">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="D121" t="s">
-        <v>334</v>
+        <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="F121" t="s">
-        <v>237</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="B122" t="s">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="D122" t="s">
-        <v>334</v>
+        <v>7</v>
       </c>
       <c r="E122" t="s">
-        <v>238</v>
+        <v>157</v>
       </c>
       <c r="F122" t="s">
-        <v>239</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="B123" t="s">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="D123" t="s">
-        <v>334</v>
+        <v>7</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>159</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="B124" t="s">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="D124" t="s">
-        <v>334</v>
+        <v>7</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B125" t="s">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="C125" t="s">
-        <v>235</v>
+        <v>32</v>
       </c>
       <c r="D125" t="s">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B126" t="s">
-        <v>234</v>
+        <v>23</v>
       </c>
       <c r="C126" t="s">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c r="D126" t="s">
-        <v>334</v>
+        <v>525</v>
       </c>
       <c r="E126" t="s">
-        <v>499</v>
+        <v>24</v>
       </c>
       <c r="F126" t="s">
-        <v>500</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="B127" t="s">
+        <v>232</v>
+      </c>
+      <c r="C127" t="s">
+        <v>233</v>
+      </c>
+      <c r="D127" t="s">
+        <v>526</v>
+      </c>
+      <c r="E127" t="s">
         <v>234</v>
       </c>
-      <c r="C127" t="s">
+      <c r="F127" t="s">
         <v>235</v>
-      </c>
-      <c r="D127" t="s">
-        <v>334</v>
-      </c>
-      <c r="E127" t="s">
-        <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="B128" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C128" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D128" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="B129" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C129" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D129" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="B130" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C130" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D130" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>188</v>
+        <v>105</v>
       </c>
       <c r="B131" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C131" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D131" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="B132" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C132" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D132" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>489</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>490</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B133" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C133" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D133" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="E133" t="s">
-        <v>501</v>
+        <v>244</v>
       </c>
       <c r="F133" t="s">
-        <v>502</v>
+        <v>245</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B134" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C134" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D134" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B135" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C135" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D135" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B136" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C136" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D136" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B137" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C137" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D137" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B138" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C138" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D138" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B139" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C139" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D139" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>491</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>492</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B140" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C140" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D140" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="E140" t="s">
-        <v>503</v>
+        <v>256</v>
       </c>
       <c r="F140" t="s">
-        <v>504</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B141" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C141" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D141" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B142" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C142" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D142" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B143" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C143" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D143" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B144" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C144" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D144" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B145" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C145" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D145" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B146" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C146" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D146" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>493</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>494</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B147" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C147" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D147" t="s">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="E147" t="s">
-        <v>505</v>
+        <v>268</v>
       </c>
       <c r="F147" t="s">
-        <v>506</v>
+        <v>269</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>107</v>
-      </c>
-      <c r="B148">
-        <v>2</v>
-      </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-      <c r="E148">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F148">
-        <v>0.14499999999999999</v>
+        <v>199</v>
+      </c>
+      <c r="B148" t="s">
+        <v>232</v>
+      </c>
+      <c r="C148" t="s">
+        <v>233</v>
+      </c>
+      <c r="D148" t="s">
+        <v>526</v>
+      </c>
+      <c r="E148" t="s">
+        <v>270</v>
+      </c>
+      <c r="F148" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="B149" t="s">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="C149" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="D149" t="s">
-        <v>229</v>
+        <v>526</v>
       </c>
       <c r="E149" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="F149" t="s">
-        <v>28</v>
+        <v>273</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="B150" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="C150" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="D150" t="s">
-        <v>335</v>
+        <v>526</v>
       </c>
       <c r="E150" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F150" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="B151" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="C151" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="D151" t="s">
-        <v>335</v>
+        <v>526</v>
       </c>
       <c r="E151" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F151" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="B152" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="C152" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="D152" t="s">
-        <v>335</v>
+        <v>526</v>
       </c>
       <c r="E152" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="F152" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="B153" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="C153" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="D153" t="s">
-        <v>335</v>
+        <v>526</v>
       </c>
       <c r="E153" t="s">
-        <v>292</v>
+        <v>495</v>
       </c>
       <c r="F153" t="s">
-        <v>293</v>
+        <v>496</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>113</v>
-      </c>
-      <c r="B154" t="s">
-        <v>283</v>
-      </c>
-      <c r="C154" t="s">
-        <v>284</v>
-      </c>
-      <c r="D154" t="s">
-        <v>335</v>
-      </c>
-      <c r="E154" t="s">
-        <v>294</v>
-      </c>
-      <c r="F154" t="s">
-        <v>295</v>
+        <v>107</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F154">
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B155" t="s">
-        <v>283</v>
+        <v>26</v>
       </c>
       <c r="C155" t="s">
-        <v>284</v>
+        <v>13</v>
       </c>
       <c r="D155" t="s">
-        <v>335</v>
+        <v>527</v>
       </c>
       <c r="E155" t="s">
-        <v>507</v>
+        <v>27</v>
       </c>
       <c r="F155" t="s">
-        <v>508</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>205</v>
+        <v>109</v>
       </c>
       <c r="B156" t="s">
+        <v>280</v>
+      </c>
+      <c r="C156" t="s">
+        <v>281</v>
+      </c>
+      <c r="D156" t="s">
+        <v>528</v>
+      </c>
+      <c r="E156" t="s">
+        <v>282</v>
+      </c>
+      <c r="F156" t="s">
         <v>283</v>
-      </c>
-      <c r="C156" t="s">
-        <v>284</v>
-      </c>
-      <c r="D156" t="s">
-        <v>335</v>
-      </c>
-      <c r="E156" t="s">
-        <v>299</v>
-      </c>
-      <c r="F156" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="B157" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C157" t="s">
+        <v>281</v>
+      </c>
+      <c r="D157" t="s">
+        <v>528</v>
+      </c>
+      <c r="E157" t="s">
         <v>284</v>
       </c>
-      <c r="D157" t="s">
-        <v>335</v>
-      </c>
-      <c r="E157" t="s">
-        <v>301</v>
-      </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="B158" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C158" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D158" t="s">
-        <v>335</v>
+        <v>528</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="B159" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C159" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D159" t="s">
-        <v>335</v>
+        <v>528</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F159" t="s">
-        <v>74</v>
+        <v>289</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="B160" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C160" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D160" t="s">
-        <v>335</v>
+        <v>528</v>
       </c>
       <c r="E160" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="F160" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="B161" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C161" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D161" t="s">
-        <v>335</v>
+        <v>528</v>
       </c>
       <c r="E161" t="s">
-        <v>308</v>
+        <v>497</v>
       </c>
       <c r="F161" t="s">
-        <v>309</v>
+        <v>498</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B162" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C162" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D162" t="s">
-        <v>335</v>
+        <v>528</v>
       </c>
       <c r="E162" t="s">
-        <v>509</v>
+        <v>295</v>
       </c>
       <c r="F162" t="s">
-        <v>510</v>
+        <v>296</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B163" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C163" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D163" t="s">
-        <v>335</v>
+        <v>528</v>
       </c>
       <c r="E163" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="F163" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B164" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C164" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D164" t="s">
-        <v>335</v>
+        <v>528</v>
       </c>
       <c r="E164" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="F164" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B165" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C165" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D165" t="s">
-        <v>335</v>
+        <v>528</v>
       </c>
       <c r="E165" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="F165" t="s">
-        <v>315</v>
+        <v>74</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B166" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C166" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D166" t="s">
-        <v>335</v>
+        <v>528</v>
       </c>
       <c r="E166" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="F166" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B167" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C167" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D167" t="s">
-        <v>335</v>
+        <v>528</v>
       </c>
       <c r="E167" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="F167" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B168" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C168" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D168" t="s">
-        <v>335</v>
+        <v>528</v>
       </c>
       <c r="E168" t="s">
-        <v>320</v>
+        <v>499</v>
       </c>
       <c r="F168" t="s">
-        <v>321</v>
+        <v>500</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B169" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C169" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D169" t="s">
-        <v>335</v>
+        <v>528</v>
       </c>
       <c r="E169" t="s">
-        <v>511</v>
+        <v>306</v>
       </c>
       <c r="F169" t="s">
-        <v>512</v>
+        <v>307</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B170" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C170" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D170" t="s">
-        <v>335</v>
+        <v>528</v>
       </c>
       <c r="E170" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="F170" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B171" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C171" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D171" t="s">
-        <v>335</v>
+        <v>528</v>
       </c>
       <c r="E171" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="F171" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B172" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C172" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D172" t="s">
-        <v>335</v>
+        <v>528</v>
       </c>
       <c r="E172" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="F172" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B173" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C173" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D173" t="s">
-        <v>335</v>
+        <v>528</v>
       </c>
       <c r="E173" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F173" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B174" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C174" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D174" t="s">
-        <v>335</v>
+        <v>528</v>
       </c>
       <c r="E174" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="F174" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B175" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C175" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D175" t="s">
-        <v>335</v>
+        <v>528</v>
       </c>
       <c r="E175" t="s">
-        <v>332</v>
+        <v>501</v>
       </c>
       <c r="F175" t="s">
-        <v>333</v>
+        <v>502</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B176" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C176" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D176" t="s">
-        <v>335</v>
+        <v>528</v>
       </c>
       <c r="E176" t="s">
-        <v>513</v>
+        <v>318</v>
       </c>
       <c r="F176" t="s">
-        <v>514</v>
+        <v>319</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>348</v>
+        <v>220</v>
       </c>
       <c r="B177" t="s">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="C177" t="s">
-        <v>411</v>
+        <v>281</v>
       </c>
       <c r="D177" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="E177" t="s">
-        <v>412</v>
+        <v>320</v>
       </c>
       <c r="F177" t="s">
-        <v>413</v>
+        <v>321</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>349</v>
+        <v>221</v>
       </c>
       <c r="B178" t="s">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="C178" t="s">
-        <v>411</v>
+        <v>281</v>
       </c>
       <c r="D178" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="E178" t="s">
-        <v>414</v>
+        <v>322</v>
       </c>
       <c r="F178" t="s">
-        <v>415</v>
+        <v>323</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>350</v>
+        <v>222</v>
       </c>
       <c r="B179" t="s">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="C179" t="s">
-        <v>411</v>
+        <v>281</v>
       </c>
       <c r="D179" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="E179" t="s">
-        <v>416</v>
+        <v>324</v>
       </c>
       <c r="F179" t="s">
-        <v>417</v>
+        <v>325</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B180" t="s">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="C180" t="s">
-        <v>411</v>
+        <v>281</v>
       </c>
       <c r="D180" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="E180" t="s">
-        <v>418</v>
+        <v>326</v>
       </c>
       <c r="F180" t="s">
-        <v>419</v>
+        <v>327</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>352</v>
+        <v>224</v>
       </c>
       <c r="B181" t="s">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="C181" t="s">
-        <v>411</v>
+        <v>281</v>
       </c>
       <c r="D181" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="E181" t="s">
-        <v>420</v>
+        <v>328</v>
       </c>
       <c r="F181" t="s">
-        <v>421</v>
+        <v>329</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>353</v>
+        <v>225</v>
       </c>
       <c r="B182" t="s">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="C182" t="s">
-        <v>411</v>
+        <v>281</v>
       </c>
       <c r="D182" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="E182" t="s">
-        <v>422</v>
+        <v>503</v>
       </c>
       <c r="F182" t="s">
-        <v>423</v>
+        <v>504</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B183" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C183" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D183" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E183" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="F183" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B184" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C184" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D184" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E184" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="F184" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B185" t="s">
+        <v>404</v>
+      </c>
+      <c r="C185" t="s">
+        <v>405</v>
+      </c>
+      <c r="D185" t="s">
+        <v>458</v>
+      </c>
+      <c r="E185" t="s">
         <v>410</v>
       </c>
-      <c r="C185" t="s">
+      <c r="F185" t="s">
         <v>411</v>
-      </c>
-      <c r="D185" t="s">
-        <v>464</v>
-      </c>
-      <c r="E185" t="s">
-        <v>428</v>
-      </c>
-      <c r="F185" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B186" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C186" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D186" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E186" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="F186" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B187" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C187" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D187" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E187" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="F187" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B188" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C188" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D188" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E188" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="F188" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B189" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C189" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D189" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E189" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="F189" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B190" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C190" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D190" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E190" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="F190" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B191" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C191" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D191" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E191" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="F191" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B192" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C192" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D192" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E192" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F192" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B193" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C193" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D193" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E193" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="F193" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B194" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C194" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D194" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E194" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="F194" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B195" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C195" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D195" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E195" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="F195" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B196" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C196" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D196" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E196" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="F196" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B197" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C197" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D197" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E197" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="F197" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B198" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C198" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D198" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E198" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="F198" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B199" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C199" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D199" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E199" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="F199" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B200" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C200" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D200" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E200" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="F200" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B201" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C201" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D201" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E201" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="F201" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B202" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C202" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D202" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E202" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="F202" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>374</v>
-      </c>
-      <c r="B203">
-        <v>2</v>
-      </c>
-      <c r="D203">
-        <v>1</v>
-      </c>
-      <c r="E203">
-        <v>100</v>
-      </c>
-      <c r="F203">
-        <v>230</v>
+        <v>362</v>
+      </c>
+      <c r="B203" t="s">
+        <v>404</v>
+      </c>
+      <c r="C203" t="s">
+        <v>405</v>
+      </c>
+      <c r="D203" t="s">
+        <v>458</v>
+      </c>
+      <c r="E203" t="s">
+        <v>446</v>
+      </c>
+      <c r="F203" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>375</v>
-      </c>
-      <c r="B204">
-        <v>2</v>
-      </c>
-      <c r="D204">
-        <v>1</v>
-      </c>
-      <c r="E204">
-        <v>103</v>
-      </c>
-      <c r="F204">
-        <v>233</v>
+        <v>363</v>
+      </c>
+      <c r="B204" t="s">
+        <v>404</v>
+      </c>
+      <c r="C204" t="s">
+        <v>405</v>
+      </c>
+      <c r="D204" t="s">
+        <v>458</v>
+      </c>
+      <c r="E204" t="s">
+        <v>448</v>
+      </c>
+      <c r="F204" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>376</v>
-      </c>
-      <c r="B205">
-        <v>2</v>
-      </c>
-      <c r="D205">
-        <v>1</v>
-      </c>
-      <c r="E205">
-        <v>106</v>
-      </c>
-      <c r="F205">
-        <v>236</v>
+        <v>364</v>
+      </c>
+      <c r="B205" t="s">
+        <v>404</v>
+      </c>
+      <c r="C205" t="s">
+        <v>405</v>
+      </c>
+      <c r="D205" t="s">
+        <v>458</v>
+      </c>
+      <c r="E205" t="s">
+        <v>450</v>
+      </c>
+      <c r="F205" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>377</v>
-      </c>
-      <c r="B206">
-        <v>2</v>
-      </c>
-      <c r="D206">
-        <v>1</v>
-      </c>
-      <c r="E206">
-        <v>109</v>
-      </c>
-      <c r="F206">
-        <v>239</v>
+        <v>365</v>
+      </c>
+      <c r="B206" t="s">
+        <v>404</v>
+      </c>
+      <c r="C206" t="s">
+        <v>405</v>
+      </c>
+      <c r="D206" t="s">
+        <v>458</v>
+      </c>
+      <c r="E206" t="s">
+        <v>452</v>
+      </c>
+      <c r="F206" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>378</v>
-      </c>
-      <c r="B207">
-        <v>2</v>
-      </c>
-      <c r="D207">
-        <v>1</v>
-      </c>
-      <c r="E207">
-        <v>112</v>
-      </c>
-      <c r="F207">
-        <v>242</v>
+        <v>366</v>
+      </c>
+      <c r="B207" t="s">
+        <v>404</v>
+      </c>
+      <c r="C207" t="s">
+        <v>405</v>
+      </c>
+      <c r="D207" t="s">
+        <v>458</v>
+      </c>
+      <c r="E207" t="s">
+        <v>454</v>
+      </c>
+      <c r="F207" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>379</v>
-      </c>
-      <c r="B208">
-        <v>2</v>
-      </c>
-      <c r="D208">
-        <v>1</v>
-      </c>
-      <c r="E208">
-        <v>115</v>
-      </c>
-      <c r="F208">
-        <v>245</v>
+        <v>367</v>
+      </c>
+      <c r="B208" t="s">
+        <v>404</v>
+      </c>
+      <c r="C208" t="s">
+        <v>405</v>
+      </c>
+      <c r="D208" t="s">
+        <v>458</v>
+      </c>
+      <c r="E208" t="s">
+        <v>456</v>
+      </c>
+      <c r="F208" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B209">
         <v>2</v>
@@ -6099,15 +6153,15 @@
         <v>1</v>
       </c>
       <c r="E209">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F209">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -6116,15 +6170,15 @@
         <v>1</v>
       </c>
       <c r="E210">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="F210">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -6133,15 +6187,15 @@
         <v>1</v>
       </c>
       <c r="E211">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F211">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B212">
         <v>2</v>
@@ -6150,15 +6204,15 @@
         <v>1</v>
       </c>
       <c r="E212">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F212">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B213">
         <v>2</v>
@@ -6167,15 +6221,15 @@
         <v>1</v>
       </c>
       <c r="E213">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F213">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -6184,15 +6238,15 @@
         <v>1</v>
       </c>
       <c r="E214">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="F214">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B215">
         <v>2</v>
@@ -6201,15 +6255,15 @@
         <v>1</v>
       </c>
       <c r="E215">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="F215">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -6218,15 +6272,15 @@
         <v>1</v>
       </c>
       <c r="E216">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="F216">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B217">
         <v>2</v>
@@ -6235,15 +6289,15 @@
         <v>1</v>
       </c>
       <c r="E217">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="F217">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B218">
         <v>2</v>
@@ -6252,15 +6306,15 @@
         <v>1</v>
       </c>
       <c r="E218">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="F218">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B219">
         <v>2</v>
@@ -6269,15 +6323,15 @@
         <v>1</v>
       </c>
       <c r="E219">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="F219">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B220">
         <v>2</v>
@@ -6286,15 +6340,15 @@
         <v>1</v>
       </c>
       <c r="E220">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F220">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B221">
         <v>2</v>
@@ -6303,15 +6357,15 @@
         <v>1</v>
       </c>
       <c r="E221">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="F221">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -6320,15 +6374,15 @@
         <v>1</v>
       </c>
       <c r="E222">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="F222">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B223">
         <v>2</v>
@@ -6337,15 +6391,15 @@
         <v>1</v>
       </c>
       <c r="E223">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F223">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B224">
         <v>2</v>
@@ -6354,15 +6408,15 @@
         <v>1</v>
       </c>
       <c r="E224">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="F224">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B225">
         <v>2</v>
@@ -6371,15 +6425,15 @@
         <v>1</v>
       </c>
       <c r="E225">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="F225">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B226">
         <v>2</v>
@@ -6388,15 +6442,15 @@
         <v>1</v>
       </c>
       <c r="E226">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="F226">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B227">
         <v>2</v>
@@ -6405,15 +6459,15 @@
         <v>1</v>
       </c>
       <c r="E227">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="F227">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -6422,115 +6476,100 @@
         <v>1</v>
       </c>
       <c r="E228">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="F228">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>34</v>
+        <v>388</v>
       </c>
       <c r="B229">
-        <v>5</v>
-      </c>
-      <c r="C229" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D229">
         <v>1</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>290</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>36</v>
-      </c>
-      <c r="B230" t="s">
-        <v>37</v>
-      </c>
-      <c r="C230" t="s">
-        <v>38</v>
-      </c>
-      <c r="D230" t="s">
-        <v>39</v>
-      </c>
-      <c r="E230" t="s">
-        <v>39</v>
-      </c>
-      <c r="F230" t="s">
-        <v>39</v>
+        <v>389</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>163</v>
+      </c>
+      <c r="F230">
+        <v>293</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>40</v>
-      </c>
-      <c r="B231" t="s">
-        <v>44</v>
-      </c>
-      <c r="C231" t="s">
-        <v>336</v>
-      </c>
-      <c r="D231" t="s">
-        <v>226</v>
-      </c>
-      <c r="E231" t="s">
-        <v>230</v>
-      </c>
-      <c r="F231" t="s">
-        <v>231</v>
+        <v>390</v>
+      </c>
+      <c r="B231">
+        <v>2</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>166</v>
+      </c>
+      <c r="F231">
+        <v>296</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>86</v>
-      </c>
-      <c r="B232" t="s">
-        <v>44</v>
-      </c>
-      <c r="C232" t="s">
-        <v>337</v>
-      </c>
-      <c r="D232" t="s">
-        <v>226</v>
-      </c>
-      <c r="E232" t="s">
-        <v>232</v>
-      </c>
-      <c r="F232" t="s">
-        <v>233</v>
+        <v>391</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>169</v>
+      </c>
+      <c r="F232">
+        <v>299</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>41</v>
-      </c>
-      <c r="B233" t="s">
-        <v>45</v>
-      </c>
-      <c r="C233" t="s">
-        <v>46</v>
-      </c>
-      <c r="D233" t="s">
-        <v>227</v>
-      </c>
-      <c r="E233" t="s">
-        <v>338</v>
-      </c>
-      <c r="F233" t="s">
-        <v>339</v>
+        <v>392</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>172</v>
+      </c>
+      <c r="F233">
+        <v>302</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>47</v>
+        <v>393</v>
       </c>
       <c r="B234">
         <v>2</v>
@@ -6539,106 +6578,115 @@
         <v>1</v>
       </c>
       <c r="E234">
-        <v>9999</v>
+        <v>175</v>
       </c>
       <c r="F234">
-        <v>9999</v>
+        <v>305</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C235" t="s">
+        <v>35</v>
       </c>
       <c r="D235">
         <v>1</v>
       </c>
       <c r="E235">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>9999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B236" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C236" t="s">
-        <v>400</v>
+        <v>38</v>
       </c>
       <c r="D236" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E236" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F236" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>75</v>
-      </c>
-      <c r="B237">
-        <v>8</v>
-      </c>
-      <c r="D237">
-        <v>1</v>
-      </c>
-      <c r="E237">
-        <v>9999</v>
-      </c>
-      <c r="F237">
-        <v>9999</v>
+        <v>40</v>
+      </c>
+      <c r="B237" t="s">
+        <v>44</v>
+      </c>
+      <c r="C237" t="s">
+        <v>330</v>
+      </c>
+      <c r="D237" t="s">
+        <v>226</v>
+      </c>
+      <c r="E237" t="s">
+        <v>228</v>
+      </c>
+      <c r="F237" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>466</v>
-      </c>
-      <c r="B238">
-        <v>12</v>
-      </c>
-      <c r="D238">
-        <v>1</v>
-      </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="B238" t="s">
+        <v>44</v>
+      </c>
+      <c r="C238" t="s">
+        <v>331</v>
+      </c>
+      <c r="D238" t="s">
+        <v>226</v>
+      </c>
+      <c r="E238" t="s">
+        <v>230</v>
+      </c>
+      <c r="F238" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>467</v>
+        <v>41</v>
       </c>
       <c r="B239" t="s">
-        <v>468</v>
+        <v>45</v>
       </c>
       <c r="C239" t="s">
-        <v>400</v>
+        <v>46</v>
       </c>
       <c r="D239" t="s">
-        <v>51</v>
+        <v>227</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>332</v>
       </c>
       <c r="F239" t="s">
-        <v>469</v>
+        <v>333</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>470</v>
+        <v>47</v>
       </c>
       <c r="B240">
         <v>2</v>
@@ -6655,7 +6703,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>482</v>
+        <v>48</v>
       </c>
       <c r="B241">
         <v>8</v>
@@ -6672,362 +6720,470 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>483</v>
-      </c>
-      <c r="B242">
-        <v>5</v>
+        <v>49</v>
+      </c>
+      <c r="B242" t="s">
+        <v>50</v>
       </c>
       <c r="C242" t="s">
-        <v>484</v>
-      </c>
-      <c r="D242">
-        <v>1</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
+        <v>394</v>
+      </c>
+      <c r="D242" t="s">
+        <v>51</v>
+      </c>
+      <c r="E242" t="s">
+        <v>52</v>
+      </c>
+      <c r="F242" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>53</v>
-      </c>
-      <c r="B243" t="s">
-        <v>54</v>
-      </c>
-      <c r="C243" t="s">
-        <v>55</v>
-      </c>
-      <c r="D243" t="s">
-        <v>51</v>
-      </c>
-      <c r="E243" t="s">
-        <v>51</v>
-      </c>
-      <c r="F243" t="s">
-        <v>51</v>
+        <v>75</v>
+      </c>
+      <c r="B243">
+        <v>8</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243">
+        <v>9999</v>
+      </c>
+      <c r="F243">
+        <v>9999</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>56</v>
-      </c>
-      <c r="B244" t="s">
-        <v>57</v>
-      </c>
-      <c r="C244" t="s">
-        <v>58</v>
-      </c>
-      <c r="D244" t="s">
-        <v>59</v>
-      </c>
-      <c r="E244" t="s">
-        <v>59</v>
-      </c>
-      <c r="F244" t="s">
-        <v>59</v>
+        <v>460</v>
+      </c>
+      <c r="B244">
+        <v>12</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>60</v>
+        <v>461</v>
       </c>
       <c r="B245" t="s">
-        <v>61</v>
+        <v>462</v>
       </c>
       <c r="C245" t="s">
-        <v>62</v>
+        <v>394</v>
       </c>
       <c r="D245" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E245" t="s">
-        <v>20</v>
+        <v>463</v>
       </c>
       <c r="F245" t="s">
-        <v>20</v>
+        <v>463</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>63</v>
-      </c>
-      <c r="B246" t="s">
-        <v>64</v>
-      </c>
-      <c r="C246" t="s">
-        <v>65</v>
-      </c>
-      <c r="D246" t="s">
-        <v>66</v>
-      </c>
-      <c r="E246" t="s">
-        <v>66</v>
-      </c>
-      <c r="F246" t="s">
-        <v>66</v>
+        <v>464</v>
+      </c>
+      <c r="B246">
+        <v>2</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>9999</v>
+      </c>
+      <c r="F246">
+        <v>9999</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>67</v>
-      </c>
-      <c r="B247" t="s">
-        <v>68</v>
-      </c>
-      <c r="C247" t="s">
-        <v>69</v>
-      </c>
-      <c r="D247" t="s">
-        <v>70</v>
-      </c>
-      <c r="E247" t="s">
-        <v>70</v>
-      </c>
-      <c r="F247" t="s">
-        <v>70</v>
+        <v>476</v>
+      </c>
+      <c r="B247">
+        <v>8</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>9999</v>
+      </c>
+      <c r="F247">
+        <v>9999</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>71</v>
-      </c>
-      <c r="B248" t="s">
-        <v>72</v>
+        <v>477</v>
+      </c>
+      <c r="B248">
+        <v>5</v>
       </c>
       <c r="C248" t="s">
-        <v>73</v>
-      </c>
-      <c r="D248" t="s">
-        <v>74</v>
-      </c>
-      <c r="E248" t="s">
-        <v>74</v>
-      </c>
-      <c r="F248" t="s">
-        <v>74</v>
+        <v>478</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>76</v>
-      </c>
-      <c r="B249">
-        <v>9</v>
+        <v>53</v>
+      </c>
+      <c r="B249" t="s">
+        <v>54</v>
       </c>
       <c r="C249" t="s">
-        <v>77</v>
-      </c>
-      <c r="D249">
-        <v>1</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="D249" t="s">
+        <v>51</v>
+      </c>
+      <c r="E249" t="s">
+        <v>51</v>
+      </c>
+      <c r="F249" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>78</v>
-      </c>
-      <c r="B250">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="B250" t="s">
+        <v>57</v>
       </c>
       <c r="C250" t="s">
-        <v>79</v>
-      </c>
-      <c r="D250">
-        <v>1</v>
-      </c>
-      <c r="E250">
-        <v>1</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="D250" t="s">
+        <v>59</v>
+      </c>
+      <c r="E250" t="s">
+        <v>59</v>
+      </c>
+      <c r="F250" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>80</v>
-      </c>
-      <c r="B251">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="B251" t="s">
+        <v>61</v>
       </c>
       <c r="C251" t="s">
-        <v>81</v>
-      </c>
-      <c r="D251">
-        <v>1</v>
-      </c>
-      <c r="E251">
-        <v>1</v>
-      </c>
-      <c r="F251">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="D251" t="s">
+        <v>20</v>
+      </c>
+      <c r="E251" t="s">
+        <v>20</v>
+      </c>
+      <c r="F251" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>82</v>
-      </c>
-      <c r="B252">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="B252" t="s">
+        <v>64</v>
       </c>
       <c r="C252" t="s">
-        <v>83</v>
-      </c>
-      <c r="D252">
-        <v>1</v>
-      </c>
-      <c r="E252">
-        <v>1</v>
-      </c>
-      <c r="F252">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="D252" t="s">
+        <v>66</v>
+      </c>
+      <c r="E252" t="s">
+        <v>66</v>
+      </c>
+      <c r="F252" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>84</v>
-      </c>
-      <c r="B253">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="B253" t="s">
+        <v>68</v>
       </c>
       <c r="C253" t="s">
-        <v>85</v>
-      </c>
-      <c r="D253">
-        <v>1</v>
-      </c>
-      <c r="E253">
-        <v>1</v>
-      </c>
-      <c r="F253">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="D253" t="s">
+        <v>70</v>
+      </c>
+      <c r="E253" t="s">
+        <v>70</v>
+      </c>
+      <c r="F253" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B254" t="s">
-        <v>401</v>
+        <v>72</v>
       </c>
       <c r="C254" t="s">
-        <v>402</v>
+        <v>73</v>
       </c>
       <c r="D254" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="E254" t="s">
-        <v>403</v>
+        <v>74</v>
       </c>
       <c r="F254" t="s">
-        <v>403</v>
+        <v>74</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>88</v>
-      </c>
-      <c r="B255" t="s">
-        <v>404</v>
+        <v>76</v>
+      </c>
+      <c r="B255">
+        <v>9</v>
       </c>
       <c r="C255" t="s">
-        <v>405</v>
-      </c>
-      <c r="D255" t="s">
-        <v>66</v>
-      </c>
-      <c r="E255" t="s">
-        <v>406</v>
-      </c>
-      <c r="F255" t="s">
-        <v>406</v>
+        <v>77</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>89</v>
-      </c>
-      <c r="B256" t="s">
-        <v>407</v>
+        <v>78</v>
+      </c>
+      <c r="B256">
+        <v>9</v>
       </c>
       <c r="C256" t="s">
-        <v>408</v>
-      </c>
-      <c r="D256" t="s">
-        <v>70</v>
-      </c>
-      <c r="E256" t="s">
-        <v>409</v>
-      </c>
-      <c r="F256" t="s">
-        <v>409</v>
+        <v>79</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>90</v>
-      </c>
-      <c r="B257" t="s">
-        <v>407</v>
+        <v>80</v>
+      </c>
+      <c r="B257">
+        <v>5</v>
       </c>
       <c r="C257" t="s">
-        <v>408</v>
-      </c>
-      <c r="D257" t="s">
-        <v>70</v>
-      </c>
-      <c r="E257" t="s">
-        <v>409</v>
-      </c>
-      <c r="F257" t="s">
-        <v>409</v>
+        <v>81</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>485</v>
-      </c>
-      <c r="B258" t="s">
-        <v>486</v>
+        <v>82</v>
+      </c>
+      <c r="B258">
+        <v>5</v>
       </c>
       <c r="C258" t="s">
-        <v>487</v>
-      </c>
-      <c r="D258" t="s">
-        <v>74</v>
-      </c>
-      <c r="E258" t="s">
-        <v>488</v>
-      </c>
-      <c r="F258" t="s">
-        <v>488</v>
+        <v>83</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>489</v>
-      </c>
-      <c r="B259" t="s">
-        <v>490</v>
+        <v>84</v>
+      </c>
+      <c r="B259">
+        <v>5</v>
       </c>
       <c r="C259" t="s">
-        <v>491</v>
-      </c>
-      <c r="D259" t="s">
+        <v>85</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>87</v>
+      </c>
+      <c r="B260" t="s">
+        <v>395</v>
+      </c>
+      <c r="C260" t="s">
+        <v>396</v>
+      </c>
+      <c r="D260" t="s">
+        <v>20</v>
+      </c>
+      <c r="E260" t="s">
+        <v>397</v>
+      </c>
+      <c r="F260" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>88</v>
+      </c>
+      <c r="B261" t="s">
+        <v>398</v>
+      </c>
+      <c r="C261" t="s">
+        <v>399</v>
+      </c>
+      <c r="D261" t="s">
+        <v>66</v>
+      </c>
+      <c r="E261" t="s">
+        <v>400</v>
+      </c>
+      <c r="F261" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>89</v>
+      </c>
+      <c r="B262" t="s">
+        <v>401</v>
+      </c>
+      <c r="C262" t="s">
+        <v>402</v>
+      </c>
+      <c r="D262" t="s">
+        <v>70</v>
+      </c>
+      <c r="E262" t="s">
+        <v>403</v>
+      </c>
+      <c r="F262" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>90</v>
+      </c>
+      <c r="B263" t="s">
+        <v>401</v>
+      </c>
+      <c r="C263" t="s">
+        <v>402</v>
+      </c>
+      <c r="D263" t="s">
+        <v>70</v>
+      </c>
+      <c r="E263" t="s">
+        <v>403</v>
+      </c>
+      <c r="F263" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>479</v>
+      </c>
+      <c r="B264" t="s">
+        <v>480</v>
+      </c>
+      <c r="C264" t="s">
+        <v>481</v>
+      </c>
+      <c r="D264" t="s">
+        <v>74</v>
+      </c>
+      <c r="E264" t="s">
+        <v>482</v>
+      </c>
+      <c r="F264" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>483</v>
+      </c>
+      <c r="B265" t="s">
+        <v>484</v>
+      </c>
+      <c r="C265" t="s">
+        <v>485</v>
+      </c>
+      <c r="D265" t="s">
         <v>39</v>
       </c>
-      <c r="E259" t="s">
-        <v>492</v>
-      </c>
-      <c r="F259" t="s">
-        <v>492</v>
+      <c r="E265" t="s">
+        <v>486</v>
+      </c>
+      <c r="F265" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -7840,7 +7996,7 @@
         <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57434163-4960-4100-9689-9010873971E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD27ADA-F400-4C05-BB15-CE26A214ACD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="553">
   <si>
     <t>dropId|String</t>
   </si>
@@ -1620,6 +1620,78 @@
   </si>
   <si>
     <t>1, 1, 0.4, 0.5, 0.25, 0.1, 0.05</t>
+  </si>
+  <si>
+    <t>Dnvuswkdqluw</t>
+  </si>
+  <si>
+    <t>n, n</t>
+  </si>
+  <si>
+    <t>Dnvuswkdqlue</t>
+  </si>
+  <si>
+    <t>n, n, n</t>
+  </si>
+  <si>
+    <t>Dnvuswkdqlur</t>
+  </si>
+  <si>
+    <t>n, n, n, n</t>
+  </si>
+  <si>
+    <t>Dnvuswkdqlut</t>
+  </si>
+  <si>
+    <t>n, n, n, n, n</t>
+  </si>
+  <si>
+    <t>Dnvuswkdqlvw</t>
+  </si>
+  <si>
+    <t>j, j</t>
+  </si>
+  <si>
+    <t>Dnvuswkdqlve</t>
+  </si>
+  <si>
+    <t>j, j, j</t>
+  </si>
+  <si>
+    <t>Dnvuswkdqlvr</t>
+  </si>
+  <si>
+    <t>j, j, j, j</t>
+  </si>
+  <si>
+    <t>Dnvuswkdqlvt</t>
+  </si>
+  <si>
+    <t>j, j, j, j, j</t>
+  </si>
+  <si>
+    <t>Dnvuswkdqlww</t>
+  </si>
+  <si>
+    <t>q, q</t>
+  </si>
+  <si>
+    <t>Dnvuswkdqlwe</t>
+  </si>
+  <si>
+    <t>q, q, q</t>
+  </si>
+  <si>
+    <t>Dnvuswkdqlwr</t>
+  </si>
+  <si>
+    <t>q, q, q, q</t>
+  </si>
+  <si>
+    <t>Dnvuswkdqlwt</t>
+  </si>
+  <si>
+    <t>q, q, q, q, q</t>
   </si>
 </sst>
 </file>
@@ -1983,11 +2055,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F265"/>
+  <dimension ref="A1:F277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7028,161 +7098,401 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>82</v>
-      </c>
-      <c r="B258">
-        <v>5</v>
+        <v>529</v>
+      </c>
+      <c r="B258" t="s">
+        <v>54</v>
       </c>
       <c r="C258" t="s">
-        <v>83</v>
-      </c>
-      <c r="D258">
-        <v>1</v>
-      </c>
-      <c r="E258">
-        <v>1</v>
-      </c>
-      <c r="F258">
-        <v>1</v>
+        <v>530</v>
+      </c>
+      <c r="D258" t="s">
+        <v>51</v>
+      </c>
+      <c r="E258" t="s">
+        <v>51</v>
+      </c>
+      <c r="F258" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>84</v>
-      </c>
-      <c r="B259">
-        <v>5</v>
+        <v>531</v>
+      </c>
+      <c r="B259" t="s">
+        <v>57</v>
       </c>
       <c r="C259" t="s">
-        <v>85</v>
-      </c>
-      <c r="D259">
-        <v>1</v>
-      </c>
-      <c r="E259">
-        <v>1</v>
-      </c>
-      <c r="F259">
-        <v>1</v>
+        <v>532</v>
+      </c>
+      <c r="D259" t="s">
+        <v>59</v>
+      </c>
+      <c r="E259" t="s">
+        <v>59</v>
+      </c>
+      <c r="F259" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>87</v>
+        <v>533</v>
       </c>
       <c r="B260" t="s">
-        <v>395</v>
+        <v>61</v>
       </c>
       <c r="C260" t="s">
-        <v>396</v>
+        <v>534</v>
       </c>
       <c r="D260" t="s">
         <v>20</v>
       </c>
       <c r="E260" t="s">
-        <v>397</v>
+        <v>20</v>
       </c>
       <c r="F260" t="s">
-        <v>397</v>
+        <v>20</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>88</v>
+        <v>535</v>
       </c>
       <c r="B261" t="s">
-        <v>398</v>
+        <v>64</v>
       </c>
       <c r="C261" t="s">
-        <v>399</v>
+        <v>536</v>
       </c>
       <c r="D261" t="s">
         <v>66</v>
       </c>
       <c r="E261" t="s">
-        <v>400</v>
+        <v>66</v>
       </c>
       <c r="F261" t="s">
-        <v>400</v>
+        <v>66</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>89</v>
-      </c>
-      <c r="B262" t="s">
-        <v>401</v>
+        <v>82</v>
+      </c>
+      <c r="B262">
+        <v>5</v>
       </c>
       <c r="C262" t="s">
-        <v>402</v>
-      </c>
-      <c r="D262" t="s">
-        <v>70</v>
-      </c>
-      <c r="E262" t="s">
-        <v>403</v>
-      </c>
-      <c r="F262" t="s">
-        <v>403</v>
+        <v>83</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>90</v>
+        <v>537</v>
       </c>
       <c r="B263" t="s">
-        <v>401</v>
+        <v>54</v>
       </c>
       <c r="C263" t="s">
-        <v>402</v>
+        <v>538</v>
       </c>
       <c r="D263" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E263" t="s">
-        <v>403</v>
+        <v>51</v>
       </c>
       <c r="F263" t="s">
-        <v>403</v>
+        <v>51</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>479</v>
+        <v>539</v>
       </c>
       <c r="B264" t="s">
-        <v>480</v>
+        <v>57</v>
       </c>
       <c r="C264" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="D264" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E264" t="s">
-        <v>482</v>
+        <v>59</v>
       </c>
       <c r="F264" t="s">
-        <v>482</v>
+        <v>59</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
+        <v>541</v>
+      </c>
+      <c r="B265" t="s">
+        <v>61</v>
+      </c>
+      <c r="C265" t="s">
+        <v>542</v>
+      </c>
+      <c r="D265" t="s">
+        <v>20</v>
+      </c>
+      <c r="E265" t="s">
+        <v>20</v>
+      </c>
+      <c r="F265" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>543</v>
+      </c>
+      <c r="B266" t="s">
+        <v>64</v>
+      </c>
+      <c r="C266" t="s">
+        <v>544</v>
+      </c>
+      <c r="D266" t="s">
+        <v>66</v>
+      </c>
+      <c r="E266" t="s">
+        <v>66</v>
+      </c>
+      <c r="F266" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>84</v>
+      </c>
+      <c r="B267">
+        <v>5</v>
+      </c>
+      <c r="C267" t="s">
+        <v>85</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>545</v>
+      </c>
+      <c r="B268" t="s">
+        <v>54</v>
+      </c>
+      <c r="C268" t="s">
+        <v>546</v>
+      </c>
+      <c r="D268" t="s">
+        <v>51</v>
+      </c>
+      <c r="E268" t="s">
+        <v>51</v>
+      </c>
+      <c r="F268" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>547</v>
+      </c>
+      <c r="B269" t="s">
+        <v>57</v>
+      </c>
+      <c r="C269" t="s">
+        <v>548</v>
+      </c>
+      <c r="D269" t="s">
+        <v>59</v>
+      </c>
+      <c r="E269" t="s">
+        <v>59</v>
+      </c>
+      <c r="F269" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>549</v>
+      </c>
+      <c r="B270" t="s">
+        <v>61</v>
+      </c>
+      <c r="C270" t="s">
+        <v>550</v>
+      </c>
+      <c r="D270" t="s">
+        <v>20</v>
+      </c>
+      <c r="E270" t="s">
+        <v>20</v>
+      </c>
+      <c r="F270" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>551</v>
+      </c>
+      <c r="B271" t="s">
+        <v>64</v>
+      </c>
+      <c r="C271" t="s">
+        <v>552</v>
+      </c>
+      <c r="D271" t="s">
+        <v>66</v>
+      </c>
+      <c r="E271" t="s">
+        <v>66</v>
+      </c>
+      <c r="F271" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>87</v>
+      </c>
+      <c r="B272" t="s">
+        <v>395</v>
+      </c>
+      <c r="C272" t="s">
+        <v>396</v>
+      </c>
+      <c r="D272" t="s">
+        <v>20</v>
+      </c>
+      <c r="E272" t="s">
+        <v>397</v>
+      </c>
+      <c r="F272" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>88</v>
+      </c>
+      <c r="B273" t="s">
+        <v>398</v>
+      </c>
+      <c r="C273" t="s">
+        <v>399</v>
+      </c>
+      <c r="D273" t="s">
+        <v>66</v>
+      </c>
+      <c r="E273" t="s">
+        <v>400</v>
+      </c>
+      <c r="F273" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>89</v>
+      </c>
+      <c r="B274" t="s">
+        <v>401</v>
+      </c>
+      <c r="C274" t="s">
+        <v>402</v>
+      </c>
+      <c r="D274" t="s">
+        <v>70</v>
+      </c>
+      <c r="E274" t="s">
+        <v>403</v>
+      </c>
+      <c r="F274" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>90</v>
+      </c>
+      <c r="B275" t="s">
+        <v>401</v>
+      </c>
+      <c r="C275" t="s">
+        <v>402</v>
+      </c>
+      <c r="D275" t="s">
+        <v>70</v>
+      </c>
+      <c r="E275" t="s">
+        <v>403</v>
+      </c>
+      <c r="F275" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>479</v>
+      </c>
+      <c r="B276" t="s">
+        <v>480</v>
+      </c>
+      <c r="C276" t="s">
+        <v>481</v>
+      </c>
+      <c r="D276" t="s">
+        <v>74</v>
+      </c>
+      <c r="E276" t="s">
+        <v>482</v>
+      </c>
+      <c r="F276" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
         <v>483</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B277" t="s">
         <v>484</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C277" t="s">
         <v>485</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D277" t="s">
         <v>39</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E277" t="s">
         <v>486</v>
       </c>
-      <c r="F265" t="s">
+      <c r="F277" t="s">
         <v>486</v>
       </c>
     </row>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD27ADA-F400-4C05-BB15-CE26A214ACD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86B7201-DE81-4C25-BDD0-E7515D9299F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="563">
   <si>
     <t>dropId|String</t>
   </si>
@@ -1692,6 +1692,36 @@
   </si>
   <si>
     <t>q, q, q, q, q</t>
+  </si>
+  <si>
+    <t>Wkdqlq</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Wkdqlw</t>
+  </si>
+  <si>
+    <t>i, i</t>
+  </si>
+  <si>
+    <t>Wkdqle</t>
+  </si>
+  <si>
+    <t>i, i, i</t>
+  </si>
+  <si>
+    <t>Wkdqlr</t>
+  </si>
+  <si>
+    <t>i, i, i, i</t>
+  </si>
+  <si>
+    <t>Wkdqlt</t>
+  </si>
+  <si>
+    <t>i, i, i, i, i</t>
   </si>
 </sst>
 </file>
@@ -2055,7 +2085,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F277"/>
+  <dimension ref="A1:F282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6676,198 +6706,207 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>36</v>
-      </c>
-      <c r="B236" t="s">
-        <v>37</v>
+        <v>553</v>
+      </c>
+      <c r="B236">
+        <v>5</v>
       </c>
       <c r="C236" t="s">
-        <v>38</v>
-      </c>
-      <c r="D236" t="s">
-        <v>39</v>
-      </c>
-      <c r="E236" t="s">
-        <v>39</v>
-      </c>
-      <c r="F236" t="s">
-        <v>39</v>
+        <v>554</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>40</v>
+        <v>555</v>
       </c>
       <c r="B237" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C237" t="s">
-        <v>330</v>
+        <v>556</v>
       </c>
       <c r="D237" t="s">
-        <v>226</v>
+        <v>51</v>
       </c>
       <c r="E237" t="s">
-        <v>228</v>
+        <v>51</v>
       </c>
       <c r="F237" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>86</v>
+        <v>557</v>
       </c>
       <c r="B238" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C238" t="s">
-        <v>331</v>
+        <v>558</v>
       </c>
       <c r="D238" t="s">
-        <v>226</v>
+        <v>59</v>
       </c>
       <c r="E238" t="s">
-        <v>230</v>
+        <v>59</v>
       </c>
       <c r="F238" t="s">
-        <v>231</v>
+        <v>59</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>41</v>
+        <v>559</v>
       </c>
       <c r="B239" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C239" t="s">
-        <v>46</v>
+        <v>560</v>
       </c>
       <c r="D239" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="E239" t="s">
-        <v>332</v>
+        <v>20</v>
       </c>
       <c r="F239" t="s">
-        <v>333</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>47</v>
-      </c>
-      <c r="B240">
-        <v>2</v>
-      </c>
-      <c r="D240">
-        <v>1</v>
-      </c>
-      <c r="E240">
-        <v>9999</v>
-      </c>
-      <c r="F240">
-        <v>9999</v>
+        <v>561</v>
+      </c>
+      <c r="B240" t="s">
+        <v>64</v>
+      </c>
+      <c r="C240" t="s">
+        <v>562</v>
+      </c>
+      <c r="D240" t="s">
+        <v>66</v>
+      </c>
+      <c r="E240" t="s">
+        <v>66</v>
+      </c>
+      <c r="F240" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>48</v>
-      </c>
-      <c r="B241">
-        <v>8</v>
-      </c>
-      <c r="D241">
-        <v>1</v>
-      </c>
-      <c r="E241">
-        <v>9999</v>
-      </c>
-      <c r="F241">
-        <v>9999</v>
+        <v>36</v>
+      </c>
+      <c r="B241" t="s">
+        <v>37</v>
+      </c>
+      <c r="C241" t="s">
+        <v>38</v>
+      </c>
+      <c r="D241" t="s">
+        <v>39</v>
+      </c>
+      <c r="E241" t="s">
+        <v>39</v>
+      </c>
+      <c r="F241" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B242" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C242" t="s">
-        <v>394</v>
+        <v>330</v>
       </c>
       <c r="D242" t="s">
-        <v>51</v>
+        <v>226</v>
       </c>
       <c r="E242" t="s">
-        <v>52</v>
+        <v>228</v>
       </c>
       <c r="F242" t="s">
-        <v>52</v>
+        <v>229</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>75</v>
-      </c>
-      <c r="B243">
-        <v>8</v>
-      </c>
-      <c r="D243">
-        <v>1</v>
-      </c>
-      <c r="E243">
-        <v>9999</v>
-      </c>
-      <c r="F243">
-        <v>9999</v>
+        <v>86</v>
+      </c>
+      <c r="B243" t="s">
+        <v>44</v>
+      </c>
+      <c r="C243" t="s">
+        <v>331</v>
+      </c>
+      <c r="D243" t="s">
+        <v>226</v>
+      </c>
+      <c r="E243" t="s">
+        <v>230</v>
+      </c>
+      <c r="F243" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>460</v>
-      </c>
-      <c r="B244">
-        <v>12</v>
-      </c>
-      <c r="D244">
-        <v>1</v>
-      </c>
-      <c r="E244">
-        <v>1</v>
-      </c>
-      <c r="F244">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="B244" t="s">
+        <v>45</v>
+      </c>
+      <c r="C244" t="s">
+        <v>46</v>
+      </c>
+      <c r="D244" t="s">
+        <v>227</v>
+      </c>
+      <c r="E244" t="s">
+        <v>332</v>
+      </c>
+      <c r="F244" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>461</v>
-      </c>
-      <c r="B245" t="s">
-        <v>462</v>
-      </c>
-      <c r="C245" t="s">
-        <v>394</v>
-      </c>
-      <c r="D245" t="s">
-        <v>51</v>
-      </c>
-      <c r="E245" t="s">
-        <v>463</v>
-      </c>
-      <c r="F245" t="s">
-        <v>463</v>
+        <v>47</v>
+      </c>
+      <c r="B245">
+        <v>2</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>9999</v>
+      </c>
+      <c r="F245">
+        <v>9999</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>464</v>
+        <v>48</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D246">
         <v>1</v>
@@ -6881,310 +6920,301 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>476</v>
-      </c>
-      <c r="B247">
-        <v>8</v>
-      </c>
-      <c r="D247">
-        <v>1</v>
-      </c>
-      <c r="E247">
-        <v>9999</v>
-      </c>
-      <c r="F247">
-        <v>9999</v>
+        <v>49</v>
+      </c>
+      <c r="B247" t="s">
+        <v>50</v>
+      </c>
+      <c r="C247" t="s">
+        <v>394</v>
+      </c>
+      <c r="D247" t="s">
+        <v>51</v>
+      </c>
+      <c r="E247" t="s">
+        <v>52</v>
+      </c>
+      <c r="F247" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>477</v>
+        <v>75</v>
       </c>
       <c r="B248">
-        <v>5</v>
-      </c>
-      <c r="C248" t="s">
-        <v>478</v>
+        <v>8</v>
       </c>
       <c r="D248">
         <v>1</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>53</v>
-      </c>
-      <c r="B249" t="s">
-        <v>54</v>
-      </c>
-      <c r="C249" t="s">
-        <v>55</v>
-      </c>
-      <c r="D249" t="s">
-        <v>51</v>
-      </c>
-      <c r="E249" t="s">
-        <v>51</v>
-      </c>
-      <c r="F249" t="s">
-        <v>51</v>
+        <v>460</v>
+      </c>
+      <c r="B249">
+        <v>12</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>56</v>
+        <v>461</v>
       </c>
       <c r="B250" t="s">
-        <v>57</v>
+        <v>462</v>
       </c>
       <c r="C250" t="s">
-        <v>58</v>
+        <v>394</v>
       </c>
       <c r="D250" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E250" t="s">
-        <v>59</v>
+        <v>463</v>
       </c>
       <c r="F250" t="s">
-        <v>59</v>
+        <v>463</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>60</v>
-      </c>
-      <c r="B251" t="s">
-        <v>61</v>
-      </c>
-      <c r="C251" t="s">
-        <v>62</v>
-      </c>
-      <c r="D251" t="s">
-        <v>20</v>
-      </c>
-      <c r="E251" t="s">
-        <v>20</v>
-      </c>
-      <c r="F251" t="s">
-        <v>20</v>
+        <v>464</v>
+      </c>
+      <c r="B251">
+        <v>2</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251">
+        <v>9999</v>
+      </c>
+      <c r="F251">
+        <v>9999</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>63</v>
-      </c>
-      <c r="B252" t="s">
-        <v>64</v>
-      </c>
-      <c r="C252" t="s">
-        <v>65</v>
-      </c>
-      <c r="D252" t="s">
-        <v>66</v>
-      </c>
-      <c r="E252" t="s">
-        <v>66</v>
-      </c>
-      <c r="F252" t="s">
-        <v>66</v>
+        <v>476</v>
+      </c>
+      <c r="B252">
+        <v>8</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>9999</v>
+      </c>
+      <c r="F252">
+        <v>9999</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>67</v>
-      </c>
-      <c r="B253" t="s">
-        <v>68</v>
+        <v>477</v>
+      </c>
+      <c r="B253">
+        <v>5</v>
       </c>
       <c r="C253" t="s">
-        <v>69</v>
-      </c>
-      <c r="D253" t="s">
-        <v>70</v>
-      </c>
-      <c r="E253" t="s">
-        <v>70</v>
-      </c>
-      <c r="F253" t="s">
-        <v>70</v>
+        <v>478</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B254" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C254" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D254" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="E254" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F254" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>76</v>
-      </c>
-      <c r="B255">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="B255" t="s">
+        <v>57</v>
       </c>
       <c r="C255" t="s">
-        <v>77</v>
-      </c>
-      <c r="D255">
-        <v>1</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="D255" t="s">
+        <v>59</v>
+      </c>
+      <c r="E255" t="s">
+        <v>59</v>
+      </c>
+      <c r="F255" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>78</v>
-      </c>
-      <c r="B256">
-        <v>9</v>
+        <v>60</v>
+      </c>
+      <c r="B256" t="s">
+        <v>61</v>
       </c>
       <c r="C256" t="s">
-        <v>79</v>
-      </c>
-      <c r="D256">
-        <v>1</v>
-      </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="D256" t="s">
+        <v>20</v>
+      </c>
+      <c r="E256" t="s">
+        <v>20</v>
+      </c>
+      <c r="F256" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>80</v>
-      </c>
-      <c r="B257">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="B257" t="s">
+        <v>64</v>
       </c>
       <c r="C257" t="s">
-        <v>81</v>
-      </c>
-      <c r="D257">
-        <v>1</v>
-      </c>
-      <c r="E257">
-        <v>1</v>
-      </c>
-      <c r="F257">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="D257" t="s">
+        <v>66</v>
+      </c>
+      <c r="E257" t="s">
+        <v>66</v>
+      </c>
+      <c r="F257" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>529</v>
+        <v>67</v>
       </c>
       <c r="B258" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C258" t="s">
-        <v>530</v>
+        <v>69</v>
       </c>
       <c r="D258" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E258" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F258" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>531</v>
+        <v>71</v>
       </c>
       <c r="B259" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C259" t="s">
-        <v>532</v>
+        <v>73</v>
       </c>
       <c r="D259" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E259" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F259" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>533</v>
-      </c>
-      <c r="B260" t="s">
-        <v>61</v>
+        <v>76</v>
+      </c>
+      <c r="B260">
+        <v>9</v>
       </c>
       <c r="C260" t="s">
-        <v>534</v>
-      </c>
-      <c r="D260" t="s">
-        <v>20</v>
-      </c>
-      <c r="E260" t="s">
-        <v>20</v>
-      </c>
-      <c r="F260" t="s">
-        <v>20</v>
+        <v>77</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>535</v>
-      </c>
-      <c r="B261" t="s">
-        <v>64</v>
+        <v>78</v>
+      </c>
+      <c r="B261">
+        <v>9</v>
       </c>
       <c r="C261" t="s">
-        <v>536</v>
-      </c>
-      <c r="D261" t="s">
-        <v>66</v>
-      </c>
-      <c r="E261" t="s">
-        <v>66</v>
-      </c>
-      <c r="F261" t="s">
-        <v>66</v>
+        <v>79</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B262">
         <v>5</v>
       </c>
       <c r="C262" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -7198,13 +7228,13 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B263" t="s">
         <v>54</v>
       </c>
       <c r="C263" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="D263" t="s">
         <v>51</v>
@@ -7218,13 +7248,13 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B264" t="s">
         <v>57</v>
       </c>
       <c r="C264" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D264" t="s">
         <v>59</v>
@@ -7238,13 +7268,13 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B265" t="s">
         <v>61</v>
       </c>
       <c r="C265" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D265" t="s">
         <v>20</v>
@@ -7258,13 +7288,13 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B266" t="s">
         <v>64</v>
       </c>
       <c r="C266" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="D266" t="s">
         <v>66</v>
@@ -7278,13 +7308,13 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B267">
         <v>5</v>
       </c>
       <c r="C267" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D267">
         <v>1</v>
@@ -7298,13 +7328,13 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B268" t="s">
         <v>54</v>
       </c>
       <c r="C268" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D268" t="s">
         <v>51</v>
@@ -7318,13 +7348,13 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B269" t="s">
         <v>57</v>
       </c>
       <c r="C269" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D269" t="s">
         <v>59</v>
@@ -7338,13 +7368,13 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B270" t="s">
         <v>61</v>
       </c>
       <c r="C270" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="D270" t="s">
         <v>20</v>
@@ -7358,13 +7388,13 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B271" t="s">
         <v>64</v>
       </c>
       <c r="C271" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D271" t="s">
         <v>66</v>
@@ -7378,121 +7408,221 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>87</v>
-      </c>
-      <c r="B272" t="s">
-        <v>395</v>
+        <v>84</v>
+      </c>
+      <c r="B272">
+        <v>5</v>
       </c>
       <c r="C272" t="s">
-        <v>396</v>
-      </c>
-      <c r="D272" t="s">
-        <v>20</v>
-      </c>
-      <c r="E272" t="s">
-        <v>397</v>
-      </c>
-      <c r="F272" t="s">
-        <v>397</v>
+        <v>85</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>88</v>
+        <v>545</v>
       </c>
       <c r="B273" t="s">
-        <v>398</v>
+        <v>54</v>
       </c>
       <c r="C273" t="s">
-        <v>399</v>
+        <v>546</v>
       </c>
       <c r="D273" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E273" t="s">
-        <v>400</v>
+        <v>51</v>
       </c>
       <c r="F273" t="s">
-        <v>400</v>
+        <v>51</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>89</v>
+        <v>547</v>
       </c>
       <c r="B274" t="s">
-        <v>401</v>
+        <v>57</v>
       </c>
       <c r="C274" t="s">
-        <v>402</v>
+        <v>548</v>
       </c>
       <c r="D274" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E274" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
       <c r="F274" t="s">
-        <v>403</v>
+        <v>59</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>90</v>
+        <v>549</v>
       </c>
       <c r="B275" t="s">
-        <v>401</v>
+        <v>61</v>
       </c>
       <c r="C275" t="s">
-        <v>402</v>
+        <v>550</v>
       </c>
       <c r="D275" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E275" t="s">
-        <v>403</v>
+        <v>20</v>
       </c>
       <c r="F275" t="s">
-        <v>403</v>
+        <v>20</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>479</v>
+        <v>551</v>
       </c>
       <c r="B276" t="s">
-        <v>480</v>
+        <v>64</v>
       </c>
       <c r="C276" t="s">
-        <v>481</v>
+        <v>552</v>
       </c>
       <c r="D276" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E276" t="s">
-        <v>482</v>
+        <v>66</v>
       </c>
       <c r="F276" t="s">
-        <v>482</v>
+        <v>66</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
+        <v>87</v>
+      </c>
+      <c r="B277" t="s">
+        <v>395</v>
+      </c>
+      <c r="C277" t="s">
+        <v>396</v>
+      </c>
+      <c r="D277" t="s">
+        <v>20</v>
+      </c>
+      <c r="E277" t="s">
+        <v>397</v>
+      </c>
+      <c r="F277" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>88</v>
+      </c>
+      <c r="B278" t="s">
+        <v>398</v>
+      </c>
+      <c r="C278" t="s">
+        <v>399</v>
+      </c>
+      <c r="D278" t="s">
+        <v>66</v>
+      </c>
+      <c r="E278" t="s">
+        <v>400</v>
+      </c>
+      <c r="F278" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>89</v>
+      </c>
+      <c r="B279" t="s">
+        <v>401</v>
+      </c>
+      <c r="C279" t="s">
+        <v>402</v>
+      </c>
+      <c r="D279" t="s">
+        <v>70</v>
+      </c>
+      <c r="E279" t="s">
+        <v>403</v>
+      </c>
+      <c r="F279" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>90</v>
+      </c>
+      <c r="B280" t="s">
+        <v>401</v>
+      </c>
+      <c r="C280" t="s">
+        <v>402</v>
+      </c>
+      <c r="D280" t="s">
+        <v>70</v>
+      </c>
+      <c r="E280" t="s">
+        <v>403</v>
+      </c>
+      <c r="F280" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>479</v>
+      </c>
+      <c r="B281" t="s">
+        <v>480</v>
+      </c>
+      <c r="C281" t="s">
+        <v>481</v>
+      </c>
+      <c r="D281" t="s">
+        <v>74</v>
+      </c>
+      <c r="E281" t="s">
+        <v>482</v>
+      </c>
+      <c r="F281" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
         <v>483</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B282" t="s">
         <v>484</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C282" t="s">
         <v>485</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D282" t="s">
         <v>39</v>
       </c>
-      <c r="E277" t="s">
+      <c r="E282" t="s">
         <v>486</v>
       </c>
-      <c r="F277" t="s">
+      <c r="F282" t="s">
         <v>486</v>
       </c>
     </row>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86B7201-DE81-4C25-BDD0-E7515D9299F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5317D2CB-D901-417D-B3C7-3D7A6F134EF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
   <sheets>
     <sheet name="DropTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="565">
   <si>
     <t>dropId|String</t>
   </si>
@@ -1722,6 +1722,12 @@
   </si>
   <si>
     <t>i, i, i, i, i</t>
+  </si>
+  <si>
+    <t>Zoflrfh</t>
+  </si>
+  <si>
+    <t>, , , , , , t, t</t>
   </si>
 </sst>
 </file>
@@ -2085,9 +2091,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA9DE39-B717-40A9-BC21-70CAE1ED14B8}">
-  <dimension ref="A1:F282"/>
+  <dimension ref="A1:F283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6886,27 +6894,30 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>47</v>
-      </c>
-      <c r="B245">
-        <v>2</v>
-      </c>
-      <c r="D245">
-        <v>1</v>
-      </c>
-      <c r="E245">
-        <v>9999</v>
-      </c>
-      <c r="F245">
-        <v>9999</v>
+        <v>563</v>
+      </c>
+      <c r="B245" t="s">
+        <v>45</v>
+      </c>
+      <c r="C245" t="s">
+        <v>564</v>
+      </c>
+      <c r="D245" t="s">
+        <v>227</v>
+      </c>
+      <c r="E245" t="s">
+        <v>332</v>
+      </c>
+      <c r="F245" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B246">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D246">
         <v>1</v>
@@ -6920,101 +6931,101 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>49</v>
-      </c>
-      <c r="B247" t="s">
-        <v>50</v>
-      </c>
-      <c r="C247" t="s">
-        <v>394</v>
-      </c>
-      <c r="D247" t="s">
-        <v>51</v>
-      </c>
-      <c r="E247" t="s">
-        <v>52</v>
-      </c>
-      <c r="F247" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="B247">
+        <v>8</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>9999</v>
+      </c>
+      <c r="F247">
+        <v>9999</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>75</v>
-      </c>
-      <c r="B248">
-        <v>8</v>
-      </c>
-      <c r="D248">
-        <v>1</v>
-      </c>
-      <c r="E248">
-        <v>9999</v>
-      </c>
-      <c r="F248">
-        <v>9999</v>
+        <v>49</v>
+      </c>
+      <c r="B248" t="s">
+        <v>50</v>
+      </c>
+      <c r="C248" t="s">
+        <v>394</v>
+      </c>
+      <c r="D248" t="s">
+        <v>51</v>
+      </c>
+      <c r="E248" t="s">
+        <v>52</v>
+      </c>
+      <c r="F248" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>460</v>
+        <v>75</v>
       </c>
       <c r="B249">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D249">
         <v>1</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>461</v>
-      </c>
-      <c r="B250" t="s">
-        <v>462</v>
-      </c>
-      <c r="C250" t="s">
-        <v>394</v>
-      </c>
-      <c r="D250" t="s">
-        <v>51</v>
-      </c>
-      <c r="E250" t="s">
-        <v>463</v>
-      </c>
-      <c r="F250" t="s">
-        <v>463</v>
+        <v>460</v>
+      </c>
+      <c r="B250">
+        <v>12</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>464</v>
-      </c>
-      <c r="B251">
-        <v>2</v>
-      </c>
-      <c r="D251">
-        <v>1</v>
-      </c>
-      <c r="E251">
-        <v>9999</v>
-      </c>
-      <c r="F251">
-        <v>9999</v>
+        <v>461</v>
+      </c>
+      <c r="B251" t="s">
+        <v>462</v>
+      </c>
+      <c r="C251" t="s">
+        <v>394</v>
+      </c>
+      <c r="D251" t="s">
+        <v>51</v>
+      </c>
+      <c r="E251" t="s">
+        <v>463</v>
+      </c>
+      <c r="F251" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B252">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D252">
         <v>1</v>
@@ -7028,173 +7039,170 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B253">
-        <v>5</v>
-      </c>
-      <c r="C253" t="s">
-        <v>478</v>
+        <v>8</v>
       </c>
       <c r="D253">
         <v>1</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>53</v>
-      </c>
-      <c r="B254" t="s">
-        <v>54</v>
+        <v>477</v>
+      </c>
+      <c r="B254">
+        <v>5</v>
       </c>
       <c r="C254" t="s">
-        <v>55</v>
-      </c>
-      <c r="D254" t="s">
-        <v>51</v>
-      </c>
-      <c r="E254" t="s">
-        <v>51</v>
-      </c>
-      <c r="F254" t="s">
-        <v>51</v>
+        <v>478</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B255" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C255" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D255" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E255" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F255" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B256" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C256" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D256" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E256" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F256" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B257" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C257" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D257" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E257" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F257" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B258" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C258" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D258" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E258" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F258" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B259" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C259" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D259" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E259" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F259" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>76</v>
-      </c>
-      <c r="B260">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="B260" t="s">
+        <v>72</v>
       </c>
       <c r="C260" t="s">
-        <v>77</v>
-      </c>
-      <c r="D260">
-        <v>1</v>
-      </c>
-      <c r="E260">
-        <v>1</v>
-      </c>
-      <c r="F260">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="D260" t="s">
+        <v>74</v>
+      </c>
+      <c r="E260" t="s">
+        <v>74</v>
+      </c>
+      <c r="F260" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B261">
         <v>9</v>
       </c>
       <c r="C261" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -7208,13 +7216,13 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B262">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C262" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -7228,347 +7236,347 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>529</v>
-      </c>
-      <c r="B263" t="s">
-        <v>54</v>
+        <v>80</v>
+      </c>
+      <c r="B263">
+        <v>5</v>
       </c>
       <c r="C263" t="s">
-        <v>530</v>
-      </c>
-      <c r="D263" t="s">
-        <v>51</v>
-      </c>
-      <c r="E263" t="s">
-        <v>51</v>
-      </c>
-      <c r="F263" t="s">
-        <v>51</v>
+        <v>81</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B264" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C264" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D264" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E264" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F264" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B265" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C265" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D265" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E265" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F265" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B266" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C266" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D266" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E266" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F266" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>82</v>
-      </c>
-      <c r="B267">
-        <v>5</v>
+        <v>535</v>
+      </c>
+      <c r="B267" t="s">
+        <v>64</v>
       </c>
       <c r="C267" t="s">
-        <v>83</v>
-      </c>
-      <c r="D267">
-        <v>1</v>
-      </c>
-      <c r="E267">
-        <v>1</v>
-      </c>
-      <c r="F267">
-        <v>1</v>
+        <v>536</v>
+      </c>
+      <c r="D267" t="s">
+        <v>66</v>
+      </c>
+      <c r="E267" t="s">
+        <v>66</v>
+      </c>
+      <c r="F267" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>537</v>
-      </c>
-      <c r="B268" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="B268">
+        <v>5</v>
       </c>
       <c r="C268" t="s">
-        <v>538</v>
-      </c>
-      <c r="D268" t="s">
-        <v>51</v>
-      </c>
-      <c r="E268" t="s">
-        <v>51</v>
-      </c>
-      <c r="F268" t="s">
-        <v>51</v>
+        <v>83</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B269" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C269" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D269" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E269" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F269" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B270" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C270" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D270" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E270" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F270" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B271" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C271" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D271" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E271" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F271" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>84</v>
-      </c>
-      <c r="B272">
-        <v>5</v>
+        <v>543</v>
+      </c>
+      <c r="B272" t="s">
+        <v>64</v>
       </c>
       <c r="C272" t="s">
-        <v>85</v>
-      </c>
-      <c r="D272">
-        <v>1</v>
-      </c>
-      <c r="E272">
-        <v>1</v>
-      </c>
-      <c r="F272">
-        <v>1</v>
+        <v>544</v>
+      </c>
+      <c r="D272" t="s">
+        <v>66</v>
+      </c>
+      <c r="E272" t="s">
+        <v>66</v>
+      </c>
+      <c r="F272" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>545</v>
-      </c>
-      <c r="B273" t="s">
-        <v>54</v>
+        <v>84</v>
+      </c>
+      <c r="B273">
+        <v>5</v>
       </c>
       <c r="C273" t="s">
-        <v>546</v>
-      </c>
-      <c r="D273" t="s">
-        <v>51</v>
-      </c>
-      <c r="E273" t="s">
-        <v>51</v>
-      </c>
-      <c r="F273" t="s">
-        <v>51</v>
+        <v>85</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B274" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C274" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D274" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E274" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F274" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B275" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C275" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D275" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E275" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F275" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B276" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C276" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D276" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E276" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F276" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>87</v>
+        <v>551</v>
       </c>
       <c r="B277" t="s">
-        <v>395</v>
+        <v>64</v>
       </c>
       <c r="C277" t="s">
-        <v>396</v>
+        <v>552</v>
       </c>
       <c r="D277" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E277" t="s">
-        <v>397</v>
+        <v>66</v>
       </c>
       <c r="F277" t="s">
-        <v>397</v>
+        <v>66</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B278" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C278" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D278" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E278" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F278" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B279" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C279" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D279" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E279" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F279" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B280" t="s">
         <v>401</v>
@@ -7588,41 +7596,61 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>479</v>
+        <v>90</v>
       </c>
       <c r="B281" t="s">
-        <v>480</v>
+        <v>401</v>
       </c>
       <c r="C281" t="s">
-        <v>481</v>
+        <v>402</v>
       </c>
       <c r="D281" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E281" t="s">
-        <v>482</v>
+        <v>403</v>
       </c>
       <c r="F281" t="s">
-        <v>482</v>
+        <v>403</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
+        <v>479</v>
+      </c>
+      <c r="B282" t="s">
+        <v>480</v>
+      </c>
+      <c r="C282" t="s">
+        <v>481</v>
+      </c>
+      <c r="D282" t="s">
+        <v>74</v>
+      </c>
+      <c r="E282" t="s">
+        <v>482</v>
+      </c>
+      <c r="F282" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
         <v>483</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B283" t="s">
         <v>484</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C283" t="s">
         <v>485</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D283" t="s">
         <v>39</v>
       </c>
-      <c r="E282" t="s">
+      <c r="E283" t="s">
         <v>486</v>
       </c>
-      <c r="F282" t="s">
+      <c r="F283" t="s">
         <v>486</v>
       </c>
     </row>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5317D2CB-D901-417D-B3C7-3D7A6F134EF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A6D7FB-B2E5-4848-9894-82248FEC4161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -1727,7 +1727,7 @@
     <t>Zoflrfh</t>
   </si>
   <si>
-    <t>, , , , , , t, t</t>
+    <t>m, m, m, m, m, m, t, t</t>
   </si>
 </sst>
 </file>

--- a/Excel/Drop.xlsx
+++ b/Excel/Drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A6D7FB-B2E5-4848-9894-82248FEC4161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59601130-1C78-47C4-947D-30046A6E66C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B53FE973-D001-484E-B693-7C0DF00F159C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="562">
   <si>
     <t>dropId|String</t>
   </si>
@@ -1227,15 +1227,6 @@
   </si>
   <si>
     <t>9, 9, 1, 1</t>
-  </si>
-  <si>
-    <t>2, 2, 5, 5, 5</t>
-  </si>
-  <si>
-    <t>, , k, k, k</t>
-  </si>
-  <si>
-    <t>9, 9, 1, 1, 1</t>
   </si>
   <si>
     <t>2, 2, 5, 5, 5, 5</t>
@@ -2144,47 +2135,47 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D3" t="s">
         <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B4" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D4" t="s">
         <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -2201,47 +2192,47 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D6" t="s">
         <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F6" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D7" t="s">
         <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -2867,7 +2858,7 @@
         <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E39" t="s">
         <v>24</v>
@@ -2887,7 +2878,7 @@
         <v>233</v>
       </c>
       <c r="D40" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E40" t="s">
         <v>234</v>
@@ -2907,7 +2898,7 @@
         <v>233</v>
       </c>
       <c r="D41" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E41" t="s">
         <v>236</v>
@@ -2927,7 +2918,7 @@
         <v>233</v>
       </c>
       <c r="D42" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E42" t="s">
         <v>238</v>
@@ -2947,7 +2938,7 @@
         <v>233</v>
       </c>
       <c r="D43" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E43" t="s">
         <v>240</v>
@@ -2967,7 +2958,7 @@
         <v>233</v>
       </c>
       <c r="D44" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E44" t="s">
         <v>242</v>
@@ -2981,19 +2972,19 @@
         <v>5007</v>
       </c>
       <c r="B45" t="s">
+        <v>462</v>
+      </c>
+      <c r="C45" t="s">
+        <v>463</v>
+      </c>
+      <c r="D45" t="s">
+        <v>464</v>
+      </c>
+      <c r="E45" t="s">
         <v>465</v>
       </c>
-      <c r="C45" t="s">
+      <c r="F45" t="s">
         <v>466</v>
-      </c>
-      <c r="D45" t="s">
-        <v>467</v>
-      </c>
-      <c r="E45" t="s">
-        <v>468</v>
-      </c>
-      <c r="F45" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -3007,7 +2998,7 @@
         <v>233</v>
       </c>
       <c r="D46" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E46" t="s">
         <v>244</v>
@@ -3027,7 +3018,7 @@
         <v>233</v>
       </c>
       <c r="D47" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E47" t="s">
         <v>246</v>
@@ -3047,7 +3038,7 @@
         <v>233</v>
       </c>
       <c r="D48" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E48" t="s">
         <v>248</v>
@@ -3067,7 +3058,7 @@
         <v>233</v>
       </c>
       <c r="D49" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E49" t="s">
         <v>250</v>
@@ -3087,7 +3078,7 @@
         <v>233</v>
       </c>
       <c r="D50" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E50" t="s">
         <v>252</v>
@@ -3107,7 +3098,7 @@
         <v>233</v>
       </c>
       <c r="D51" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E51" t="s">
         <v>254</v>
@@ -3121,19 +3112,19 @@
         <v>5014</v>
       </c>
       <c r="B52" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C52" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D52" t="s">
+        <v>464</v>
+      </c>
+      <c r="E52" t="s">
         <v>467</v>
       </c>
-      <c r="E52" t="s">
-        <v>470</v>
-      </c>
       <c r="F52" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -3147,7 +3138,7 @@
         <v>233</v>
       </c>
       <c r="D53" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E53" t="s">
         <v>256</v>
@@ -3167,7 +3158,7 @@
         <v>233</v>
       </c>
       <c r="D54" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E54" t="s">
         <v>258</v>
@@ -3187,7 +3178,7 @@
         <v>233</v>
       </c>
       <c r="D55" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E55" t="s">
         <v>260</v>
@@ -3207,7 +3198,7 @@
         <v>233</v>
       </c>
       <c r="D56" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E56" t="s">
         <v>262</v>
@@ -3227,7 +3218,7 @@
         <v>233</v>
       </c>
       <c r="D57" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E57" t="s">
         <v>264</v>
@@ -3247,7 +3238,7 @@
         <v>233</v>
       </c>
       <c r="D58" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E58" t="s">
         <v>266</v>
@@ -3261,19 +3252,19 @@
         <v>5021</v>
       </c>
       <c r="B59" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C59" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D59" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E59" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F59" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -3287,7 +3278,7 @@
         <v>233</v>
       </c>
       <c r="D60" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E60" t="s">
         <v>268</v>
@@ -3307,7 +3298,7 @@
         <v>233</v>
       </c>
       <c r="D61" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E61" t="s">
         <v>270</v>
@@ -3327,7 +3318,7 @@
         <v>233</v>
       </c>
       <c r="D62" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E62" t="s">
         <v>272</v>
@@ -3347,7 +3338,7 @@
         <v>233</v>
       </c>
       <c r="D63" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E63" t="s">
         <v>274</v>
@@ -3367,7 +3358,7 @@
         <v>233</v>
       </c>
       <c r="D64" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E64" t="s">
         <v>276</v>
@@ -3387,7 +3378,7 @@
         <v>233</v>
       </c>
       <c r="D65" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E65" t="s">
         <v>278</v>
@@ -3401,19 +3392,19 @@
         <v>5028</v>
       </c>
       <c r="B66" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C66" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D66" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E66" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F66" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -3444,7 +3435,7 @@
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E68" t="s">
         <v>27</v>
@@ -3464,7 +3455,7 @@
         <v>281</v>
       </c>
       <c r="D69" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E69" t="s">
         <v>282</v>
@@ -3484,7 +3475,7 @@
         <v>281</v>
       </c>
       <c r="D70" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E70" t="s">
         <v>284</v>
@@ -3504,7 +3495,7 @@
         <v>281</v>
       </c>
       <c r="D71" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E71" t="s">
         <v>286</v>
@@ -3524,7 +3515,7 @@
         <v>281</v>
       </c>
       <c r="D72" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E72" t="s">
         <v>288</v>
@@ -3544,7 +3535,7 @@
         <v>281</v>
       </c>
       <c r="D73" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E73" t="s">
         <v>290</v>
@@ -3584,7 +3575,7 @@
         <v>281</v>
       </c>
       <c r="D75" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E75" t="s">
         <v>295</v>
@@ -3604,7 +3595,7 @@
         <v>281</v>
       </c>
       <c r="D76" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E76" t="s">
         <v>297</v>
@@ -3624,7 +3615,7 @@
         <v>281</v>
       </c>
       <c r="D77" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E77" t="s">
         <v>299</v>
@@ -3644,7 +3635,7 @@
         <v>281</v>
       </c>
       <c r="D78" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E78" t="s">
         <v>301</v>
@@ -3664,7 +3655,7 @@
         <v>281</v>
       </c>
       <c r="D79" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E79" t="s">
         <v>302</v>
@@ -3684,7 +3675,7 @@
         <v>281</v>
       </c>
       <c r="D80" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E80" t="s">
         <v>304</v>
@@ -3724,7 +3715,7 @@
         <v>281</v>
       </c>
       <c r="D82" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E82" t="s">
         <v>306</v>
@@ -3744,7 +3735,7 @@
         <v>281</v>
       </c>
       <c r="D83" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E83" t="s">
         <v>308</v>
@@ -3764,7 +3755,7 @@
         <v>281</v>
       </c>
       <c r="D84" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E84" t="s">
         <v>310</v>
@@ -3784,7 +3775,7 @@
         <v>281</v>
       </c>
       <c r="D85" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E85" t="s">
         <v>312</v>
@@ -3804,7 +3795,7 @@
         <v>281</v>
       </c>
       <c r="D86" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E86" t="s">
         <v>314</v>
@@ -3824,7 +3815,7 @@
         <v>281</v>
       </c>
       <c r="D87" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E87" t="s">
         <v>316</v>
@@ -3864,7 +3855,7 @@
         <v>281</v>
       </c>
       <c r="D89" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E89" t="s">
         <v>318</v>
@@ -3884,7 +3875,7 @@
         <v>281</v>
       </c>
       <c r="D90" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E90" t="s">
         <v>320</v>
@@ -3904,7 +3895,7 @@
         <v>281</v>
       </c>
       <c r="D91" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E91" t="s">
         <v>322</v>
@@ -3924,7 +3915,7 @@
         <v>281</v>
       </c>
       <c r="D92" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E92" t="s">
         <v>324</v>
@@ -3944,7 +3935,7 @@
         <v>281</v>
       </c>
       <c r="D93" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E93" t="s">
         <v>326</v>
@@ -3964,7 +3955,7 @@
         <v>281</v>
       </c>
       <c r="D94" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E94" t="s">
         <v>328</v>
@@ -4604,7 +4595,7 @@
         <v>33</v>
       </c>
       <c r="D126" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E126" t="s">
         <v>24</v>
@@ -4624,7 +4615,7 @@
         <v>233</v>
       </c>
       <c r="D127" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E127" t="s">
         <v>234</v>
@@ -4644,7 +4635,7 @@
         <v>233</v>
       </c>
       <c r="D128" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E128" t="s">
         <v>236</v>
@@ -4664,7 +4655,7 @@
         <v>233</v>
       </c>
       <c r="D129" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E129" t="s">
         <v>238</v>
@@ -4684,7 +4675,7 @@
         <v>233</v>
       </c>
       <c r="D130" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E130" t="s">
         <v>240</v>
@@ -4704,7 +4695,7 @@
         <v>233</v>
       </c>
       <c r="D131" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E131" t="s">
         <v>242</v>
@@ -4724,13 +4715,13 @@
         <v>233</v>
       </c>
       <c r="D132" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E132" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F132" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -4744,7 +4735,7 @@
         <v>233</v>
       </c>
       <c r="D133" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E133" t="s">
         <v>244</v>
@@ -4764,7 +4755,7 @@
         <v>233</v>
       </c>
       <c r="D134" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E134" t="s">
         <v>246</v>
@@ -4784,7 +4775,7 @@
         <v>233</v>
       </c>
       <c r="D135" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E135" t="s">
         <v>248</v>
@@ -4804,7 +4795,7 @@
         <v>233</v>
       </c>
       <c r="D136" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E136" t="s">
         <v>250</v>
@@ -4824,7 +4815,7 @@
         <v>233</v>
       </c>
       <c r="D137" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E137" t="s">
         <v>252</v>
@@ -4844,7 +4835,7 @@
         <v>233</v>
       </c>
       <c r="D138" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E138" t="s">
         <v>254</v>
@@ -4864,13 +4855,13 @@
         <v>233</v>
       </c>
       <c r="D139" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E139" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F139" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -4884,7 +4875,7 @@
         <v>233</v>
       </c>
       <c r="D140" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E140" t="s">
         <v>256</v>
@@ -4904,7 +4895,7 @@
         <v>233</v>
       </c>
       <c r="D141" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E141" t="s">
         <v>258</v>
@@ -4924,7 +4915,7 @@
         <v>233</v>
       </c>
       <c r="D142" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E142" t="s">
         <v>260</v>
@@ -4944,7 +4935,7 @@
         <v>233</v>
       </c>
       <c r="D143" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E143" t="s">
         <v>262</v>
@@ -4964,7 +4955,7 @@
         <v>233</v>
       </c>
       <c r="D144" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E144" t="s">
         <v>264</v>
@@ -4984,7 +4975,7 @@
         <v>233</v>
       </c>
       <c r="D145" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E145" t="s">
         <v>266</v>
@@ -5004,13 +4995,13 @@
         <v>233</v>
       </c>
       <c r="D146" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E146" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F146" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -5024,7 +5015,7 @@
         <v>233</v>
       </c>
       <c r="D147" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E147" t="s">
         <v>268</v>
@@ -5044,7 +5035,7 @@
         <v>233</v>
       </c>
       <c r="D148" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E148" t="s">
         <v>270</v>
@@ -5064,7 +5055,7 @@
         <v>233</v>
       </c>
       <c r="D149" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E149" t="s">
         <v>272</v>
@@ -5084,7 +5075,7 @@
         <v>233</v>
       </c>
       <c r="D150" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E150" t="s">
         <v>274</v>
@@ -5104,7 +5095,7 @@
         <v>233</v>
       </c>
       <c r="D151" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E151" t="s">
         <v>276</v>
@@ -5124,7 +5115,7 @@
         <v>233</v>
       </c>
       <c r="D152" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E152" t="s">
         <v>278</v>
@@ -5144,13 +5135,13 @@
         <v>233</v>
       </c>
       <c r="D153" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E153" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F153" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -5181,7 +5172,7 @@
         <v>13</v>
       </c>
       <c r="D155" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E155" t="s">
         <v>27</v>
@@ -5201,7 +5192,7 @@
         <v>281</v>
       </c>
       <c r="D156" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E156" t="s">
         <v>282</v>
@@ -5221,7 +5212,7 @@
         <v>281</v>
       </c>
       <c r="D157" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E157" t="s">
         <v>284</v>
@@ -5241,7 +5232,7 @@
         <v>281</v>
       </c>
       <c r="D158" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E158" t="s">
         <v>286</v>
@@ -5261,7 +5252,7 @@
         <v>281</v>
       </c>
       <c r="D159" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E159" t="s">
         <v>288</v>
@@ -5281,7 +5272,7 @@
         <v>281</v>
       </c>
       <c r="D160" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E160" t="s">
         <v>290</v>
@@ -5301,13 +5292,13 @@
         <v>281</v>
       </c>
       <c r="D161" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E161" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F161" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -5321,7 +5312,7 @@
         <v>281</v>
       </c>
       <c r="D162" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E162" t="s">
         <v>295</v>
@@ -5341,7 +5332,7 @@
         <v>281</v>
       </c>
       <c r="D163" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E163" t="s">
         <v>297</v>
@@ -5361,7 +5352,7 @@
         <v>281</v>
       </c>
       <c r="D164" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E164" t="s">
         <v>299</v>
@@ -5381,7 +5372,7 @@
         <v>281</v>
       </c>
       <c r="D165" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E165" t="s">
         <v>301</v>
@@ -5401,7 +5392,7 @@
         <v>281</v>
       </c>
       <c r="D166" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E166" t="s">
         <v>302</v>
@@ -5421,7 +5412,7 @@
         <v>281</v>
       </c>
       <c r="D167" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E167" t="s">
         <v>304</v>
@@ -5441,13 +5432,13 @@
         <v>281</v>
       </c>
       <c r="D168" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E168" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F168" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -5461,7 +5452,7 @@
         <v>281</v>
       </c>
       <c r="D169" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E169" t="s">
         <v>306</v>
@@ -5481,7 +5472,7 @@
         <v>281</v>
       </c>
       <c r="D170" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E170" t="s">
         <v>308</v>
@@ -5501,7 +5492,7 @@
         <v>281</v>
       </c>
       <c r="D171" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E171" t="s">
         <v>310</v>
@@ -5521,7 +5512,7 @@
         <v>281</v>
       </c>
       <c r="D172" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E172" t="s">
         <v>312</v>
@@ -5541,7 +5532,7 @@
         <v>281</v>
       </c>
       <c r="D173" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E173" t="s">
         <v>314</v>
@@ -5561,7 +5552,7 @@
         <v>281</v>
       </c>
       <c r="D174" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E174" t="s">
         <v>316</v>
@@ -5581,13 +5572,13 @@
         <v>281</v>
       </c>
       <c r="D175" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E175" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F175" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -5601,7 +5592,7 @@
         <v>281</v>
       </c>
       <c r="D176" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E176" t="s">
         <v>318</v>
@@ -5621,7 +5612,7 @@
         <v>281</v>
       </c>
       <c r="D177" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E177" t="s">
         <v>320</v>
@@ -5641,7 +5632,7 @@
         <v>281</v>
       </c>
       <c r="D178" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E178" t="s">
         <v>322</v>
@@ -5661,7 +5652,7 @@
         <v>281</v>
       </c>
       <c r="D179" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E179" t="s">
         <v>324</v>
@@ -5681,7 +5672,7 @@
         <v>281</v>
       </c>
       <c r="D180" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E180" t="s">
         <v>326</v>
@@ -5701,7 +5692,7 @@
         <v>281</v>
       </c>
       <c r="D181" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E181" t="s">
         <v>328</v>
@@ -5721,13 +5712,13 @@
         <v>281</v>
       </c>
       <c r="D182" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E182" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F182" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -5735,19 +5726,19 @@
         <v>342</v>
       </c>
       <c r="B183" t="s">
+        <v>401</v>
+      </c>
+      <c r="C183" t="s">
+        <v>402</v>
+      </c>
+      <c r="D183" t="s">
+        <v>455</v>
+      </c>
+      <c r="E183" t="s">
+        <v>403</v>
+      </c>
+      <c r="F183" t="s">
         <v>404</v>
-      </c>
-      <c r="C183" t="s">
-        <v>405</v>
-      </c>
-      <c r="D183" t="s">
-        <v>458</v>
-      </c>
-      <c r="E183" t="s">
-        <v>406</v>
-      </c>
-      <c r="F183" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -5755,19 +5746,19 @@
         <v>343</v>
       </c>
       <c r="B184" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C184" t="s">
+        <v>402</v>
+      </c>
+      <c r="D184" t="s">
+        <v>455</v>
+      </c>
+      <c r="E184" t="s">
         <v>405</v>
       </c>
-      <c r="D184" t="s">
-        <v>458</v>
-      </c>
-      <c r="E184" t="s">
-        <v>408</v>
-      </c>
       <c r="F184" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -5775,19 +5766,19 @@
         <v>344</v>
       </c>
       <c r="B185" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C185" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D185" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E185" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F185" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -5795,19 +5786,19 @@
         <v>345</v>
       </c>
       <c r="B186" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C186" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D186" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E186" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F186" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -5815,19 +5806,19 @@
         <v>346</v>
       </c>
       <c r="B187" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C187" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D187" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E187" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F187" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -5835,19 +5826,19 @@
         <v>347</v>
       </c>
       <c r="B188" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C188" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D188" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E188" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F188" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -5855,19 +5846,19 @@
         <v>348</v>
       </c>
       <c r="B189" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C189" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D189" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E189" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F189" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -5875,19 +5866,19 @@
         <v>349</v>
       </c>
       <c r="B190" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C190" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D190" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E190" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F190" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -5895,19 +5886,19 @@
         <v>350</v>
       </c>
       <c r="B191" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C191" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D191" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E191" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F191" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -5915,19 +5906,19 @@
         <v>351</v>
       </c>
       <c r="B192" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C192" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D192" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E192" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F192" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -5935,19 +5926,19 @@
         <v>352</v>
       </c>
       <c r="B193" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C193" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D193" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E193" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F193" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -5955,19 +5946,19 @@
         <v>353</v>
       </c>
       <c r="B194" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C194" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D194" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E194" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F194" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -5975,19 +5966,19 @@
         <v>354</v>
       </c>
       <c r="B195" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C195" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D195" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E195" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F195" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -5995,19 +5986,19 @@
         <v>355</v>
       </c>
       <c r="B196" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C196" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D196" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E196" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F196" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -6015,19 +6006,19 @@
         <v>356</v>
       </c>
       <c r="B197" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C197" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D197" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E197" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F197" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -6035,19 +6026,19 @@
         <v>357</v>
       </c>
       <c r="B198" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C198" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D198" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E198" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F198" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -6055,19 +6046,19 @@
         <v>358</v>
       </c>
       <c r="B199" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C199" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D199" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E199" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F199" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -6075,19 +6066,19 @@
         <v>359</v>
       </c>
       <c r="B200" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C200" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D200" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E200" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F200" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -6095,19 +6086,19 @@
         <v>360</v>
       </c>
